--- a/02-output/stock.xlsx
+++ b/02-output/stock.xlsx
@@ -58,12 +58,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07</t>
-  </si>
-  <si>
-    <t>2023-02-08</t>
-  </si>
-  <si>
     <t>2023-02-09</t>
   </si>
   <si>
@@ -809,6 +803,12 @@
   </si>
   <si>
     <t>2024-02-06</t>
+  </si>
+  <si>
+    <t>2024-02-07</t>
+  </si>
+  <si>
+    <t>2024-02-08</t>
   </si>
 </sst>
 </file>
@@ -1221,19 +1221,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>149.802669729579</v>
+        <v>152.9252313483612</v>
       </c>
       <c r="C2">
-        <v>154.3671526574265</v>
+        <v>153.4721772750098</v>
       </c>
       <c r="D2">
-        <v>149.802669729579</v>
+        <v>149.5839068929872</v>
       </c>
       <c r="E2">
-        <v>153.7903747558594</v>
+        <v>150.0314025878906</v>
       </c>
       <c r="F2">
-        <v>83322600</v>
+        <v>56007100</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1247,22 +1247,22 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>153.0246736775721</v>
+        <v>148.8561615202599</v>
       </c>
       <c r="C3">
-        <v>153.7207797419151</v>
+        <v>150.7285556495188</v>
       </c>
       <c r="D3">
-        <v>150.3297303457898</v>
+        <v>148.6171256922703</v>
       </c>
       <c r="E3">
-        <v>151.0755615234375</v>
+        <v>150.3998870849609</v>
       </c>
       <c r="F3">
-        <v>64120100</v>
+        <v>57450700</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1273,19 +1273,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>152.9252157952582</v>
+        <v>150.3401464530594</v>
       </c>
       <c r="C4">
-        <v>153.4721616662803</v>
+        <v>153.6367713472545</v>
       </c>
       <c r="D4">
-        <v>149.5838916797102</v>
+        <v>150.3102688713165</v>
       </c>
       <c r="E4">
-        <v>150.0313873291016</v>
+        <v>153.2284393310547</v>
       </c>
       <c r="F4">
-        <v>56007100</v>
+        <v>62199000</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>148.8561766224306</v>
+        <v>151.5054161644625</v>
       </c>
       <c r="C5">
-        <v>150.7285709416529</v>
+        <v>153.1487591290235</v>
       </c>
       <c r="D5">
-        <v>148.6171407701897</v>
+        <v>150.2505121528232</v>
       </c>
       <c r="E5">
-        <v>150.39990234375</v>
+        <v>152.5810546875</v>
       </c>
       <c r="F5">
-        <v>57450700</v>
+        <v>61707600</v>
       </c>
       <c r="G5">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1325,19 +1325,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>150.3401464530594</v>
+        <v>152.4914063713325</v>
       </c>
       <c r="C6">
-        <v>153.6367713472545</v>
+        <v>154.8717496977074</v>
       </c>
       <c r="D6">
-        <v>150.3102688713165</v>
+        <v>152.2623398713519</v>
       </c>
       <c r="E6">
-        <v>153.2284393310547</v>
+        <v>154.7024383544922</v>
       </c>
       <c r="F6">
-        <v>62199000</v>
+        <v>65573800</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>151.7051330566406</v>
+        <v>152.1886444091797</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1354,19 +1354,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>151.5054161644625</v>
+        <v>152.8898003768049</v>
       </c>
       <c r="C7">
-        <v>153.1487591290235</v>
+        <v>155.6984146188028</v>
       </c>
       <c r="D7">
-        <v>150.2505121528232</v>
+        <v>152.7304583409665</v>
       </c>
       <c r="E7">
-        <v>152.5810546875</v>
+        <v>153.0890045166016</v>
       </c>
       <c r="F7">
-        <v>61707600</v>
+        <v>68167900</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>151.4632690429688</v>
+        <v>152.8001647949219</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1383,19 +1383,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>152.4914063713325</v>
+        <v>151.7344963627943</v>
       </c>
       <c r="C8">
-        <v>154.8717496977074</v>
+        <v>152.381864216885</v>
       </c>
       <c r="D8">
-        <v>152.2623398713519</v>
+        <v>150.2405565175307</v>
       </c>
       <c r="E8">
-        <v>154.7024383544922</v>
+        <v>151.9336853027344</v>
       </c>
       <c r="F8">
-        <v>65573800</v>
+        <v>59144100</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>152.1886444091797</v>
+        <v>153.1069244384766</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1412,19 +1412,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>152.8898003768049</v>
+        <v>149.5931792577859</v>
       </c>
       <c r="C9">
-        <v>155.6984146188028</v>
+        <v>150.688741265584</v>
       </c>
       <c r="D9">
-        <v>152.7304583409665</v>
+        <v>147.8104176601611</v>
       </c>
       <c r="E9">
-        <v>153.0890045166016</v>
+        <v>147.880126953125</v>
       </c>
       <c r="F9">
-        <v>68167900</v>
+        <v>58867200</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>152.8001678466797</v>
+        <v>152.0372619628906</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1441,19 +1441,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>151.7344963627943</v>
+        <v>148.2685332238393</v>
       </c>
       <c r="C10">
-        <v>152.381864216885</v>
+        <v>149.3441716508003</v>
       </c>
       <c r="D10">
-        <v>150.2405565175307</v>
+        <v>146.5654504456734</v>
       </c>
       <c r="E10">
-        <v>151.9336853027344</v>
+        <v>148.3083801269531</v>
       </c>
       <c r="F10">
-        <v>59144100</v>
+        <v>51011300</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>153.1069244384766</v>
+        <v>151.1827270507812</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1470,19 +1470,19 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>149.5931792577859</v>
+        <v>149.4836167354466</v>
       </c>
       <c r="C11">
-        <v>150.688741265584</v>
+        <v>149.7326067087673</v>
       </c>
       <c r="D11">
-        <v>147.8104176601611</v>
+        <v>146.6451401578769</v>
       </c>
       <c r="E11">
-        <v>147.880126953125</v>
+        <v>148.7964019775391</v>
       </c>
       <c r="F11">
-        <v>58867200</v>
+        <v>48394200</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>152.0372619628906</v>
+        <v>150.0015197753906</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1499,19 +1499,19 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>148.2685484785287</v>
+        <v>146.5156722218279</v>
       </c>
       <c r="C12">
-        <v>149.3441870161573</v>
+        <v>146.5953508433174</v>
       </c>
       <c r="D12">
-        <v>146.5654655251402</v>
+        <v>145.1312884673767</v>
       </c>
       <c r="E12">
-        <v>148.3083953857422</v>
+        <v>146.1172943115234</v>
       </c>
       <c r="F12">
-        <v>51011300</v>
+        <v>55469600</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>151.1827301025391</v>
+        <v>148.607177734375</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1528,19 +1528,19 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>149.4836320647083</v>
+        <v>147.1132446251349</v>
       </c>
       <c r="C13">
-        <v>149.7326220635623</v>
+        <v>148.5673375797008</v>
       </c>
       <c r="D13">
-        <v>146.6451551960581</v>
+        <v>146.8542853230111</v>
       </c>
       <c r="E13">
-        <v>148.7964172363281</v>
+        <v>147.3223876953125</v>
       </c>
       <c r="F13">
-        <v>48394200</v>
+        <v>44998500</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>150.0015258789062</v>
+        <v>147.6849182128906</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1557,19 +1557,19 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>146.5156722218279</v>
+        <v>146.4558917300789</v>
       </c>
       <c r="C14">
-        <v>146.5953508433174</v>
+        <v>148.4776889096971</v>
       </c>
       <c r="D14">
-        <v>145.1312884673767</v>
+        <v>146.2367793581571</v>
       </c>
       <c r="E14">
-        <v>146.1172943115234</v>
+        <v>146.8144378662109</v>
       </c>
       <c r="F14">
-        <v>55469600</v>
+        <v>50547000</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>148.6071838378906</v>
+        <v>147.4717803955078</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1586,19 +1586,19 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>147.1132293880076</v>
+        <v>146.236794214235</v>
       </c>
       <c r="C15">
-        <v>148.5673221919671</v>
+        <v>146.6351720961235</v>
       </c>
       <c r="D15">
-        <v>146.8542701127054</v>
+        <v>144.4241398982157</v>
       </c>
       <c r="E15">
-        <v>147.3223724365234</v>
+        <v>144.7229309082031</v>
       </c>
       <c r="F15">
-        <v>44998500</v>
+        <v>55479000</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>147.6849212646484</v>
+        <v>146.7546905517578</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1615,19 +1615,19 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>146.4558917300789</v>
+        <v>143.7967085506073</v>
       </c>
       <c r="C16">
-        <v>148.4776889096971</v>
+        <v>146.1172971563114</v>
       </c>
       <c r="D16">
-        <v>146.2367793581571</v>
+        <v>143.3186368123625</v>
       </c>
       <c r="E16">
-        <v>146.8144378662109</v>
+        <v>145.3205261230469</v>
       </c>
       <c r="F16">
-        <v>50547000</v>
+        <v>52238100</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>147.4717834472656</v>
+        <v>146.0595153808594</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1644,19 +1644,19 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>146.2367787958325</v>
+        <v>147.4419045950621</v>
       </c>
       <c r="C17">
-        <v>146.6351566357182</v>
+        <v>150.4995089420761</v>
       </c>
       <c r="D17">
-        <v>144.4241246709296</v>
+        <v>146.734781539601</v>
       </c>
       <c r="E17">
-        <v>144.7229156494141</v>
+        <v>150.4198303222656</v>
       </c>
       <c r="F17">
-        <v>55479000</v>
+        <v>70732300</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>146.7546875</v>
+        <v>146.9200225830078</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1673,19 +1673,19 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>143.7966934518205</v>
+        <v>153.1686797014511</v>
       </c>
       <c r="C18">
-        <v>146.1172818138606</v>
+        <v>155.6685489947883</v>
       </c>
       <c r="D18">
-        <v>143.3186217637737</v>
+        <v>152.8400262792541</v>
       </c>
       <c r="E18">
-        <v>145.3205108642578</v>
+        <v>153.2085266113281</v>
       </c>
       <c r="F18">
-        <v>52238100</v>
+        <v>87558000</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>146.0595062255859</v>
+        <v>148.0972503662109</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1702,19 +1702,19 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>147.4418896383578</v>
+        <v>153.0790403331744</v>
       </c>
       <c r="C19">
-        <v>150.4994936752043</v>
+        <v>153.4077089383081</v>
       </c>
       <c r="D19">
-        <v>146.7347666546282</v>
+        <v>150.5194311799463</v>
       </c>
       <c r="E19">
-        <v>150.4198150634766</v>
+        <v>150.9875335693359</v>
       </c>
       <c r="F19">
-        <v>70732300</v>
+        <v>56182000</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>146.9200103759766</v>
+        <v>148.9318695068359</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1731,19 +1731,19 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>153.1686644466306</v>
+        <v>152.1926404632732</v>
       </c>
       <c r="C20">
-        <v>155.6685334909935</v>
+        <v>152.8499776902654</v>
       </c>
       <c r="D20">
-        <v>152.8400110571658</v>
+        <v>151.2166039486485</v>
       </c>
       <c r="E20">
-        <v>153.2085113525391</v>
+        <v>152.2523956298828</v>
       </c>
       <c r="F20">
-        <v>87558000</v>
+        <v>47204800</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>148.0972381591797</v>
+        <v>150.4377624511719</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1760,19 +1760,19 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>153.0790403331744</v>
+        <v>152.9396000232387</v>
       </c>
       <c r="C21">
-        <v>153.4077089383081</v>
+        <v>153.9156364713841</v>
       </c>
       <c r="D21">
-        <v>150.5194311799463</v>
+        <v>149.6230517280108</v>
       </c>
       <c r="E21">
-        <v>150.9875335693359</v>
+        <v>149.9815979003906</v>
       </c>
       <c r="F21">
-        <v>56182000</v>
+        <v>53833600</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1781,7 +1781,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>148.9318572998047</v>
+        <v>151.3699768066406</v>
+      </c>
+      <c r="J21">
+        <v>149.9049140930176</v>
+      </c>
+      <c r="K21">
+        <v>149.6031531600206</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1789,19 +1795,19 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>152.1926404632732</v>
+        <v>149.6031531600206</v>
       </c>
       <c r="C22">
-        <v>152.8499776902654</v>
+        <v>150.3301996799054</v>
       </c>
       <c r="D22">
-        <v>151.2166039486485</v>
+        <v>147.0136511699024</v>
       </c>
       <c r="E22">
-        <v>152.2523956298828</v>
+        <v>147.9000549316406</v>
       </c>
       <c r="F22">
-        <v>47204800</v>
+        <v>68572400</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1810,7 +1816,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>150.4377532958984</v>
+        <v>150.8660217285156</v>
+      </c>
+      <c r="J22">
+        <v>149.7983467102051</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1818,19 +1827,19 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>152.9396000232387</v>
+        <v>147.2128340178069</v>
       </c>
       <c r="C23">
-        <v>153.9156364713841</v>
+        <v>152.5213022393737</v>
       </c>
       <c r="D23">
-        <v>149.6230517280108</v>
+        <v>147.1032778182195</v>
       </c>
       <c r="E23">
-        <v>149.9815979003906</v>
+        <v>149.8620910644531</v>
       </c>
       <c r="F23">
-        <v>53833600</v>
+        <v>84457100</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1839,7 +1848,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>151.369970703125</v>
+        <v>150.1967346191406</v>
+      </c>
+      <c r="J23">
+        <v>149.7714569091797</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1847,19 +1859,19 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>149.6031377255236</v>
+        <v>150.6688057626924</v>
       </c>
       <c r="C24">
-        <v>150.3301841703993</v>
+        <v>152.7802357938056</v>
       </c>
       <c r="D24">
-        <v>147.0136360025632</v>
+        <v>149.4935804275305</v>
       </c>
       <c r="E24">
-        <v>147.9000396728516</v>
+        <v>151.9735107421875</v>
       </c>
       <c r="F24">
-        <v>68572400</v>
+        <v>73695900</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1868,7 +1880,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>150.866015625</v>
+        <v>150.3939300537109</v>
+      </c>
+      <c r="J24">
+        <v>149.7087104797363</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1876,19 +1891,19 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>147.2128190287622</v>
+        <v>150.5791867810266</v>
       </c>
       <c r="C25">
-        <v>152.5212867098267</v>
+        <v>152.6308618397936</v>
       </c>
       <c r="D25">
-        <v>147.1032628403297</v>
+        <v>149.3143133934512</v>
       </c>
       <c r="E25">
-        <v>149.8620758056641</v>
+        <v>152.3719177246094</v>
       </c>
       <c r="F25">
-        <v>84457100</v>
+        <v>77167900</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1897,7 +1912,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>150.196728515625</v>
+        <v>150.4178344726562</v>
+      </c>
+      <c r="J25">
+        <v>149.6982536315918</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1905,19 +1923,19 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>150.6688208904835</v>
+        <v>151.5452578126157</v>
       </c>
       <c r="C26">
-        <v>152.7802511335933</v>
+        <v>155.8278883028247</v>
       </c>
       <c r="D26">
-        <v>149.493595437324</v>
+        <v>151.0273544238332</v>
       </c>
       <c r="E26">
-        <v>151.9735260009766</v>
+        <v>155.2203521728516</v>
       </c>
       <c r="F26">
-        <v>73695900</v>
+        <v>76161100</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1926,7 +1944,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>150.3939270019531</v>
+        <v>151.4655853271484</v>
+      </c>
+      <c r="J26">
+        <v>149.7241493225098</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1934,19 +1955,19 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>150.5791717017648</v>
+        <v>155.449417776278</v>
       </c>
       <c r="C27">
-        <v>152.6308465550734</v>
+        <v>156.1067549354367</v>
       </c>
       <c r="D27">
-        <v>149.314298440856</v>
+        <v>153.656686977273</v>
       </c>
       <c r="E27">
-        <v>152.3719024658203</v>
+        <v>154.373779296875</v>
       </c>
       <c r="F27">
-        <v>77167900</v>
+        <v>98944600</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1955,7 +1976,10 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>150.4178283691406</v>
+        <v>152.7603302001953</v>
+      </c>
+      <c r="J27">
+        <v>149.7883880615234</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1963,19 +1987,19 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>151.5452578126157</v>
+        <v>154.4435106439035</v>
       </c>
       <c r="C28">
-        <v>155.8278883028247</v>
+        <v>157.1824003982757</v>
       </c>
       <c r="D28">
-        <v>151.0273544238332</v>
+        <v>153.527214152592</v>
       </c>
       <c r="E28">
-        <v>155.2203521728516</v>
+        <v>156.7640838623047</v>
       </c>
       <c r="F28">
-        <v>76161100</v>
+        <v>73641400</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1984,7 +2008,10 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>151.4655792236328</v>
+        <v>154.1407287597656</v>
+      </c>
+      <c r="J28">
+        <v>150.029907989502</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1992,19 +2019,19 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>155.449417776278</v>
+        <v>156.6844169965663</v>
       </c>
       <c r="C29">
-        <v>156.1067549354367</v>
+        <v>158.7560001917316</v>
       </c>
       <c r="D29">
-        <v>153.656686977273</v>
+        <v>155.907554301952</v>
       </c>
       <c r="E29">
-        <v>154.373779296875</v>
+        <v>158.6364898681641</v>
       </c>
       <c r="F29">
-        <v>98944600</v>
+        <v>73938300</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2013,7 +2040,10 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>152.7603271484375</v>
+        <v>155.4733245849609</v>
+      </c>
+      <c r="J29">
+        <v>150.5677261352539</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2021,19 +2051,19 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>154.4435106439035</v>
+        <v>158.6564145586104</v>
       </c>
       <c r="C30">
-        <v>157.1824003982757</v>
+        <v>161.4849370174763</v>
       </c>
       <c r="D30">
-        <v>153.527214152592</v>
+        <v>157.1724288417913</v>
       </c>
       <c r="E30">
-        <v>156.7640838623047</v>
+        <v>157.1923522949219</v>
       </c>
       <c r="F30">
-        <v>73641400</v>
+        <v>75701800</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2042,7 +2072,10 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>154.1407287597656</v>
+        <v>156.4374114990234</v>
+      </c>
+      <c r="J30">
+        <v>151.0119247436523</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2050,19 +2083,19 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>156.6844169965663</v>
+        <v>158.1883007091018</v>
       </c>
       <c r="C31">
-        <v>158.7560001917316</v>
+        <v>160.89731264683</v>
       </c>
       <c r="D31">
-        <v>155.907554301952</v>
+        <v>157.0429377929311</v>
       </c>
       <c r="E31">
-        <v>158.6364898681641</v>
+        <v>158.2878875732422</v>
       </c>
       <c r="F31">
-        <v>73938300</v>
+        <v>67622100</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2071,13 +2104,10 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>155.4733215332031</v>
+        <v>157.0509185791016</v>
       </c>
       <c r="J31">
-        <v>151.002214050293</v>
-      </c>
-      <c r="K31">
-        <v>158.6564145586104</v>
+        <v>151.4864990234375</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2085,19 +2115,19 @@
         <v>44</v>
       </c>
       <c r="B32">
-        <v>158.6564145586104</v>
+        <v>158.2181859650851</v>
       </c>
       <c r="C32">
-        <v>161.4849370174763</v>
+        <v>159.6922023212959</v>
       </c>
       <c r="D32">
-        <v>157.1724288417913</v>
+        <v>157.2122719647558</v>
       </c>
       <c r="E32">
-        <v>157.1923522949219</v>
+        <v>159.6025695800781</v>
       </c>
       <c r="F32">
-        <v>75701800</v>
+        <v>59196500</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2106,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>156.4374114990234</v>
+        <v>158.0966766357422</v>
       </c>
       <c r="J32">
-        <v>151.1156133015951</v>
+        <v>152.1607627868652</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2117,19 +2147,19 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>158.1883159582908</v>
+        <v>159.2938151274952</v>
       </c>
       <c r="C33">
-        <v>160.8973281571649</v>
+        <v>160.1204635970046</v>
       </c>
       <c r="D33">
-        <v>157.0429529317083</v>
+        <v>157.232171017308</v>
       </c>
       <c r="E33">
-        <v>158.2879028320312</v>
+        <v>157.6405181884766</v>
       </c>
       <c r="F33">
-        <v>67622100</v>
+        <v>52390300</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2138,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>157.0509216308594</v>
+        <v>158.2719635009766</v>
       </c>
       <c r="J33">
-        <v>151.3560246785482</v>
+        <v>152.6766693115234</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2149,19 +2179,19 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>158.2181859650851</v>
+        <v>157.331791254245</v>
       </c>
       <c r="C34">
-        <v>159.6922023212959</v>
+        <v>157.8496946727038</v>
       </c>
       <c r="D34">
-        <v>157.2122719647558</v>
+        <v>155.3498255238792</v>
       </c>
       <c r="E34">
-        <v>159.6025695800781</v>
+        <v>157.0130767822266</v>
       </c>
       <c r="F34">
-        <v>59196500</v>
+        <v>45992200</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2170,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>158.0966796875</v>
+        <v>157.9472808837891</v>
       </c>
       <c r="J34">
-        <v>151.6750640869141</v>
+        <v>153.1866012573242</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2181,19 +2211,19 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>159.2938305463149</v>
+        <v>158.7261152418139</v>
       </c>
       <c r="C35">
-        <v>160.1204790958396</v>
+        <v>160.3993356797871</v>
       </c>
       <c r="D35">
-        <v>157.2321862365711</v>
+        <v>158.7062069869048</v>
       </c>
       <c r="E35">
-        <v>157.6405334472656</v>
+        <v>160.1204681396484</v>
       </c>
       <c r="F35">
-        <v>52390300</v>
+        <v>51305700</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2202,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>158.2719696044922</v>
+        <v>158.5329040527344</v>
       </c>
       <c r="J35">
-        <v>151.9164184570313</v>
+        <v>153.9564781188965</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2213,19 +2243,19 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>157.331791254245</v>
+        <v>160.8774072157527</v>
       </c>
       <c r="C36">
-        <v>157.8496946727038</v>
+        <v>161.8136119869577</v>
       </c>
       <c r="D36">
-        <v>155.3498255238792</v>
+        <v>160.6184631034132</v>
       </c>
       <c r="E36">
-        <v>157.0130767822266</v>
+        <v>161.7040557861328</v>
       </c>
       <c r="F36">
-        <v>45992200</v>
+        <v>49501700</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2234,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>157.9472869873047</v>
+        <v>159.2161376953125</v>
       </c>
       <c r="J36">
-        <v>152.042573038737</v>
+        <v>154.7756546020508</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2245,19 +2275,19 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>158.7261303677272</v>
+        <v>161.7837120552028</v>
       </c>
       <c r="C37">
-        <v>160.3993509651511</v>
+        <v>164.3333667071162</v>
       </c>
       <c r="D37">
-        <v>158.7062221109209</v>
+        <v>161.2558545779148</v>
       </c>
       <c r="E37">
-        <v>160.1204833984375</v>
+        <v>164.2337646484375</v>
       </c>
       <c r="F37">
-        <v>51305700</v>
+        <v>68749800</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2266,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>158.5329132080078</v>
+        <v>160.1423767089844</v>
       </c>
       <c r="J37">
-        <v>152.2938873291016</v>
+        <v>155.4663513183594</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2277,19 +2307,19 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>160.8773920349682</v>
+        <v>163.606339467209</v>
       </c>
       <c r="C38">
-        <v>161.8135967178306</v>
+        <v>165.6181675532587</v>
       </c>
       <c r="D38">
-        <v>160.6184479470633</v>
+        <v>163.5565384320382</v>
       </c>
       <c r="E38">
-        <v>161.7040405273438</v>
+        <v>165.4986572265625</v>
       </c>
       <c r="F38">
-        <v>49501700</v>
+        <v>56976200</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2298,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>159.2161407470703</v>
+        <v>161.7140045166016</v>
       </c>
       <c r="J38">
-        <v>152.5272740681966</v>
+        <v>156.0808578491211</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2309,19 +2339,19 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>161.78372708636</v>
+        <v>165.9269436308625</v>
       </c>
       <c r="C39">
-        <v>164.3333819751592</v>
+        <v>166.1659643069263</v>
       </c>
       <c r="D39">
-        <v>161.2558695600293</v>
+        <v>164.4429577460103</v>
       </c>
       <c r="E39">
-        <v>164.2337799072266</v>
+        <v>164.9608612060547</v>
       </c>
       <c r="F39">
-        <v>68749800</v>
+        <v>46278300</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2330,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>160.1423828125</v>
+        <v>163.3035614013672</v>
       </c>
       <c r="J39">
-        <v>152.8987665812174</v>
+        <v>156.779524230957</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2341,19 +2371,19 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>163.6063545515285</v>
+        <v>164.074440321316</v>
       </c>
       <c r="C40">
-        <v>165.6181828230665</v>
+        <v>164.3831854605127</v>
       </c>
       <c r="D40">
-        <v>163.5565535117661</v>
+        <v>161.1463157672771</v>
       </c>
       <c r="E40">
-        <v>165.4986724853516</v>
+        <v>163.098388671875</v>
       </c>
       <c r="F40">
-        <v>56976200</v>
+        <v>51511700</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2362,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>161.7140106201172</v>
+        <v>163.8991455078125</v>
       </c>
       <c r="J40">
-        <v>153.350932820638</v>
+        <v>157.3218238830567</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2373,19 +2403,19 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>165.9269129345602</v>
+        <v>161.7737646425446</v>
       </c>
       <c r="C41">
-        <v>166.1659335664054</v>
+        <v>164.293557254717</v>
       </c>
       <c r="D41">
-        <v>164.4429273242437</v>
+        <v>161.3455091659301</v>
       </c>
       <c r="E41">
-        <v>164.9608306884766</v>
+        <v>163.9947662353516</v>
       </c>
       <c r="F41">
-        <v>46278300</v>
+        <v>45390100</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2394,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>163.3035614013672</v>
+        <v>164.3572875976562</v>
       </c>
       <c r="J41">
-        <v>153.9202896118164</v>
+        <v>158.0224822998047</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2405,19 +2435,19 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>164.074440321316</v>
+        <v>160.7678605238514</v>
       </c>
       <c r="C42">
-        <v>164.3831854605127</v>
+        <v>161.3753967285156</v>
       </c>
       <c r="D42">
-        <v>161.1463157672771</v>
+        <v>159.4332777782427</v>
       </c>
       <c r="E42">
-        <v>163.098388671875</v>
+        <v>161.3753967285156</v>
       </c>
       <c r="F42">
-        <v>51511700</v>
+        <v>47716900</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2426,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>163.8991424560547</v>
+        <v>163.7856140136719</v>
       </c>
       <c r="J42">
-        <v>154.4132893880208</v>
+        <v>158.6962493896484</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2437,19 +2467,19 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>161.7737646425446</v>
+        <v>161.6941010414735</v>
       </c>
       <c r="C43">
-        <v>164.293557254717</v>
+        <v>161.7040551698223</v>
       </c>
       <c r="D43">
-        <v>161.3455091659301</v>
+        <v>159.8615232167378</v>
       </c>
       <c r="E43">
-        <v>163.9947662353516</v>
+        <v>160.1503601074219</v>
       </c>
       <c r="F43">
-        <v>45390100</v>
+        <v>47644200</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2458,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>164.3572875976562</v>
+        <v>162.7159545898438</v>
       </c>
       <c r="J43">
-        <v>154.9199010213216</v>
+        <v>159.2106628417969</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2469,19 +2499,19 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>160.7678605238514</v>
+        <v>160.5686716253684</v>
       </c>
       <c r="C44">
-        <v>161.3753967285156</v>
+        <v>161.4052743739358</v>
       </c>
       <c r="D44">
-        <v>159.4332777782427</v>
+        <v>159.1344868008853</v>
       </c>
       <c r="E44">
-        <v>161.3753967285156</v>
+        <v>159.4532012939453</v>
       </c>
       <c r="F44">
-        <v>47716900</v>
+        <v>50133100</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2490,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>163.7856109619141</v>
+        <v>161.6144226074219</v>
       </c>
       <c r="J44">
-        <v>155.4285044352214</v>
+        <v>159.5846473693848</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2501,19 +2531,19 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>161.6941010414735</v>
+        <v>160.9770131920105</v>
       </c>
       <c r="C45">
-        <v>161.7040551698223</v>
+        <v>165.1301644014018</v>
       </c>
       <c r="D45">
-        <v>159.8615232167378</v>
+        <v>160.7678549136753</v>
       </c>
       <c r="E45">
-        <v>160.1503601074219</v>
+        <v>164.8911285400391</v>
       </c>
       <c r="F45">
-        <v>47644200</v>
+        <v>68445600</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2522,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>162.7159484863281</v>
+        <v>161.9729705810547</v>
       </c>
       <c r="J45">
-        <v>155.8561040242513</v>
+        <v>160.2106079101563</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2533,19 +2563,19 @@
         <v>58</v>
       </c>
       <c r="B46">
-        <v>160.5686562598351</v>
+        <v>163.9250360328323</v>
       </c>
       <c r="C46">
-        <v>161.4052589283442</v>
+        <v>165.6480575990327</v>
       </c>
       <c r="D46">
-        <v>159.1344715725954</v>
+        <v>163.1581578529949</v>
       </c>
       <c r="E46">
-        <v>159.4531860351562</v>
+        <v>164.5425415039062</v>
       </c>
       <c r="F46">
-        <v>50133100</v>
+        <v>49386500</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2554,10 +2584,10 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>161.6144195556641</v>
+        <v>162.0825256347656</v>
       </c>
       <c r="J46">
-        <v>156.2773956298828</v>
+        <v>160.676717376709</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2565,19 +2595,19 @@
         <v>59</v>
       </c>
       <c r="B47">
-        <v>160.9769982954281</v>
+        <v>164.4230204419583</v>
       </c>
       <c r="C47">
-        <v>165.1301491204927</v>
+        <v>164.7218114590158</v>
       </c>
       <c r="D47">
-        <v>160.767840036448</v>
+        <v>163.3673053525451</v>
       </c>
       <c r="E47">
-        <v>164.89111328125</v>
+        <v>164.5624542236328</v>
       </c>
       <c r="F47">
-        <v>68445600</v>
+        <v>41516200</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2586,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>161.9729644775391</v>
+        <v>162.7199371337891</v>
       </c>
       <c r="J47">
-        <v>156.9496688842773</v>
+        <v>161.1861511230469</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2597,19 +2627,19 @@
         <v>60</v>
       </c>
       <c r="B48">
-        <v>163.9250360328323</v>
+        <v>165.4289545139216</v>
       </c>
       <c r="C48">
-        <v>165.6480575990327</v>
+        <v>166.7336596227154</v>
       </c>
       <c r="D48">
-        <v>163.1581578529949</v>
+        <v>164.9807603767022</v>
       </c>
       <c r="E48">
-        <v>164.5425415039062</v>
+        <v>165.7974548339844</v>
       </c>
       <c r="F48">
-        <v>49386500</v>
+        <v>49923000</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2618,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>162.08251953125</v>
+        <v>163.8493560791016</v>
       </c>
       <c r="J48">
-        <v>157.5904032389323</v>
+        <v>161.6378196716309</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2629,19 +2659,19 @@
         <v>61</v>
       </c>
       <c r="B49">
-        <v>164.4230204419583</v>
+        <v>165.1301503932851</v>
       </c>
       <c r="C49">
-        <v>164.7218114590158</v>
+        <v>167.4806163072932</v>
       </c>
       <c r="D49">
-        <v>163.3673053525451</v>
+        <v>164.8711910994908</v>
       </c>
       <c r="E49">
-        <v>164.5624542236328</v>
+        <v>166.9527587890625</v>
       </c>
       <c r="F49">
-        <v>41516200</v>
+        <v>47720200</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2650,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>162.7199310302734</v>
+        <v>165.349267578125</v>
       </c>
       <c r="J49">
-        <v>158.0618245442708</v>
+        <v>162.0536331176758</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2661,19 +2691,19 @@
         <v>62</v>
       </c>
       <c r="B50">
-        <v>165.4289392890466</v>
+        <v>165.4189799625574</v>
       </c>
       <c r="C50">
-        <v>166.7336442777649</v>
+        <v>167.1917874097132</v>
       </c>
       <c r="D50">
-        <v>164.9807451930758</v>
+        <v>164.8911224191426</v>
       </c>
       <c r="E50">
-        <v>165.7974395751953</v>
+        <v>165.9767150878906</v>
       </c>
       <c r="F50">
-        <v>49923000</v>
+        <v>52456400</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2682,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>163.8493469238281</v>
+        <v>165.5663848876953</v>
       </c>
       <c r="J50">
-        <v>158.481455485026</v>
+        <v>162.4928512573242</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2693,19 +2723,19 @@
         <v>63</v>
       </c>
       <c r="B51">
-        <v>165.1301654854954</v>
+        <v>164.3831948438446</v>
       </c>
       <c r="C51">
-        <v>167.4806316143263</v>
+        <v>165.7775327124348</v>
       </c>
       <c r="D51">
-        <v>164.8712061680332</v>
+        <v>163.8254596964086</v>
       </c>
       <c r="E51">
-        <v>166.9527740478516</v>
+        <v>164.3533172607422</v>
       </c>
       <c r="F51">
-        <v>47720200</v>
+        <v>58337300</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2714,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>165.3492645263672</v>
+        <v>165.5285400390625</v>
       </c>
       <c r="J51">
-        <v>159.0136301676432</v>
+        <v>162.7961227416992</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2725,19 +2755,19 @@
         <v>64</v>
       </c>
       <c r="B52">
-        <v>165.4189647550428</v>
+        <v>164.3333797566734</v>
       </c>
       <c r="C52">
-        <v>167.1917720392185</v>
+        <v>164.930961761918</v>
       </c>
       <c r="D52">
-        <v>164.8911072601557</v>
+        <v>163.2278636849701</v>
       </c>
       <c r="E52">
-        <v>165.9766998291016</v>
+        <v>164.6620483398438</v>
       </c>
       <c r="F52">
-        <v>52456400</v>
+        <v>41949600</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2746,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>165.5663818359375</v>
+        <v>165.5484588623047</v>
       </c>
       <c r="J52">
-        <v>159.4711069742839</v>
+        <v>163.0490966796875</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2757,19 +2787,19 @@
         <v>65</v>
       </c>
       <c r="B53">
-        <v>164.3831795822817</v>
+        <v>164.5226138571768</v>
       </c>
       <c r="C53">
-        <v>165.7775173214196</v>
+        <v>165.6380840518837</v>
       </c>
       <c r="D53">
-        <v>163.8254444866265</v>
+        <v>163.0685057558123</v>
       </c>
       <c r="E53">
-        <v>164.3533020019531</v>
+        <v>163.1083526611328</v>
       </c>
       <c r="F53">
-        <v>58337300</v>
+        <v>48714100</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2778,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>165.5285339355469</v>
+        <v>165.0106384277344</v>
       </c>
       <c r="J53">
-        <v>159.9501637776693</v>
+        <v>163.3224884033203</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2789,19 +2819,19 @@
         <v>66</v>
       </c>
       <c r="B54">
-        <v>164.3333797566734</v>
+        <v>162.4012197773758</v>
       </c>
       <c r="C54">
-        <v>164.930961761918</v>
+        <v>164.6122519836034</v>
       </c>
       <c r="D54">
-        <v>163.2278636849701</v>
+        <v>162.1422756728881</v>
       </c>
       <c r="E54">
-        <v>164.6620483398438</v>
+        <v>163.098388671875</v>
       </c>
       <c r="F54">
-        <v>41949600</v>
+        <v>45498800</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2810,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>165.5484527587891</v>
+        <v>164.2397644042969</v>
       </c>
       <c r="J54">
-        <v>160.5088973999023</v>
+        <v>163.6267539978027</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2821,19 +2851,19 @@
         <v>67</v>
       </c>
       <c r="B55">
-        <v>164.5226138571768</v>
+        <v>164.5226220904005</v>
       </c>
       <c r="C55">
-        <v>165.6380840518837</v>
+        <v>167.879002167386</v>
       </c>
       <c r="D55">
-        <v>163.0685057558123</v>
+        <v>164.5226220904005</v>
       </c>
       <c r="E55">
-        <v>163.1083526611328</v>
+        <v>167.7296142578125</v>
       </c>
       <c r="F55">
-        <v>48714100</v>
+        <v>64902300</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2842,10 +2872,10 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>165.0106353759766</v>
+        <v>164.5903442382813</v>
       </c>
       <c r="J55">
-        <v>160.9504399617513</v>
+        <v>164.0072113037109</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2853,19 +2883,19 @@
         <v>68</v>
       </c>
       <c r="B56">
-        <v>162.4012197773758</v>
+        <v>167.8092967483896</v>
       </c>
       <c r="C56">
-        <v>164.6122519836034</v>
+        <v>169.1638028826406</v>
       </c>
       <c r="D56">
-        <v>162.1422756728881</v>
+        <v>167.2017605735312</v>
       </c>
       <c r="E56">
-        <v>163.098388671875</v>
+        <v>168.9944763183594</v>
       </c>
       <c r="F56">
-        <v>45498800</v>
+        <v>55209200</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2874,10 +2904,10 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>164.2397583007813</v>
+        <v>165.5185760498047</v>
       </c>
       <c r="J56">
-        <v>161.3212687174479</v>
+        <v>164.3717323303223</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2885,19 +2915,19 @@
         <v>69</v>
       </c>
       <c r="B57">
-        <v>164.5226220904005</v>
+        <v>168.5961010349427</v>
       </c>
       <c r="C57">
-        <v>167.879002167386</v>
+        <v>169.7613723660194</v>
       </c>
       <c r="D57">
-        <v>164.5226220904005</v>
+        <v>167.9586872675895</v>
       </c>
       <c r="E57">
-        <v>167.7296142578125</v>
+        <v>168.9048461914062</v>
       </c>
       <c r="F57">
-        <v>64902300</v>
+        <v>52472900</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2906,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>164.5903411865234</v>
+        <v>166.3671356201172</v>
       </c>
       <c r="J57">
-        <v>161.8331924438477</v>
+        <v>164.6052864074707</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2917,19 +2947,19 @@
         <v>70</v>
       </c>
       <c r="B58">
-        <v>167.8092815966124</v>
+        <v>169.4028260614604</v>
       </c>
       <c r="C58">
-        <v>169.1637876085628</v>
+        <v>169.6617853774037</v>
       </c>
       <c r="D58">
-        <v>167.2017454766094</v>
+        <v>166.8631251223471</v>
       </c>
       <c r="E58">
-        <v>168.9944610595703</v>
+        <v>167.8590850830078</v>
       </c>
       <c r="F58">
-        <v>55209200</v>
+        <v>48425700</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2938,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>165.5185729980469</v>
+        <v>167.3172821044922</v>
       </c>
       <c r="J58">
-        <v>162.2923294067383</v>
+        <v>164.723307800293</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2949,19 +2979,19 @@
         <v>71</v>
       </c>
       <c r="B59">
-        <v>168.5960858040456</v>
+        <v>168.8152041237824</v>
       </c>
       <c r="C59">
-        <v>169.7613570298521</v>
+        <v>170.229465367121</v>
       </c>
       <c r="D59">
-        <v>167.958672094276</v>
+        <v>166.4846615902726</v>
       </c>
       <c r="E59">
-        <v>168.9048309326172</v>
+        <v>166.7734832763672</v>
       </c>
       <c r="F59">
-        <v>52472900</v>
+        <v>65136000</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2970,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>166.3671295166016</v>
+        <v>168.0523010253906</v>
       </c>
       <c r="J59">
-        <v>162.7766977945963</v>
+        <v>164.8139389038086</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2981,19 +3011,19 @@
         <v>72</v>
       </c>
       <c r="B60">
-        <v>169.4028106623417</v>
+        <v>164.2238356049893</v>
       </c>
       <c r="C60">
-        <v>169.6617699547449</v>
+        <v>166.3651434193803</v>
       </c>
       <c r="D60">
-        <v>166.8631099540932</v>
+        <v>163.6461770101303</v>
       </c>
       <c r="E60">
-        <v>167.8590698242188</v>
+        <v>165.1201934814453</v>
       </c>
       <c r="F60">
-        <v>48425700</v>
+        <v>81235400</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3002,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>167.3172729492188</v>
+        <v>167.5304168701172</v>
       </c>
       <c r="J60">
-        <v>163.1465306599935</v>
+        <v>164.9150291442871</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3013,19 +3043,19 @@
         <v>73</v>
       </c>
       <c r="B61">
-        <v>168.8152041237824</v>
+        <v>170.2892266146556</v>
       </c>
       <c r="C61">
-        <v>170.229465367121</v>
+        <v>173.5958209164658</v>
       </c>
       <c r="D61">
-        <v>166.4846615902726</v>
+        <v>170.0701142116613</v>
       </c>
       <c r="E61">
-        <v>166.7734832763672</v>
+        <v>172.8687744140625</v>
       </c>
       <c r="F61">
-        <v>65136000</v>
+        <v>113316400</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3034,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>168.0522918701172</v>
+        <v>168.3052764892578</v>
       </c>
       <c r="J61">
-        <v>163.4177637736003</v>
+        <v>165.3587295532226</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3045,19 +3075,19 @@
         <v>74</v>
       </c>
       <c r="B62">
-        <v>164.2238204290328</v>
+        <v>171.7831584001497</v>
       </c>
       <c r="C62">
-        <v>166.3651280455451</v>
+        <v>173.1476337900841</v>
       </c>
       <c r="D62">
-        <v>163.6461618875554</v>
+        <v>171.4146581021586</v>
       </c>
       <c r="E62">
-        <v>165.1201782226562</v>
+        <v>172.7990417480469</v>
       </c>
       <c r="F62">
-        <v>81235400</v>
+        <v>55962800</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3066,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>167.5304046630859</v>
+        <v>169.0841156005859</v>
       </c>
       <c r="J62">
-        <v>163.6820246378581</v>
+        <v>165.9299118041992</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3077,19 +3107,19 @@
         <v>75</v>
       </c>
       <c r="B63">
-        <v>170.2892266146556</v>
+        <v>172.3508619892183</v>
       </c>
       <c r="C63">
-        <v>173.5958209164658</v>
+        <v>172.8388726091058</v>
       </c>
       <c r="D63">
-        <v>170.0701142116613</v>
+        <v>170.9067231882699</v>
       </c>
       <c r="E63">
-        <v>172.8687744140625</v>
+        <v>171.0760345458984</v>
       </c>
       <c r="F63">
-        <v>113316400</v>
+        <v>45326900</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3098,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>168.3052673339844</v>
+        <v>169.7275054931641</v>
       </c>
       <c r="J63">
-        <v>164.1680536905924</v>
+        <v>166.476195526123</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3109,19 +3139,19 @@
         <v>76</v>
       </c>
       <c r="B64">
-        <v>171.7831735692325</v>
+        <v>172.3209987263067</v>
       </c>
       <c r="C64">
-        <v>173.1476490796552</v>
+        <v>173.3269128277304</v>
       </c>
       <c r="D64">
-        <v>171.4146732387015</v>
+        <v>171.2055132228606</v>
       </c>
       <c r="E64">
-        <v>172.7990570068359</v>
+        <v>172.8588104248047</v>
       </c>
       <c r="F64">
-        <v>55962800</v>
+        <v>53724500</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3130,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>169.0841125488281</v>
+        <v>170.9445709228516</v>
       </c>
       <c r="J64">
-        <v>164.6079366048177</v>
+        <v>167.146475982666</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3141,19 +3171,19 @@
         <v>77</v>
       </c>
       <c r="B65">
-        <v>172.3508619892183</v>
+        <v>173.1476214704298</v>
       </c>
       <c r="C65">
-        <v>172.8388726091058</v>
+        <v>173.8846220139736</v>
       </c>
       <c r="D65">
-        <v>170.9067231882699</v>
+        <v>171.4744010637012</v>
       </c>
       <c r="E65">
-        <v>171.0760345458984</v>
+        <v>173.0480194091797</v>
       </c>
       <c r="F65">
-        <v>45326900</v>
+        <v>49514700</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -3162,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>169.7275054931641</v>
+        <v>172.5301361083984</v>
       </c>
       <c r="J65">
-        <v>165.0557866414388</v>
+        <v>167.554320526123</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3173,31 +3203,31 @@
         <v>78</v>
       </c>
       <c r="B66">
-        <v>172.320983514992</v>
+        <v>173.1577268379451</v>
       </c>
       <c r="C66">
-        <v>173.3268975276204</v>
+        <v>173.5965577600727</v>
       </c>
       <c r="D66">
-        <v>171.2054981100133</v>
+        <v>170.5447075338466</v>
       </c>
       <c r="E66">
-        <v>172.8587951660156</v>
+        <v>172.1105346679688</v>
       </c>
       <c r="F66">
-        <v>53724500</v>
+        <v>45497800</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>170.9445678710937</v>
+        <v>172.3784881591797</v>
       </c>
       <c r="J66">
-        <v>165.5839772542318</v>
+        <v>167.9327201843262</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3205,19 +3235,19 @@
         <v>79</v>
       </c>
       <c r="B67">
-        <v>173.1476367380014</v>
+        <v>172.6989717052963</v>
       </c>
       <c r="C67">
-        <v>173.8846373465314</v>
+        <v>172.748841625821</v>
       </c>
       <c r="D67">
-        <v>171.4744161837339</v>
+        <v>171.0134688314351</v>
       </c>
       <c r="E67">
-        <v>173.0480346679688</v>
+        <v>171.6118774414062</v>
       </c>
       <c r="F67">
-        <v>49514700</v>
+        <v>37266700</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3226,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>172.5301391601562</v>
+        <v>172.1410552978516</v>
       </c>
       <c r="J67">
-        <v>166.0148956298828</v>
+        <v>168.2851913452149</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3237,31 +3267,31 @@
         <v>80</v>
       </c>
       <c r="B68">
-        <v>173.157742189575</v>
+        <v>171.5320886121992</v>
       </c>
       <c r="C68">
-        <v>173.596573150608</v>
+        <v>172.6790206934537</v>
       </c>
       <c r="D68">
-        <v>170.5447226538143</v>
+        <v>171.3425920451029</v>
       </c>
       <c r="E68">
-        <v>172.1105499267578</v>
+        <v>171.6118774414062</v>
       </c>
       <c r="F68">
-        <v>45497800</v>
+        <v>42110300</v>
       </c>
       <c r="G68">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>172.3784942626953</v>
+        <v>172.2482238769531</v>
       </c>
       <c r="J68">
-        <v>166.3617792765299</v>
+        <v>168.5759124755859</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3269,19 +3299,19 @@
         <v>81</v>
       </c>
       <c r="B69">
-        <v>172.6989717052963</v>
+        <v>171.2528380676871</v>
       </c>
       <c r="C69">
-        <v>172.748841625821</v>
+        <v>172.4695758826746</v>
       </c>
       <c r="D69">
-        <v>171.0134688314351</v>
+        <v>169.9662641010483</v>
       </c>
       <c r="E69">
-        <v>171.6118774414062</v>
+        <v>172.230224609375</v>
       </c>
       <c r="F69">
-        <v>37266700</v>
+        <v>57951600</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3290,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>172.1410583496094</v>
+        <v>172.1225067138672</v>
       </c>
       <c r="J69">
-        <v>166.6077158610026</v>
+        <v>168.8397857666016</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3301,19 +3331,19 @@
         <v>82</v>
       </c>
       <c r="B70">
-        <v>171.5320886121992</v>
+        <v>172.5393785275326</v>
       </c>
       <c r="C70">
-        <v>172.6790206934537</v>
+        <v>174.7734198898955</v>
       </c>
       <c r="D70">
-        <v>171.3425920451029</v>
+        <v>172.1204986254948</v>
       </c>
       <c r="E70">
-        <v>171.6118774414062</v>
+        <v>174.5839233398438</v>
       </c>
       <c r="F70">
-        <v>42110300</v>
+        <v>65496700</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3322,10 +3352,10 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>172.2482269287109</v>
+        <v>172.4296875</v>
       </c>
       <c r="J70">
-        <v>166.8114893595378</v>
+        <v>169.2701461791992</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3333,19 +3363,19 @@
         <v>83</v>
       </c>
       <c r="B71">
-        <v>171.2528380676871</v>
+        <v>175.9203702200863</v>
       </c>
       <c r="C71">
-        <v>172.4695758826746</v>
+        <v>175.9203702200863</v>
       </c>
       <c r="D71">
-        <v>169.9662641010483</v>
+        <v>174.4742338130598</v>
       </c>
       <c r="E71">
-        <v>172.230224609375</v>
+        <v>174.6936492919922</v>
       </c>
       <c r="F71">
-        <v>57951600</v>
+        <v>55772400</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3354,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>172.1225128173828</v>
+        <v>172.9463104248047</v>
       </c>
       <c r="J71">
-        <v>167.0538024902344</v>
+        <v>169.7871627807617</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3365,19 +3395,19 @@
         <v>84</v>
       </c>
       <c r="B72">
-        <v>172.5393936076266</v>
+        <v>173.5167753267537</v>
       </c>
       <c r="C72">
-        <v>174.7734351652467</v>
+        <v>174.2448426644442</v>
       </c>
       <c r="D72">
-        <v>172.1205136689784</v>
+        <v>172.9881876651312</v>
       </c>
       <c r="E72">
-        <v>174.5839385986328</v>
+        <v>173.7361907958984</v>
       </c>
       <c r="F72">
-        <v>65496700</v>
+        <v>43570900</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3386,10 +3416,10 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>172.4296936035156</v>
+        <v>173.3711730957031</v>
       </c>
       <c r="J72">
-        <v>167.4366541544596</v>
+        <v>170.2408699035645</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3397,19 +3427,19 @@
         <v>85</v>
       </c>
       <c r="B73">
-        <v>175.9203702200863</v>
+        <v>172.6690529485175</v>
       </c>
       <c r="C73">
-        <v>175.9203702200863</v>
+        <v>172.9183873331977</v>
       </c>
       <c r="D73">
-        <v>174.4742338130598</v>
+        <v>170.8239724146191</v>
       </c>
       <c r="E73">
-        <v>174.6936492919922</v>
+        <v>171.1032257080078</v>
       </c>
       <c r="F73">
-        <v>55772400</v>
+        <v>50747300</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3418,10 +3448,10 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>172.9463134765625</v>
+        <v>173.2694427490234</v>
       </c>
       <c r="J73">
-        <v>167.793283589681</v>
+        <v>170.6406135559082</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3429,19 +3459,19 @@
         <v>86</v>
       </c>
       <c r="B74">
-        <v>173.5167753267537</v>
+        <v>170.6344736621792</v>
       </c>
       <c r="C74">
-        <v>174.2448426644442</v>
+        <v>171.9609343978703</v>
       </c>
       <c r="D74">
-        <v>172.9881876651312</v>
+        <v>170.0659991858332</v>
       </c>
       <c r="E74">
-        <v>173.7361907958984</v>
+        <v>171.3824768066406</v>
       </c>
       <c r="F74">
-        <v>43570900</v>
+        <v>45143500</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3450,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>173.3711761474609</v>
+        <v>173.0998931884766</v>
       </c>
       <c r="J74">
-        <v>168.2053100585937</v>
+        <v>171.0548179626465</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3461,19 +3491,19 @@
         <v>87</v>
       </c>
       <c r="B75">
-        <v>172.6690529485175</v>
+        <v>171.9509613713399</v>
       </c>
       <c r="C75">
-        <v>172.9183873331977</v>
+        <v>173.4369845010465</v>
       </c>
       <c r="D75">
-        <v>170.8239724146191</v>
+        <v>171.2328771566265</v>
       </c>
       <c r="E75">
-        <v>171.1032257080078</v>
+        <v>172.5294189453125</v>
       </c>
       <c r="F75">
-        <v>50747300</v>
+        <v>56058300</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -3482,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>173.2694458007813</v>
+        <v>172.6889923095703</v>
       </c>
       <c r="J75">
-        <v>168.5704055786133</v>
+        <v>171.2948081970215</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3493,19 +3523,19 @@
         <v>88</v>
       </c>
       <c r="B76">
-        <v>170.6344736621792</v>
+        <v>172.8585534968489</v>
       </c>
       <c r="C76">
-        <v>171.9609343978703</v>
+        <v>175.302027479357</v>
       </c>
       <c r="D76">
-        <v>170.0659991858332</v>
+        <v>172.6491059129021</v>
       </c>
       <c r="E76">
-        <v>171.3824768066406</v>
+        <v>174.9629211425781</v>
       </c>
       <c r="F76">
-        <v>45143500</v>
+        <v>54835000</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -3514,10 +3544,10 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>173.0998962402344</v>
+        <v>172.7428466796875</v>
       </c>
       <c r="J76">
-        <v>168.9680486043294</v>
+        <v>171.5932304382324</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3525,19 +3555,19 @@
         <v>89</v>
       </c>
       <c r="B77">
-        <v>171.9509613713399</v>
+        <v>176.4888507966968</v>
       </c>
       <c r="C77">
-        <v>173.4369845010465</v>
+        <v>178.513444705399</v>
       </c>
       <c r="D77">
-        <v>171.2328771566265</v>
+        <v>176.0998897802014</v>
       </c>
       <c r="E77">
-        <v>172.5294189453125</v>
+        <v>176.8279418945312</v>
       </c>
       <c r="F77">
-        <v>56058300</v>
+        <v>55964400</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3546,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>172.6889923095703</v>
+        <v>173.3611968994141</v>
       </c>
       <c r="J77">
-        <v>169.2226587931315</v>
+        <v>171.9893852233887</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3557,19 +3587,19 @@
         <v>90</v>
       </c>
       <c r="B78">
-        <v>172.8585384215851</v>
+        <v>176.8578649999939</v>
       </c>
       <c r="C78">
-        <v>175.302012190994</v>
+        <v>178.8724910600481</v>
       </c>
       <c r="D78">
-        <v>172.6490908559045</v>
+        <v>176.2893753064578</v>
       </c>
       <c r="E78">
-        <v>174.9629058837891</v>
+        <v>176.778076171875</v>
       </c>
       <c r="F78">
-        <v>54835000</v>
+        <v>99625300</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -3578,10 +3608,10 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>172.7428436279297</v>
+        <v>174.4961669921875</v>
       </c>
       <c r="J78">
-        <v>169.5700042724609</v>
+        <v>172.435334777832</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3589,19 +3619,19 @@
         <v>91</v>
       </c>
       <c r="B79">
-        <v>176.4888507966968</v>
+        <v>177.2268681682538</v>
       </c>
       <c r="C79">
-        <v>178.513444705399</v>
+        <v>179.6404230575091</v>
       </c>
       <c r="D79">
-        <v>176.0998897802014</v>
+        <v>176.4589140431664</v>
       </c>
       <c r="E79">
-        <v>176.8279418945312</v>
+        <v>179.6105041503906</v>
       </c>
       <c r="F79">
-        <v>55964400</v>
+        <v>68901800</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -3610,10 +3640,10 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>173.3611938476562</v>
+        <v>176.1417724609375</v>
       </c>
       <c r="J79">
-        <v>169.9788538614909</v>
+        <v>173.0771858215332</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3621,19 +3651,19 @@
         <v>92</v>
       </c>
       <c r="B80">
-        <v>176.8578497343178</v>
+        <v>180.5480047678377</v>
       </c>
       <c r="C80">
-        <v>178.8724756204774</v>
+        <v>181.2960078860444</v>
       </c>
       <c r="D80">
-        <v>176.2893600898515</v>
+        <v>178.7827131477843</v>
       </c>
       <c r="E80">
-        <v>176.7780609130859</v>
+        <v>180.4682159423828</v>
       </c>
       <c r="F80">
-        <v>99625300</v>
+        <v>61945900</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3642,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>174.4961608886719</v>
+        <v>177.7295318603516</v>
       </c>
       <c r="J80">
-        <v>170.3448745727539</v>
+        <v>173.8445869445801</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3653,19 +3683,19 @@
         <v>93</v>
       </c>
       <c r="B81">
-        <v>177.2268681682538</v>
+        <v>182.1437500536452</v>
       </c>
       <c r="C81">
-        <v>179.6404230575091</v>
+        <v>184.4575651091899</v>
       </c>
       <c r="D81">
-        <v>176.4589140431664</v>
+        <v>177.5659594241951</v>
       </c>
       <c r="E81">
-        <v>179.6105041503906</v>
+        <v>179.1018676757812</v>
       </c>
       <c r="F81">
-        <v>68901800</v>
+        <v>121946500</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3674,10 +3704,10 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>176.1417663574219</v>
+        <v>178.5573211669922</v>
       </c>
       <c r="J81">
-        <v>170.7667989095052</v>
+        <v>174.156241607666</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3685,19 +3715,19 @@
         <v>94</v>
       </c>
       <c r="B82">
-        <v>180.5480047678377</v>
+        <v>179.4908354196175</v>
       </c>
       <c r="C82">
-        <v>181.2960078860444</v>
+        <v>179.6404299609589</v>
       </c>
       <c r="D82">
-        <v>178.7827131477843</v>
+        <v>176.957589586375</v>
       </c>
       <c r="E82">
-        <v>180.4682159423828</v>
+        <v>178.7328643798828</v>
       </c>
       <c r="F82">
-        <v>61945900</v>
+        <v>64848400</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3706,10 +3736,10 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>177.7295257568359</v>
+        <v>178.9383056640625</v>
       </c>
       <c r="J82">
-        <v>171.2498494466146</v>
+        <v>174.4529327392578</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3717,19 +3747,19 @@
         <v>95</v>
       </c>
       <c r="B83">
-        <v>182.1437500536452</v>
+        <v>177.9649019836467</v>
       </c>
       <c r="C83">
-        <v>184.4575651091899</v>
+        <v>180.7275310583951</v>
       </c>
       <c r="D83">
-        <v>177.5659594241951</v>
+        <v>176.8478888782592</v>
       </c>
       <c r="E83">
-        <v>179.1018676757812</v>
+        <v>177.3465576171875</v>
       </c>
       <c r="F83">
-        <v>121946500</v>
+        <v>61944600</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3738,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>178.5573181152344</v>
+        <v>179.052001953125</v>
       </c>
       <c r="J83">
-        <v>171.7414683024089</v>
+        <v>174.7664588928223</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3749,19 +3779,19 @@
         <v>96</v>
       </c>
       <c r="B84">
-        <v>179.4908200961189</v>
+        <v>177.4263289743331</v>
       </c>
       <c r="C84">
-        <v>179.6404146246891</v>
+        <v>180.3585035569687</v>
       </c>
       <c r="D84">
-        <v>176.9575744791447</v>
+        <v>176.987513272895</v>
       </c>
       <c r="E84">
-        <v>178.7328491210938</v>
+        <v>180.0892333984375</v>
       </c>
       <c r="F84">
-        <v>64848400</v>
+        <v>50214900</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3770,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>178.9382995605469</v>
+        <v>179.1477478027344</v>
       </c>
       <c r="J84">
-        <v>172.2104949951172</v>
+        <v>175.1279800415039</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3781,19 +3811,19 @@
         <v>97</v>
       </c>
       <c r="B85">
-        <v>177.9649019836467</v>
+        <v>181.0167507280093</v>
       </c>
       <c r="C85">
-        <v>180.7275310583951</v>
+        <v>181.7448028197143</v>
       </c>
       <c r="D85">
-        <v>176.8478888782592</v>
+        <v>180.1490719992902</v>
       </c>
       <c r="E85">
-        <v>177.3465576171875</v>
+        <v>180.4781951904297</v>
       </c>
       <c r="F85">
-        <v>61944600</v>
+        <v>48870700</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3802,10 +3832,10 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>179.0519989013672</v>
+        <v>179.1497436523437</v>
       </c>
       <c r="J85">
-        <v>172.6851018269857</v>
+        <v>175.4994888305664</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3813,19 +3843,19 @@
         <v>98</v>
       </c>
       <c r="B86">
-        <v>177.4263289743331</v>
+        <v>180.7873795442043</v>
       </c>
       <c r="C86">
-        <v>180.3585035569687</v>
+        <v>183.4003990206258</v>
       </c>
       <c r="D86">
-        <v>176.987513272895</v>
+        <v>180.4881752395526</v>
       </c>
       <c r="E86">
-        <v>180.0892333984375</v>
+        <v>183.3006591796875</v>
       </c>
       <c r="F86">
-        <v>50214900</v>
+        <v>54274900</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3834,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>179.1477447509766</v>
+        <v>179.989501953125</v>
       </c>
       <c r="J86">
-        <v>173.2514633178711</v>
+        <v>176.0589950561524</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3845,19 +3875,19 @@
         <v>99</v>
       </c>
       <c r="B87">
-        <v>181.0167507280093</v>
+        <v>182.3132932984178</v>
       </c>
       <c r="C87">
-        <v>181.7448028197143</v>
+        <v>183.6596897574766</v>
       </c>
       <c r="D87">
-        <v>180.1490719992902</v>
+        <v>181.9542511990364</v>
       </c>
       <c r="E87">
-        <v>180.4781951904297</v>
+        <v>182.8219299316406</v>
       </c>
       <c r="F87">
-        <v>48870700</v>
+        <v>54929100</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3866,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>179.1497406005859</v>
+        <v>180.8073150634766</v>
       </c>
       <c r="J87">
-        <v>173.676416015625</v>
+        <v>176.6194976806641</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3877,19 +3907,19 @@
         <v>100</v>
       </c>
       <c r="B88">
-        <v>180.7873644946322</v>
+        <v>182.8817780021367</v>
       </c>
       <c r="C88">
-        <v>183.4003837535339</v>
+        <v>183.8990665437993</v>
       </c>
       <c r="D88">
-        <v>180.4881602148876</v>
+        <v>181.5353814675651</v>
       </c>
       <c r="E88">
-        <v>183.3006439208984</v>
+        <v>183.4602355957031</v>
       </c>
       <c r="F88">
-        <v>54274900</v>
+        <v>57462900</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3898,10 +3928,10 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>179.9894958496094</v>
+        <v>182.0300506591797</v>
       </c>
       <c r="J88">
-        <v>174.1532887776693</v>
+        <v>177.2119155883789</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3909,19 +3939,19 @@
         <v>101</v>
       </c>
       <c r="B89">
-        <v>182.3133085147548</v>
+        <v>183.4702254124178</v>
       </c>
       <c r="C89">
-        <v>183.6597050861872</v>
+        <v>186.0234071475162</v>
       </c>
       <c r="D89">
-        <v>181.9542663854068</v>
+        <v>183.2906967370193</v>
       </c>
       <c r="E89">
-        <v>182.8219451904297</v>
+        <v>185.5147552490234</v>
       </c>
       <c r="F89">
-        <v>54929100</v>
+        <v>65433200</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3930,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>180.8073150634766</v>
+        <v>183.1151550292969</v>
       </c>
       <c r="J89">
-        <v>174.617192586263</v>
+        <v>177.8761421203613</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3941,19 +3971,19 @@
         <v>102</v>
       </c>
       <c r="B90">
-        <v>182.8817780021367</v>
+        <v>186.2328212050846</v>
       </c>
       <c r="C90">
-        <v>183.8990665437993</v>
+        <v>186.4921386864809</v>
       </c>
       <c r="D90">
-        <v>181.5353814675651</v>
+        <v>183.7793795550988</v>
       </c>
       <c r="E90">
-        <v>183.4602355957031</v>
+        <v>184.4276428222656</v>
       </c>
       <c r="F90">
-        <v>57462900</v>
+        <v>101235600</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3962,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>182.0300506591797</v>
+        <v>183.9050445556641</v>
       </c>
       <c r="J90">
-        <v>175.1372314453125</v>
+        <v>178.3683280944824</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3973,19 +4003,19 @@
         <v>103</v>
       </c>
       <c r="B91">
-        <v>183.4702103217935</v>
+        <v>183.9190168933859</v>
       </c>
       <c r="C91">
-        <v>186.02339184689</v>
+        <v>185.604519747886</v>
       </c>
       <c r="D91">
-        <v>183.2906816611614</v>
+        <v>183.9190168933859</v>
       </c>
       <c r="E91">
-        <v>185.5147399902344</v>
+        <v>184.5174102783203</v>
       </c>
       <c r="F91">
-        <v>65433200</v>
+        <v>49799100</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3994,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>183.1151519775391</v>
+        <v>184.1483947753906</v>
       </c>
       <c r="J91">
-        <v>175.7619400024414</v>
+        <v>178.8595161437988</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4005,19 +4035,19 @@
         <v>104</v>
       </c>
       <c r="B92">
-        <v>186.2328212050846</v>
+        <v>184.4076993189131</v>
       </c>
       <c r="C92">
-        <v>186.4921386864809</v>
+        <v>184.9163511881053</v>
       </c>
       <c r="D92">
-        <v>183.7793795550988</v>
+        <v>182.1038521081281</v>
       </c>
       <c r="E92">
-        <v>184.4276428222656</v>
+        <v>183.47021484375</v>
       </c>
       <c r="F92">
-        <v>101235600</v>
+        <v>49515700</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -4026,10 +4056,10 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>183.9050415039063</v>
+        <v>184.2780517578125</v>
       </c>
       <c r="J92">
-        <v>176.4055221557617</v>
+        <v>179.3462173461914</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4037,19 +4067,19 @@
         <v>105</v>
       </c>
       <c r="B93">
-        <v>183.9190168933859</v>
+        <v>183.2507910597497</v>
       </c>
       <c r="C93">
-        <v>185.604519747886</v>
+        <v>186.5519756297083</v>
       </c>
       <c r="D93">
-        <v>183.9190168933859</v>
+        <v>183.1809701325725</v>
       </c>
       <c r="E93">
-        <v>184.5174102783203</v>
+        <v>186.5021057128906</v>
       </c>
       <c r="F93">
-        <v>49799100</v>
+        <v>51245300</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -4058,10 +4088,10 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>184.1483947753906</v>
+        <v>184.88642578125</v>
       </c>
       <c r="J93">
-        <v>176.7938100179036</v>
+        <v>180.1161613464355</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -4069,19 +4099,19 @@
         <v>106</v>
       </c>
       <c r="B94">
-        <v>184.4076993189131</v>
+        <v>185.0559718803255</v>
       </c>
       <c r="C94">
-        <v>184.9163511881053</v>
+        <v>187.0606147303333</v>
       </c>
       <c r="D94">
-        <v>182.1038521081281</v>
+        <v>184.5174011206348</v>
       </c>
       <c r="E94">
-        <v>183.47021484375</v>
+        <v>186.1829528808594</v>
       </c>
       <c r="F94">
-        <v>49515700</v>
+        <v>53079300</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -4090,10 +4120,10 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>184.2780487060547</v>
+        <v>185.0200653076172</v>
       </c>
       <c r="J94">
-        <v>177.1495152791341</v>
+        <v>180.8561851501465</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -4101,19 +4131,19 @@
         <v>107</v>
       </c>
       <c r="B95">
-        <v>183.2508060525304</v>
+        <v>186.3325621647768</v>
       </c>
       <c r="C95">
-        <v>186.5519908925775</v>
+        <v>187.5493151009746</v>
       </c>
       <c r="D95">
-        <v>183.1809851196408</v>
+        <v>184.7368161185024</v>
       </c>
       <c r="E95">
-        <v>186.5021209716797</v>
+        <v>184.7767181396484</v>
       </c>
       <c r="F95">
-        <v>51245300</v>
+        <v>48088700</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -4122,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>184.88642578125</v>
+        <v>185.0898803710938</v>
       </c>
       <c r="J95">
-        <v>177.6637181599935</v>
+        <v>181.4685501098633</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -4133,19 +4163,19 @@
         <v>108</v>
       </c>
       <c r="B96">
-        <v>185.0559718803255</v>
+        <v>185.3950599323009</v>
       </c>
       <c r="C96">
-        <v>187.0606147303333</v>
+        <v>187.8884035836677</v>
       </c>
       <c r="D96">
-        <v>184.5174011206348</v>
+        <v>185.1756444735277</v>
       </c>
       <c r="E96">
-        <v>186.1829528808594</v>
+        <v>187.5592803955078</v>
       </c>
       <c r="F96">
-        <v>53079300</v>
+        <v>50730800</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -4154,10 +4184,10 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>185.020068359375</v>
+        <v>185.6982543945313</v>
       </c>
       <c r="J96">
-        <v>178.1078567504883</v>
+        <v>182.0983680725098</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -4165,19 +4195,19 @@
         <v>109</v>
       </c>
       <c r="B97">
-        <v>186.3325775520469</v>
+        <v>187.429631446172</v>
       </c>
       <c r="C97">
-        <v>187.5493305887236</v>
+        <v>189.3943875635306</v>
       </c>
       <c r="D97">
-        <v>184.7368313739964</v>
+        <v>187.1005234589832</v>
       </c>
       <c r="E97">
-        <v>184.7767333984375</v>
+        <v>188.7461242675781</v>
       </c>
       <c r="F97">
-        <v>48088700</v>
+        <v>51216800</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -4186,10 +4216,10 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>185.0898864746094</v>
+        <v>186.7534362792969</v>
       </c>
       <c r="J97">
-        <v>178.4988133748372</v>
+        <v>182.6942771911621</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -4197,19 +4227,19 @@
         <v>110</v>
       </c>
       <c r="B98">
-        <v>185.3950599323009</v>
+        <v>188.5765684528996</v>
       </c>
       <c r="C98">
-        <v>187.8884035836677</v>
+        <v>189.5639380152144</v>
       </c>
       <c r="D98">
-        <v>185.1756444735277</v>
+        <v>188.4369418174557</v>
       </c>
       <c r="E98">
-        <v>187.5592803955078</v>
+        <v>189.085205078125</v>
       </c>
       <c r="F98">
-        <v>50730800</v>
+        <v>46347300</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -4218,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>185.6982604980469</v>
+        <v>187.2700561523438</v>
       </c>
       <c r="J98">
-        <v>179.0137710571289</v>
+        <v>183.3096336364746</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4229,19 +4259,19 @@
         <v>111</v>
       </c>
       <c r="B99">
-        <v>187.429631446172</v>
+        <v>191.1197861948541</v>
       </c>
       <c r="C99">
-        <v>189.3943875635306</v>
+        <v>193.9621888824422</v>
       </c>
       <c r="D99">
-        <v>187.1005234589832</v>
+        <v>190.7507609788408</v>
       </c>
       <c r="E99">
-        <v>188.7461242675781</v>
+        <v>193.4535522460938</v>
       </c>
       <c r="F99">
-        <v>51216800</v>
+        <v>85069600</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -4250,10 +4280,10 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>186.7534423828125</v>
+        <v>188.7241760253906</v>
       </c>
       <c r="J99">
-        <v>179.5849126180013</v>
+        <v>184.0017860412598</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4261,19 +4291,19 @@
         <v>112</v>
       </c>
       <c r="B100">
-        <v>188.5765684528996</v>
+        <v>193.2640636743389</v>
       </c>
       <c r="C100">
-        <v>189.5639380152144</v>
+        <v>193.3638035137414</v>
       </c>
       <c r="D100">
-        <v>188.4369418174557</v>
+        <v>191.2494376200785</v>
       </c>
       <c r="E100">
-        <v>189.085205078125</v>
+        <v>191.9475860595703</v>
       </c>
       <c r="F100">
-        <v>46347300</v>
+        <v>31458200</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -4282,10 +4312,10 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>187.2700592041016</v>
+        <v>190.158349609375</v>
       </c>
       <c r="J100">
-        <v>180.1673568725586</v>
+        <v>184.5757545471191</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4293,19 +4323,19 @@
         <v>113</v>
       </c>
       <c r="B101">
-        <v>191.1198012695657</v>
+        <v>191.0599536385693</v>
       </c>
       <c r="C101">
-        <v>193.9622041813504</v>
+        <v>192.4661879585032</v>
       </c>
       <c r="D101">
-        <v>190.7507760244452</v>
+        <v>190.1124708318048</v>
       </c>
       <c r="E101">
-        <v>193.4535675048828</v>
+        <v>190.8205871582031</v>
       </c>
       <c r="F101">
-        <v>85069600</v>
+        <v>46920300</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -4314,10 +4344,10 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>188.7241821289062</v>
+        <v>190.8106109619141</v>
       </c>
       <c r="J101">
-        <v>180.8748016357422</v>
+        <v>185.1616905212402</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4325,19 +4355,19 @@
         <v>114</v>
       </c>
       <c r="B102">
-        <v>193.2640636743389</v>
+        <v>189.3345450785546</v>
       </c>
       <c r="C102">
-        <v>193.3638035137414</v>
+        <v>191.5087487159423</v>
       </c>
       <c r="D102">
-        <v>191.2494376200785</v>
+        <v>188.6962496949308</v>
       </c>
       <c r="E102">
-        <v>191.9475860595703</v>
+        <v>191.2993011474609</v>
       </c>
       <c r="F102">
-        <v>31458200</v>
+        <v>45094300</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -4346,10 +4376,10 @@
         <v>0</v>
       </c>
       <c r="I102">
-        <v>190.1583526611328</v>
+        <v>191.3212463378906</v>
       </c>
       <c r="J102">
-        <v>181.4535898844401</v>
+        <v>185.7900123596191</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4357,19 +4387,19 @@
         <v>115</v>
       </c>
       <c r="B103">
-        <v>191.0599536385693</v>
+        <v>190.900369559223</v>
       </c>
       <c r="C103">
-        <v>192.4661879585032</v>
+        <v>192.1570092979807</v>
       </c>
       <c r="D103">
-        <v>190.1124708318048</v>
+        <v>189.7334865407703</v>
       </c>
       <c r="E103">
-        <v>190.8205871582031</v>
+        <v>190.1723022460938</v>
       </c>
       <c r="F103">
-        <v>46920300</v>
+        <v>46778000</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -4378,10 +4408,10 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>190.8106140136719</v>
+        <v>191.5386657714844</v>
       </c>
       <c r="J103">
-        <v>181.9911544799805</v>
+        <v>186.4312995910645</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4389,19 +4419,19 @@
         <v>116</v>
       </c>
       <c r="B104">
-        <v>189.3345450785546</v>
+        <v>188.756097175468</v>
       </c>
       <c r="C104">
-        <v>191.5087487159423</v>
+        <v>189.4841645361036</v>
       </c>
       <c r="D104">
-        <v>188.6962496949308</v>
+        <v>186.5420066211667</v>
       </c>
       <c r="E104">
-        <v>191.2993011474609</v>
+        <v>188.1078338623047</v>
       </c>
       <c r="F104">
-        <v>45094300</v>
+        <v>59922200</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -4410,10 +4440,10 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>191.3212493896484</v>
+        <v>190.4695220947266</v>
       </c>
       <c r="J104">
-        <v>182.5765914916992</v>
+        <v>186.8322296142578</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4421,19 +4451,19 @@
         <v>117</v>
       </c>
       <c r="B105">
-        <v>190.900369559223</v>
+        <v>188.6563652181567</v>
       </c>
       <c r="C105">
-        <v>192.1570092979807</v>
+        <v>188.7959918594789</v>
       </c>
       <c r="D105">
-        <v>189.7334865407703</v>
+        <v>186.1031836521723</v>
       </c>
       <c r="E105">
-        <v>190.1723022460938</v>
+        <v>187.5792388916016</v>
       </c>
       <c r="F105">
-        <v>46778000</v>
+        <v>46638100</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -4442,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>191.5386688232422</v>
+        <v>189.5958526611328</v>
       </c>
       <c r="J105">
-        <v>183.2122273763021</v>
+        <v>187.1872817993164</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4453,19 +4483,19 @@
         <v>118</v>
       </c>
       <c r="B106">
-        <v>188.756097175468</v>
+        <v>189.1749680502115</v>
       </c>
       <c r="C106">
-        <v>189.4841645361036</v>
+        <v>191.1895940437778</v>
       </c>
       <c r="D106">
-        <v>186.5420066211667</v>
+        <v>187.9681982078766</v>
       </c>
       <c r="E106">
-        <v>188.1078338623047</v>
+        <v>189.2647399902344</v>
       </c>
       <c r="F106">
-        <v>59922200</v>
+        <v>60750200</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -4474,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>190.4695220947266</v>
+        <v>189.2846832275391</v>
       </c>
       <c r="J106">
-        <v>183.7697392781575</v>
+        <v>187.4854858398438</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -4485,19 +4515,19 @@
         <v>119</v>
       </c>
       <c r="B107">
-        <v>188.6563805645655</v>
+        <v>189.9927975213716</v>
       </c>
       <c r="C107">
-        <v>188.7960072172458</v>
+        <v>190.6809628449378</v>
       </c>
       <c r="D107">
-        <v>186.1031987908904</v>
+        <v>189.2747132896646</v>
       </c>
       <c r="E107">
-        <v>187.5792541503906</v>
+        <v>190.0326843261719</v>
       </c>
       <c r="F107">
-        <v>46638100</v>
+        <v>41342300</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -4506,10 +4536,10 @@
         <v>0</v>
       </c>
       <c r="I107">
-        <v>189.5958557128906</v>
+        <v>189.0313598632812</v>
       </c>
       <c r="J107">
-        <v>184.2714004516602</v>
+        <v>187.8460235595703</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4517,19 +4547,19 @@
         <v>120</v>
       </c>
       <c r="B108">
-        <v>189.1749680502115</v>
+        <v>189.7235147913955</v>
       </c>
       <c r="C108">
-        <v>191.1895940437778</v>
+        <v>190.6709824048614</v>
       </c>
       <c r="D108">
-        <v>187.9681982078766</v>
+        <v>189.1251214020205</v>
       </c>
       <c r="E108">
-        <v>189.2647399902344</v>
+        <v>190.1822967529297</v>
       </c>
       <c r="F108">
-        <v>60750200</v>
+        <v>41573900</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -4538,10 +4568,10 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>189.2846862792969</v>
+        <v>189.0333587646484</v>
       </c>
       <c r="J108">
-        <v>184.7481282552083</v>
+        <v>188.1821266174316</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4549,19 +4579,19 @@
         <v>121</v>
       </c>
       <c r="B109">
-        <v>189.9927822657853</v>
+        <v>191.3890486677881</v>
       </c>
       <c r="C109">
-        <v>190.6809475340948</v>
+        <v>193.8026186648106</v>
       </c>
       <c r="D109">
-        <v>189.2746980917373</v>
+        <v>191.299291950538</v>
       </c>
       <c r="E109">
-        <v>190.0326690673828</v>
+        <v>193.4734954833984</v>
       </c>
       <c r="F109">
-        <v>41342300</v>
+        <v>50520200</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -4570,10 +4600,10 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>189.0313598632812</v>
+        <v>190.1064910888672</v>
       </c>
       <c r="J109">
-        <v>185.1882858276367</v>
+        <v>188.5800636291504</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4581,19 +4611,19 @@
         <v>122</v>
       </c>
       <c r="B110">
-        <v>189.7234995694156</v>
+        <v>192.8352097243277</v>
       </c>
       <c r="C110">
-        <v>190.6709671068639</v>
+        <v>193.8125962031663</v>
       </c>
       <c r="D110">
-        <v>189.1251062280512</v>
+        <v>191.9076779454451</v>
       </c>
       <c r="E110">
-        <v>190.1822814941406</v>
+        <v>193.2141876220703</v>
       </c>
       <c r="F110">
-        <v>41573900</v>
+        <v>48353800</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -4602,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>189.0333557128906</v>
+        <v>191.2334808349609</v>
       </c>
       <c r="J110">
-        <v>185.6350931803385</v>
+        <v>189.0193908691406</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -4613,19 +4643,19 @@
         <v>123</v>
       </c>
       <c r="B111">
-        <v>191.3890637621818</v>
+        <v>192.5858761596578</v>
       </c>
       <c r="C111">
-        <v>193.8026339495568</v>
+        <v>197.7022071550224</v>
       </c>
       <c r="D111">
-        <v>191.2993070378528</v>
+        <v>192.1370621128721</v>
       </c>
       <c r="E111">
-        <v>193.4735107421875</v>
+        <v>194.5805511474609</v>
       </c>
       <c r="F111">
-        <v>50520200</v>
+        <v>80507300</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -4634,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="I111">
-        <v>190.1064910888672</v>
+        <v>192.2966430664063</v>
       </c>
       <c r="J111">
-        <v>186.0971934000651</v>
+        <v>189.5225479125976</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4645,19 +4675,19 @@
         <v>124</v>
       </c>
       <c r="B112">
-        <v>192.8352097243277</v>
+        <v>194.57057195548</v>
       </c>
       <c r="C112">
-        <v>193.8125962031663</v>
+        <v>195.9469025946233</v>
       </c>
       <c r="D112">
-        <v>191.9076779454451</v>
+        <v>191.9874714465581</v>
       </c>
       <c r="E112">
-        <v>193.2141876220703</v>
+        <v>192.6157989501953</v>
       </c>
       <c r="F112">
-        <v>48353800</v>
+        <v>59581200</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -4666,10 +4696,10 @@
         <v>0</v>
       </c>
       <c r="I112">
-        <v>191.2334777832031</v>
+        <v>192.8132659912109</v>
       </c>
       <c r="J112">
-        <v>186.5220591227213</v>
+        <v>189.9798271179199</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -4677,19 +4707,19 @@
         <v>125</v>
       </c>
       <c r="B113">
-        <v>192.5858761596578</v>
+        <v>193.583223081012</v>
       </c>
       <c r="C113">
-        <v>197.7022071550224</v>
+        <v>194.4509018731501</v>
       </c>
       <c r="D113">
-        <v>192.1370621128721</v>
+        <v>190.7208539857674</v>
       </c>
       <c r="E113">
-        <v>194.5805511474609</v>
+        <v>191.4289703369141</v>
       </c>
       <c r="F113">
-        <v>80507300</v>
+        <v>71917800</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4698,10 +4728,10 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <v>192.2966400146484</v>
+        <v>193.0626007080078</v>
       </c>
       <c r="J113">
-        <v>187.038015238444</v>
+        <v>190.2261703491211</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -4709,19 +4739,19 @@
         <v>126</v>
       </c>
       <c r="B114">
-        <v>194.57057195548</v>
+        <v>192.8950475430485</v>
       </c>
       <c r="C114">
-        <v>195.9469025946233</v>
+        <v>194.3910537776592</v>
       </c>
       <c r="D114">
-        <v>191.9874714465581</v>
+        <v>191.7381324025907</v>
       </c>
       <c r="E114">
-        <v>192.6157989501953</v>
+        <v>192.2368011474609</v>
       </c>
       <c r="F114">
-        <v>59581200</v>
+        <v>45377800</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4730,10 +4760,10 @@
         <v>0</v>
       </c>
       <c r="I114">
-        <v>192.8132659912109</v>
+        <v>192.8152618408203</v>
       </c>
       <c r="J114">
-        <v>187.5007802327474</v>
+        <v>190.5288627624512</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -4741,19 +4771,19 @@
         <v>127</v>
       </c>
       <c r="B115">
-        <v>193.583223081012</v>
+        <v>192.8152557571185</v>
       </c>
       <c r="C115">
-        <v>194.4509018731501</v>
+        <v>193.9223009624588</v>
       </c>
       <c r="D115">
-        <v>190.7208539857674</v>
+        <v>192.4063437402446</v>
       </c>
       <c r="E115">
-        <v>191.4289703369141</v>
+        <v>193.1044769287109</v>
       </c>
       <c r="F115">
-        <v>71917800</v>
+        <v>37283200</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4762,10 +4792,10 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <v>193.0626037597656</v>
+        <v>192.7933197021484</v>
       </c>
       <c r="J115">
-        <v>187.9701939900716</v>
+        <v>190.9452507019043</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -4773,19 +4803,19 @@
         <v>128</v>
       </c>
       <c r="B116">
-        <v>192.8950475430485</v>
+        <v>193.1543552508233</v>
       </c>
       <c r="C116">
-        <v>194.3910537776592</v>
+        <v>195.1191113783899</v>
       </c>
       <c r="D116">
-        <v>191.7381324025907</v>
+        <v>192.8052962504825</v>
       </c>
       <c r="E116">
-        <v>192.2368011474609</v>
+        <v>193.9821472167969</v>
       </c>
       <c r="F116">
-        <v>45377800</v>
+        <v>47471900</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4794,10 +4824,10 @@
         <v>0</v>
       </c>
       <c r="I116">
-        <v>192.8152618408203</v>
+        <v>192.6736389160156</v>
       </c>
       <c r="J116">
-        <v>188.3751129150391</v>
+        <v>191.2663940429688</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -4805,19 +4835,19 @@
         <v>129</v>
       </c>
       <c r="B117">
-        <v>192.8152709930538</v>
+        <v>195.4980991647195</v>
       </c>
       <c r="C117">
-        <v>193.9223162858709</v>
+        <v>196.6749500988868</v>
       </c>
       <c r="D117">
-        <v>192.4063589438684</v>
+        <v>192.0373368549513</v>
       </c>
       <c r="E117">
-        <v>193.1044921875</v>
+        <v>192.7055511474609</v>
       </c>
       <c r="F117">
-        <v>37283200</v>
+        <v>47460200</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4826,10 +4856,10 @@
         <v>0</v>
       </c>
       <c r="I117">
-        <v>192.7933227539062</v>
+        <v>192.6915893554688</v>
       </c>
       <c r="J117">
-        <v>188.7959894816081</v>
+        <v>191.4643653869629</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -4837,19 +4867,19 @@
         <v>130</v>
       </c>
       <c r="B118">
-        <v>193.1543552508233</v>
+        <v>194.151693829433</v>
       </c>
       <c r="C118">
-        <v>195.1191113783899</v>
+        <v>196.1064820710403</v>
       </c>
       <c r="D118">
-        <v>192.8052962504825</v>
+        <v>193.6231061595511</v>
       </c>
       <c r="E118">
-        <v>193.9821472167969</v>
+        <v>195.3086090087891</v>
       </c>
       <c r="F118">
-        <v>47471900</v>
+        <v>48291400</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4858,10 +4888,10 @@
         <v>0</v>
       </c>
       <c r="I118">
-        <v>192.6736419677734</v>
+        <v>193.4675170898437</v>
       </c>
       <c r="J118">
-        <v>189.1520395914714</v>
+        <v>191.7755355834961</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -4869,19 +4899,19 @@
         <v>131</v>
       </c>
       <c r="B119">
-        <v>195.4980991647195</v>
+        <v>195.537995145902</v>
       </c>
       <c r="C119">
-        <v>196.6749500988868</v>
+        <v>195.9668582004248</v>
       </c>
       <c r="D119">
-        <v>192.0373368549513</v>
+        <v>194.7401220723569</v>
       </c>
       <c r="E119">
-        <v>192.7055511474609</v>
+        <v>195.9269561767578</v>
       </c>
       <c r="F119">
-        <v>47460200</v>
+        <v>38824100</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4890,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="I119">
-        <v>192.6915924072266</v>
+        <v>194.2055480957031</v>
       </c>
       <c r="J119">
-        <v>189.4814931233724</v>
+        <v>191.8992057800293</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -4901,19 +4931,19 @@
         <v>132</v>
       </c>
       <c r="B120">
-        <v>194.151693829433</v>
+        <v>195.7175151124968</v>
       </c>
       <c r="C120">
-        <v>196.1064820710403</v>
+        <v>196.2062007444619</v>
       </c>
       <c r="D120">
-        <v>193.6231061595511</v>
+        <v>194.760064423188</v>
       </c>
       <c r="E120">
-        <v>195.3086090087891</v>
+        <v>195.0891876220703</v>
       </c>
       <c r="F120">
-        <v>48291400</v>
+        <v>35175100</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4922,10 +4952,10 @@
         <v>0</v>
       </c>
       <c r="I120">
-        <v>193.4675201416016</v>
+        <v>194.602490234375</v>
       </c>
       <c r="J120">
-        <v>189.8764389038086</v>
+        <v>192.0562858581543</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -4933,19 +4963,19 @@
         <v>133</v>
       </c>
       <c r="B121">
-        <v>195.537995145902</v>
+        <v>194.5207025104586</v>
       </c>
       <c r="C121">
-        <v>195.9668582004248</v>
+        <v>194.6603291540337</v>
       </c>
       <c r="D121">
-        <v>194.7401220723569</v>
+        <v>191.3392086162719</v>
       </c>
       <c r="E121">
-        <v>195.9269561767578</v>
+        <v>192.0672607421875</v>
       </c>
       <c r="F121">
-        <v>38824100</v>
+        <v>50389300</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4954,10 +4984,10 @@
         <v>0</v>
       </c>
       <c r="I121">
-        <v>194.2055511474609</v>
+        <v>194.2195129394531</v>
       </c>
       <c r="J121">
-        <v>190.2235127766927</v>
+        <v>192.1186195373535</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -4965,19 +4995,19 @@
         <v>134</v>
       </c>
       <c r="B122">
-        <v>195.7175151124968</v>
+        <v>191.0599548787207</v>
       </c>
       <c r="C122">
-        <v>196.2062007444619</v>
+        <v>191.8578127154616</v>
       </c>
       <c r="D122">
-        <v>194.760064423188</v>
+        <v>190.1822929965104</v>
       </c>
       <c r="E122">
-        <v>195.0891876220703</v>
+        <v>190.6610107421875</v>
       </c>
       <c r="F122">
-        <v>35175100</v>
+        <v>61235200</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4986,10 +5016,10 @@
         <v>0</v>
       </c>
       <c r="I122">
-        <v>194.602490234375</v>
+        <v>193.8106048583984</v>
       </c>
       <c r="J122">
-        <v>190.5788976033529</v>
+        <v>192.0867050170899</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -4997,19 +5027,19 @@
         <v>135</v>
       </c>
       <c r="B123">
-        <v>194.5206870567558</v>
+        <v>185.026062911546</v>
       </c>
       <c r="C123">
-        <v>194.6603136892383</v>
+        <v>186.8811113269233</v>
       </c>
       <c r="D123">
-        <v>191.339193415323</v>
+        <v>181.4356417146341</v>
       </c>
       <c r="E123">
-        <v>192.0672454833984</v>
+        <v>181.5054626464844</v>
       </c>
       <c r="F123">
-        <v>50389300</v>
+        <v>115799700</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -5018,10 +5048,19 @@
         <v>0</v>
       </c>
       <c r="I123">
-        <v>194.2195098876953</v>
+        <v>191.0499755859375</v>
       </c>
       <c r="J123">
-        <v>190.8305587768555</v>
+        <v>191.6533630371094</v>
+      </c>
+      <c r="L123">
+        <v>181.6450754475743</v>
+      </c>
+      <c r="M123">
+        <v>32.04192228755366</v>
+      </c>
+      <c r="N123">
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5029,19 +5068,19 @@
         <v>136</v>
       </c>
       <c r="B124">
-        <v>191.0599548787207</v>
+        <v>181.6450754475743</v>
       </c>
       <c r="C124">
-        <v>191.8578127154616</v>
+        <v>182.6424129020176</v>
       </c>
       <c r="D124">
-        <v>190.1822929965104</v>
+        <v>176.8778036327882</v>
       </c>
       <c r="E124">
-        <v>190.6610107421875</v>
+        <v>178.3738098144531</v>
       </c>
       <c r="F124">
-        <v>61235200</v>
+        <v>97576100</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -5050,10 +5089,10 @@
         <v>0</v>
       </c>
       <c r="I124">
-        <v>193.8106018066406</v>
+        <v>187.5393463134766</v>
       </c>
       <c r="J124">
-        <v>191.0702519734701</v>
+        <v>191.1666618347168</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5061,19 +5100,19 @@
         <v>137</v>
       </c>
       <c r="B125">
-        <v>185.026062911546</v>
+        <v>179.2115660771669</v>
       </c>
       <c r="C125">
-        <v>186.8811113269233</v>
+        <v>179.7900236154755</v>
       </c>
       <c r="D125">
-        <v>181.4356417146341</v>
+        <v>177.1071834812115</v>
       </c>
       <c r="E125">
-        <v>181.5054626464844</v>
+        <v>179.3212738037109</v>
       </c>
       <c r="F125">
-        <v>115799700</v>
+        <v>67823000</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -5082,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="I125">
-        <v>191.0499725341797</v>
+        <v>184.3857635498047</v>
       </c>
       <c r="J125">
-        <v>190.9036966959635</v>
+        <v>190.7537635803223</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5093,19 +5132,19 @@
         <v>138</v>
       </c>
       <c r="B126">
-        <v>181.6450754475743</v>
+        <v>180.3884334365214</v>
       </c>
       <c r="C126">
-        <v>182.6424129020176</v>
+        <v>180.4482712531683</v>
       </c>
       <c r="D126">
-        <v>176.8778036327882</v>
+        <v>176.5387099778891</v>
       </c>
       <c r="E126">
-        <v>178.3738098144531</v>
+        <v>177.715576171875</v>
       </c>
       <c r="F126">
-        <v>97576100</v>
+        <v>60378500</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -5114,19 +5153,10 @@
         <v>0</v>
       </c>
       <c r="I126">
-        <v>187.5393432617188</v>
+        <v>181.5154266357422</v>
       </c>
       <c r="J126">
-        <v>190.6433919270833</v>
-      </c>
-      <c r="L126">
-        <v>179.2115660771669</v>
-      </c>
-      <c r="M126">
-        <v>20.5551515185565</v>
-      </c>
-      <c r="N126">
-        <v>95</v>
+        <v>190.1763053894043</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -5134,19 +5164,19 @@
         <v>139</v>
       </c>
       <c r="B127">
-        <v>179.2115660771669</v>
+        <v>179.0021289205259</v>
       </c>
       <c r="C127">
-        <v>179.7900236154755</v>
+        <v>180.2687517972825</v>
       </c>
       <c r="D127">
-        <v>177.1071834812115</v>
+        <v>177.1271447826861</v>
       </c>
       <c r="E127">
-        <v>179.3212738037109</v>
+        <v>177.4961547851562</v>
       </c>
       <c r="F127">
-        <v>67823000</v>
+        <v>54686900</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -5155,10 +5185,10 @@
         <v>0</v>
       </c>
       <c r="I127">
-        <v>184.3857604980469</v>
+        <v>178.8824554443359</v>
       </c>
       <c r="J127">
-        <v>190.4615432739258</v>
+        <v>189.5494789123535</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -5166,51 +5196,51 @@
         <v>140</v>
       </c>
       <c r="B128">
-        <v>180.3884179482388</v>
+        <v>177.0867084456243</v>
       </c>
       <c r="C128">
-        <v>180.448255759748</v>
+        <v>178.3849858523887</v>
       </c>
       <c r="D128">
-        <v>176.5386948201467</v>
+        <v>176.3177172632032</v>
       </c>
       <c r="E128">
-        <v>177.7155609130859</v>
+        <v>177.5560760498047</v>
       </c>
       <c r="F128">
-        <v>60378500</v>
+        <v>51988100</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>181.5154235839844</v>
+        <v>178.092578125</v>
       </c>
       <c r="J128">
-        <v>190.1334192911784</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
+        <v>188.9181678771973</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>179.0021289205259</v>
+        <v>177.7358471104349</v>
       </c>
       <c r="C129">
-        <v>180.2687517972825</v>
+        <v>179.453585335393</v>
       </c>
       <c r="D129">
-        <v>177.1271447826861</v>
+        <v>177.0767118113598</v>
       </c>
       <c r="E129">
-        <v>177.4961547851562</v>
+        <v>179.2238922119141</v>
       </c>
       <c r="F129">
-        <v>54686900</v>
+        <v>43675600</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -5219,62 +5249,62 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>178.8824523925781</v>
+        <v>178.2625946044922</v>
       </c>
       <c r="J129">
-        <v>189.758420308431</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+        <v>188.205687713623</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>177.0867084456243</v>
+        <v>178.6446486595428</v>
       </c>
       <c r="C130">
-        <v>178.3849858523887</v>
+        <v>179.2438500835664</v>
       </c>
       <c r="D130">
-        <v>176.3177172632032</v>
+        <v>176.8170546007812</v>
       </c>
       <c r="E130">
-        <v>177.5560760498047</v>
+        <v>177.2165222167969</v>
       </c>
       <c r="F130">
-        <v>51988100</v>
+        <v>43622600</v>
       </c>
       <c r="G130">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>178.0925750732422</v>
+        <v>177.8416442871094</v>
       </c>
       <c r="J130">
-        <v>189.374116007487</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
+        <v>187.4058044433594</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>177.7358471104349</v>
+        <v>176.8969530245068</v>
       </c>
       <c r="C131">
-        <v>179.453585335393</v>
+        <v>178.3050862908739</v>
       </c>
       <c r="D131">
-        <v>177.0767118113598</v>
+        <v>176.2677770459152</v>
       </c>
       <c r="E131">
-        <v>179.2238922119141</v>
+        <v>176.3376922607422</v>
       </c>
       <c r="F131">
-        <v>43675600</v>
+        <v>46964900</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -5283,30 +5313,30 @@
         <v>0</v>
       </c>
       <c r="I131">
-        <v>178.2625915527344</v>
+        <v>177.5660675048828</v>
       </c>
       <c r="J131">
-        <v>188.8997934977214</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
+        <v>186.4936614990234</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>178.6446486595428</v>
+        <v>176.9069405557178</v>
       </c>
       <c r="C132">
-        <v>179.2438500835664</v>
+        <v>177.2764488792344</v>
       </c>
       <c r="D132">
-        <v>176.8170546007812</v>
+        <v>173.2517522723406</v>
       </c>
       <c r="E132">
-        <v>177.2165222167969</v>
+        <v>173.7710723876953</v>
       </c>
       <c r="F132">
-        <v>43622600</v>
+        <v>66062900</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -5315,30 +5345,30 @@
         <v>0</v>
       </c>
       <c r="I132">
-        <v>177.8416412353516</v>
+        <v>176.8210510253906</v>
       </c>
       <c r="J132">
-        <v>188.4087580362956</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
+        <v>185.5514251708984</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>176.8969530245068</v>
+        <v>172.073300788604</v>
       </c>
       <c r="C133">
-        <v>178.3050862908739</v>
+        <v>174.8696197601678</v>
       </c>
       <c r="D133">
-        <v>176.2677770459152</v>
+        <v>171.7337517980024</v>
       </c>
       <c r="E133">
-        <v>176.3376922607422</v>
+        <v>174.2604217529297</v>
       </c>
       <c r="F133">
-        <v>46964900</v>
+        <v>61114200</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -5347,30 +5377,30 @@
         <v>0</v>
       </c>
       <c r="I133">
-        <v>177.5660675048828</v>
+        <v>176.1619201660156</v>
       </c>
       <c r="J133">
-        <v>187.9259948730469</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
+        <v>184.6929977416992</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>176.9069405557178</v>
+        <v>174.8396666437127</v>
       </c>
       <c r="C134">
-        <v>177.2764488792344</v>
+        <v>175.8982695570287</v>
       </c>
       <c r="D134">
-        <v>173.2517522723406</v>
+        <v>173.5114147042101</v>
       </c>
       <c r="E134">
-        <v>173.7710723876953</v>
+        <v>175.608642578125</v>
       </c>
       <c r="F134">
-        <v>66062900</v>
+        <v>46311900</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -5379,30 +5409,30 @@
         <v>0</v>
       </c>
       <c r="I134">
-        <v>176.8210510253906</v>
+        <v>175.4388702392578</v>
       </c>
       <c r="J134">
-        <v>187.3417205810547</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
+        <v>183.8615898132324</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>172.073300788604</v>
+        <v>176.8270364139056</v>
       </c>
       <c r="C135">
-        <v>174.8696197601678</v>
+        <v>177.4462157919414</v>
       </c>
       <c r="D135">
-        <v>171.7337517980024</v>
+        <v>176.0181045842232</v>
       </c>
       <c r="E135">
-        <v>174.2604217529297</v>
+        <v>176.9968109130859</v>
       </c>
       <c r="F135">
-        <v>61114200</v>
+        <v>42084200</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -5411,30 +5441,30 @@
         <v>0</v>
       </c>
       <c r="I135">
-        <v>176.1619201660156</v>
+        <v>175.3949279785156</v>
       </c>
       <c r="J135">
-        <v>186.8113245646159</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
+        <v>183.0562065124512</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>174.8396666437127</v>
+        <v>178.2851285275736</v>
       </c>
       <c r="C136">
-        <v>175.8982695570287</v>
+        <v>181.311140788815</v>
       </c>
       <c r="D136">
-        <v>173.5114147042101</v>
+        <v>178.0953760691602</v>
       </c>
       <c r="E136">
-        <v>175.608642578125</v>
+        <v>180.8816986083984</v>
       </c>
       <c r="F136">
-        <v>46311900</v>
+        <v>52722800</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -5443,30 +5473,30 @@
         <v>0</v>
       </c>
       <c r="I136">
-        <v>175.4388702392578</v>
+        <v>176.3037292480469</v>
       </c>
       <c r="J136">
-        <v>186.3946848551432</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
+        <v>182.4011840820312</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>176.8270364139056</v>
+        <v>180.4322827134178</v>
       </c>
       <c r="C137">
-        <v>177.4462157919414</v>
+        <v>180.8617248676534</v>
       </c>
       <c r="D137">
-        <v>176.0181045842232</v>
+        <v>175.7784104228949</v>
       </c>
       <c r="E137">
-        <v>176.9968109130859</v>
+        <v>176.1479339599609</v>
       </c>
       <c r="F137">
-        <v>42084200</v>
+        <v>54945800</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -5475,30 +5505,30 @@
         <v>0</v>
       </c>
       <c r="I137">
-        <v>175.3949279785156</v>
+        <v>176.7791015625</v>
       </c>
       <c r="J137">
-        <v>186.0419367472331</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
+        <v>181.5733032226562</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>178.2851285275736</v>
+        <v>177.1466226014779</v>
       </c>
       <c r="C138">
-        <v>181.311140788815</v>
+        <v>178.9142828065886</v>
       </c>
       <c r="D138">
-        <v>178.0953760691602</v>
+        <v>175.5886775616522</v>
       </c>
       <c r="E138">
-        <v>180.8816986083984</v>
+        <v>178.375</v>
       </c>
       <c r="F138">
-        <v>52722800</v>
+        <v>51449600</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -5507,30 +5537,30 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>176.3037292480469</v>
+        <v>177.6020172119141</v>
       </c>
       <c r="J138">
-        <v>185.7625020345052</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
+        <v>180.7266227722168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>180.4322827134178</v>
+        <v>179.8530521101568</v>
       </c>
       <c r="C139">
-        <v>180.8617248676534</v>
+        <v>180.3523942606577</v>
       </c>
       <c r="D139">
-        <v>175.7784104228949</v>
+        <v>178.3150849916475</v>
       </c>
       <c r="E139">
-        <v>176.1479339599609</v>
+        <v>179.9529266357422</v>
       </c>
       <c r="F139">
-        <v>54945800</v>
+        <v>43820700</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -5539,30 +5569,30 @@
         <v>0</v>
       </c>
       <c r="I139">
-        <v>176.7791015625</v>
+        <v>178.4708740234375</v>
       </c>
       <c r="J139">
-        <v>185.2996775309245</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
+        <v>179.927921295166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>177.1466226014779</v>
+        <v>179.46356384927</v>
       </c>
       <c r="C140">
-        <v>178.9142828065886</v>
+        <v>184.6567191090648</v>
       </c>
       <c r="D140">
-        <v>175.5886775616522</v>
+        <v>179.2638300390304</v>
       </c>
       <c r="E140">
-        <v>178.375</v>
+        <v>183.8777465820312</v>
       </c>
       <c r="F140">
-        <v>51449600</v>
+        <v>53003900</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -5571,30 +5601,33 @@
         <v>0</v>
       </c>
       <c r="I140">
-        <v>177.6020172119141</v>
+        <v>179.8470611572266</v>
       </c>
       <c r="J140">
-        <v>184.9061014811198</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
+        <v>179.3673492431641</v>
+      </c>
+      <c r="K140">
+        <v>184.696680713955</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>179.8530521101568</v>
+        <v>184.696680713955</v>
       </c>
       <c r="C141">
-        <v>180.3523942606577</v>
+        <v>187.6028557445698</v>
       </c>
       <c r="D141">
-        <v>178.3150849916475</v>
+        <v>184.4969468975517</v>
       </c>
       <c r="E141">
-        <v>179.9529266357422</v>
+        <v>187.4031066894531</v>
       </c>
       <c r="F141">
-        <v>43820700</v>
+        <v>60813900</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -5603,30 +5636,30 @@
         <v>0</v>
       </c>
       <c r="I141">
-        <v>178.4708740234375</v>
+        <v>181.1513427734375</v>
       </c>
       <c r="J141">
-        <v>184.4554153442383</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
+        <v>179.1341415405273</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>179.46356384927</v>
+        <v>187.5928586827137</v>
       </c>
       <c r="C142">
-        <v>184.6567191090648</v>
+        <v>188.8711733909761</v>
       </c>
       <c r="D142">
-        <v>179.2638300390304</v>
+        <v>187.2333317185953</v>
       </c>
       <c r="E142">
-        <v>183.8777465820312</v>
+        <v>187.6228179931641</v>
       </c>
       <c r="F142">
-        <v>53003900</v>
+        <v>60794500</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -5635,30 +5668,30 @@
         <v>0</v>
       </c>
       <c r="I142">
-        <v>179.8470611572266</v>
+        <v>183.4463195800781</v>
       </c>
       <c r="J142">
-        <v>184.1442006429037</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10">
+        <v>178.9822319030762</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>184.696680713955</v>
+        <v>189.2406984464293</v>
       </c>
       <c r="C143">
-        <v>187.6028557445698</v>
+        <v>189.6701253920876</v>
       </c>
       <c r="D143">
-        <v>184.4969468975517</v>
+        <v>188.0322837067646</v>
       </c>
       <c r="E143">
-        <v>187.4031066894531</v>
+        <v>189.2107391357422</v>
       </c>
       <c r="F143">
-        <v>60813900</v>
+        <v>45732600</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -5667,30 +5700,30 @@
         <v>0</v>
       </c>
       <c r="I143">
-        <v>181.1513427734375</v>
+        <v>185.6134674072266</v>
       </c>
       <c r="J143">
-        <v>183.9049524943034</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10">
+        <v>179.3674957275391</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>187.5928586827137</v>
+        <v>188.0322790561467</v>
       </c>
       <c r="C144">
-        <v>188.8711733909761</v>
+        <v>189.7300393208532</v>
       </c>
       <c r="D144">
-        <v>187.2333317185953</v>
+        <v>187.3631624028271</v>
       </c>
       <c r="E144">
-        <v>187.6228179931641</v>
+        <v>189.4504089355469</v>
       </c>
       <c r="F144">
-        <v>60794500</v>
+        <v>45280000</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -5699,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="I144">
-        <v>183.4463195800781</v>
+        <v>187.5129638671875</v>
       </c>
       <c r="J144">
-        <v>183.7385197957357</v>
+        <v>179.9213256835938</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -5710,19 +5743,19 @@
         <v>157</v>
       </c>
       <c r="B145">
-        <v>189.2406984464293</v>
+        <v>188.1521088872591</v>
       </c>
       <c r="C145">
-        <v>189.6701253920876</v>
+        <v>188.6015289961815</v>
       </c>
       <c r="D145">
-        <v>188.0322837067646</v>
+        <v>181.2312342653739</v>
       </c>
       <c r="E145">
-        <v>189.2107391357422</v>
+        <v>182.6693420410156</v>
       </c>
       <c r="F145">
-        <v>45732600</v>
+        <v>81755800</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -5731,13 +5764,10 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>185.6134674072266</v>
+        <v>187.2712829589844</v>
       </c>
       <c r="J145">
-        <v>183.6645787556966</v>
-      </c>
-      <c r="K145">
-        <v>188.0322790561467</v>
+        <v>180.088729095459</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -5745,19 +5775,19 @@
         <v>158</v>
       </c>
       <c r="B146">
-        <v>188.0322790561467</v>
+        <v>174.9495119390259</v>
       </c>
       <c r="C146">
-        <v>189.7300393208532</v>
+        <v>177.9755394495569</v>
       </c>
       <c r="D146">
-        <v>187.3631624028271</v>
+        <v>173.3116702630629</v>
       </c>
       <c r="E146">
-        <v>189.4504089355469</v>
+        <v>177.3263854980469</v>
       </c>
       <c r="F146">
-        <v>45280000</v>
+        <v>112488800</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -5766,10 +5796,10 @@
         <v>0</v>
       </c>
       <c r="I146">
-        <v>187.5129638671875</v>
+        <v>185.2559387207031</v>
       </c>
       <c r="J146">
-        <v>183.5716990152995</v>
+        <v>180.0692695617676</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -5777,19 +5807,19 @@
         <v>159</v>
       </c>
       <c r="B147">
-        <v>188.1521088872591</v>
+        <v>178.1153463772854</v>
       </c>
       <c r="C147">
-        <v>188.6015289961815</v>
+        <v>180.0028590457442</v>
       </c>
       <c r="D147">
-        <v>181.2312342653739</v>
+        <v>177.5560703832831</v>
       </c>
       <c r="E147">
-        <v>182.6693420410156</v>
+        <v>177.945556640625</v>
       </c>
       <c r="F147">
-        <v>81755800</v>
+        <v>65551300</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -5798,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="I147">
-        <v>187.2712829589844</v>
+        <v>183.3204864501953</v>
       </c>
       <c r="J147">
-        <v>183.2238606770833</v>
+        <v>180.091739654541</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -5809,19 +5839,19 @@
         <v>160</v>
       </c>
       <c r="B148">
-        <v>174.9495119390259</v>
+        <v>179.8330807031807</v>
       </c>
       <c r="C148">
-        <v>177.9755394495569</v>
+        <v>180.0627738144686</v>
       </c>
       <c r="D148">
-        <v>173.3116702630629</v>
+        <v>177.1066617213624</v>
       </c>
       <c r="E148">
-        <v>177.3263854980469</v>
+        <v>179.1240081787109</v>
       </c>
       <c r="F148">
-        <v>112488800</v>
+        <v>58953100</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -5830,10 +5860,10 @@
         <v>0</v>
       </c>
       <c r="I148">
-        <v>185.2559387207031</v>
+        <v>181.3031402587891</v>
       </c>
       <c r="J148">
-        <v>182.6686686197917</v>
+        <v>180.1701362609863</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -5841,19 +5871,19 @@
         <v>161</v>
       </c>
       <c r="B149">
-        <v>178.1153463772854</v>
+        <v>179.2538441834885</v>
       </c>
       <c r="C149">
-        <v>180.0028590457442</v>
+        <v>179.8930015034427</v>
       </c>
       <c r="D149">
-        <v>177.5560703832831</v>
+        <v>174.5899904952943</v>
       </c>
       <c r="E149">
-        <v>177.945556640625</v>
+        <v>176.0680389404297</v>
       </c>
       <c r="F149">
-        <v>65551300</v>
+        <v>90370200</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -5862,10 +5892,19 @@
         <v>0</v>
       </c>
       <c r="I149">
-        <v>183.3204864501953</v>
+        <v>178.6266662597656</v>
       </c>
       <c r="J149">
-        <v>182.1766688028971</v>
+        <v>180.0123435974121</v>
+      </c>
+      <c r="L149">
+        <v>176.2777507591877</v>
+      </c>
+      <c r="M149">
+        <v>-8.418929954767322</v>
+      </c>
+      <c r="N149">
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -5873,19 +5912,19 @@
         <v>162</v>
       </c>
       <c r="B150">
-        <v>179.8330807031807</v>
+        <v>176.2777507591877</v>
       </c>
       <c r="C150">
-        <v>180.0627738144686</v>
+        <v>177.0667198471334</v>
       </c>
       <c r="D150">
-        <v>177.1066617213624</v>
+        <v>173.7510808361388</v>
       </c>
       <c r="E150">
-        <v>179.1240081787109</v>
+        <v>173.9807891845703</v>
       </c>
       <c r="F150">
-        <v>58953100</v>
+        <v>84267900</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -5894,19 +5933,10 @@
         <v>0</v>
       </c>
       <c r="I150">
-        <v>181.3031402587891</v>
+        <v>176.8889556884766</v>
       </c>
       <c r="J150">
-        <v>181.6371821085612</v>
-      </c>
-      <c r="L150">
-        <v>179.2538441834885</v>
-      </c>
-      <c r="M150">
-        <v>-8.77843487265821</v>
-      </c>
-      <c r="N150">
-        <v>5</v>
+        <v>179.8505569458008</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -5914,19 +5944,19 @@
         <v>163</v>
       </c>
       <c r="B151">
-        <v>179.2538441834885</v>
+        <v>173.7710728480823</v>
       </c>
       <c r="C151">
-        <v>179.8930015034427</v>
+        <v>175.8683160296653</v>
       </c>
       <c r="D151">
-        <v>174.5899904952943</v>
+        <v>173.3516272595084</v>
       </c>
       <c r="E151">
-        <v>176.0680389404297</v>
+        <v>175.5087890625</v>
       </c>
       <c r="F151">
-        <v>90370200</v>
+        <v>60895800</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -5935,10 +5965,10 @@
         <v>0</v>
       </c>
       <c r="I151">
-        <v>178.6266662597656</v>
+        <v>176.5254364013672</v>
       </c>
       <c r="J151">
-        <v>180.9752182006836</v>
+        <v>179.8091117858887</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -5946,19 +5976,19 @@
         <v>164</v>
       </c>
       <c r="B152">
-        <v>176.2777507591877</v>
+        <v>176.2477911794132</v>
       </c>
       <c r="C152">
-        <v>177.0667198471334</v>
+        <v>176.2677691311401</v>
       </c>
       <c r="D152">
-        <v>173.7510808361388</v>
+        <v>173.5913026708128</v>
       </c>
       <c r="E152">
-        <v>173.9807891845703</v>
+        <v>174.7797241210938</v>
       </c>
       <c r="F152">
-        <v>84267900</v>
+        <v>109205100</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -5967,10 +5997,10 @@
         <v>0</v>
       </c>
       <c r="I152">
-        <v>176.8889556884766</v>
+        <v>175.8922698974609</v>
       </c>
       <c r="J152">
-        <v>180.2716049194336</v>
+        <v>179.8595443725586</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -5978,19 +6008,19 @@
         <v>165</v>
       </c>
       <c r="B153">
-        <v>173.7710728480823</v>
+        <v>176.2477948031091</v>
       </c>
       <c r="C153">
-        <v>175.8683160296653</v>
+        <v>179.1439883145532</v>
       </c>
       <c r="D153">
-        <v>173.3516272595084</v>
+        <v>175.9382051191835</v>
       </c>
       <c r="E153">
-        <v>175.5087890625</v>
+        <v>177.73583984375</v>
       </c>
       <c r="F153">
-        <v>60895800</v>
+        <v>67257600</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -5999,10 +6029,10 @@
         <v>0</v>
       </c>
       <c r="I153">
-        <v>176.5254364013672</v>
+        <v>175.6146362304688</v>
       </c>
       <c r="J153">
-        <v>179.7196563720703</v>
+        <v>180.0333152770996</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -6010,19 +6040,19 @@
         <v>166</v>
       </c>
       <c r="B154">
-        <v>176.2477911794132</v>
+        <v>177.286432723598</v>
       </c>
       <c r="C154">
-        <v>176.2677691311401</v>
+        <v>179.3936571053623</v>
       </c>
       <c r="D154">
-        <v>173.5913026708128</v>
+        <v>176.8969464747748</v>
       </c>
       <c r="E154">
-        <v>174.7797241210938</v>
+        <v>178.8343963623047</v>
       </c>
       <c r="F154">
-        <v>109205100</v>
+        <v>51826900</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -6031,10 +6061,10 @@
         <v>0</v>
       </c>
       <c r="I154">
-        <v>175.8922698974609</v>
+        <v>176.1679077148438</v>
       </c>
       <c r="J154">
-        <v>179.1902801513672</v>
+        <v>180.1946029663086</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -6042,19 +6072,19 @@
         <v>167</v>
       </c>
       <c r="B155">
-        <v>176.2477948031091</v>
+        <v>179.0241382546517</v>
       </c>
       <c r="C155">
-        <v>179.1439883145532</v>
+        <v>179.4635617753285</v>
       </c>
       <c r="D155">
-        <v>175.9382051191835</v>
+        <v>175.1692163305953</v>
       </c>
       <c r="E155">
-        <v>177.73583984375</v>
+        <v>175.2591094970703</v>
       </c>
       <c r="F155">
-        <v>67257600</v>
+        <v>58436200</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -6063,10 +6093,10 @@
         <v>0</v>
       </c>
       <c r="I155">
-        <v>175.6146362304688</v>
+        <v>176.4235717773437</v>
       </c>
       <c r="J155">
-        <v>179.0646260579427</v>
+        <v>180.1077178955078</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -6074,19 +6104,19 @@
         <v>168</v>
       </c>
       <c r="B156">
-        <v>177.286432723598</v>
+        <v>174.3203512574821</v>
       </c>
       <c r="C156">
-        <v>179.3936571053623</v>
+        <v>176.0680488190235</v>
       </c>
       <c r="D156">
-        <v>176.8969464747748</v>
+        <v>173.6312566378803</v>
       </c>
       <c r="E156">
-        <v>178.8343963623047</v>
+        <v>173.7011566162109</v>
       </c>
       <c r="F156">
-        <v>51826900</v>
+        <v>63047900</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -6095,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="I156">
-        <v>176.1679077148438</v>
+        <v>176.0620452880859</v>
       </c>
       <c r="J156">
-        <v>179.0799789428711</v>
+        <v>179.7486907958984</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -6106,19 +6136,19 @@
         <v>169</v>
       </c>
       <c r="B157">
-        <v>179.0241382546517</v>
+        <v>174.4401755841381</v>
       </c>
       <c r="C157">
-        <v>179.4635617753285</v>
+        <v>176.8470082765513</v>
       </c>
       <c r="D157">
-        <v>175.1692163305953</v>
+        <v>173.820996227424</v>
       </c>
       <c r="E157">
-        <v>175.2591094970703</v>
+        <v>174.5600128173828</v>
       </c>
       <c r="F157">
-        <v>58436200</v>
+        <v>56725400</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -6127,10 +6157,10 @@
         <v>0</v>
       </c>
       <c r="I157">
-        <v>176.4235717773437</v>
+        <v>176.0181030273438</v>
       </c>
       <c r="J157">
-        <v>178.9445734659831</v>
+        <v>179.6692947387695</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -6138,19 +6168,19 @@
         <v>170</v>
       </c>
       <c r="B158">
-        <v>174.3203512574821</v>
+        <v>173.970796337573</v>
       </c>
       <c r="C158">
-        <v>176.0680488190235</v>
+        <v>176.7371560251779</v>
       </c>
       <c r="D158">
-        <v>173.6312566378803</v>
+        <v>173.9208590764593</v>
       </c>
       <c r="E158">
-        <v>173.7011566162109</v>
+        <v>175.8483276367188</v>
       </c>
       <c r="F158">
-        <v>63047900</v>
+        <v>46172700</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -6159,10 +6189,10 @@
         <v>0</v>
       </c>
       <c r="I158">
-        <v>176.0620452880859</v>
+        <v>175.6406005859375</v>
       </c>
       <c r="J158">
-        <v>178.8107599894206</v>
+        <v>179.5429611206055</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -6170,19 +6200,19 @@
         <v>171</v>
       </c>
       <c r="B159">
-        <v>174.4401755841381</v>
+        <v>174.5899869384735</v>
       </c>
       <c r="C159">
-        <v>176.8470082765513</v>
+        <v>174.9694765890601</v>
       </c>
       <c r="D159">
-        <v>173.820996227424</v>
+        <v>171.4341410685553</v>
       </c>
       <c r="E159">
-        <v>174.5600128173828</v>
+        <v>171.7337493896484</v>
       </c>
       <c r="F159">
-        <v>56725400</v>
+        <v>64588900</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -6191,10 +6221,10 @@
         <v>0</v>
       </c>
       <c r="I159">
-        <v>176.0181030273438</v>
+        <v>174.2204711914063</v>
       </c>
       <c r="J159">
-        <v>178.7128885904948</v>
+        <v>179.1320022583008</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -6202,19 +6232,19 @@
         <v>172</v>
       </c>
       <c r="B160">
-        <v>173.970796337573</v>
+        <v>172.3928704586823</v>
       </c>
       <c r="C160">
-        <v>176.7371560251779</v>
+        <v>172.8123160152803</v>
       </c>
       <c r="D160">
-        <v>173.9208590764593</v>
+        <v>168.8275756082431</v>
       </c>
       <c r="E160">
-        <v>175.8483276367188</v>
+        <v>170.2057495117188</v>
       </c>
       <c r="F160">
-        <v>46172700</v>
+        <v>66921800</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -6223,10 +6253,10 @@
         <v>0</v>
       </c>
       <c r="I160">
-        <v>175.6406005859375</v>
+        <v>173.2097991943359</v>
       </c>
       <c r="J160">
-        <v>178.6559636433919</v>
+        <v>178.4484024047852</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6234,19 +6264,19 @@
         <v>173</v>
       </c>
       <c r="B161">
-        <v>174.5899869384735</v>
+        <v>169.1171936994851</v>
       </c>
       <c r="C161">
-        <v>174.9694765890601</v>
+        <v>171.8036568728258</v>
       </c>
       <c r="D161">
-        <v>171.4341410685553</v>
+        <v>167.3994555047553</v>
       </c>
       <c r="E161">
-        <v>171.7337493896484</v>
+        <v>170.4654235839844</v>
       </c>
       <c r="F161">
-        <v>64588900</v>
+        <v>56294400</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -6255,10 +6285,10 @@
         <v>0</v>
       </c>
       <c r="I161">
-        <v>174.2204711914063</v>
+        <v>172.5626525878906</v>
       </c>
       <c r="J161">
-        <v>178.4062922159831</v>
+        <v>177.6015182495117</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6266,19 +6296,19 @@
         <v>174</v>
       </c>
       <c r="B162">
-        <v>172.3928704586823</v>
+        <v>171.7936730344676</v>
       </c>
       <c r="C162">
-        <v>172.8123160152803</v>
+        <v>172.8422945696302</v>
       </c>
       <c r="D162">
-        <v>168.8275756082431</v>
+        <v>170.1158755304648</v>
       </c>
       <c r="E162">
-        <v>170.2057495117188</v>
+        <v>170.9847412109375</v>
       </c>
       <c r="F162">
-        <v>66921800</v>
+        <v>51814200</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -6287,10 +6317,10 @@
         <v>0</v>
       </c>
       <c r="I162">
-        <v>173.2097991943359</v>
+        <v>171.8475982666016</v>
       </c>
       <c r="J162">
-        <v>178.1725997924805</v>
+        <v>176.7696144104004</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6298,19 +6328,19 @@
         <v>175</v>
       </c>
       <c r="B163">
-        <v>169.1171936994851</v>
+        <v>170.9947228250154</v>
       </c>
       <c r="C163">
-        <v>171.8036568728258</v>
+        <v>174.070672221388</v>
       </c>
       <c r="D163">
-        <v>167.3994555047553</v>
+        <v>170.7050958515179</v>
       </c>
       <c r="E163">
-        <v>170.4654235839844</v>
+        <v>173.5213928222656</v>
       </c>
       <c r="F163">
-        <v>56294400</v>
+        <v>52164500</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -6319,10 +6349,10 @@
         <v>0</v>
       </c>
       <c r="I163">
-        <v>172.5626525878906</v>
+        <v>171.3822113037109</v>
       </c>
       <c r="J163">
-        <v>177.9768575032552</v>
+        <v>175.9851470947266</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6330,19 +6360,19 @@
         <v>176</v>
       </c>
       <c r="B164">
-        <v>171.7936730344676</v>
+        <v>172.0333568007432</v>
       </c>
       <c r="C164">
-        <v>172.8422945696302</v>
+        <v>173.4015646919942</v>
       </c>
       <c r="D164">
-        <v>170.1158755304648</v>
+        <v>170.595264169399</v>
       </c>
       <c r="E164">
-        <v>170.9847412109375</v>
+        <v>172.1731719970703</v>
       </c>
       <c r="F164">
-        <v>51814200</v>
+        <v>49594600</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -6351,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="I164">
-        <v>171.8475982666016</v>
+        <v>171.4700958251953</v>
       </c>
       <c r="J164">
-        <v>177.8839797973633</v>
+        <v>175.1212852478027</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6362,19 +6392,19 @@
         <v>177</v>
       </c>
       <c r="B165">
-        <v>170.9947228250154</v>
+        <v>170.8648925985856</v>
       </c>
       <c r="C165">
-        <v>174.070672221388</v>
+        <v>173.9807979654013</v>
       </c>
       <c r="D165">
-        <v>170.7050958515179</v>
+        <v>170.7450553594164</v>
       </c>
       <c r="E165">
-        <v>173.5213928222656</v>
+        <v>173.4315185546875</v>
       </c>
       <c r="F165">
-        <v>52164500</v>
+        <v>53020300</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -6383,10 +6413,10 @@
         <v>0</v>
       </c>
       <c r="I165">
-        <v>171.3822113037109</v>
+        <v>172.1152496337891</v>
       </c>
       <c r="J165">
-        <v>177.8593454996745</v>
+        <v>174.6593940734863</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6394,19 +6424,19 @@
         <v>178</v>
       </c>
       <c r="B166">
-        <v>172.0333568007432</v>
+        <v>173.561333852532</v>
       </c>
       <c r="C166">
-        <v>173.4015646919942</v>
+        <v>175.2191534101946</v>
       </c>
       <c r="D166">
-        <v>170.595264169399</v>
+        <v>172.4527936951447</v>
       </c>
       <c r="E166">
-        <v>172.1731719970703</v>
+        <v>174.6798706054688</v>
       </c>
       <c r="F166">
-        <v>49594600</v>
+        <v>48527900</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -6415,10 +6445,10 @@
         <v>0</v>
       </c>
       <c r="I166">
-        <v>171.4700958251953</v>
+        <v>172.9581390380859</v>
       </c>
       <c r="J166">
-        <v>177.7448298136393</v>
+        <v>174.5270683288574</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6426,19 +6456,19 @@
         <v>179</v>
       </c>
       <c r="B167">
-        <v>170.8648925985856</v>
+        <v>173.5713374158664</v>
       </c>
       <c r="C167">
-        <v>173.9807979654013</v>
+        <v>177.7558271440631</v>
       </c>
       <c r="D167">
-        <v>170.7450553594164</v>
+        <v>172.9521427767391</v>
       </c>
       <c r="E167">
-        <v>173.4315185546875</v>
+        <v>177.2564849853516</v>
       </c>
       <c r="F167">
-        <v>53020300</v>
+        <v>57224100</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -6447,10 +6477,10 @@
         <v>0</v>
       </c>
       <c r="I167">
-        <v>172.1152496337891</v>
+        <v>174.2124877929687</v>
       </c>
       <c r="J167">
-        <v>177.625986735026</v>
+        <v>174.4926147460938</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6458,19 +6488,19 @@
         <v>180</v>
       </c>
       <c r="B168">
-        <v>173.561333852532</v>
+        <v>176.5773617299011</v>
       </c>
       <c r="C168">
-        <v>175.2191534101946</v>
+        <v>178.8144199602329</v>
       </c>
       <c r="D168">
-        <v>172.4527936951447</v>
+        <v>175.5686961123379</v>
       </c>
       <c r="E168">
-        <v>174.6798706054688</v>
+        <v>178.7545013427734</v>
       </c>
       <c r="F168">
-        <v>48527900</v>
+        <v>42390800</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -6479,10 +6509,13 @@
         <v>0</v>
       </c>
       <c r="I168">
-        <v>172.9581390380859</v>
+        <v>175.2591094970703</v>
       </c>
       <c r="J168">
-        <v>177.4192591349284</v>
+        <v>174.4741394042969</v>
+      </c>
+      <c r="K168">
+        <v>177.8656769591528</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6490,19 +6523,19 @@
         <v>181</v>
       </c>
       <c r="B169">
-        <v>173.5713374158664</v>
+        <v>177.8656769591528</v>
       </c>
       <c r="C169">
-        <v>177.7558271440631</v>
+        <v>179.4835406217829</v>
       </c>
       <c r="D169">
-        <v>172.9521427767391</v>
+        <v>177.7158651734234</v>
       </c>
       <c r="E169">
-        <v>177.2564849853516</v>
+        <v>178.1552886962891</v>
       </c>
       <c r="F169">
-        <v>57224100</v>
+        <v>43698000</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -6511,10 +6544,10 @@
         <v>0</v>
       </c>
       <c r="I169">
-        <v>174.2124877929687</v>
+        <v>176.4555328369141</v>
       </c>
       <c r="J169">
-        <v>177.4562108357747</v>
+        <v>174.5785018920898</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6522,19 +6555,19 @@
         <v>182</v>
       </c>
       <c r="B170">
-        <v>176.5773617299011</v>
+        <v>177.9655298943107</v>
       </c>
       <c r="C170">
-        <v>178.8144199602329</v>
+        <v>179.6133680462608</v>
       </c>
       <c r="D170">
-        <v>175.5686961123379</v>
+        <v>177.3663284889116</v>
       </c>
       <c r="E170">
-        <v>178.7545013427734</v>
+        <v>179.5634307861328</v>
       </c>
       <c r="F170">
-        <v>42390800</v>
+        <v>47551100</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -6543,10 +6576,10 @@
         <v>0</v>
       </c>
       <c r="I170">
-        <v>175.2591094970703</v>
+        <v>177.6819152832031</v>
       </c>
       <c r="J170">
-        <v>177.4688608805339</v>
+        <v>174.857633972168</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6554,19 +6587,19 @@
         <v>183</v>
       </c>
       <c r="B171">
-        <v>177.8656769591528</v>
+        <v>179.8330869283729</v>
       </c>
       <c r="C171">
-        <v>179.4835406217829</v>
+        <v>182.1000892886667</v>
       </c>
       <c r="D171">
-        <v>177.7158651734234</v>
+        <v>178.8044280928399</v>
       </c>
       <c r="E171">
-        <v>178.1552886962891</v>
+        <v>180.4722442626953</v>
       </c>
       <c r="F171">
-        <v>43698000</v>
+        <v>56743100</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -6575,10 +6608,10 @@
         <v>0</v>
       </c>
       <c r="I171">
-        <v>176.4555328369141</v>
+        <v>178.8403900146484</v>
       </c>
       <c r="J171">
-        <v>177.4089396158854</v>
+        <v>175.1058067321777</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6586,19 +6619,19 @@
         <v>184</v>
       </c>
       <c r="B172">
-        <v>177.9655298943107</v>
+        <v>181.1812956691862</v>
       </c>
       <c r="C172">
-        <v>179.6133680462608</v>
+        <v>181.6906191531753</v>
       </c>
       <c r="D172">
-        <v>177.3663284889116</v>
+        <v>177.9056125326835</v>
       </c>
       <c r="E172">
-        <v>179.5634307861328</v>
+        <v>178.6146850585938</v>
       </c>
       <c r="F172">
-        <v>47551100</v>
+        <v>51427100</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -6607,13 +6640,10 @@
         <v>0</v>
       </c>
       <c r="I172">
-        <v>177.6819152832031</v>
+        <v>179.1120300292969</v>
       </c>
       <c r="J172">
-        <v>177.2651290893555</v>
-      </c>
-      <c r="K172">
-        <v>179.8330869283729</v>
+        <v>175.2975547790527</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6621,19 +6651,19 @@
         <v>185</v>
       </c>
       <c r="B173">
-        <v>179.8330869283729</v>
+        <v>176.5174539474347</v>
       </c>
       <c r="C173">
-        <v>182.1000892886667</v>
+        <v>178.8443902467877</v>
       </c>
       <c r="D173">
-        <v>178.8044280928399</v>
+        <v>176.2777642241718</v>
       </c>
       <c r="E173">
-        <v>180.4722442626953</v>
+        <v>178.48486328125</v>
       </c>
       <c r="F173">
-        <v>56743100</v>
+        <v>52517000</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -6642,10 +6672,10 @@
         <v>0</v>
       </c>
       <c r="I173">
-        <v>178.8403900146484</v>
+        <v>179.0581024169922</v>
       </c>
       <c r="J173">
-        <v>177.0341003417969</v>
+        <v>175.3350059509277</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6653,19 +6683,19 @@
         <v>186</v>
       </c>
       <c r="B174">
-        <v>181.1812956691862</v>
+        <v>176.4175737485108</v>
       </c>
       <c r="C174">
-        <v>181.6906191531753</v>
+        <v>178.1852492088057</v>
       </c>
       <c r="D174">
-        <v>177.9056125326835</v>
+        <v>174.5700169550763</v>
       </c>
       <c r="E174">
-        <v>178.6146850585938</v>
+        <v>176.9169158935547</v>
       </c>
       <c r="F174">
-        <v>51427100</v>
+        <v>57549400</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -6674,10 +6704,10 @@
         <v>0</v>
       </c>
       <c r="I174">
-        <v>179.1120300292969</v>
+        <v>178.8104278564453</v>
       </c>
       <c r="J174">
-        <v>176.7338292439779</v>
+        <v>175.2391319274902</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6685,19 +6715,19 @@
         <v>187</v>
       </c>
       <c r="B175">
-        <v>176.5174539474347</v>
+        <v>175.3489901476535</v>
       </c>
       <c r="C175">
-        <v>178.8443902467877</v>
+        <v>177.3463587354085</v>
       </c>
       <c r="D175">
-        <v>176.2777642241718</v>
+        <v>174.8796073104341</v>
       </c>
       <c r="E175">
-        <v>178.48486328125</v>
+        <v>175.608642578125</v>
       </c>
       <c r="F175">
-        <v>52517000</v>
+        <v>54764400</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -6706,10 +6736,10 @@
         <v>0</v>
       </c>
       <c r="I175">
-        <v>179.0581024169922</v>
+        <v>178.0194702148438</v>
       </c>
       <c r="J175">
-        <v>176.3763000488281</v>
+        <v>175.256608581543</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6717,19 +6747,19 @@
         <v>188</v>
       </c>
       <c r="B176">
-        <v>176.4175737485108</v>
+        <v>175.8083799863736</v>
       </c>
       <c r="C176">
-        <v>178.1852492088057</v>
+        <v>177.6060147998771</v>
       </c>
       <c r="D176">
-        <v>174.5700169550763</v>
+        <v>174.9595074624368</v>
       </c>
       <c r="E176">
-        <v>176.9169158935547</v>
+        <v>175.2291564941406</v>
       </c>
       <c r="F176">
-        <v>57549400</v>
+        <v>59302900</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -6738,10 +6768,10 @@
         <v>0</v>
       </c>
       <c r="I176">
-        <v>178.8104278564453</v>
+        <v>176.9708526611328</v>
       </c>
       <c r="J176">
-        <v>175.9585169474284</v>
+        <v>175.3330085754395</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -6749,19 +6779,19 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>175.3489901476535</v>
+        <v>175.0793375847753</v>
       </c>
       <c r="C177">
-        <v>177.3463587354085</v>
+        <v>175.1891934644312</v>
       </c>
       <c r="D177">
-        <v>174.8796073104341</v>
+        <v>172.4128524026324</v>
       </c>
       <c r="E177">
-        <v>175.608642578125</v>
+        <v>172.6525421142578</v>
       </c>
       <c r="F177">
-        <v>54764400</v>
+        <v>64189300</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -6770,10 +6800,10 @@
         <v>0</v>
       </c>
       <c r="I177">
-        <v>178.0194702148438</v>
+        <v>175.7784240722656</v>
       </c>
       <c r="J177">
-        <v>175.7231602986654</v>
+        <v>175.2376350402832</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -6781,19 +6811,19 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>175.8083799863736</v>
+        <v>170.685138104863</v>
       </c>
       <c r="C178">
-        <v>177.6060147998771</v>
+        <v>173.7810503049589</v>
       </c>
       <c r="D178">
-        <v>174.9595074624368</v>
+        <v>169.7064165147775</v>
       </c>
       <c r="E178">
-        <v>175.2291564941406</v>
+        <v>172.7723846435547</v>
       </c>
       <c r="F178">
-        <v>59302900</v>
+        <v>55980100</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -6802,10 +6832,19 @@
         <v>0</v>
       </c>
       <c r="I178">
-        <v>176.9708526611328</v>
+        <v>174.6359283447266</v>
       </c>
       <c r="J178">
-        <v>175.6532526652018</v>
+        <v>175.083837890625</v>
+      </c>
+      <c r="L178">
+        <v>172.8223209839281</v>
+      </c>
+      <c r="M178">
+        <v>-5.043355975224699</v>
+      </c>
+      <c r="N178">
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -6813,19 +6852,19 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>175.0793375847753</v>
+        <v>172.8223209839281</v>
       </c>
       <c r="C179">
-        <v>175.1891934644312</v>
+        <v>173.4415003728992</v>
       </c>
       <c r="D179">
-        <v>172.4128524026324</v>
+        <v>171.2244200100962</v>
       </c>
       <c r="E179">
-        <v>172.6525421142578</v>
+        <v>173.2118072509766</v>
       </c>
       <c r="F179">
-        <v>64189300</v>
+        <v>43816600</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -6834,10 +6873,10 @@
         <v>0</v>
       </c>
       <c r="I179">
-        <v>175.7784240722656</v>
+        <v>173.8949066162109</v>
       </c>
       <c r="J179">
-        <v>175.4768188476563</v>
+        <v>175.1577407836914</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -6845,19 +6884,19 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>170.685138104863</v>
+        <v>171.6538657387105</v>
       </c>
       <c r="C180">
-        <v>173.7810503049589</v>
+        <v>172.8323059213211</v>
       </c>
       <c r="D180">
-        <v>169.7064165147775</v>
+        <v>170.4254730536611</v>
       </c>
       <c r="E180">
-        <v>172.7723846435547</v>
+        <v>170.8748931884766</v>
       </c>
       <c r="F180">
-        <v>55980100</v>
+        <v>57157000</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -6866,19 +6905,10 @@
         <v>0</v>
       </c>
       <c r="I180">
-        <v>174.6359283447266</v>
+        <v>172.9481567382813</v>
       </c>
       <c r="J180">
-        <v>175.265098063151</v>
-      </c>
-      <c r="L180">
-        <v>172.8223209839281</v>
-      </c>
-      <c r="M180">
-        <v>-7.01076594444487</v>
-      </c>
-      <c r="N180">
-        <v>8</v>
+        <v>175.1911979675293</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -6886,19 +6916,19 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>172.8223209839281</v>
+        <v>170.1458425788756</v>
       </c>
       <c r="C181">
-        <v>173.4415003728992</v>
+        <v>171.1545234940036</v>
       </c>
       <c r="D181">
-        <v>171.2244200100962</v>
+        <v>165.452029326567</v>
       </c>
       <c r="E181">
-        <v>173.2118072509766</v>
+        <v>166.6704254150391</v>
       </c>
       <c r="F181">
-        <v>43816600</v>
+        <v>70625300</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -6907,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="I181">
-        <v>173.8949066162109</v>
+        <v>171.2364105224609</v>
       </c>
       <c r="J181">
-        <v>175.1698903401693</v>
+        <v>175.001448059082</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -6918,19 +6948,19 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>171.6538657387105</v>
+        <v>166.6903985036265</v>
       </c>
       <c r="C182">
-        <v>172.8323059213211</v>
+        <v>168.737704345899</v>
       </c>
       <c r="D182">
-        <v>170.4254730536611</v>
+        <v>166.6105019317798</v>
       </c>
       <c r="E182">
-        <v>170.8748931884766</v>
+        <v>167.9986724853516</v>
       </c>
       <c r="F182">
-        <v>57157000</v>
+        <v>58499100</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -6939,10 +6969,10 @@
         <v>0</v>
       </c>
       <c r="I182">
-        <v>172.9481567382813</v>
+        <v>170.3056365966797</v>
       </c>
       <c r="J182">
-        <v>175.0663604736328</v>
+        <v>174.8521446228027</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -6950,19 +6980,19 @@
         <v>195</v>
       </c>
       <c r="B183">
-        <v>170.1458425788756</v>
+        <v>168.7976152093692</v>
       </c>
       <c r="C183">
-        <v>171.1545234940036</v>
+        <v>170.9447802387597</v>
       </c>
       <c r="D183">
-        <v>165.452029326567</v>
+        <v>168.6478034295226</v>
       </c>
       <c r="E183">
-        <v>166.6704254150391</v>
+        <v>170.0659332275391</v>
       </c>
       <c r="F183">
-        <v>70625300</v>
+        <v>51131000</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -6971,10 +7001,10 @@
         <v>0</v>
       </c>
       <c r="I183">
-        <v>171.2364105224609</v>
+        <v>169.7643463134766</v>
       </c>
       <c r="J183">
-        <v>174.7717483520508</v>
+        <v>174.6793716430664</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -6982,19 +7012,19 @@
         <v>196</v>
       </c>
       <c r="B184">
-        <v>166.6903985036265</v>
+        <v>169.1271887558827</v>
       </c>
       <c r="C184">
-        <v>168.737704345899</v>
+        <v>170.67513719747</v>
       </c>
       <c r="D184">
-        <v>166.6105019317798</v>
+        <v>167.6790843602619</v>
       </c>
       <c r="E184">
-        <v>167.9986724853516</v>
+        <v>170.5453186035156</v>
       </c>
       <c r="F184">
-        <v>58499100</v>
+        <v>44846000</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -7003,10 +7033,10 @@
         <v>0</v>
       </c>
       <c r="I184">
-        <v>170.3056365966797</v>
+        <v>169.2310485839844</v>
       </c>
       <c r="J184">
-        <v>174.545713297526</v>
+        <v>174.5979789733887</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -7014,19 +7044,19 @@
         <v>197</v>
       </c>
       <c r="B185">
-        <v>168.7976152093692</v>
+        <v>170.7750106172122</v>
       </c>
       <c r="C185">
-        <v>170.9447802387597</v>
+        <v>174.00075655092</v>
       </c>
       <c r="D185">
-        <v>168.6478034295226</v>
+        <v>169.8961635809227</v>
       </c>
       <c r="E185">
-        <v>170.0659332275391</v>
+        <v>173.7411041259766</v>
       </c>
       <c r="F185">
-        <v>51131000</v>
+        <v>56934900</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -7035,10 +7065,10 @@
         <v>0</v>
       </c>
       <c r="I185">
-        <v>169.7643463134766</v>
+        <v>169.8042907714844</v>
       </c>
       <c r="J185">
-        <v>174.2900497436523</v>
+        <v>174.6134582519531</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -7046,19 +7076,19 @@
         <v>198</v>
       </c>
       <c r="B186">
-        <v>169.1271887558827</v>
+        <v>175.2890741243693</v>
       </c>
       <c r="C186">
-        <v>170.67513719747</v>
+        <v>177.5460951760238</v>
       </c>
       <c r="D186">
-        <v>167.6790843602619</v>
+        <v>175.2291555040433</v>
       </c>
       <c r="E186">
-        <v>170.5453186035156</v>
+        <v>177.3363800048828</v>
       </c>
       <c r="F186">
-        <v>44846000</v>
+        <v>77334800</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -7067,10 +7097,10 @@
         <v>0</v>
       </c>
       <c r="I186">
-        <v>169.2310485839844</v>
+        <v>171.9374816894531</v>
       </c>
       <c r="J186">
-        <v>174.0137471516927</v>
+        <v>174.7462837219238</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -7078,19 +7108,19 @@
         <v>199</v>
       </c>
       <c r="B187">
-        <v>170.7750106172122</v>
+        <v>174.0107544873561</v>
       </c>
       <c r="C187">
-        <v>174.00075655092</v>
+        <v>176.5873617592045</v>
       </c>
       <c r="D187">
-        <v>169.8961635809227</v>
+        <v>173.1219260874277</v>
       </c>
       <c r="E187">
-        <v>173.7411041259766</v>
+        <v>176.4175720214844</v>
       </c>
       <c r="F187">
-        <v>56934900</v>
+        <v>79763700</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -7099,10 +7129,10 @@
         <v>0</v>
       </c>
       <c r="I187">
-        <v>169.8042907714844</v>
+        <v>173.6212615966797</v>
       </c>
       <c r="J187">
-        <v>173.9631469726563</v>
+        <v>174.7043380737305</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -7110,19 +7140,19 @@
         <v>200</v>
       </c>
       <c r="B188">
-        <v>175.2890741243693</v>
+        <v>176.147945232681</v>
       </c>
       <c r="C188">
-        <v>177.5460951760238</v>
+        <v>179.1939202176185</v>
       </c>
       <c r="D188">
-        <v>175.2291555040433</v>
+        <v>175.9781707269317</v>
       </c>
       <c r="E188">
-        <v>177.3363800048828</v>
+        <v>178.9941864013672</v>
       </c>
       <c r="F188">
-        <v>77334800</v>
+        <v>63841300</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -7131,10 +7161,13 @@
         <v>0</v>
       </c>
       <c r="I188">
-        <v>171.9374816894531</v>
+        <v>175.4069122314453</v>
       </c>
       <c r="J188">
-        <v>174.084321085612</v>
+        <v>174.7163223266602</v>
+      </c>
+      <c r="K188">
+        <v>178.9442389455798</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -7142,19 +7175,19 @@
         <v>201</v>
       </c>
       <c r="B189">
-        <v>174.0107544873561</v>
+        <v>178.9442389455798</v>
       </c>
       <c r="C189">
-        <v>176.5873617592045</v>
+        <v>182.1999593960236</v>
       </c>
       <c r="D189">
-        <v>173.1219260874277</v>
+        <v>178.7345237840102</v>
       </c>
       <c r="E189">
-        <v>176.4175720214844</v>
+        <v>181.5807800292969</v>
       </c>
       <c r="F189">
-        <v>79763700</v>
+        <v>70530000</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -7163,10 +7196,10 @@
         <v>0</v>
       </c>
       <c r="I189">
-        <v>173.6212615966797</v>
+        <v>177.6140045166016</v>
       </c>
       <c r="J189">
-        <v>174.1462397257487</v>
+        <v>174.8875968933106</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -7174,19 +7207,19 @@
         <v>202</v>
       </c>
       <c r="B190">
-        <v>176.147945232681</v>
+        <v>182.1100854772309</v>
       </c>
       <c r="C190">
-        <v>179.1939202176185</v>
+        <v>183.2086290475756</v>
       </c>
       <c r="D190">
-        <v>175.9781707269317</v>
+        <v>181.3510756678047</v>
       </c>
       <c r="E190">
-        <v>178.9941864013672</v>
+        <v>182.6493682861328</v>
       </c>
       <c r="F190">
-        <v>63841300</v>
+        <v>49340300</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -7195,13 +7228,10 @@
         <v>0</v>
       </c>
       <c r="I190">
-        <v>175.4069122314453</v>
+        <v>179.3956573486328</v>
       </c>
       <c r="J190">
-        <v>174.2511016845703</v>
-      </c>
-      <c r="K190">
-        <v>178.9442389455798</v>
+        <v>175.0418937683106</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -7209,19 +7239,19 @@
         <v>203</v>
       </c>
       <c r="B191">
-        <v>178.9442389455798</v>
+        <v>182.7192775556024</v>
       </c>
       <c r="C191">
-        <v>182.1999593960236</v>
+        <v>183.8777397071645</v>
       </c>
       <c r="D191">
-        <v>178.7345237840102</v>
+        <v>181.5707815219172</v>
       </c>
       <c r="E191">
-        <v>181.5807800292969</v>
+        <v>182.1699981689453</v>
       </c>
       <c r="F191">
-        <v>70530000</v>
+        <v>53763500</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -7230,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="I191">
-        <v>177.6140045166016</v>
+        <v>180.3623809814453</v>
       </c>
       <c r="J191">
-        <v>174.5793360392253</v>
+        <v>175.126781463623</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -7241,31 +7271,31 @@
         <v>204</v>
       </c>
       <c r="B192">
-        <v>182.1100854772309</v>
+        <v>183.9700012207031</v>
       </c>
       <c r="C192">
-        <v>183.2086290475756</v>
+        <v>186.5700073242188</v>
       </c>
       <c r="D192">
-        <v>181.3510756678047</v>
+        <v>183.5299987792969</v>
       </c>
       <c r="E192">
-        <v>182.6493682861328</v>
+        <v>186.3999938964844</v>
       </c>
       <c r="F192">
-        <v>49340300</v>
+        <v>66133400</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H192">
         <v>0</v>
       </c>
       <c r="I192">
-        <v>179.3956573486328</v>
+        <v>182.3588653564453</v>
       </c>
       <c r="J192">
-        <v>174.9941233317057</v>
+        <v>175.5160469055176</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -7273,19 +7303,19 @@
         <v>205</v>
       </c>
       <c r="B193">
-        <v>182.7192775556024</v>
+        <v>185.8200073242188</v>
       </c>
       <c r="C193">
-        <v>183.8777397071645</v>
+        <v>186.0299987792969</v>
       </c>
       <c r="D193">
-        <v>181.5707815219172</v>
+        <v>184.2100067138672</v>
       </c>
       <c r="E193">
-        <v>182.1699981689453</v>
+        <v>184.8000030517578</v>
       </c>
       <c r="F193">
-        <v>53763500</v>
+        <v>43627500</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -7294,10 +7324,10 @@
         <v>0</v>
       </c>
       <c r="I193">
-        <v>180.3623809814453</v>
+        <v>183.5200286865234</v>
       </c>
       <c r="J193">
-        <v>175.3842758178711</v>
+        <v>175.831803894043</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -7305,31 +7335,31 @@
         <v>206</v>
       </c>
       <c r="B194">
-        <v>183.9700012207031</v>
+        <v>187.6999969482422</v>
       </c>
       <c r="C194">
-        <v>186.5700073242188</v>
+        <v>188.1100006103516</v>
       </c>
       <c r="D194">
-        <v>183.5299987792969</v>
+        <v>186.3000030517578</v>
       </c>
       <c r="E194">
-        <v>186.3999938964844</v>
+        <v>187.4400024414062</v>
       </c>
       <c r="F194">
-        <v>66133400</v>
+        <v>60108400</v>
       </c>
       <c r="G194">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H194">
         <v>0</v>
       </c>
       <c r="I194">
-        <v>182.3588653564453</v>
+        <v>184.6918731689453</v>
       </c>
       <c r="J194">
-        <v>175.898117574056</v>
+        <v>176.3579582214356</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -7337,19 +7367,19 @@
         <v>207</v>
       </c>
       <c r="B195">
-        <v>185.8200073242188</v>
+        <v>187.8500061035156</v>
       </c>
       <c r="C195">
-        <v>186.0299987792969</v>
+        <v>189.5</v>
       </c>
       <c r="D195">
-        <v>184.2100067138672</v>
+        <v>187.7799987792969</v>
       </c>
       <c r="E195">
-        <v>184.8000030517578</v>
+        <v>188.0099945068359</v>
       </c>
       <c r="F195">
-        <v>43627500</v>
+        <v>53790500</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -7358,10 +7388,10 @@
         <v>0</v>
       </c>
       <c r="I195">
-        <v>183.5200286865234</v>
+        <v>185.7639984130859</v>
       </c>
       <c r="J195">
-        <v>176.2740712483724</v>
+        <v>176.9780258178711</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -7369,19 +7399,19 @@
         <v>208</v>
       </c>
       <c r="B196">
-        <v>187.6999969482422</v>
+        <v>189.5700073242188</v>
       </c>
       <c r="C196">
-        <v>188.1100006103516</v>
+        <v>190.9600067138672</v>
       </c>
       <c r="D196">
-        <v>186.3000030517578</v>
+        <v>188.6499938964844</v>
       </c>
       <c r="E196">
-        <v>187.4400024414062</v>
+        <v>189.7100067138672</v>
       </c>
       <c r="F196">
-        <v>60108400</v>
+        <v>54412900</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -7390,10 +7420,10 @@
         <v>0</v>
       </c>
       <c r="I196">
-        <v>184.6918731689453</v>
+        <v>187.2720001220703</v>
       </c>
       <c r="J196">
-        <v>176.7829655965169</v>
+        <v>177.7020683288574</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -7401,19 +7431,19 @@
         <v>209</v>
       </c>
       <c r="B197">
-        <v>187.8500061035156</v>
+        <v>190.25</v>
       </c>
       <c r="C197">
-        <v>189.5</v>
+        <v>190.3800048828125</v>
       </c>
       <c r="D197">
-        <v>187.7799987792969</v>
+        <v>188.5700073242188</v>
       </c>
       <c r="E197">
-        <v>188.0099945068359</v>
+        <v>189.6900024414062</v>
       </c>
       <c r="F197">
-        <v>53790500</v>
+        <v>50922700</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -7422,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="I197">
-        <v>185.7639984130859</v>
+        <v>187.9300018310547</v>
       </c>
       <c r="J197">
-        <v>177.2689147949219</v>
+        <v>178.5539413452148</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -7433,19 +7463,19 @@
         <v>210</v>
       </c>
       <c r="B198">
-        <v>189.5700073242188</v>
+        <v>189.8899993896484</v>
       </c>
       <c r="C198">
-        <v>190.9600067138672</v>
+        <v>191.9100036621094</v>
       </c>
       <c r="D198">
-        <v>188.6499938964844</v>
+        <v>189.8800048828125</v>
       </c>
       <c r="E198">
-        <v>189.7100067138672</v>
+        <v>191.4499969482422</v>
       </c>
       <c r="F198">
-        <v>54412900</v>
+        <v>46505100</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -7454,10 +7484,10 @@
         <v>0</v>
       </c>
       <c r="I198">
-        <v>187.2720001220703</v>
+        <v>189.2600006103516</v>
       </c>
       <c r="J198">
-        <v>177.7699193318685</v>
+        <v>179.4878219604492</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -7465,19 +7495,19 @@
         <v>211</v>
       </c>
       <c r="B199">
-        <v>190.25</v>
+        <v>191.4100036621094</v>
       </c>
       <c r="C199">
-        <v>190.3800048828125</v>
+        <v>191.5200042724609</v>
       </c>
       <c r="D199">
-        <v>188.5700073242188</v>
+        <v>189.7400054931641</v>
       </c>
       <c r="E199">
-        <v>189.6900024414062</v>
+        <v>190.6399993896484</v>
       </c>
       <c r="F199">
-        <v>50922700</v>
+        <v>38134500</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -7486,10 +7516,10 @@
         <v>0</v>
       </c>
       <c r="I199">
-        <v>187.9300018310547</v>
+        <v>189.9</v>
       </c>
       <c r="J199">
-        <v>178.184369913737</v>
+        <v>180.3592315673828</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -7497,19 +7527,19 @@
         <v>212</v>
       </c>
       <c r="B200">
-        <v>189.8899993896484</v>
+        <v>191.4900054931641</v>
       </c>
       <c r="C200">
-        <v>191.9100036621094</v>
+        <v>192.9299926757812</v>
       </c>
       <c r="D200">
-        <v>189.8800048828125</v>
+        <v>190.8300018310547</v>
       </c>
       <c r="E200">
-        <v>191.4499969482422</v>
+        <v>191.3099975585938</v>
       </c>
       <c r="F200">
-        <v>46505100</v>
+        <v>39617700</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -7518,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="I200">
-        <v>189.2600006103516</v>
+        <v>190.5600006103516</v>
       </c>
       <c r="J200">
-        <v>178.6075531005859</v>
+        <v>181.3809867858887</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -7529,19 +7559,19 @@
         <v>213</v>
       </c>
       <c r="B201">
-        <v>191.4100036621094</v>
+        <v>190.8699951171875</v>
       </c>
       <c r="C201">
-        <v>191.5200042724609</v>
+        <v>190.8999938964844</v>
       </c>
       <c r="D201">
-        <v>189.7400054931641</v>
+        <v>189.25</v>
       </c>
       <c r="E201">
-        <v>190.6399993896484</v>
+        <v>189.9700012207031</v>
       </c>
       <c r="F201">
-        <v>38134500</v>
+        <v>24048300</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -7550,10 +7580,10 @@
         <v>0</v>
       </c>
       <c r="I201">
-        <v>189.9</v>
+        <v>190.6119995117188</v>
       </c>
       <c r="J201">
-        <v>179.0237101236979</v>
+        <v>182.5459655761719</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -7561,19 +7591,19 @@
         <v>214</v>
       </c>
       <c r="B202">
-        <v>191.4900054931641</v>
+        <v>189.9199981689453</v>
       </c>
       <c r="C202">
-        <v>192.9299926757812</v>
+        <v>190.6699981689453</v>
       </c>
       <c r="D202">
-        <v>190.8300018310547</v>
+        <v>188.8999938964844</v>
       </c>
       <c r="E202">
-        <v>191.3099975585938</v>
+        <v>189.7899932861328</v>
       </c>
       <c r="F202">
-        <v>39617700</v>
+        <v>40552600</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -7582,10 +7612,10 @@
         <v>0</v>
       </c>
       <c r="I202">
-        <v>190.5600006103516</v>
+        <v>190.6319976806641</v>
       </c>
       <c r="J202">
-        <v>179.4152623494466</v>
+        <v>183.6355316162109</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -7593,19 +7623,19 @@
         <v>215</v>
       </c>
       <c r="B203">
-        <v>190.8699951171875</v>
+        <v>189.7799987792969</v>
       </c>
       <c r="C203">
-        <v>190.8999938964844</v>
+        <v>191.0800018310547</v>
       </c>
       <c r="D203">
-        <v>189.25</v>
+        <v>189.3999938964844</v>
       </c>
       <c r="E203">
-        <v>189.9700012207031</v>
+        <v>190.3999938964844</v>
       </c>
       <c r="F203">
-        <v>24048300</v>
+        <v>38415400</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -7614,10 +7644,10 @@
         <v>0</v>
       </c>
       <c r="I203">
-        <v>190.6119995117188</v>
+        <v>190.4219970703125</v>
       </c>
       <c r="J203">
-        <v>179.7318542480469</v>
+        <v>184.6522346496582</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -7625,19 +7655,19 @@
         <v>216</v>
       </c>
       <c r="B204">
-        <v>189.9199981689453</v>
+        <v>190.8999938964844</v>
       </c>
       <c r="C204">
-        <v>190.6699981689453</v>
+        <v>192.0899963378906</v>
       </c>
       <c r="D204">
-        <v>188.8999938964844</v>
+        <v>188.9700012207031</v>
       </c>
       <c r="E204">
-        <v>189.7899932861328</v>
+        <v>189.3699951171875</v>
       </c>
       <c r="F204">
-        <v>40552600</v>
+        <v>43014200</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -7646,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="I204">
-        <v>190.6319976806641</v>
+        <v>190.1679962158203</v>
       </c>
       <c r="J204">
-        <v>180.1043645222982</v>
+        <v>185.5934684753418</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -7657,19 +7687,19 @@
         <v>217</v>
       </c>
       <c r="B205">
-        <v>189.7799987792969</v>
+        <v>189.8399963378906</v>
       </c>
       <c r="C205">
-        <v>191.0800018310547</v>
+        <v>190.3200073242188</v>
       </c>
       <c r="D205">
-        <v>189.3999938964844</v>
+        <v>188.1900024414062</v>
       </c>
       <c r="E205">
-        <v>190.3999938964844</v>
+        <v>189.9499969482422</v>
       </c>
       <c r="F205">
-        <v>38415400</v>
+        <v>48794400</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -7678,10 +7708,10 @@
         <v>0</v>
       </c>
       <c r="I205">
-        <v>190.4219970703125</v>
+        <v>189.89599609375</v>
       </c>
       <c r="J205">
-        <v>180.501535542806</v>
+        <v>186.4039131164551</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -7689,19 +7719,19 @@
         <v>218</v>
       </c>
       <c r="B206">
-        <v>190.8999938964844</v>
+        <v>190.3300018310547</v>
       </c>
       <c r="C206">
-        <v>192.0899963378906</v>
+        <v>191.5599975585938</v>
       </c>
       <c r="D206">
-        <v>188.9700012207031</v>
+        <v>189.2299957275391</v>
       </c>
       <c r="E206">
-        <v>189.3699951171875</v>
+        <v>191.2400054931641</v>
       </c>
       <c r="F206">
-        <v>43014200</v>
+        <v>45679300</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -7710,10 +7740,10 @@
         <v>0</v>
       </c>
       <c r="I206">
-        <v>190.1679962158203</v>
+        <v>190.1499969482422</v>
       </c>
       <c r="J206">
-        <v>180.9166381835938</v>
+        <v>187.0990943908691</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -7721,19 +7751,19 @@
         <v>219</v>
       </c>
       <c r="B207">
-        <v>189.8399963378906</v>
+        <v>189.9799957275391</v>
       </c>
       <c r="C207">
-        <v>190.3200073242188</v>
+        <v>190.0500030517578</v>
       </c>
       <c r="D207">
-        <v>188.1900024414062</v>
+        <v>187.4499969482422</v>
       </c>
       <c r="E207">
-        <v>189.9499969482422</v>
+        <v>189.4299926757812</v>
       </c>
       <c r="F207">
-        <v>48794400</v>
+        <v>43389500</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -7742,10 +7772,10 @@
         <v>0</v>
       </c>
       <c r="I207">
-        <v>189.89599609375</v>
+        <v>190.0779968261719</v>
       </c>
       <c r="J207">
-        <v>181.3946833292643</v>
+        <v>187.749715423584</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -7753,19 +7783,19 @@
         <v>220</v>
       </c>
       <c r="B208">
-        <v>190.3300018310547</v>
+        <v>190.2100067138672</v>
       </c>
       <c r="C208">
-        <v>191.5599975585938</v>
+        <v>194.3999938964844</v>
       </c>
       <c r="D208">
-        <v>189.2299957275391</v>
+        <v>190.1799926757812</v>
       </c>
       <c r="E208">
-        <v>191.2400054931641</v>
+        <v>193.4199981689453</v>
       </c>
       <c r="F208">
-        <v>45679300</v>
+        <v>66628400</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -7774,30 +7804,30 @@
         <v>0</v>
       </c>
       <c r="I208">
-        <v>190.1499969482422</v>
+        <v>190.6819976806641</v>
       </c>
       <c r="J208">
-        <v>181.9283782958984</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
+        <v>188.4710060119629</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B209">
-        <v>189.9799957275391</v>
+        <v>194.4499969482422</v>
       </c>
       <c r="C209">
-        <v>190.0500030517578</v>
+        <v>194.7599945068359</v>
       </c>
       <c r="D209">
-        <v>187.4499969482422</v>
+        <v>192.1100006103516</v>
       </c>
       <c r="E209">
-        <v>189.4299926757812</v>
+        <v>192.3200073242188</v>
       </c>
       <c r="F209">
-        <v>43389500</v>
+        <v>41089700</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -7806,30 +7836,30 @@
         <v>0</v>
       </c>
       <c r="I209">
-        <v>190.0779968261719</v>
+        <v>191.2720001220703</v>
       </c>
       <c r="J209">
-        <v>182.4876266479492</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
+        <v>189.007967376709</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
       <c r="A210" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B210">
-        <v>190.2100067138672</v>
+        <v>193.6300048828125</v>
       </c>
       <c r="C210">
-        <v>194.3999938964844</v>
+        <v>195</v>
       </c>
       <c r="D210">
-        <v>190.1799926757812</v>
+        <v>193.5899963378906</v>
       </c>
       <c r="E210">
-        <v>193.4199981689453</v>
+        <v>194.2700042724609</v>
       </c>
       <c r="F210">
-        <v>66628400</v>
+        <v>47477700</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -7838,30 +7868,30 @@
         <v>0</v>
       </c>
       <c r="I210">
-        <v>190.6819976806641</v>
+        <v>192.1360015869141</v>
       </c>
       <c r="J210">
-        <v>183.1758804321289</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
+        <v>189.5889991760254</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
       <c r="A211" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B211">
-        <v>194.4499969482422</v>
+        <v>194.1999969482422</v>
       </c>
       <c r="C211">
-        <v>194.7599945068359</v>
+        <v>195.9900054931641</v>
       </c>
       <c r="D211">
-        <v>192.1100006103516</v>
+        <v>193.6699981689453</v>
       </c>
       <c r="E211">
-        <v>192.3200073242188</v>
+        <v>195.7100067138672</v>
       </c>
       <c r="F211">
-        <v>41089700</v>
+        <v>53377300</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -7870,30 +7900,30 @@
         <v>0</v>
       </c>
       <c r="I211">
-        <v>191.2720001220703</v>
+        <v>193.0300018310547</v>
       </c>
       <c r="J211">
-        <v>183.8128204345703</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
+        <v>190.2659996032715</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
       <c r="A212" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B212">
-        <v>193.6300048828125</v>
+        <v>193.1100006103516</v>
       </c>
       <c r="C212">
-        <v>195</v>
+        <v>193.4900054931641</v>
       </c>
       <c r="D212">
-        <v>193.5899963378906</v>
+        <v>191.4199981689453</v>
       </c>
       <c r="E212">
-        <v>194.2700042724609</v>
+        <v>193.1799926757812</v>
       </c>
       <c r="F212">
-        <v>47477700</v>
+        <v>60943700</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -7902,30 +7932,30 @@
         <v>0</v>
       </c>
       <c r="I212">
-        <v>192.1360015869141</v>
+        <v>193.7800018310547</v>
       </c>
       <c r="J212">
-        <v>184.5926574707031</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
+        <v>190.6049995422363</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
       <c r="A213" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B213">
-        <v>194.1999969482422</v>
+        <v>193.0800018310547</v>
       </c>
       <c r="C213">
-        <v>195.9900054931641</v>
+        <v>194.7200012207031</v>
       </c>
       <c r="D213">
-        <v>193.6699981689453</v>
+        <v>191.7200012207031</v>
       </c>
       <c r="E213">
-        <v>195.7100067138672</v>
+        <v>194.7100067138672</v>
       </c>
       <c r="F213">
-        <v>53377300</v>
+        <v>52696900</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -7934,30 +7964,30 @@
         <v>0</v>
       </c>
       <c r="I213">
-        <v>193.0300018310547</v>
+        <v>194.0380035400391</v>
       </c>
       <c r="J213">
-        <v>185.5606435139974</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
+        <v>191.1004997253418</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
       <c r="A214" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B214">
-        <v>193.1100006103516</v>
+        <v>195.0899963378906</v>
       </c>
       <c r="C214">
-        <v>193.4900054931641</v>
+        <v>198</v>
       </c>
       <c r="D214">
-        <v>191.4199981689453</v>
+        <v>194.8500061035156</v>
       </c>
       <c r="E214">
-        <v>193.1799926757812</v>
+        <v>197.9600067138672</v>
       </c>
       <c r="F214">
-        <v>60943700</v>
+        <v>70404200</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -7966,30 +7996,30 @@
         <v>0</v>
       </c>
       <c r="I214">
-        <v>193.7800018310547</v>
+        <v>195.1660034179687</v>
       </c>
       <c r="J214">
-        <v>186.4000208536784</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
+        <v>191.6264999389649</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
       <c r="A215" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B215">
-        <v>193.0800018310547</v>
+        <v>198.0200042724609</v>
       </c>
       <c r="C215">
-        <v>194.7200012207031</v>
+        <v>199.6199951171875</v>
       </c>
       <c r="D215">
-        <v>191.7200012207031</v>
+        <v>196.1600036621094</v>
       </c>
       <c r="E215">
-        <v>194.7100067138672</v>
+        <v>198.1100006103516</v>
       </c>
       <c r="F215">
-        <v>52696900</v>
+        <v>66831600</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -7998,30 +8028,30 @@
         <v>0</v>
       </c>
       <c r="I215">
-        <v>194.0380035400391</v>
+        <v>195.9340026855469</v>
       </c>
       <c r="J215">
-        <v>187.2214899698893</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
+        <v>192.1315002441406</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B216">
-        <v>195.0899963378906</v>
+        <v>197.5299987792969</v>
       </c>
       <c r="C216">
-        <v>198</v>
+        <v>198.3999938964844</v>
       </c>
       <c r="D216">
-        <v>194.8500061035156</v>
+        <v>197</v>
       </c>
       <c r="E216">
-        <v>197.9600067138672</v>
+        <v>197.5700073242188</v>
       </c>
       <c r="F216">
-        <v>70404200</v>
+        <v>128256700</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -8030,30 +8060,30 @@
         <v>0</v>
       </c>
       <c r="I216">
-        <v>195.1660034179687</v>
+        <v>196.3060028076172</v>
       </c>
       <c r="J216">
-        <v>188.135312906901</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10">
+        <v>192.5245002746582</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
       <c r="A217" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B217">
-        <v>198.0200042724609</v>
+        <v>196.0899963378906</v>
       </c>
       <c r="C217">
-        <v>199.6199951171875</v>
+        <v>196.6300048828125</v>
       </c>
       <c r="D217">
-        <v>196.1600036621094</v>
+        <v>194.3899993896484</v>
       </c>
       <c r="E217">
-        <v>198.1100006103516</v>
+        <v>195.8899993896484</v>
       </c>
       <c r="F217">
-        <v>66831600</v>
+        <v>55751900</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -8062,30 +8092,30 @@
         <v>0</v>
       </c>
       <c r="I217">
-        <v>195.9340026855469</v>
+        <v>196.8480041503906</v>
       </c>
       <c r="J217">
-        <v>188.9476094563802</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10">
+        <v>192.8345001220703</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
       <c r="A218" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B218">
-        <v>197.5299987792969</v>
+        <v>196.1600036621094</v>
       </c>
       <c r="C218">
-        <v>198.3999938964844</v>
+        <v>196.9499969482422</v>
       </c>
       <c r="D218">
-        <v>197</v>
+        <v>195.8899993896484</v>
       </c>
       <c r="E218">
-        <v>197.5700073242188</v>
+        <v>196.9400024414062</v>
       </c>
       <c r="F218">
-        <v>128256700</v>
+        <v>40714100</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -8094,30 +8124,30 @@
         <v>0</v>
       </c>
       <c r="I218">
-        <v>196.3060028076172</v>
+        <v>197.2940032958984</v>
       </c>
       <c r="J218">
-        <v>189.6220637003581</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10">
+        <v>193.1090003967285</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
       <c r="A219" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B219">
-        <v>196.0899963378906</v>
+        <v>196.8999938964844</v>
       </c>
       <c r="C219">
-        <v>196.6300048828125</v>
+        <v>197.6799926757812</v>
       </c>
       <c r="D219">
-        <v>194.3899993896484</v>
+        <v>194.8300018310547</v>
       </c>
       <c r="E219">
-        <v>195.8899993896484</v>
+        <v>194.8300018310547</v>
       </c>
       <c r="F219">
-        <v>55751900</v>
+        <v>52242800</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -8126,30 +8156,30 @@
         <v>0</v>
       </c>
       <c r="I219">
-        <v>196.8480041503906</v>
+        <v>196.6680023193359</v>
       </c>
       <c r="J219">
-        <v>190.2711446126302</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10">
+        <v>193.3185005187988</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
       <c r="A220" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B220">
-        <v>196.1600036621094</v>
+        <v>196.1000061035156</v>
       </c>
       <c r="C220">
-        <v>196.9499969482422</v>
+        <v>197.0800018310547</v>
       </c>
       <c r="D220">
-        <v>195.8899993896484</v>
+        <v>193.5</v>
       </c>
       <c r="E220">
-        <v>196.9400024414062</v>
+        <v>194.6799926757812</v>
       </c>
       <c r="F220">
-        <v>40714100</v>
+        <v>46482500</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -8158,30 +8188,30 @@
         <v>0</v>
       </c>
       <c r="I220">
-        <v>197.2940032958984</v>
+        <v>195.9820007324219</v>
       </c>
       <c r="J220">
-        <v>190.8693384806315</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10">
+        <v>193.4870002746582</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
       <c r="A221" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B221">
-        <v>196.8999938964844</v>
+        <v>195.1799926757812</v>
       </c>
       <c r="C221">
-        <v>197.6799926757812</v>
+        <v>195.4100036621094</v>
       </c>
       <c r="D221">
-        <v>194.8300018310547</v>
+        <v>192.9700012207031</v>
       </c>
       <c r="E221">
-        <v>194.8300018310547</v>
+        <v>193.6000061035156</v>
       </c>
       <c r="F221">
-        <v>52242800</v>
+        <v>37122800</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -8190,30 +8220,30 @@
         <v>0</v>
       </c>
       <c r="I221">
-        <v>196.6680023193359</v>
+        <v>195.1880004882813</v>
       </c>
       <c r="J221">
-        <v>191.3109792073568</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10">
+        <v>193.6685005187988</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B222">
-        <v>196.1000061035156</v>
+        <v>193.6100006103516</v>
       </c>
       <c r="C222">
-        <v>197.0800018310547</v>
+        <v>193.8899993896484</v>
       </c>
       <c r="D222">
-        <v>193.5</v>
+        <v>192.8300018310547</v>
       </c>
       <c r="E222">
-        <v>194.6799926757812</v>
+        <v>193.0500030517578</v>
       </c>
       <c r="F222">
-        <v>46482500</v>
+        <v>28919300</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -8222,30 +8252,30 @@
         <v>0</v>
       </c>
       <c r="I222">
-        <v>195.9820007324219</v>
+        <v>194.6200012207031</v>
       </c>
       <c r="J222">
-        <v>191.712000020345</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10">
+        <v>193.8315010070801</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
       <c r="A223" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B223">
-        <v>195.1799926757812</v>
+        <v>192.4900054931641</v>
       </c>
       <c r="C223">
-        <v>195.4100036621094</v>
+        <v>193.5</v>
       </c>
       <c r="D223">
-        <v>192.9700012207031</v>
+        <v>191.0899963378906</v>
       </c>
       <c r="E223">
-        <v>193.6000061035156</v>
+        <v>193.1499938964844</v>
       </c>
       <c r="F223">
-        <v>37122800</v>
+        <v>48087700</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -8254,30 +8284,39 @@
         <v>0</v>
       </c>
       <c r="I223">
-        <v>195.1880004882813</v>
+        <v>193.8619995117188</v>
       </c>
       <c r="J223">
-        <v>192.0930002848307</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10">
+        <v>193.9690010070801</v>
+      </c>
+      <c r="L223">
+        <v>194.1399993896484</v>
+      </c>
+      <c r="M223">
+        <v>15.19576044406867</v>
+      </c>
+      <c r="N223">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B224">
-        <v>193.6100006103516</v>
+        <v>194.1399993896484</v>
       </c>
       <c r="C224">
-        <v>193.8899993896484</v>
+        <v>194.6600036621094</v>
       </c>
       <c r="D224">
-        <v>192.8300018310547</v>
+        <v>193.1699981689453</v>
       </c>
       <c r="E224">
-        <v>193.0500030517578</v>
+        <v>193.5800018310547</v>
       </c>
       <c r="F224">
-        <v>28919300</v>
+        <v>34049900</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -8286,30 +8325,30 @@
         <v>0</v>
       </c>
       <c r="I224">
-        <v>194.6200012207031</v>
+        <v>193.6119995117188</v>
       </c>
       <c r="J224">
-        <v>192.3146672566732</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14">
+        <v>194.1795013427734</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B225">
-        <v>192.4900054931641</v>
+        <v>193.8999938964844</v>
       </c>
       <c r="C225">
-        <v>193.5</v>
+        <v>194.3999938964844</v>
       </c>
       <c r="D225">
-        <v>191.0899963378906</v>
+        <v>191.7299957275391</v>
       </c>
       <c r="E225">
-        <v>193.1499938964844</v>
+        <v>192.5299987792969</v>
       </c>
       <c r="F225">
-        <v>48087700</v>
+        <v>42628800</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -8318,30 +8357,30 @@
         <v>0</v>
       </c>
       <c r="I225">
-        <v>193.8619995117188</v>
+        <v>193.1820007324219</v>
       </c>
       <c r="J225">
-        <v>192.5930002848307</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14">
+        <v>194.3085014343262</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B226">
-        <v>194.1399993896484</v>
+        <v>187.1499938964844</v>
       </c>
       <c r="C226">
-        <v>194.6600036621094</v>
+        <v>188.4400024414062</v>
       </c>
       <c r="D226">
-        <v>193.1699981689453</v>
+        <v>183.8899993896484</v>
       </c>
       <c r="E226">
-        <v>193.5800018310547</v>
+        <v>185.6399993896484</v>
       </c>
       <c r="F226">
-        <v>34049900</v>
+        <v>82488700</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -8350,30 +8389,30 @@
         <v>0</v>
       </c>
       <c r="I226">
-        <v>193.6119995117188</v>
+        <v>191.5899993896484</v>
       </c>
       <c r="J226">
-        <v>192.7976669311523</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14">
+        <v>194.0285011291504</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B227">
-        <v>193.8999938964844</v>
+        <v>184.2200012207031</v>
       </c>
       <c r="C227">
-        <v>194.3999938964844</v>
+        <v>185.8800048828125</v>
       </c>
       <c r="D227">
-        <v>191.7299957275391</v>
+        <v>183.4299926757812</v>
       </c>
       <c r="E227">
-        <v>192.5299987792969</v>
+        <v>184.25</v>
       </c>
       <c r="F227">
-        <v>42628800</v>
+        <v>58414500</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -8382,30 +8421,30 @@
         <v>0</v>
       </c>
       <c r="I227">
-        <v>193.1820007324219</v>
+        <v>189.8299987792969</v>
       </c>
       <c r="J227">
-        <v>192.9483337402344</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14">
+        <v>193.7695014953613</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B228">
-        <v>187.1499938964844</v>
+        <v>182.1499938964844</v>
       </c>
       <c r="C228">
-        <v>188.4400024414062</v>
+        <v>183.0899963378906</v>
       </c>
       <c r="D228">
-        <v>183.8899993896484</v>
+        <v>180.8800048828125</v>
       </c>
       <c r="E228">
-        <v>185.6399993896484</v>
+        <v>181.9100036621094</v>
       </c>
       <c r="F228">
-        <v>82488700</v>
+        <v>71983600</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -8414,39 +8453,30 @@
         <v>0</v>
       </c>
       <c r="I228">
-        <v>191.5899993896484</v>
+        <v>187.5820007324219</v>
       </c>
       <c r="J228">
-        <v>192.8126668294271</v>
-      </c>
-      <c r="L228">
-        <v>184.2200012207031</v>
-      </c>
-      <c r="M228">
-        <v>5.275762275123355</v>
-      </c>
-      <c r="N228">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14">
+        <v>193.1940017700195</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B229">
-        <v>184.2200012207031</v>
+        <v>181.9900054931641</v>
       </c>
       <c r="C229">
-        <v>185.8800048828125</v>
+        <v>182.7599945068359</v>
       </c>
       <c r="D229">
-        <v>183.4299926757812</v>
+        <v>180.1699981689453</v>
       </c>
       <c r="E229">
-        <v>184.25</v>
+        <v>181.1799926757812</v>
       </c>
       <c r="F229">
-        <v>58414500</v>
+        <v>62303300</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -8455,30 +8485,30 @@
         <v>0</v>
       </c>
       <c r="I229">
-        <v>189.8299987792969</v>
+        <v>185.1019989013672</v>
       </c>
       <c r="J229">
-        <v>192.6313334147135</v>
-      </c>
-    </row>
-    <row r="230" spans="1:14">
+        <v>192.6370010375977</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B230">
-        <v>182.1499938964844</v>
+        <v>182.0899963378906</v>
       </c>
       <c r="C230">
-        <v>183.0899963378906</v>
+        <v>185.6000061035156</v>
       </c>
       <c r="D230">
-        <v>180.8800048828125</v>
+        <v>181.5</v>
       </c>
       <c r="E230">
-        <v>181.9100036621094</v>
+        <v>185.5599975585938</v>
       </c>
       <c r="F230">
-        <v>71983600</v>
+        <v>59144500</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -8487,30 +8517,30 @@
         <v>0</v>
       </c>
       <c r="I230">
-        <v>187.5820007324219</v>
+        <v>183.7079986572266</v>
       </c>
       <c r="J230">
-        <v>192.3133336385091</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14">
+        <v>192.2015007019043</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B231">
-        <v>181.9900054931641</v>
+        <v>183.9199981689453</v>
       </c>
       <c r="C231">
-        <v>182.7599945068359</v>
+        <v>185.1499938964844</v>
       </c>
       <c r="D231">
-        <v>180.1699981689453</v>
+        <v>182.7299957275391</v>
       </c>
       <c r="E231">
-        <v>181.1799926757812</v>
+        <v>185.1399993896484</v>
       </c>
       <c r="F231">
-        <v>62303300</v>
+        <v>42841800</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -8519,30 +8549,30 @@
         <v>0</v>
       </c>
       <c r="I231">
-        <v>185.1019989013672</v>
+        <v>183.6079986572266</v>
       </c>
       <c r="J231">
-        <v>191.9980000813802</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14">
+        <v>191.6730003356934</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B232">
-        <v>182.0899963378906</v>
+        <v>184.3500061035156</v>
       </c>
       <c r="C232">
-        <v>185.6000061035156</v>
+        <v>186.3999938964844</v>
       </c>
       <c r="D232">
-        <v>181.5</v>
+        <v>183.9199981689453</v>
       </c>
       <c r="E232">
-        <v>185.5599975585938</v>
+        <v>186.1900024414062</v>
       </c>
       <c r="F232">
-        <v>59144500</v>
+        <v>46792900</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -8551,30 +8581,30 @@
         <v>0</v>
       </c>
       <c r="I232">
-        <v>183.7079986572266</v>
+        <v>183.9959991455078</v>
       </c>
       <c r="J232">
-        <v>191.8063334147135</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14">
+        <v>191.3235008239746</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B233">
-        <v>183.9199981689453</v>
+        <v>186.5399932861328</v>
       </c>
       <c r="C233">
-        <v>185.1499938964844</v>
+        <v>187.0500030517578</v>
       </c>
       <c r="D233">
-        <v>182.7299957275391</v>
+        <v>183.6199951171875</v>
       </c>
       <c r="E233">
-        <v>185.1399993896484</v>
+        <v>185.5899963378906</v>
       </c>
       <c r="F233">
-        <v>42841800</v>
+        <v>49128400</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -8583,30 +8613,30 @@
         <v>0</v>
       </c>
       <c r="I233">
-        <v>183.6079986572266</v>
+        <v>184.7319976806641</v>
       </c>
       <c r="J233">
-        <v>191.6453333536784</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14">
+        <v>190.8675003051758</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B234">
-        <v>184.3500061035156</v>
+        <v>186.0599975585938</v>
       </c>
       <c r="C234">
-        <v>186.3999938964844</v>
+        <v>186.7400054931641</v>
       </c>
       <c r="D234">
-        <v>183.9199981689453</v>
+        <v>185.1900024414062</v>
       </c>
       <c r="E234">
-        <v>186.1900024414062</v>
+        <v>185.9199981689453</v>
       </c>
       <c r="F234">
-        <v>46792900</v>
+        <v>40444700</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -8615,30 +8645,30 @@
         <v>0</v>
       </c>
       <c r="I234">
-        <v>183.9959991455078</v>
+        <v>185.6799987792969</v>
       </c>
       <c r="J234">
-        <v>191.5253336588542</v>
-      </c>
-    </row>
-    <row r="235" spans="1:14">
+        <v>190.2654998779297</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B235">
-        <v>186.5399932861328</v>
+        <v>182.1600036621094</v>
       </c>
       <c r="C235">
-        <v>187.0500030517578</v>
+        <v>184.2599945068359</v>
       </c>
       <c r="D235">
-        <v>183.6199951171875</v>
+        <v>180.9299926757812</v>
       </c>
       <c r="E235">
-        <v>185.5899963378906</v>
+        <v>183.6300048828125</v>
       </c>
       <c r="F235">
-        <v>49128400</v>
+        <v>65603000</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -8647,30 +8677,30 @@
         <v>0</v>
       </c>
       <c r="I235">
-        <v>184.7319976806641</v>
+        <v>185.2940002441406</v>
       </c>
       <c r="J235">
-        <v>191.365000406901</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14">
+        <v>189.5415000915527</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B236">
-        <v>186.0599975585938</v>
+        <v>181.2700042724609</v>
       </c>
       <c r="C236">
-        <v>186.7400054931641</v>
+        <v>182.9299926757812</v>
       </c>
       <c r="D236">
-        <v>185.1900024414062</v>
+        <v>180.3000030517578</v>
       </c>
       <c r="E236">
-        <v>185.9199981689453</v>
+        <v>182.6799926757812</v>
       </c>
       <c r="F236">
-        <v>40444700</v>
+        <v>47317400</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -8679,30 +8709,30 @@
         <v>0</v>
       </c>
       <c r="I236">
-        <v>185.6799987792969</v>
+        <v>184.8019989013672</v>
       </c>
       <c r="J236">
-        <v>191.2500005086263</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14">
+        <v>188.7969993591309</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B237">
-        <v>182.1600036621094</v>
+        <v>186.0899963378906</v>
       </c>
       <c r="C237">
-        <v>184.2599945068359</v>
+        <v>189.1399993896484</v>
       </c>
       <c r="D237">
-        <v>180.9299926757812</v>
+        <v>185.8300018310547</v>
       </c>
       <c r="E237">
-        <v>183.6300048828125</v>
+        <v>188.6300048828125</v>
       </c>
       <c r="F237">
-        <v>65603000</v>
+        <v>78005800</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -8711,30 +8741,30 @@
         <v>0</v>
       </c>
       <c r="I237">
-        <v>185.2940002441406</v>
+        <v>185.2899993896484</v>
       </c>
       <c r="J237">
-        <v>191.0393341064453</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14">
+        <v>188.4339996337891</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B238">
-        <v>181.2700042724609</v>
+        <v>189.3300018310547</v>
       </c>
       <c r="C238">
-        <v>182.9299926757812</v>
+        <v>191.9499969482422</v>
       </c>
       <c r="D238">
-        <v>180.3000030517578</v>
+        <v>188.8200073242188</v>
       </c>
       <c r="E238">
-        <v>182.6799926757812</v>
+        <v>191.5599975585938</v>
       </c>
       <c r="F238">
-        <v>47317400</v>
+        <v>68741000</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -8743,30 +8773,30 @@
         <v>0</v>
       </c>
       <c r="I238">
-        <v>184.8019989013672</v>
+        <v>186.4839996337891</v>
       </c>
       <c r="J238">
-        <v>190.7540003458659</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14">
+        <v>188.1649993896484</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B239">
-        <v>186.0899963378906</v>
+        <v>192.3000030517578</v>
       </c>
       <c r="C239">
-        <v>189.1399993896484</v>
+        <v>195.3300018310547</v>
       </c>
       <c r="D239">
-        <v>185.8300018310547</v>
+        <v>192.2599945068359</v>
       </c>
       <c r="E239">
-        <v>188.6300048828125</v>
+        <v>193.8899993896484</v>
       </c>
       <c r="F239">
-        <v>78005800</v>
+        <v>60133900</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -8775,30 +8805,30 @@
         <v>0</v>
       </c>
       <c r="I239">
-        <v>185.2899993896484</v>
+        <v>188.0779998779297</v>
       </c>
       <c r="J239">
-        <v>190.7273340861003</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14">
+        <v>188.1179992675781</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B240">
-        <v>189.3300018310547</v>
+        <v>195.0200042724609</v>
       </c>
       <c r="C240">
-        <v>191.9499969482422</v>
+        <v>195.75</v>
       </c>
       <c r="D240">
-        <v>188.8200073242188</v>
+        <v>193.8300018310547</v>
       </c>
       <c r="E240">
-        <v>191.5599975585938</v>
+        <v>195.1799926757812</v>
       </c>
       <c r="F240">
-        <v>68741000</v>
+        <v>42355600</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -8807,10 +8837,13 @@
         <v>0</v>
       </c>
       <c r="I240">
-        <v>186.4839996337891</v>
+        <v>190.3879974365234</v>
       </c>
       <c r="J240">
-        <v>190.6653340657552</v>
+        <v>188.1429992675781</v>
+      </c>
+      <c r="K240">
+        <v>195.4199981689453</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -8818,19 +8851,19 @@
         <v>253</v>
       </c>
       <c r="B241">
-        <v>192.3000030517578</v>
+        <v>195.4199981689453</v>
       </c>
       <c r="C241">
-        <v>195.3300018310547</v>
+        <v>196.3800048828125</v>
       </c>
       <c r="D241">
-        <v>192.2599945068359</v>
+        <v>194.3399963378906</v>
       </c>
       <c r="E241">
-        <v>193.8899993896484</v>
+        <v>194.5</v>
       </c>
       <c r="F241">
-        <v>60133900</v>
+        <v>53631300</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -8839,10 +8872,10 @@
         <v>0</v>
       </c>
       <c r="I241">
-        <v>188.0779998779297</v>
+        <v>192.7519989013672</v>
       </c>
       <c r="J241">
-        <v>190.7176671346029</v>
+        <v>188.1879989624023</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -8850,19 +8883,19 @@
         <v>254</v>
       </c>
       <c r="B242">
-        <v>195.0200042724609</v>
+        <v>195.2200012207031</v>
       </c>
       <c r="C242">
-        <v>195.75</v>
+        <v>196.2700042724609</v>
       </c>
       <c r="D242">
-        <v>193.8300018310547</v>
+        <v>193.1100006103516</v>
       </c>
       <c r="E242">
-        <v>195.1799926757812</v>
+        <v>194.1699981689453</v>
       </c>
       <c r="F242">
-        <v>42355600</v>
+        <v>54822100</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -8871,10 +8904,10 @@
         <v>0</v>
       </c>
       <c r="I242">
-        <v>190.3879974365234</v>
+        <v>193.8599975585938</v>
       </c>
       <c r="J242">
-        <v>190.7480000813802</v>
+        <v>188.2439987182617</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -8882,19 +8915,19 @@
         <v>255</v>
       </c>
       <c r="B243">
-        <v>195.4199981689453</v>
+        <v>194.2700042724609</v>
       </c>
       <c r="C243">
-        <v>196.3800048828125</v>
+        <v>194.7599945068359</v>
       </c>
       <c r="D243">
-        <v>194.3399963378906</v>
+        <v>191.9400024414062</v>
       </c>
       <c r="E243">
-        <v>194.5</v>
+        <v>192.4199981689453</v>
       </c>
       <c r="F243">
-        <v>53631300</v>
+        <v>44594000</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -8903,13 +8936,10 @@
         <v>0</v>
       </c>
       <c r="I243">
-        <v>192.7519989013672</v>
+        <v>194.0319976806641</v>
       </c>
       <c r="J243">
-        <v>190.7076665242513</v>
-      </c>
-      <c r="K243">
-        <v>195.2200012207031</v>
+        <v>188.2074989318848</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -8917,19 +8947,19 @@
         <v>256</v>
       </c>
       <c r="B244">
-        <v>195.2200012207031</v>
+        <v>192.0099945068359</v>
       </c>
       <c r="C244">
-        <v>196.2700042724609</v>
+        <v>192.1999969482422</v>
       </c>
       <c r="D244">
-        <v>193.1100006103516</v>
+        <v>189.5800018310547</v>
       </c>
       <c r="E244">
-        <v>194.1699981689453</v>
+        <v>191.7299957275391</v>
       </c>
       <c r="F244">
-        <v>54822100</v>
+        <v>47145600</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -8938,10 +8968,10 @@
         <v>0</v>
       </c>
       <c r="I244">
-        <v>193.8599975585938</v>
+        <v>193.5999969482422</v>
       </c>
       <c r="J244">
-        <v>190.7406667073568</v>
+        <v>188.114998626709</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -8949,19 +8979,19 @@
         <v>257</v>
       </c>
       <c r="B245">
-        <v>194.2700042724609</v>
+        <v>190.9400024414062</v>
       </c>
       <c r="C245">
-        <v>194.7599945068359</v>
+        <v>191.8000030517578</v>
       </c>
       <c r="D245">
-        <v>191.9400024414062</v>
+        <v>187.4700012207031</v>
       </c>
       <c r="E245">
-        <v>192.4199981689453</v>
+        <v>188.0399932861328</v>
       </c>
       <c r="F245">
-        <v>44594000</v>
+        <v>55859400</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -8970,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="I245">
-        <v>194.0319976806641</v>
+        <v>192.1719970703125</v>
       </c>
       <c r="J245">
-        <v>190.6643330891927</v>
+        <v>187.8904983520508</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -8981,19 +9011,19 @@
         <v>258</v>
       </c>
       <c r="B246">
-        <v>192.0099945068359</v>
+        <v>187.0399932861328</v>
       </c>
       <c r="C246">
-        <v>192.1999969482422</v>
+        <v>187.1000061035156</v>
       </c>
       <c r="D246">
-        <v>189.5800018310547</v>
+        <v>184.3500061035156</v>
       </c>
       <c r="E246">
-        <v>191.7299957275391</v>
+        <v>184.3999938964844</v>
       </c>
       <c r="F246">
-        <v>47145600</v>
+        <v>55467800</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -9002,10 +9032,10 @@
         <v>0</v>
       </c>
       <c r="I246">
-        <v>193.5999969482422</v>
+        <v>190.1519958496094</v>
       </c>
       <c r="J246">
-        <v>190.4566660563151</v>
+        <v>187.8284980773926</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -9013,19 +9043,19 @@
         <v>259</v>
       </c>
       <c r="B247">
-        <v>190.9400024414062</v>
+        <v>183.9900054931641</v>
       </c>
       <c r="C247">
-        <v>191.8000030517578</v>
+        <v>186.9499969482422</v>
       </c>
       <c r="D247">
-        <v>187.4700012207031</v>
+        <v>183.8200073242188</v>
       </c>
       <c r="E247">
-        <v>188.0399932861328</v>
+        <v>186.8600006103516</v>
       </c>
       <c r="F247">
-        <v>55859400</v>
+        <v>64885400</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -9034,10 +9064,10 @@
         <v>0</v>
       </c>
       <c r="I247">
-        <v>192.1719970703125</v>
+        <v>188.6899963378906</v>
       </c>
       <c r="J247">
-        <v>190.1209991455078</v>
+        <v>187.9589981079102</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -9045,19 +9075,19 @@
         <v>260</v>
       </c>
       <c r="B248">
-        <v>187.0399932861328</v>
+        <v>179.8600006103516</v>
       </c>
       <c r="C248">
-        <v>187.1000061035156</v>
+        <v>187.3300018310547</v>
       </c>
       <c r="D248">
-        <v>184.3500061035156</v>
+        <v>179.25</v>
       </c>
       <c r="E248">
-        <v>184.3999938964844</v>
+        <v>185.8500061035156</v>
       </c>
       <c r="F248">
-        <v>55467800</v>
+        <v>102518000</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -9066,10 +9096,19 @@
         <v>0</v>
       </c>
       <c r="I248">
-        <v>190.1519958496094</v>
+        <v>187.3759979248047</v>
       </c>
       <c r="J248">
-        <v>189.6819986979167</v>
+        <v>188.1559982299805</v>
+      </c>
+      <c r="L248">
+        <v>188.1499938964844</v>
+      </c>
+      <c r="M248">
+        <v>-7.270004272460938</v>
+      </c>
+      <c r="N248">
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -9077,19 +9116,19 @@
         <v>261</v>
       </c>
       <c r="B249">
-        <v>183.9900054931641</v>
+        <v>188.1499938964844</v>
       </c>
       <c r="C249">
-        <v>186.9499969482422</v>
+        <v>189.25</v>
       </c>
       <c r="D249">
-        <v>183.8200073242188</v>
+        <v>185.8399963378906</v>
       </c>
       <c r="E249">
-        <v>186.8600006103516</v>
+        <v>187.6799926757812</v>
       </c>
       <c r="F249">
-        <v>64885400</v>
+        <v>69668800</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -9098,19 +9137,10 @@
         <v>0</v>
       </c>
       <c r="I249">
-        <v>188.6899963378906</v>
+        <v>186.5659973144531</v>
       </c>
       <c r="J249">
-        <v>189.3809987386068</v>
-      </c>
-      <c r="L249">
-        <v>179.8600006103516</v>
-      </c>
-      <c r="M249">
-        <v>-15.36000061035156</v>
-      </c>
-      <c r="N249">
-        <v>6</v>
+        <v>188.4809982299805</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -9118,19 +9148,19 @@
         <v>262</v>
       </c>
       <c r="B250">
-        <v>179.8600006103516</v>
+        <v>186.8600006103516</v>
       </c>
       <c r="C250">
-        <v>187.3300018310547</v>
+        <v>189.3099975585938</v>
       </c>
       <c r="D250">
-        <v>179.25</v>
+        <v>186.7700042724609</v>
       </c>
       <c r="E250">
-        <v>185.8500061035156</v>
+        <v>189.3000030517578</v>
       </c>
       <c r="F250">
-        <v>102518000</v>
+        <v>43490800</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -9139,10 +9169,10 @@
         <v>0</v>
       </c>
       <c r="I250">
-        <v>187.3759979248047</v>
+        <v>186.8179992675781</v>
       </c>
       <c r="J250">
-        <v>189.0113321940104</v>
+        <v>188.6679985046387</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -9150,19 +9180,19 @@
         <v>263</v>
       </c>
       <c r="B251">
-        <v>188.1499938964844</v>
+        <v>190.6399993896484</v>
       </c>
       <c r="C251">
-        <v>189.25</v>
+        <v>191.0500030517578</v>
       </c>
       <c r="D251">
-        <v>185.8399963378906</v>
+        <v>188.6100006103516</v>
       </c>
       <c r="E251">
-        <v>187.6799926757812</v>
+        <v>189.4100036621094</v>
       </c>
       <c r="F251">
-        <v>69668800</v>
+        <v>53439000</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -9171,10 +9201,10 @@
         <v>0</v>
       </c>
       <c r="I251">
-        <v>186.5659973144531</v>
+        <v>187.8200012207031</v>
       </c>
       <c r="J251">
-        <v>188.7729985555013</v>
+        <v>188.8814987182617</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -9182,19 +9212,19 @@
         <v>264</v>
       </c>
       <c r="B252">
-        <v>186.8600006103516</v>
+        <v>189.3899993896484</v>
       </c>
       <c r="C252">
-        <v>189.3099975585938</v>
+        <v>189.5399932861328</v>
       </c>
       <c r="D252">
-        <v>186.7700042724609</v>
+        <v>187.3500061035156</v>
       </c>
       <c r="E252">
-        <v>189.3000030517578</v>
+        <v>188.3200073242188</v>
       </c>
       <c r="F252">
-        <v>43309800</v>
+        <v>40928600</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -9203,10 +9233,10 @@
         <v>0</v>
       </c>
       <c r="I252">
-        <v>186.8179992675781</v>
+        <v>188.1120025634766</v>
       </c>
       <c r="J252">
-        <v>188.5936655680339</v>
+        <v>188.9879989624023</v>
       </c>
     </row>
   </sheetData>

--- a/02-output/stock.xlsx
+++ b/02-output/stock.xlsx
@@ -58,12 +58,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
     <t>2023-02-13</t>
   </si>
   <si>
@@ -809,6 +803,12 @@
   </si>
   <si>
     <t>2024-02-08</t>
+  </si>
+  <si>
+    <t>2024-02-09</t>
+  </si>
+  <si>
+    <t>2024-02-12</t>
   </si>
 </sst>
 </file>
@@ -1221,19 +1221,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>152.9252313483612</v>
+        <v>150.1485604266238</v>
       </c>
       <c r="C2">
-        <v>153.4721772750098</v>
+        <v>153.4409842655517</v>
       </c>
       <c r="D2">
-        <v>149.5839068929872</v>
+        <v>150.1187209193893</v>
       </c>
       <c r="E2">
-        <v>150.0314025878906</v>
+        <v>153.0331726074219</v>
       </c>
       <c r="F2">
-        <v>56007100</v>
+        <v>62199000</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1247,22 +1247,22 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>148.8561615202599</v>
+        <v>151.3123290117981</v>
       </c>
       <c r="C3">
-        <v>150.7285556495188</v>
+        <v>152.9535776062572</v>
       </c>
       <c r="D3">
-        <v>148.6171256922703</v>
+        <v>150.0590243214808</v>
       </c>
       <c r="E3">
-        <v>150.3998870849609</v>
+        <v>152.3865966796875</v>
       </c>
       <c r="F3">
-        <v>57450700</v>
+        <v>61707600</v>
       </c>
       <c r="G3">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1273,19 +1273,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>150.3401464530594</v>
+        <v>152.2970954645563</v>
       </c>
       <c r="C4">
-        <v>153.6367713472545</v>
+        <v>154.6744056582375</v>
       </c>
       <c r="D4">
-        <v>150.3102688713165</v>
+        <v>152.068320850659</v>
       </c>
       <c r="E4">
-        <v>153.2284393310547</v>
+        <v>154.5053100585938</v>
       </c>
       <c r="F4">
-        <v>62199000</v>
+        <v>65573800</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1299,19 +1299,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>151.5054161644625</v>
+        <v>152.6949401296009</v>
       </c>
       <c r="C5">
-        <v>153.1487591290235</v>
+        <v>155.499974752395</v>
       </c>
       <c r="D5">
-        <v>150.2505121528232</v>
+        <v>152.5358011774766</v>
       </c>
       <c r="E5">
-        <v>152.5810546875</v>
+        <v>152.8938903808594</v>
       </c>
       <c r="F5">
-        <v>61707600</v>
+        <v>68167900</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1325,19 +1325,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>152.4914063713325</v>
+        <v>151.5411161887517</v>
       </c>
       <c r="C6">
-        <v>154.8717496977074</v>
+        <v>152.1876589957286</v>
       </c>
       <c r="D6">
-        <v>152.2623398713519</v>
+        <v>150.0490803162446</v>
       </c>
       <c r="E6">
-        <v>154.7024383544922</v>
+        <v>151.7400512695312</v>
       </c>
       <c r="F6">
-        <v>65573800</v>
+        <v>59144100</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>152.1886444091797</v>
+        <v>152.9118041992188</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1354,19 +1354,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>152.8898003768049</v>
+        <v>149.4025348069726</v>
       </c>
       <c r="C7">
-        <v>155.6984146188028</v>
+        <v>150.4967006092862</v>
       </c>
       <c r="D7">
-        <v>152.7304583409665</v>
+        <v>147.6220451953259</v>
       </c>
       <c r="E7">
-        <v>153.0890045166016</v>
+        <v>147.6916656494141</v>
       </c>
       <c r="F7">
-        <v>68167900</v>
+        <v>58867200</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>152.8001647949219</v>
+        <v>151.8435028076172</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1383,19 +1383,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>151.7344963627943</v>
+        <v>148.0795886410299</v>
       </c>
       <c r="C8">
-        <v>152.381864216885</v>
+        <v>149.1538563384813</v>
       </c>
       <c r="D8">
-        <v>150.2405565175307</v>
+        <v>146.3786761700627</v>
       </c>
       <c r="E8">
-        <v>151.9336853027344</v>
+        <v>148.119384765625</v>
       </c>
       <c r="F8">
-        <v>59144100</v>
+        <v>51011300</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>153.1069244384766</v>
+        <v>150.9900604248047</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1412,19 +1412,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>149.5931792577859</v>
+        <v>149.2931200011247</v>
       </c>
       <c r="C9">
-        <v>150.688741265584</v>
+        <v>149.5417926702629</v>
       </c>
       <c r="D9">
-        <v>147.8104176601611</v>
+        <v>146.4582606796148</v>
       </c>
       <c r="E9">
-        <v>147.880126953125</v>
+        <v>148.6067810058594</v>
       </c>
       <c r="F9">
-        <v>58867200</v>
+        <v>48394200</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>152.0372619628906</v>
+        <v>149.8103546142578</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1441,19 +1441,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>148.2685332238393</v>
+        <v>146.3289309495096</v>
       </c>
       <c r="C10">
-        <v>149.3441716508003</v>
+        <v>146.4085080167631</v>
       </c>
       <c r="D10">
-        <v>146.5654504456734</v>
+        <v>144.9463116587486</v>
       </c>
       <c r="E10">
-        <v>148.3083801269531</v>
+        <v>145.9310607910156</v>
       </c>
       <c r="F10">
-        <v>51011300</v>
+        <v>55469600</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>151.1827270507812</v>
+        <v>148.4177886962891</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1470,19 +1470,19 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>149.4836167354466</v>
+        <v>146.9257670114552</v>
       </c>
       <c r="C11">
-        <v>149.7326067087673</v>
+        <v>148.3780069046065</v>
       </c>
       <c r="D11">
-        <v>146.6451401578769</v>
+        <v>146.6671377208959</v>
       </c>
       <c r="E11">
-        <v>148.7964019775391</v>
+        <v>147.1346435546875</v>
       </c>
       <c r="F11">
-        <v>48394200</v>
+        <v>44998500</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>150.0015197753906</v>
+        <v>147.4967071533203</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1499,19 +1499,19 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>146.5156722218279</v>
+        <v>146.2692606185238</v>
       </c>
       <c r="C12">
-        <v>146.5953508433174</v>
+        <v>148.2884813892963</v>
       </c>
       <c r="D12">
-        <v>145.1312884673767</v>
+        <v>146.0504274650414</v>
       </c>
       <c r="E12">
-        <v>146.1172943115234</v>
+        <v>146.6273498535156</v>
       </c>
       <c r="F12">
-        <v>55469600</v>
+        <v>50547000</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>148.607177734375</v>
+        <v>147.2838439941406</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1528,19 +1528,19 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>147.1132446251349</v>
+        <v>146.0504474019233</v>
       </c>
       <c r="C13">
-        <v>148.5673375797008</v>
+        <v>146.4483176383263</v>
       </c>
       <c r="D13">
-        <v>146.8542853230111</v>
+        <v>144.2401029174032</v>
       </c>
       <c r="E13">
-        <v>147.3223876953125</v>
+        <v>144.5385131835938</v>
       </c>
       <c r="F13">
-        <v>44998500</v>
+        <v>55479000</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>147.6849182128906</v>
+        <v>146.5676696777344</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1557,19 +1557,19 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>146.4558917300789</v>
+        <v>143.6134545750437</v>
       </c>
       <c r="C14">
-        <v>148.4776889096971</v>
+        <v>145.9310858315015</v>
       </c>
       <c r="D14">
-        <v>146.2367793581571</v>
+        <v>143.1359920895942</v>
       </c>
       <c r="E14">
-        <v>146.8144378662109</v>
+        <v>145.1353302001953</v>
       </c>
       <c r="F14">
-        <v>50547000</v>
+        <v>52238100</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>147.4717803955078</v>
+        <v>145.8733795166016</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1586,19 +1586,19 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>146.236794214235</v>
+        <v>147.2540035190913</v>
       </c>
       <c r="C15">
-        <v>146.6351720961235</v>
+        <v>150.3077112320495</v>
       </c>
       <c r="D15">
-        <v>144.4241398982157</v>
+        <v>146.5477816265888</v>
       </c>
       <c r="E15">
-        <v>144.7229309082031</v>
+        <v>150.2281341552734</v>
       </c>
       <c r="F15">
-        <v>55479000</v>
+        <v>70732300</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>146.7546905517578</v>
+        <v>146.7327941894531</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1615,19 +1615,19 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>143.7967085506073</v>
+        <v>152.9734790181643</v>
       </c>
       <c r="C16">
-        <v>146.1172971563114</v>
+        <v>155.4701624369798</v>
       </c>
       <c r="D16">
-        <v>143.3186368123625</v>
+        <v>152.6452444372912</v>
       </c>
       <c r="E16">
-        <v>145.3205261230469</v>
+        <v>153.0132751464844</v>
       </c>
       <c r="F16">
-        <v>52238100</v>
+        <v>87558000</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>146.0595153808594</v>
+        <v>147.9085205078125</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1644,19 +1644,19 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>147.4419045950621</v>
+        <v>152.8839461885115</v>
       </c>
       <c r="C17">
-        <v>150.4995089420761</v>
+        <v>153.2121959164414</v>
       </c>
       <c r="D17">
-        <v>146.734781539601</v>
+        <v>150.3275991720027</v>
       </c>
       <c r="E17">
-        <v>150.4198303222656</v>
+        <v>150.7951049804688</v>
       </c>
       <c r="F17">
-        <v>70732300</v>
+        <v>56182000</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>146.9200225830078</v>
+        <v>148.7420715332031</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1673,19 +1673,19 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>153.1686797014511</v>
+        <v>151.9986706008595</v>
       </c>
       <c r="C18">
-        <v>155.6685489947883</v>
+        <v>152.6551700500782</v>
       </c>
       <c r="D18">
-        <v>152.8400262792541</v>
+        <v>151.023878046967</v>
       </c>
       <c r="E18">
-        <v>153.2085266113281</v>
+        <v>152.058349609375</v>
       </c>
       <c r="F18">
-        <v>87558000</v>
+        <v>47204800</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>148.0972503662109</v>
+        <v>150.2460388183594</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1702,19 +1702,19 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>153.0790403331744</v>
+        <v>152.744698851292</v>
       </c>
       <c r="C19">
-        <v>153.4077089383081</v>
+        <v>153.7194914708438</v>
       </c>
       <c r="D19">
-        <v>150.5194311799463</v>
+        <v>149.4323770556068</v>
       </c>
       <c r="E19">
-        <v>150.9875335693359</v>
+        <v>149.7904663085938</v>
       </c>
       <c r="F19">
-        <v>56182000</v>
+        <v>53833600</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>148.9318695068359</v>
+        <v>151.1770660400391</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1731,19 +1731,19 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>152.1926404632732</v>
+        <v>149.4124753838311</v>
       </c>
       <c r="C20">
-        <v>152.8499776902654</v>
+        <v>150.1385952413383</v>
       </c>
       <c r="D20">
-        <v>151.2166039486485</v>
+        <v>146.826273862122</v>
       </c>
       <c r="E20">
-        <v>152.2523956298828</v>
+        <v>147.7115478515625</v>
       </c>
       <c r="F20">
-        <v>47204800</v>
+        <v>68572400</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>150.4377624511719</v>
+        <v>150.6737487792969</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1760,19 +1760,19 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>152.9396000232387</v>
+        <v>147.0252161453162</v>
       </c>
       <c r="C21">
-        <v>153.9156364713841</v>
+        <v>152.3269189002675</v>
       </c>
       <c r="D21">
-        <v>149.6230517280108</v>
+        <v>146.9157995714702</v>
       </c>
       <c r="E21">
-        <v>149.9815979003906</v>
+        <v>149.6710968017578</v>
       </c>
       <c r="F21">
-        <v>53833600</v>
+        <v>84457100</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1781,13 +1781,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>151.3699768066406</v>
+        <v>150.0053131103516</v>
       </c>
       <c r="J21">
-        <v>149.9049140930176</v>
+        <v>149.5805862426758</v>
       </c>
       <c r="K21">
-        <v>149.6031531600206</v>
+        <v>150.4768189656594</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1795,19 +1795,19 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>149.6031531600206</v>
+        <v>150.4768189656594</v>
       </c>
       <c r="C22">
-        <v>150.3301996799054</v>
+        <v>152.5855585480976</v>
       </c>
       <c r="D22">
-        <v>147.0136511699024</v>
+        <v>149.3030911385368</v>
       </c>
       <c r="E22">
-        <v>147.9000549316406</v>
+        <v>151.7798614501953</v>
       </c>
       <c r="F22">
-        <v>68572400</v>
+        <v>73695900</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>150.8660217285156</v>
+        <v>150.2022644042969</v>
       </c>
       <c r="J22">
-        <v>149.7983467102051</v>
+        <v>149.5179206848144</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1827,19 +1827,19 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>147.2128340178069</v>
+        <v>150.3872730152664</v>
       </c>
       <c r="C23">
-        <v>152.5213022393737</v>
+        <v>152.4363332061019</v>
       </c>
       <c r="D23">
-        <v>147.1032778182195</v>
+        <v>149.124011713798</v>
       </c>
       <c r="E23">
-        <v>149.8620910644531</v>
+        <v>152.1777191162109</v>
       </c>
       <c r="F23">
-        <v>84457100</v>
+        <v>77167900</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1848,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>150.1967346191406</v>
+        <v>150.2261383056641</v>
       </c>
       <c r="J23">
-        <v>149.7714569091797</v>
+        <v>149.5074768066406</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1859,19 +1859,19 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>150.6688057626924</v>
+        <v>151.3521264617654</v>
       </c>
       <c r="C24">
-        <v>152.7802357938056</v>
+        <v>155.6292991090587</v>
       </c>
       <c r="D24">
-        <v>149.4935804275305</v>
+        <v>150.8348830961505</v>
       </c>
       <c r="E24">
-        <v>151.9735107421875</v>
+        <v>155.0225372314453</v>
       </c>
       <c r="F24">
-        <v>73695900</v>
+        <v>76161100</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>150.3939300537109</v>
+        <v>151.2725524902344</v>
       </c>
       <c r="J24">
-        <v>149.7087104797363</v>
+        <v>149.5333381652832</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1891,19 +1891,19 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>150.5791867810266</v>
+        <v>155.251315431779</v>
       </c>
       <c r="C25">
-        <v>152.6308618397936</v>
+        <v>155.9078148905834</v>
       </c>
       <c r="D25">
-        <v>149.3143133934512</v>
+        <v>153.460869261301</v>
       </c>
       <c r="E25">
-        <v>152.3719177246094</v>
+        <v>154.1770477294922</v>
       </c>
       <c r="F25">
-        <v>77167900</v>
+        <v>98944600</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>150.4178344726562</v>
+        <v>152.5656524658203</v>
       </c>
       <c r="J25">
-        <v>149.6982536315918</v>
+        <v>149.5974960327148</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1923,19 +1923,19 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>151.5452578126157</v>
+        <v>154.2466847042426</v>
       </c>
       <c r="C26">
-        <v>155.8278883028247</v>
+        <v>156.9820839620101</v>
       </c>
       <c r="D26">
-        <v>151.0273544238332</v>
+        <v>153.3315559597478</v>
       </c>
       <c r="E26">
-        <v>155.2203521728516</v>
+        <v>156.5643005371094</v>
       </c>
       <c r="F26">
-        <v>76161100</v>
+        <v>73641400</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1944,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>151.4655853271484</v>
+        <v>153.9442932128906</v>
       </c>
       <c r="J26">
-        <v>149.7241493225098</v>
+        <v>149.8387084960937</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1955,19 +1955,19 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>155.449417776278</v>
+        <v>156.48474098938</v>
       </c>
       <c r="C27">
-        <v>156.1067549354367</v>
+        <v>158.5536841934798</v>
       </c>
       <c r="D27">
-        <v>153.656686977273</v>
+        <v>155.708868315624</v>
       </c>
       <c r="E27">
-        <v>154.373779296875</v>
+        <v>158.434326171875</v>
       </c>
       <c r="F27">
-        <v>98944600</v>
+        <v>73938300</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>152.7603302001953</v>
+        <v>155.2751861572266</v>
       </c>
       <c r="J27">
-        <v>149.7883880615234</v>
+        <v>150.3758415222168</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1987,19 +1987,19 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>154.4435106439035</v>
+        <v>158.4542160535843</v>
       </c>
       <c r="C28">
-        <v>157.1824003982757</v>
+        <v>161.2791337227277</v>
       </c>
       <c r="D28">
-        <v>153.527214152592</v>
+        <v>156.9721215914886</v>
       </c>
       <c r="E28">
-        <v>156.7640838623047</v>
+        <v>156.9920196533203</v>
       </c>
       <c r="F28">
-        <v>73641400</v>
+        <v>75701800</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>154.1407287597656</v>
+        <v>156.2380462646484</v>
       </c>
       <c r="J28">
-        <v>150.029907989502</v>
+        <v>150.8194732666016</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2019,19 +2019,19 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>156.6844169965663</v>
+        <v>157.9867064306337</v>
       </c>
       <c r="C29">
-        <v>158.7560001917316</v>
+        <v>160.6922660188234</v>
       </c>
       <c r="D29">
-        <v>155.907554301952</v>
+        <v>156.8428031585052</v>
       </c>
       <c r="E29">
-        <v>158.6364898681641</v>
+        <v>158.0861663818359</v>
       </c>
       <c r="F29">
-        <v>73938300</v>
+        <v>67622100</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2040,10 +2040,10 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>155.4733245849609</v>
+        <v>156.8507720947266</v>
       </c>
       <c r="J29">
-        <v>150.5677261352539</v>
+        <v>151.2934425354004</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2051,19 +2051,19 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>158.6564145586104</v>
+        <v>158.0165505839538</v>
       </c>
       <c r="C30">
-        <v>161.4849370174763</v>
+        <v>159.4886884339235</v>
       </c>
       <c r="D30">
-        <v>157.1724288417913</v>
+        <v>157.0119185339363</v>
       </c>
       <c r="E30">
-        <v>157.1923522949219</v>
+        <v>159.399169921875</v>
       </c>
       <c r="F30">
-        <v>75701800</v>
+        <v>59196500</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>156.4374114990234</v>
+        <v>157.8951965332031</v>
       </c>
       <c r="J30">
-        <v>151.0119247436523</v>
+        <v>151.9668479919434</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2083,19 +2083,19 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>158.1883007091018</v>
+        <v>159.0908263664263</v>
       </c>
       <c r="C31">
-        <v>160.89731264683</v>
+        <v>159.9164214344051</v>
       </c>
       <c r="D31">
-        <v>157.0429377929311</v>
+        <v>157.0318094177729</v>
       </c>
       <c r="E31">
-        <v>158.2878875732422</v>
+        <v>157.4396362304688</v>
       </c>
       <c r="F31">
-        <v>67622100</v>
+        <v>52390300</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2104,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>157.0509185791016</v>
+        <v>158.070263671875</v>
       </c>
       <c r="J31">
-        <v>151.4864990234375</v>
+        <v>152.4820976257324</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2115,19 +2115,19 @@
         <v>44</v>
       </c>
       <c r="B32">
-        <v>158.2181859650851</v>
+        <v>157.1312660222166</v>
       </c>
       <c r="C32">
-        <v>159.6922023212959</v>
+        <v>157.6485093534653</v>
       </c>
       <c r="D32">
-        <v>157.2122719647558</v>
+        <v>155.151826381046</v>
       </c>
       <c r="E32">
-        <v>159.6025695800781</v>
+        <v>156.8129577636719</v>
       </c>
       <c r="F32">
-        <v>59196500</v>
+        <v>45992200</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2136,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>158.0966766357422</v>
+        <v>157.7459899902344</v>
       </c>
       <c r="J32">
-        <v>152.1607627868652</v>
+        <v>152.9913780212402</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2147,19 +2147,19 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>159.2938151274952</v>
+        <v>158.5238515297885</v>
       </c>
       <c r="C33">
-        <v>160.1204635970046</v>
+        <v>160.1949397932528</v>
       </c>
       <c r="D33">
-        <v>157.232171017308</v>
+        <v>158.5039686438462</v>
       </c>
       <c r="E33">
-        <v>157.6405181884766</v>
+        <v>159.9164276123047</v>
       </c>
       <c r="F33">
-        <v>52390300</v>
+        <v>51305700</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>158.2719635009766</v>
+        <v>158.3308715820312</v>
       </c>
       <c r="J33">
-        <v>152.6766693115234</v>
+        <v>153.7602737426758</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2179,19 +2179,19 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>157.331791254245</v>
+        <v>160.6723755404659</v>
       </c>
       <c r="C34">
-        <v>157.8496946727038</v>
+        <v>161.6073871569827</v>
       </c>
       <c r="D34">
-        <v>155.3498255238792</v>
+        <v>160.4137614418063</v>
       </c>
       <c r="E34">
-        <v>157.0130767822266</v>
+        <v>161.4979705810547</v>
       </c>
       <c r="F34">
-        <v>45992200</v>
+        <v>49501700</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2200,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>157.9472808837891</v>
+        <v>159.013232421875</v>
       </c>
       <c r="J34">
-        <v>153.1866012573242</v>
+        <v>154.5784057617188</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2211,19 +2211,19 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>158.7261152418139</v>
+        <v>161.5775597340361</v>
       </c>
       <c r="C35">
-        <v>160.3993356797871</v>
+        <v>164.1239654975541</v>
       </c>
       <c r="D35">
-        <v>158.7062069869048</v>
+        <v>161.050374877266</v>
       </c>
       <c r="E35">
-        <v>160.1204681396484</v>
+        <v>164.0244903564453</v>
       </c>
       <c r="F35">
-        <v>51305700</v>
+        <v>68749800</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2232,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>158.5329040527344</v>
+        <v>159.9382965087891</v>
       </c>
       <c r="J35">
-        <v>153.9564781188965</v>
+        <v>155.2682235717774</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2243,19 +2243,19 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>160.8774072157527</v>
+        <v>163.3978440030139</v>
       </c>
       <c r="C36">
-        <v>161.8136119869577</v>
+        <v>165.4071082701306</v>
       </c>
       <c r="D36">
-        <v>160.6184631034132</v>
+        <v>163.3481064329263</v>
       </c>
       <c r="E36">
-        <v>161.7040557861328</v>
+        <v>165.2877502441406</v>
       </c>
       <c r="F36">
-        <v>49501700</v>
+        <v>56976200</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2264,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>159.2161376953125</v>
+        <v>161.5079193115234</v>
       </c>
       <c r="J36">
-        <v>154.7756546020508</v>
+        <v>155.8819473266602</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2275,19 +2275,19 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>161.7837120552028</v>
+        <v>165.7154768042323</v>
       </c>
       <c r="C37">
-        <v>164.3333667071162</v>
+        <v>165.9541928586188</v>
       </c>
       <c r="D37">
-        <v>161.2558545779148</v>
+        <v>164.2333821962213</v>
       </c>
       <c r="E37">
-        <v>164.2337646484375</v>
+        <v>164.7506256103516</v>
       </c>
       <c r="F37">
-        <v>68749800</v>
+        <v>46278300</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>160.1423767089844</v>
+        <v>163.0954528808594</v>
       </c>
       <c r="J37">
-        <v>155.4663513183594</v>
+        <v>156.5797233581543</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2307,19 +2307,19 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>163.606339467209</v>
+        <v>163.8653412006972</v>
       </c>
       <c r="C38">
-        <v>165.6181675532587</v>
+        <v>164.1736928700945</v>
       </c>
       <c r="D38">
-        <v>163.5565384320382</v>
+        <v>160.9409482959518</v>
       </c>
       <c r="E38">
-        <v>165.4986572265625</v>
+        <v>162.8905334472656</v>
       </c>
       <c r="F38">
-        <v>56976200</v>
+        <v>51511700</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2328,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>161.7140045166016</v>
+        <v>163.6902740478516</v>
       </c>
       <c r="J38">
-        <v>156.0808578491211</v>
+        <v>157.1213325500488</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2339,19 +2339,19 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>165.9269436308625</v>
+        <v>161.5675955168882</v>
       </c>
       <c r="C39">
-        <v>166.1659643069263</v>
+        <v>164.0841768330829</v>
       </c>
       <c r="D39">
-        <v>164.4429577460103</v>
+        <v>161.1398858213363</v>
       </c>
       <c r="E39">
-        <v>164.9608612060547</v>
+        <v>163.7857666015625</v>
       </c>
       <c r="F39">
-        <v>46278300</v>
+        <v>45390100</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>163.3035614013672</v>
+        <v>164.1478332519531</v>
       </c>
       <c r="J39">
-        <v>156.779524230957</v>
+        <v>157.8210975646973</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2371,19 +2371,19 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>164.074440321316</v>
+        <v>160.5629616120048</v>
       </c>
       <c r="C40">
-        <v>164.3831854605127</v>
+        <v>161.1697235107422</v>
       </c>
       <c r="D40">
-        <v>161.1463157672771</v>
+        <v>159.2300797943766</v>
       </c>
       <c r="E40">
-        <v>163.098388671875</v>
+        <v>161.1697235107422</v>
       </c>
       <c r="F40">
-        <v>51511700</v>
+        <v>47716900</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>163.8991455078125</v>
+        <v>163.5768798828125</v>
       </c>
       <c r="J40">
-        <v>157.3218238830567</v>
+        <v>158.4940063476562</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2403,19 +2403,19 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>161.7737646425446</v>
+        <v>161.488032078235</v>
       </c>
       <c r="C41">
-        <v>164.293557254717</v>
+        <v>161.4979735206733</v>
       </c>
       <c r="D41">
-        <v>161.3455091659301</v>
+        <v>159.6577897586907</v>
       </c>
       <c r="E41">
-        <v>163.9947662353516</v>
+        <v>159.9462585449219</v>
       </c>
       <c r="F41">
-        <v>45390100</v>
+        <v>47644200</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2424,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>164.3572875976562</v>
+        <v>162.5085815429688</v>
       </c>
       <c r="J41">
-        <v>158.0224822998047</v>
+        <v>159.0077644348144</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2435,19 +2435,19 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>160.7678605238514</v>
+        <v>160.3640488170674</v>
       </c>
       <c r="C42">
-        <v>161.3753967285156</v>
+        <v>161.199585429868</v>
       </c>
       <c r="D42">
-        <v>159.4332777782427</v>
+        <v>158.9316916649654</v>
       </c>
       <c r="E42">
-        <v>161.3753967285156</v>
+        <v>159.25</v>
       </c>
       <c r="F42">
-        <v>47716900</v>
+        <v>50133100</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>163.7856140136719</v>
+        <v>161.4084564208984</v>
       </c>
       <c r="J42">
-        <v>158.6962493896484</v>
+        <v>159.3812713623047</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2467,19 +2467,19 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>161.6941010414735</v>
+        <v>160.7718574587899</v>
       </c>
       <c r="C43">
-        <v>161.7040551698223</v>
+        <v>164.9197157212899</v>
       </c>
       <c r="D43">
-        <v>159.8615232167378</v>
+        <v>160.5629657403759</v>
       </c>
       <c r="E43">
-        <v>160.1503601074219</v>
+        <v>164.6809844970703</v>
       </c>
       <c r="F43">
-        <v>47644200</v>
+        <v>68445600</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>162.7159545898438</v>
+        <v>161.7665466308594</v>
       </c>
       <c r="J43">
-        <v>159.2106628417969</v>
+        <v>160.0064346313476</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2499,19 +2499,19 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>160.5686716253684</v>
+        <v>163.71613667723</v>
       </c>
       <c r="C44">
-        <v>161.4052743739358</v>
+        <v>165.4369624952788</v>
       </c>
       <c r="D44">
-        <v>159.1344868008853</v>
+        <v>162.9502357755526</v>
       </c>
       <c r="E44">
-        <v>159.4532012939453</v>
+        <v>164.3328552246094</v>
       </c>
       <c r="F44">
-        <v>50133100</v>
+        <v>49386500</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>161.6144226074219</v>
+        <v>161.8759643554687</v>
       </c>
       <c r="J44">
-        <v>159.5846473693848</v>
+        <v>160.4719505310059</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2531,19 +2531,19 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>160.9770131920105</v>
+        <v>164.2134813381434</v>
       </c>
       <c r="C45">
-        <v>165.1301644014018</v>
+        <v>164.5118915788244</v>
       </c>
       <c r="D45">
-        <v>160.7678549136753</v>
+        <v>163.1591116418091</v>
       </c>
       <c r="E45">
-        <v>164.8911285400391</v>
+        <v>164.3527374267578</v>
       </c>
       <c r="F45">
-        <v>68445600</v>
+        <v>41516200</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>161.9729705810547</v>
+        <v>162.5125671386719</v>
       </c>
       <c r="J45">
-        <v>160.2106079101563</v>
+        <v>160.9807350158691</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2563,19 +2563,19 @@
         <v>58</v>
       </c>
       <c r="B46">
-        <v>163.9250360328323</v>
+        <v>165.2181356700812</v>
       </c>
       <c r="C46">
-        <v>165.6480575990327</v>
+        <v>166.5211780927788</v>
       </c>
       <c r="D46">
-        <v>163.1581578529949</v>
+        <v>164.7705127011323</v>
       </c>
       <c r="E46">
-        <v>164.5425415039062</v>
+        <v>165.5861663818359</v>
       </c>
       <c r="F46">
-        <v>49386500</v>
+        <v>49923000</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2584,10 +2584,10 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>162.0825256347656</v>
+        <v>163.6405487060547</v>
       </c>
       <c r="J46">
-        <v>160.676717376709</v>
+        <v>161.4318283081055</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2595,19 +2595,19 @@
         <v>59</v>
       </c>
       <c r="B47">
-        <v>164.4230204419583</v>
+        <v>164.9197197061662</v>
       </c>
       <c r="C47">
-        <v>164.7218114590158</v>
+        <v>167.2671903455007</v>
       </c>
       <c r="D47">
-        <v>163.3673053525451</v>
+        <v>164.6610904125687</v>
       </c>
       <c r="E47">
-        <v>164.5624542236328</v>
+        <v>166.7400054931641</v>
       </c>
       <c r="F47">
-        <v>41516200</v>
+        <v>47720200</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>162.7199371337891</v>
+        <v>165.1385498046875</v>
       </c>
       <c r="J47">
-        <v>161.1861511230469</v>
+        <v>161.8471122741699</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2627,19 +2627,19 @@
         <v>60</v>
       </c>
       <c r="B48">
-        <v>165.4289545139216</v>
+        <v>165.2081429797903</v>
       </c>
       <c r="C48">
-        <v>166.7336596227154</v>
+        <v>166.9786908714025</v>
       </c>
       <c r="D48">
-        <v>164.9807603767022</v>
+        <v>164.6809582242975</v>
       </c>
       <c r="E48">
-        <v>165.7974548339844</v>
+        <v>165.7651672363281</v>
       </c>
       <c r="F48">
-        <v>49923000</v>
+        <v>52456400</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>163.8493560791016</v>
+        <v>165.3553863525391</v>
       </c>
       <c r="J48">
-        <v>161.6378196716309</v>
+        <v>162.2857696533203</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2659,19 +2659,19 @@
         <v>61</v>
       </c>
       <c r="B49">
-        <v>165.1301503932851</v>
+        <v>164.1737146309494</v>
       </c>
       <c r="C49">
-        <v>167.4806163072932</v>
+        <v>165.5662756378972</v>
       </c>
       <c r="D49">
-        <v>164.8711910994908</v>
+        <v>163.6166902281703</v>
       </c>
       <c r="E49">
-        <v>166.9527587890625</v>
+        <v>164.1438751220703</v>
       </c>
       <c r="F49">
-        <v>47720200</v>
+        <v>58337300</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2680,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>165.349267578125</v>
+        <v>165.3175903320312</v>
       </c>
       <c r="J49">
-        <v>162.0536331176758</v>
+        <v>162.588655090332</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2691,19 +2691,19 @@
         <v>62</v>
       </c>
       <c r="B50">
-        <v>165.4189799625574</v>
+        <v>164.1239597318595</v>
       </c>
       <c r="C50">
-        <v>167.1917874097132</v>
+        <v>164.7207802019945</v>
       </c>
       <c r="D50">
-        <v>164.8911224191426</v>
+        <v>163.0198524865524</v>
       </c>
       <c r="E50">
-        <v>165.9767150878906</v>
+        <v>164.4522094726562</v>
       </c>
       <c r="F50">
-        <v>52456400</v>
+        <v>41949600</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>165.5663848876953</v>
+        <v>165.3374847412109</v>
       </c>
       <c r="J50">
-        <v>162.4928512573242</v>
+        <v>162.8413070678711</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2723,19 +2723,19 @@
         <v>63</v>
       </c>
       <c r="B51">
-        <v>164.3831948438446</v>
+        <v>164.3129563853264</v>
       </c>
       <c r="C51">
-        <v>165.7775327124348</v>
+        <v>165.4270050936161</v>
       </c>
       <c r="D51">
-        <v>163.8254596964086</v>
+        <v>162.8607013096415</v>
       </c>
       <c r="E51">
-        <v>164.3533172607422</v>
+        <v>162.9004974365234</v>
       </c>
       <c r="F51">
-        <v>58337300</v>
+        <v>48714100</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2744,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>165.5285400390625</v>
+        <v>164.8003509521484</v>
       </c>
       <c r="J51">
-        <v>162.7961227416992</v>
+        <v>163.1143501281738</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2755,19 +2755,19 @@
         <v>64</v>
       </c>
       <c r="B52">
-        <v>164.3333797566734</v>
+        <v>162.1942530360821</v>
       </c>
       <c r="C52">
-        <v>164.930961761918</v>
+        <v>164.4024674671031</v>
       </c>
       <c r="D52">
-        <v>163.2278636849701</v>
+        <v>161.9356389341496</v>
       </c>
       <c r="E52">
-        <v>164.6620483398438</v>
+        <v>162.8905334472656</v>
       </c>
       <c r="F52">
-        <v>41949600</v>
+        <v>45498800</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>165.5484588623047</v>
+        <v>164.0304565429688</v>
       </c>
       <c r="J52">
-        <v>163.0490966796875</v>
+        <v>163.4182289123535</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2787,19 +2787,19 @@
         <v>65</v>
       </c>
       <c r="B53">
-        <v>164.5226138571768</v>
+        <v>164.3129338482477</v>
       </c>
       <c r="C53">
-        <v>165.6380840518837</v>
+        <v>167.665036133952</v>
       </c>
       <c r="D53">
-        <v>163.0685057558123</v>
+        <v>164.3129338482477</v>
       </c>
       <c r="E53">
-        <v>163.1083526611328</v>
+        <v>167.5158386230469</v>
       </c>
       <c r="F53">
-        <v>48714100</v>
+        <v>64902300</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2808,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>165.0106384277344</v>
+        <v>164.3805908203125</v>
       </c>
       <c r="J53">
-        <v>163.3224884033203</v>
+        <v>163.7981994628906</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2819,19 +2819,19 @@
         <v>66</v>
       </c>
       <c r="B54">
-        <v>162.4012197773758</v>
+        <v>167.595429412493</v>
       </c>
       <c r="C54">
-        <v>164.6122519836034</v>
+        <v>168.9482092739808</v>
       </c>
       <c r="D54">
-        <v>162.1422756728881</v>
+        <v>166.9886675221689</v>
       </c>
       <c r="E54">
-        <v>163.098388671875</v>
+        <v>168.7790985107422</v>
       </c>
       <c r="F54">
-        <v>45498800</v>
+        <v>55209200</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>164.2397644042969</v>
+        <v>165.3076354980469</v>
       </c>
       <c r="J54">
-        <v>163.6267539978027</v>
+        <v>164.162255859375</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2851,19 +2851,19 @@
         <v>67</v>
       </c>
       <c r="B55">
-        <v>164.5226220904005</v>
+        <v>168.3812387686828</v>
       </c>
       <c r="C55">
-        <v>167.879002167386</v>
+        <v>169.5450250545095</v>
       </c>
       <c r="D55">
-        <v>164.5226220904005</v>
+        <v>167.7446373342705</v>
       </c>
       <c r="E55">
-        <v>167.7296142578125</v>
+        <v>168.6895904541016</v>
       </c>
       <c r="F55">
-        <v>64902300</v>
+        <v>52472900</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2872,10 +2872,10 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>164.5903442382813</v>
+        <v>166.1551116943359</v>
       </c>
       <c r="J55">
-        <v>164.0072113037109</v>
+        <v>164.3955108642578</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2883,19 +2883,19 @@
         <v>68</v>
       </c>
       <c r="B56">
-        <v>167.8092967483896</v>
+        <v>169.1869458152863</v>
       </c>
       <c r="C56">
-        <v>169.1638028826406</v>
+        <v>169.4455751237429</v>
       </c>
       <c r="D56">
-        <v>167.2017605735312</v>
+        <v>166.6504813703726</v>
       </c>
       <c r="E56">
-        <v>168.9944763183594</v>
+        <v>167.6451721191406</v>
       </c>
       <c r="F56">
-        <v>55209200</v>
+        <v>48425700</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2904,10 +2904,10 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>165.5185760498047</v>
+        <v>167.1040466308594</v>
       </c>
       <c r="J56">
-        <v>164.3717323303223</v>
+        <v>164.5133819580078</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2915,19 +2915,19 @@
         <v>69</v>
       </c>
       <c r="B57">
-        <v>168.5961010349427</v>
+        <v>168.6000778840684</v>
       </c>
       <c r="C57">
-        <v>169.7613723660194</v>
+        <v>170.0125368922065</v>
       </c>
       <c r="D57">
-        <v>167.9586872675895</v>
+        <v>166.272505230282</v>
       </c>
       <c r="E57">
-        <v>168.9048461914062</v>
+        <v>166.5609588623047</v>
       </c>
       <c r="F57">
-        <v>52472900</v>
+        <v>65136000</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>166.3671356201172</v>
+        <v>167.8381317138672</v>
       </c>
       <c r="J57">
-        <v>164.6052864074707</v>
+        <v>164.6038986206055</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2947,19 +2947,19 @@
         <v>70</v>
       </c>
       <c r="B58">
-        <v>169.4028260614604</v>
+        <v>164.0145288135272</v>
       </c>
       <c r="C58">
-        <v>169.6617853774037</v>
+        <v>166.1531074853031</v>
       </c>
       <c r="D58">
-        <v>166.8631251223471</v>
+        <v>163.4376064569043</v>
       </c>
       <c r="E58">
-        <v>167.8590850830078</v>
+        <v>164.9097442626953</v>
       </c>
       <c r="F58">
-        <v>48425700</v>
+        <v>81235400</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2968,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>167.3172821044922</v>
+        <v>167.3169128417969</v>
       </c>
       <c r="J58">
-        <v>164.723307800293</v>
+        <v>164.704859161377</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2979,19 +2979,19 @@
         <v>71</v>
       </c>
       <c r="B59">
-        <v>168.8152041237824</v>
+        <v>170.0722076301528</v>
       </c>
       <c r="C59">
-        <v>170.229465367121</v>
+        <v>173.3745879616971</v>
       </c>
       <c r="D59">
-        <v>166.4846615902726</v>
+        <v>169.8533744670854</v>
       </c>
       <c r="E59">
-        <v>166.7734832763672</v>
+        <v>172.6484680175781</v>
       </c>
       <c r="F59">
-        <v>65136000</v>
+        <v>113316400</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>168.0523010253906</v>
+        <v>168.0907867431641</v>
       </c>
       <c r="J59">
-        <v>164.8139389038086</v>
+        <v>165.1479942321777</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3011,19 +3011,19 @@
         <v>72</v>
       </c>
       <c r="B60">
-        <v>164.2238356049893</v>
+        <v>171.564223027556</v>
       </c>
       <c r="C60">
-        <v>166.3651434193803</v>
+        <v>172.9269594115793</v>
       </c>
       <c r="D60">
-        <v>163.6461770101303</v>
+        <v>171.1961923783406</v>
       </c>
       <c r="E60">
-        <v>165.1201934814453</v>
+        <v>172.5788116455078</v>
       </c>
       <c r="F60">
-        <v>81235400</v>
+        <v>55962800</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3032,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>167.5304168701172</v>
+        <v>168.8686309814453</v>
       </c>
       <c r="J60">
-        <v>164.9150291442871</v>
+        <v>165.718448638916</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3043,19 +3043,19 @@
         <v>73</v>
       </c>
       <c r="B61">
-        <v>170.2892266146556</v>
+        <v>172.1312197838189</v>
       </c>
       <c r="C61">
-        <v>173.5958209164658</v>
+        <v>172.6186084878798</v>
       </c>
       <c r="D61">
-        <v>170.0701142116613</v>
+        <v>170.6889213788365</v>
       </c>
       <c r="E61">
-        <v>172.8687744140625</v>
+        <v>170.8580169677734</v>
       </c>
       <c r="F61">
-        <v>113316400</v>
+        <v>45326900</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3064,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>168.3052764892578</v>
+        <v>169.5111999511719</v>
       </c>
       <c r="J61">
-        <v>165.3587295532226</v>
+        <v>166.2640365600586</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3075,19 +3075,19 @@
         <v>74</v>
       </c>
       <c r="B62">
-        <v>171.7831584001497</v>
+        <v>172.1013777641197</v>
       </c>
       <c r="C62">
-        <v>173.1476337900841</v>
+        <v>173.1060098405757</v>
       </c>
       <c r="D62">
-        <v>171.4146581021586</v>
+        <v>170.9873139330258</v>
       </c>
       <c r="E62">
-        <v>172.7990417480469</v>
+        <v>172.6385040283203</v>
       </c>
       <c r="F62">
-        <v>55962800</v>
+        <v>53724500</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>169.0841156005859</v>
+        <v>170.726708984375</v>
       </c>
       <c r="J62">
-        <v>165.9299118041992</v>
+        <v>166.9334617614746</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3107,19 +3107,19 @@
         <v>75</v>
       </c>
       <c r="B63">
-        <v>172.3508619892183</v>
+        <v>172.9269745251552</v>
       </c>
       <c r="C63">
-        <v>172.8388726091058</v>
+        <v>173.6630358879166</v>
       </c>
       <c r="D63">
-        <v>170.9067231882699</v>
+        <v>171.2558863508441</v>
       </c>
       <c r="E63">
-        <v>171.0760345458984</v>
+        <v>172.8274993896484</v>
       </c>
       <c r="F63">
-        <v>45326900</v>
+        <v>49514700</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>169.7275054931641</v>
+        <v>172.3102600097656</v>
       </c>
       <c r="J63">
-        <v>166.476195526123</v>
+        <v>167.3407875061035</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3139,31 +3139,31 @@
         <v>76</v>
       </c>
       <c r="B64">
-        <v>172.3209987263067</v>
+        <v>172.9370625099088</v>
       </c>
       <c r="C64">
-        <v>173.3269128277304</v>
+        <v>173.375334205877</v>
       </c>
       <c r="D64">
-        <v>171.2055132228606</v>
+        <v>170.3273731187135</v>
       </c>
       <c r="E64">
-        <v>172.8588104248047</v>
+        <v>171.8912048339844</v>
       </c>
       <c r="F64">
-        <v>53724500</v>
+        <v>45497800</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>170.9445709228516</v>
+        <v>172.1588073730469</v>
       </c>
       <c r="J64">
-        <v>167.146475982666</v>
+        <v>167.7187049865723</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3171,19 +3171,19 @@
         <v>77</v>
       </c>
       <c r="B65">
-        <v>173.1476214704298</v>
+        <v>172.4788820757664</v>
       </c>
       <c r="C65">
-        <v>173.8846220139736</v>
+        <v>172.5286884414697</v>
       </c>
       <c r="D65">
-        <v>171.4744010637012</v>
+        <v>170.7955272268727</v>
       </c>
       <c r="E65">
-        <v>173.0480194091797</v>
+        <v>171.3931732177734</v>
       </c>
       <c r="F65">
-        <v>49514700</v>
+        <v>37266700</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>172.5301361083984</v>
+        <v>171.9216796875</v>
       </c>
       <c r="J65">
-        <v>167.554320526123</v>
+        <v>168.0707267761231</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3203,31 +3203,31 @@
         <v>78</v>
       </c>
       <c r="B66">
-        <v>173.1577268379451</v>
+        <v>171.3134860724021</v>
       </c>
       <c r="C66">
-        <v>173.5965577600727</v>
+        <v>172.4589564897314</v>
       </c>
       <c r="D66">
-        <v>170.5447075338466</v>
+        <v>171.1242310019912</v>
       </c>
       <c r="E66">
-        <v>172.1105346679688</v>
+        <v>171.3931732177734</v>
       </c>
       <c r="F66">
-        <v>45497800</v>
+        <v>42110300</v>
       </c>
       <c r="G66">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>172.3784881591797</v>
+        <v>172.0287109375</v>
       </c>
       <c r="J66">
-        <v>167.9327201843262</v>
+        <v>168.3610771179199</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3235,19 +3235,19 @@
         <v>79</v>
       </c>
       <c r="B67">
-        <v>172.6989717052963</v>
+        <v>171.0345860108936</v>
       </c>
       <c r="C67">
-        <v>172.748841625821</v>
+        <v>172.2497731623494</v>
       </c>
       <c r="D67">
-        <v>171.0134688314351</v>
+        <v>169.7496517100122</v>
       </c>
       <c r="E67">
-        <v>171.6118774414062</v>
+        <v>172.0107269287109</v>
       </c>
       <c r="F67">
-        <v>37266700</v>
+        <v>57951600</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3256,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>172.1410552978516</v>
+        <v>171.9031555175781</v>
       </c>
       <c r="J67">
-        <v>168.2851913452149</v>
+        <v>168.6246131896973</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3267,19 +3267,19 @@
         <v>80</v>
       </c>
       <c r="B68">
-        <v>171.5320886121992</v>
+        <v>172.3194956763278</v>
       </c>
       <c r="C68">
-        <v>172.6790206934537</v>
+        <v>174.5506899936356</v>
       </c>
       <c r="D68">
-        <v>171.3425920451029</v>
+        <v>171.9011495916016</v>
       </c>
       <c r="E68">
-        <v>171.6118774414062</v>
+        <v>174.3614349365234</v>
       </c>
       <c r="F68">
-        <v>42110300</v>
+        <v>65496700</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3288,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>172.2482238769531</v>
+        <v>172.2099426269531</v>
       </c>
       <c r="J68">
-        <v>168.5759124755859</v>
+        <v>169.054426574707</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3299,19 +3299,19 @@
         <v>81</v>
       </c>
       <c r="B69">
-        <v>171.2528380676871</v>
+        <v>175.6961811815786</v>
       </c>
       <c r="C69">
-        <v>172.4695758826746</v>
+        <v>175.6961811815786</v>
       </c>
       <c r="D69">
-        <v>169.9662641010483</v>
+        <v>174.2518876988833</v>
       </c>
       <c r="E69">
-        <v>172.230224609375</v>
+        <v>174.4710235595703</v>
       </c>
       <c r="F69">
-        <v>57951600</v>
+        <v>55772400</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>172.1225067138672</v>
+        <v>172.7259063720703</v>
       </c>
       <c r="J69">
-        <v>168.8397857666016</v>
+        <v>169.570783996582</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3331,19 +3331,19 @@
         <v>82</v>
       </c>
       <c r="B70">
-        <v>172.5393785275326</v>
+        <v>173.2956346754905</v>
       </c>
       <c r="C70">
-        <v>174.7734198898955</v>
+        <v>174.0227741185442</v>
       </c>
       <c r="D70">
-        <v>172.1204986254948</v>
+        <v>172.767720679106</v>
       </c>
       <c r="E70">
-        <v>174.5839233398438</v>
+        <v>173.5147705078125</v>
       </c>
       <c r="F70">
-        <v>65496700</v>
+        <v>43570900</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3352,10 +3352,10 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>172.4296875</v>
+        <v>173.1502258300781</v>
       </c>
       <c r="J70">
-        <v>169.2701461791992</v>
+        <v>170.0239120483398</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3363,19 +3363,19 @@
         <v>83</v>
       </c>
       <c r="B71">
-        <v>175.9203702200863</v>
+        <v>172.4489940177338</v>
       </c>
       <c r="C71">
-        <v>175.9203702200863</v>
+        <v>172.698010636971</v>
       </c>
       <c r="D71">
-        <v>174.4742338130598</v>
+        <v>170.6062649558715</v>
       </c>
       <c r="E71">
-        <v>174.6936492919922</v>
+        <v>170.8851623535156</v>
       </c>
       <c r="F71">
-        <v>55772400</v>
+        <v>50747300</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3384,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>172.9463104248047</v>
+        <v>173.0486236572266</v>
       </c>
       <c r="J71">
-        <v>169.7871627807617</v>
+        <v>170.4231452941895</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3395,19 +3395,19 @@
         <v>84</v>
       </c>
       <c r="B72">
-        <v>173.5167753267537</v>
+        <v>170.4170126302911</v>
       </c>
       <c r="C72">
-        <v>174.2448426644442</v>
+        <v>171.7417828897605</v>
       </c>
       <c r="D72">
-        <v>172.9881876651312</v>
+        <v>169.849262632672</v>
       </c>
       <c r="E72">
-        <v>173.7361907958984</v>
+        <v>171.1640625</v>
       </c>
       <c r="F72">
-        <v>43570900</v>
+        <v>45143500</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3416,10 +3416,10 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>173.3711730957031</v>
+        <v>172.8792907714844</v>
       </c>
       <c r="J72">
-        <v>170.2408699035645</v>
+        <v>170.8368217468262</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3427,19 +3427,19 @@
         <v>85</v>
       </c>
       <c r="B73">
-        <v>172.6690529485175</v>
+        <v>171.7318346405896</v>
       </c>
       <c r="C73">
-        <v>172.9183873331977</v>
+        <v>173.2159640478789</v>
       </c>
       <c r="D73">
-        <v>170.8239724146191</v>
+        <v>171.0146655207679</v>
       </c>
       <c r="E73">
-        <v>171.1032257080078</v>
+        <v>172.3095550537109</v>
       </c>
       <c r="F73">
-        <v>50747300</v>
+        <v>56058300</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3448,10 +3448,10 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>173.2694427490234</v>
+        <v>172.4689147949219</v>
       </c>
       <c r="J73">
-        <v>170.6406135559082</v>
+        <v>171.0765075683594</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3459,19 +3459,19 @@
         <v>86</v>
       </c>
       <c r="B74">
-        <v>170.6344736621792</v>
+        <v>172.6382586657691</v>
       </c>
       <c r="C74">
-        <v>171.9609343978703</v>
+        <v>175.0786186300389</v>
       </c>
       <c r="D74">
-        <v>170.0659991858332</v>
+        <v>172.4290780065372</v>
       </c>
       <c r="E74">
-        <v>171.3824768066406</v>
+        <v>174.7399444580078</v>
       </c>
       <c r="F74">
-        <v>45143500</v>
+        <v>54835000</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>173.0998931884766</v>
+        <v>172.5226989746094</v>
       </c>
       <c r="J74">
-        <v>171.0548179626465</v>
+        <v>171.3745498657227</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3491,19 +3491,19 @@
         <v>87</v>
       </c>
       <c r="B75">
-        <v>171.9509613713399</v>
+        <v>176.2639411226892</v>
       </c>
       <c r="C75">
-        <v>173.4369845010465</v>
+        <v>178.285954977445</v>
       </c>
       <c r="D75">
-        <v>171.2328771566265</v>
+        <v>175.8754757811048</v>
       </c>
       <c r="E75">
-        <v>172.5294189453125</v>
+        <v>176.6026000976562</v>
       </c>
       <c r="F75">
-        <v>56058300</v>
+        <v>55964400</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -3512,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>172.6889923095703</v>
+        <v>173.1402648925781</v>
       </c>
       <c r="J75">
-        <v>171.2948081970215</v>
+        <v>171.7702003479004</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3523,19 +3523,19 @@
         <v>88</v>
       </c>
       <c r="B76">
-        <v>172.8585534968489</v>
+        <v>176.6324672920719</v>
       </c>
       <c r="C76">
-        <v>175.302027479357</v>
+        <v>178.6445257982531</v>
       </c>
       <c r="D76">
-        <v>172.6491059129021</v>
+        <v>176.064702114089</v>
       </c>
       <c r="E76">
-        <v>174.9629211425781</v>
+        <v>176.5527801513672</v>
       </c>
       <c r="F76">
-        <v>54835000</v>
+        <v>99625300</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -3544,10 +3544,10 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>172.7428466796875</v>
+        <v>174.2737884521484</v>
       </c>
       <c r="J76">
-        <v>171.5932304382324</v>
+        <v>172.2155807495117</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3555,19 +3555,19 @@
         <v>89</v>
       </c>
       <c r="B77">
-        <v>176.4888507966968</v>
+        <v>177.0010087987081</v>
       </c>
       <c r="C77">
-        <v>178.513444705399</v>
+        <v>179.4114878338828</v>
       </c>
       <c r="D77">
-        <v>176.0998897802014</v>
+        <v>176.2340333606353</v>
       </c>
       <c r="E77">
-        <v>176.8279418945312</v>
+        <v>179.3816070556641</v>
       </c>
       <c r="F77">
-        <v>55964400</v>
+        <v>68901800</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3576,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>173.3611968994141</v>
+        <v>175.9172973632812</v>
       </c>
       <c r="J77">
-        <v>171.9893852233887</v>
+        <v>172.8566131591797</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3587,19 +3587,19 @@
         <v>90</v>
       </c>
       <c r="B78">
-        <v>176.8578649999939</v>
+        <v>180.31790735431</v>
       </c>
       <c r="C78">
-        <v>178.8724910600481</v>
+        <v>181.064957188192</v>
       </c>
       <c r="D78">
-        <v>176.2893753064578</v>
+        <v>178.5548654906935</v>
       </c>
       <c r="E78">
-        <v>176.778076171875</v>
+        <v>180.2382202148438</v>
       </c>
       <c r="F78">
-        <v>99625300</v>
+        <v>61945900</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>174.4961669921875</v>
+        <v>177.5030303955078</v>
       </c>
       <c r="J78">
-        <v>172.435334777832</v>
+        <v>173.6230369567871</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3619,19 +3619,19 @@
         <v>91</v>
       </c>
       <c r="B79">
-        <v>177.2268681682538</v>
+        <v>181.9116326215506</v>
       </c>
       <c r="C79">
-        <v>179.6404230575091</v>
+        <v>184.2224990345595</v>
       </c>
       <c r="D79">
-        <v>176.4589140431664</v>
+        <v>177.3396757635325</v>
       </c>
       <c r="E79">
-        <v>179.6105041503906</v>
+        <v>178.8736267089844</v>
       </c>
       <c r="F79">
-        <v>68901800</v>
+        <v>121946500</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -3640,10 +3640,10 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>176.1417724609375</v>
+        <v>178.3297668457031</v>
       </c>
       <c r="J79">
-        <v>173.0771858215332</v>
+        <v>173.9342948913574</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3651,19 +3651,19 @@
         <v>92</v>
       </c>
       <c r="B80">
-        <v>180.5480047678377</v>
+        <v>179.2620862325817</v>
       </c>
       <c r="C80">
-        <v>181.2960078860444</v>
+        <v>179.4114901255837</v>
       </c>
       <c r="D80">
-        <v>178.7827131477843</v>
+        <v>176.732068853447</v>
       </c>
       <c r="E80">
-        <v>180.4682159423828</v>
+        <v>178.5050811767578</v>
       </c>
       <c r="F80">
-        <v>61945900</v>
+        <v>64848400</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>177.7295318603516</v>
+        <v>178.7102630615234</v>
       </c>
       <c r="J80">
-        <v>173.8445869445801</v>
+        <v>174.2306083679199</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3683,19 +3683,19 @@
         <v>93</v>
       </c>
       <c r="B81">
-        <v>182.1437500536452</v>
+        <v>177.7381160844629</v>
       </c>
       <c r="C81">
-        <v>184.4575651091899</v>
+        <v>180.4972246598777</v>
       </c>
       <c r="D81">
-        <v>177.5659594241951</v>
+        <v>176.6225264216681</v>
       </c>
       <c r="E81">
-        <v>179.1018676757812</v>
+        <v>177.1205596923828</v>
       </c>
       <c r="F81">
-        <v>121946500</v>
+        <v>61944600</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3704,10 +3704,10 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>178.5573211669922</v>
+        <v>178.8238189697266</v>
       </c>
       <c r="J81">
-        <v>174.156241607666</v>
+        <v>174.5437355041504</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3715,19 +3715,19 @@
         <v>94</v>
       </c>
       <c r="B82">
-        <v>179.4908354196175</v>
+        <v>177.2002301921459</v>
       </c>
       <c r="C82">
-        <v>179.6404299609589</v>
+        <v>180.1286682318111</v>
       </c>
       <c r="D82">
-        <v>176.957589586375</v>
+        <v>176.761973684466</v>
       </c>
       <c r="E82">
-        <v>178.7328643798828</v>
+        <v>179.8597412109375</v>
       </c>
       <c r="F82">
-        <v>64848400</v>
+        <v>50214900</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3736,10 +3736,10 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>178.9383056640625</v>
+        <v>178.9194458007813</v>
       </c>
       <c r="J82">
-        <v>174.4529327392578</v>
+        <v>174.9047973632813</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3747,19 +3747,19 @@
         <v>95</v>
       </c>
       <c r="B83">
-        <v>177.9649019836467</v>
+        <v>180.7860533779337</v>
       </c>
       <c r="C83">
-        <v>180.7275310583951</v>
+        <v>181.5131776014298</v>
       </c>
       <c r="D83">
-        <v>176.8478888782592</v>
+        <v>179.9194804650169</v>
       </c>
       <c r="E83">
-        <v>177.3465576171875</v>
+        <v>180.2481842041016</v>
       </c>
       <c r="F83">
-        <v>61944600</v>
+        <v>48870700</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3768,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>179.052001953125</v>
+        <v>178.9214385986328</v>
       </c>
       <c r="J83">
-        <v>174.7664588928223</v>
+        <v>175.2758316040039</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3779,19 +3779,19 @@
         <v>96</v>
       </c>
       <c r="B84">
-        <v>177.4263289743331</v>
+        <v>180.5569856446477</v>
       </c>
       <c r="C84">
-        <v>180.3585035569687</v>
+        <v>183.1666751112626</v>
       </c>
       <c r="D84">
-        <v>176.987513272895</v>
+        <v>180.2581626434182</v>
       </c>
       <c r="E84">
-        <v>180.0892333984375</v>
+        <v>183.0670623779297</v>
       </c>
       <c r="F84">
-        <v>50214900</v>
+        <v>54274900</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>179.1477478027344</v>
+        <v>179.7601257324219</v>
       </c>
       <c r="J84">
-        <v>175.1279800415039</v>
+        <v>175.8346244812012</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3811,19 +3811,19 @@
         <v>97</v>
       </c>
       <c r="B85">
-        <v>181.0167507280093</v>
+        <v>182.0809550496919</v>
       </c>
       <c r="C85">
-        <v>181.7448028197143</v>
+        <v>183.4256356744868</v>
       </c>
       <c r="D85">
-        <v>180.1490719992902</v>
+        <v>181.7223705099929</v>
       </c>
       <c r="E85">
-        <v>180.4781951904297</v>
+        <v>182.5889434814453</v>
       </c>
       <c r="F85">
-        <v>48870700</v>
+        <v>54929100</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3832,10 +3832,10 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>179.1497436523437</v>
+        <v>180.5768981933594</v>
       </c>
       <c r="J85">
-        <v>175.4994888305664</v>
+        <v>176.3944129943848</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3843,19 +3843,19 @@
         <v>98</v>
       </c>
       <c r="B86">
-        <v>180.7873795442043</v>
+        <v>182.6487200017999</v>
       </c>
       <c r="C86">
-        <v>183.4003990206258</v>
+        <v>183.6647121473104</v>
       </c>
       <c r="D86">
-        <v>180.4881752395526</v>
+        <v>181.3040392668418</v>
       </c>
       <c r="E86">
-        <v>183.3006591796875</v>
+        <v>183.2264404296875</v>
       </c>
       <c r="F86">
-        <v>54274900</v>
+        <v>57462900</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>179.989501953125</v>
+        <v>181.7980743408203</v>
       </c>
       <c r="J86">
-        <v>176.0589950561524</v>
+        <v>176.9860763549805</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3875,19 +3875,19 @@
         <v>99</v>
       </c>
       <c r="B87">
-        <v>182.3132932984178</v>
+        <v>183.2363961892862</v>
       </c>
       <c r="C87">
-        <v>183.6596897574766</v>
+        <v>185.786323944071</v>
       </c>
       <c r="D87">
-        <v>181.9542511990364</v>
+        <v>183.0570963196822</v>
       </c>
       <c r="E87">
-        <v>182.8219299316406</v>
+        <v>185.2783203125</v>
       </c>
       <c r="F87">
-        <v>54929100</v>
+        <v>65433200</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3896,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>180.8073150634766</v>
+        <v>182.8817901611328</v>
       </c>
       <c r="J87">
-        <v>176.6194976806641</v>
+        <v>177.6494560241699</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3907,19 +3907,19 @@
         <v>100</v>
       </c>
       <c r="B88">
-        <v>182.8817780021367</v>
+        <v>185.9954895916911</v>
       </c>
       <c r="C88">
-        <v>183.8990665437993</v>
+        <v>186.2544766037543</v>
       </c>
       <c r="D88">
-        <v>181.5353814675651</v>
+        <v>183.5451745617146</v>
       </c>
       <c r="E88">
-        <v>183.4602355957031</v>
+        <v>184.1926116943359</v>
       </c>
       <c r="F88">
-        <v>57462900</v>
+        <v>101235600</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3928,10 +3928,10 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>182.0300506591797</v>
+        <v>183.6706756591797</v>
       </c>
       <c r="J88">
-        <v>177.2119155883789</v>
+        <v>178.1410148620606</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3939,19 +3939,19 @@
         <v>101</v>
       </c>
       <c r="B89">
-        <v>183.4702254124178</v>
+        <v>183.6846263013284</v>
       </c>
       <c r="C89">
-        <v>186.0234071475162</v>
+        <v>185.3679811125286</v>
       </c>
       <c r="D89">
-        <v>183.2906967370193</v>
+        <v>183.6846263013284</v>
       </c>
       <c r="E89">
-        <v>185.5147552490234</v>
+        <v>184.2822570800781</v>
       </c>
       <c r="F89">
-        <v>65433200</v>
+        <v>49799100</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>183.1151550292969</v>
+        <v>183.9137145996094</v>
       </c>
       <c r="J89">
-        <v>177.8761421203613</v>
+        <v>178.6315765380859</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3971,19 +3971,19 @@
         <v>102</v>
       </c>
       <c r="B90">
-        <v>186.2328212050846</v>
+        <v>184.172694184419</v>
       </c>
       <c r="C90">
-        <v>186.4921386864809</v>
+        <v>184.6806978388059</v>
       </c>
       <c r="D90">
-        <v>183.7793795550988</v>
+        <v>181.8717829460778</v>
       </c>
       <c r="E90">
-        <v>184.4276428222656</v>
+        <v>183.2364044189453</v>
       </c>
       <c r="F90">
-        <v>101235600</v>
+        <v>49515700</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3992,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>183.9050445556641</v>
+        <v>184.0432067871094</v>
       </c>
       <c r="J90">
-        <v>178.3683280944824</v>
+        <v>179.1176582336426</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4003,19 +4003,19 @@
         <v>103</v>
       </c>
       <c r="B91">
-        <v>183.9190168933859</v>
+        <v>183.017263507961</v>
       </c>
       <c r="C91">
-        <v>185.604519747886</v>
+        <v>186.3142411790235</v>
       </c>
       <c r="D91">
-        <v>183.9190168933859</v>
+        <v>182.9475315578088</v>
       </c>
       <c r="E91">
-        <v>184.5174102783203</v>
+        <v>186.2644348144531</v>
       </c>
       <c r="F91">
-        <v>49799100</v>
+        <v>51245300</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>184.1483947753906</v>
+        <v>184.6508056640625</v>
       </c>
       <c r="J91">
-        <v>178.8595161437988</v>
+        <v>179.8866218566895</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4035,19 +4035,19 @@
         <v>104</v>
       </c>
       <c r="B92">
-        <v>184.4076993189131</v>
+        <v>184.8201491172444</v>
       </c>
       <c r="C92">
-        <v>184.9163511881053</v>
+        <v>186.8222373865431</v>
       </c>
       <c r="D92">
-        <v>182.1038521081281</v>
+        <v>184.2822646755546</v>
       </c>
       <c r="E92">
-        <v>183.47021484375</v>
+        <v>185.9456939697266</v>
       </c>
       <c r="F92">
-        <v>49515700</v>
+        <v>53079300</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -4056,10 +4056,10 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>184.2780517578125</v>
+        <v>184.7842803955078</v>
       </c>
       <c r="J92">
-        <v>179.3462173461914</v>
+        <v>180.6257034301758</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4067,19 +4067,19 @@
         <v>105</v>
       </c>
       <c r="B93">
-        <v>183.2507910597497</v>
+        <v>186.0950904260467</v>
       </c>
       <c r="C93">
-        <v>186.5519756297083</v>
+        <v>187.3102926701271</v>
       </c>
       <c r="D93">
-        <v>183.1809701325725</v>
+        <v>184.5013780800755</v>
       </c>
       <c r="E93">
-        <v>186.5021057128906</v>
+        <v>184.5412292480469</v>
       </c>
       <c r="F93">
-        <v>51245300</v>
+        <v>48088700</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -4088,10 +4088,10 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>184.88642578125</v>
+        <v>184.85400390625</v>
       </c>
       <c r="J93">
-        <v>180.1161613464355</v>
+        <v>181.2372871398926</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -4099,19 +4099,19 @@
         <v>106</v>
       </c>
       <c r="B94">
-        <v>185.0559718803255</v>
+        <v>185.1587891232395</v>
       </c>
       <c r="C94">
-        <v>187.0606147303333</v>
+        <v>187.6489552124749</v>
       </c>
       <c r="D94">
-        <v>184.5174011206348</v>
+        <v>184.9396532914854</v>
       </c>
       <c r="E94">
-        <v>186.1829528808594</v>
+        <v>187.3202514648438</v>
       </c>
       <c r="F94">
-        <v>53079300</v>
+        <v>50730800</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>185.0200653076172</v>
+        <v>185.4616027832031</v>
       </c>
       <c r="J94">
-        <v>180.8561851501465</v>
+        <v>181.8663024902344</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -4131,19 +4131,19 @@
         <v>107</v>
       </c>
       <c r="B95">
-        <v>186.3325621647768</v>
+        <v>187.1907696442351</v>
       </c>
       <c r="C95">
-        <v>187.5493151009746</v>
+        <v>189.1530218608874</v>
       </c>
       <c r="D95">
-        <v>184.7368161185024</v>
+        <v>186.8620810748633</v>
       </c>
       <c r="E95">
-        <v>184.7767181396484</v>
+        <v>188.5055847167969</v>
       </c>
       <c r="F95">
-        <v>48088700</v>
+        <v>51216800</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>185.0898803710938</v>
+        <v>186.5154388427734</v>
       </c>
       <c r="J95">
-        <v>181.4685501098633</v>
+        <v>182.4614517211914</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -4163,19 +4163,19 @@
         <v>108</v>
       </c>
       <c r="B96">
-        <v>185.3950599323009</v>
+        <v>188.336265071168</v>
       </c>
       <c r="C96">
-        <v>187.8884035836677</v>
+        <v>189.3223764270853</v>
       </c>
       <c r="D96">
-        <v>185.1756444735277</v>
+        <v>188.1968163621385</v>
       </c>
       <c r="E96">
-        <v>187.5592803955078</v>
+        <v>188.8442535400391</v>
       </c>
       <c r="F96">
-        <v>50730800</v>
+        <v>46347300</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -4184,10 +4184,10 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>185.6982543945313</v>
+        <v>187.0314025878906</v>
       </c>
       <c r="J96">
-        <v>182.0983680725098</v>
+        <v>183.076025390625</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -4195,19 +4195,19 @@
         <v>109</v>
       </c>
       <c r="B97">
-        <v>187.429631446172</v>
+        <v>190.8762391546527</v>
       </c>
       <c r="C97">
-        <v>189.3943875635306</v>
+        <v>193.7150197224415</v>
       </c>
       <c r="D97">
-        <v>187.1005234589832</v>
+        <v>190.5076841934513</v>
       </c>
       <c r="E97">
-        <v>188.7461242675781</v>
+        <v>193.20703125</v>
       </c>
       <c r="F97">
-        <v>51216800</v>
+        <v>85069600</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -4216,10 +4216,10 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>186.7534362792969</v>
+        <v>188.4836700439453</v>
       </c>
       <c r="J97">
-        <v>182.6942771911621</v>
+        <v>183.7672966003418</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -4227,19 +4227,19 @@
         <v>110</v>
       </c>
       <c r="B98">
-        <v>188.5765684528996</v>
+        <v>193.0177723376829</v>
       </c>
       <c r="C98">
-        <v>189.5639380152144</v>
+        <v>193.1173850708977</v>
       </c>
       <c r="D98">
-        <v>188.4369418174557</v>
+        <v>191.0057136771445</v>
       </c>
       <c r="E98">
-        <v>189.085205078125</v>
+        <v>191.7029724121094</v>
       </c>
       <c r="F98">
-        <v>46347300</v>
+        <v>31458200</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -4248,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>187.2700561523438</v>
+        <v>189.9160186767578</v>
       </c>
       <c r="J98">
-        <v>183.3096336364746</v>
+        <v>184.3405342102051</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4259,19 +4259,19 @@
         <v>111</v>
       </c>
       <c r="B99">
-        <v>191.1197861948541</v>
+        <v>190.8164539937624</v>
       </c>
       <c r="C99">
-        <v>193.9621888824422</v>
+        <v>192.2208961141751</v>
       </c>
       <c r="D99">
-        <v>190.7507609788408</v>
+        <v>189.8701787227608</v>
       </c>
       <c r="E99">
-        <v>193.4535522460938</v>
+        <v>190.577392578125</v>
       </c>
       <c r="F99">
-        <v>85069600</v>
+        <v>46920300</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -4280,10 +4280,10 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>188.7241760253906</v>
+        <v>190.5674468994141</v>
       </c>
       <c r="J99">
-        <v>184.0017860412598</v>
+        <v>184.9257225036621</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4291,19 +4291,19 @@
         <v>112</v>
       </c>
       <c r="B100">
-        <v>193.2640636743389</v>
+        <v>189.0932592686884</v>
       </c>
       <c r="C100">
-        <v>193.3638035137414</v>
+        <v>191.2646921254706</v>
       </c>
       <c r="D100">
-        <v>191.2494376200785</v>
+        <v>188.455777321506</v>
       </c>
       <c r="E100">
-        <v>191.9475860595703</v>
+        <v>191.0555114746094</v>
       </c>
       <c r="F100">
-        <v>31458200</v>
+        <v>45094300</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -4312,10 +4312,10 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>190.158349609375</v>
+        <v>191.0774322509766</v>
       </c>
       <c r="J100">
-        <v>184.5757545471191</v>
+        <v>185.5532440185547</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4323,19 +4323,19 @@
         <v>113</v>
       </c>
       <c r="B101">
-        <v>191.0599536385693</v>
+        <v>190.6570863644603</v>
       </c>
       <c r="C101">
-        <v>192.4661879585032</v>
+        <v>191.9121246430898</v>
       </c>
       <c r="D101">
-        <v>190.1124708318048</v>
+        <v>189.4916904202826</v>
       </c>
       <c r="E101">
-        <v>190.8205871582031</v>
+        <v>189.9299468994141</v>
       </c>
       <c r="F101">
-        <v>46920300</v>
+        <v>46778000</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -4344,10 +4344,10 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>190.8106109619141</v>
+        <v>191.2945709228516</v>
       </c>
       <c r="J101">
-        <v>185.1616905212402</v>
+        <v>186.1937133789062</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4355,19 +4355,19 @@
         <v>114</v>
       </c>
       <c r="B102">
-        <v>189.3345450785546</v>
+        <v>188.5155401723345</v>
       </c>
       <c r="C102">
-        <v>191.5087487159423</v>
+        <v>189.2426796598843</v>
       </c>
       <c r="D102">
-        <v>188.6962496949308</v>
+        <v>186.3042713281469</v>
       </c>
       <c r="E102">
-        <v>191.2993011474609</v>
+        <v>187.8681030273438</v>
       </c>
       <c r="F102">
-        <v>45094300</v>
+        <v>59922200</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>0</v>
       </c>
       <c r="I102">
-        <v>191.3212463378906</v>
+        <v>190.2267852783203</v>
       </c>
       <c r="J102">
-        <v>185.7900123596191</v>
+        <v>186.5941314697266</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4387,19 +4387,19 @@
         <v>115</v>
       </c>
       <c r="B103">
-        <v>190.900369559223</v>
+        <v>188.4159483779178</v>
       </c>
       <c r="C103">
-        <v>192.1570092979807</v>
+        <v>188.5553970841044</v>
       </c>
       <c r="D103">
-        <v>189.7334865407703</v>
+        <v>185.8660204940656</v>
       </c>
       <c r="E103">
-        <v>190.1723022460938</v>
+        <v>187.3401947021484</v>
       </c>
       <c r="F103">
-        <v>46778000</v>
+        <v>46638100</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -4408,10 +4408,10 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>191.5386657714844</v>
+        <v>189.3542297363281</v>
       </c>
       <c r="J103">
-        <v>186.4312995910645</v>
+        <v>186.9487319946289</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4419,19 +4419,19 @@
         <v>116</v>
       </c>
       <c r="B104">
-        <v>188.756097175468</v>
+        <v>188.9338867752929</v>
       </c>
       <c r="C104">
-        <v>189.4841645361036</v>
+        <v>190.9459453646829</v>
       </c>
       <c r="D104">
-        <v>186.5420066211667</v>
+        <v>187.7286548193661</v>
       </c>
       <c r="E104">
-        <v>188.1078338623047</v>
+        <v>189.0235443115234</v>
       </c>
       <c r="F104">
-        <v>59922200</v>
+        <v>60750200</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -4440,10 +4440,10 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>190.4695220947266</v>
+        <v>189.0434600830078</v>
       </c>
       <c r="J104">
-        <v>186.8322296142578</v>
+        <v>187.2465560913086</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4451,19 +4451,19 @@
         <v>117</v>
       </c>
       <c r="B105">
-        <v>188.6563652181567</v>
+        <v>189.7506608551825</v>
       </c>
       <c r="C105">
-        <v>188.7959918594789</v>
+        <v>190.437949145201</v>
       </c>
       <c r="D105">
-        <v>186.1031836521723</v>
+        <v>189.03349178723</v>
       </c>
       <c r="E105">
-        <v>187.5792388916016</v>
+        <v>189.7904968261719</v>
       </c>
       <c r="F105">
-        <v>46638100</v>
+        <v>41342300</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>189.5958526611328</v>
+        <v>188.7904571533203</v>
       </c>
       <c r="J105">
-        <v>187.1872817993164</v>
+        <v>187.6066337585449</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4483,19 +4483,19 @@
         <v>118</v>
       </c>
       <c r="B106">
-        <v>189.1749680502115</v>
+        <v>189.4817288631743</v>
       </c>
       <c r="C106">
-        <v>191.1895940437778</v>
+        <v>190.4279890125226</v>
       </c>
       <c r="D106">
-        <v>187.9681982078766</v>
+        <v>188.884098073529</v>
       </c>
       <c r="E106">
-        <v>189.2647399902344</v>
+        <v>189.9399261474609</v>
       </c>
       <c r="F106">
-        <v>60750200</v>
+        <v>41573900</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -4504,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>189.2846832275391</v>
+        <v>188.7924530029297</v>
       </c>
       <c r="J106">
-        <v>187.4854858398438</v>
+        <v>187.9423080444336</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -4515,19 +4515,19 @@
         <v>119</v>
       </c>
       <c r="B107">
-        <v>189.9927975213716</v>
+        <v>191.1451534534521</v>
       </c>
       <c r="C107">
-        <v>190.6809628449378</v>
+        <v>193.5556477354541</v>
       </c>
       <c r="D107">
-        <v>189.2747132896646</v>
+        <v>191.0555111170087</v>
       </c>
       <c r="E107">
-        <v>190.0326843261719</v>
+        <v>193.2269439697266</v>
       </c>
       <c r="F107">
-        <v>41342300</v>
+        <v>50520200</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -4536,10 +4536,10 @@
         <v>0</v>
       </c>
       <c r="I107">
-        <v>189.0313598632812</v>
+        <v>189.8642211914062</v>
       </c>
       <c r="J107">
-        <v>187.8460235595703</v>
+        <v>188.3397392272949</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4547,19 +4547,19 @@
         <v>120</v>
       </c>
       <c r="B108">
-        <v>189.7235147913955</v>
+        <v>192.5894768413974</v>
       </c>
       <c r="C108">
-        <v>190.6709824048614</v>
+        <v>193.5656178215663</v>
       </c>
       <c r="D108">
-        <v>189.1251214020205</v>
+        <v>191.6631270305712</v>
       </c>
       <c r="E108">
-        <v>190.1822967529297</v>
+        <v>192.9679718017578</v>
       </c>
       <c r="F108">
-        <v>41573900</v>
+        <v>48353800</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -4568,10 +4568,10 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>189.0333587646484</v>
+        <v>190.9897766113281</v>
       </c>
       <c r="J108">
-        <v>188.1821266174316</v>
+        <v>188.778507232666</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4579,19 +4579,19 @@
         <v>121</v>
       </c>
       <c r="B109">
-        <v>191.3890486677881</v>
+        <v>192.3404475629526</v>
       </c>
       <c r="C109">
-        <v>193.8026186648106</v>
+        <v>197.4502583816485</v>
       </c>
       <c r="D109">
-        <v>191.299291950538</v>
+        <v>191.8922054781607</v>
       </c>
       <c r="E109">
-        <v>193.4734954833984</v>
+        <v>194.3325805664062</v>
       </c>
       <c r="F109">
-        <v>50520200</v>
+        <v>80507300</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>190.1064910888672</v>
+        <v>192.0515838623047</v>
       </c>
       <c r="J109">
-        <v>188.5800636291504</v>
+        <v>189.2810234069824</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4611,19 +4611,19 @@
         <v>122</v>
       </c>
       <c r="B110">
-        <v>192.8352097243277</v>
+        <v>194.3226126676721</v>
       </c>
       <c r="C110">
-        <v>193.8125962031663</v>
+        <v>195.6971893212992</v>
       </c>
       <c r="D110">
-        <v>191.9076779454451</v>
+        <v>191.7428040428008</v>
       </c>
       <c r="E110">
-        <v>193.2141876220703</v>
+        <v>192.3703308105469</v>
       </c>
       <c r="F110">
-        <v>48353800</v>
+        <v>59581200</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -4632,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>191.2334808349609</v>
+        <v>192.5675506591797</v>
       </c>
       <c r="J110">
-        <v>189.0193908691406</v>
+        <v>189.7377197265625</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -4643,19 +4643,19 @@
         <v>123</v>
       </c>
       <c r="B111">
-        <v>192.5858761596578</v>
+        <v>193.3365047463307</v>
       </c>
       <c r="C111">
-        <v>197.7022071550224</v>
+        <v>194.2030776974603</v>
       </c>
       <c r="D111">
-        <v>192.1370621128721</v>
+        <v>190.4777836889955</v>
       </c>
       <c r="E111">
-        <v>194.5805511474609</v>
+        <v>191.1849975585938</v>
       </c>
       <c r="F111">
-        <v>80507300</v>
+        <v>71917800</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -4664,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="I111">
-        <v>192.2966430664063</v>
+        <v>192.8165649414063</v>
       </c>
       <c r="J111">
-        <v>189.5225479125976</v>
+        <v>189.9837478637695</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4675,19 +4675,19 @@
         <v>124</v>
       </c>
       <c r="B112">
-        <v>194.57057195548</v>
+        <v>192.6492288384572</v>
       </c>
       <c r="C112">
-        <v>195.9469025946233</v>
+        <v>194.1433286150258</v>
       </c>
       <c r="D112">
-        <v>191.9874714465581</v>
+        <v>191.4937880302063</v>
       </c>
       <c r="E112">
-        <v>192.6157989501953</v>
+        <v>191.9918212890625</v>
       </c>
       <c r="F112">
-        <v>59581200</v>
+        <v>45377800</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -4696,10 +4696,10 @@
         <v>0</v>
       </c>
       <c r="I112">
-        <v>192.8132659912109</v>
+        <v>192.5695404052734</v>
       </c>
       <c r="J112">
-        <v>189.9798271179199</v>
+        <v>190.2860542297363</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -4707,19 +4707,19 @@
         <v>125</v>
       </c>
       <c r="B113">
-        <v>193.583223081012</v>
+        <v>192.5695305926833</v>
       </c>
       <c r="C113">
-        <v>194.4509018731501</v>
+        <v>193.6751649715615</v>
       </c>
       <c r="D113">
-        <v>190.7208539857674</v>
+        <v>192.161139696258</v>
       </c>
       <c r="E113">
-        <v>191.4289703369141</v>
+        <v>192.8583831787109</v>
       </c>
       <c r="F113">
-        <v>71917800</v>
+        <v>37283200</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4728,10 +4728,10 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <v>193.0626007080078</v>
+        <v>192.5476226806641</v>
       </c>
       <c r="J113">
-        <v>190.2261703491211</v>
+        <v>190.7019119262695</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -4739,19 +4739,19 @@
         <v>126</v>
       </c>
       <c r="B114">
-        <v>192.8950475430485</v>
+        <v>192.9081873399442</v>
       </c>
       <c r="C114">
-        <v>194.3910537776592</v>
+        <v>194.8704394602329</v>
       </c>
       <c r="D114">
-        <v>191.7381324025907</v>
+        <v>192.5595732020803</v>
       </c>
       <c r="E114">
-        <v>192.2368011474609</v>
+        <v>193.7349243164062</v>
       </c>
       <c r="F114">
-        <v>45377800</v>
+        <v>47471900</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4760,10 +4760,10 @@
         <v>0</v>
       </c>
       <c r="I114">
-        <v>192.8152618408203</v>
+        <v>192.4280914306641</v>
       </c>
       <c r="J114">
-        <v>190.5288627624512</v>
+        <v>191.0226455688477</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -4771,19 +4771,19 @@
         <v>127</v>
       </c>
       <c r="B115">
-        <v>192.8152557571185</v>
+        <v>195.2489655208223</v>
       </c>
       <c r="C115">
-        <v>193.9223009624588</v>
+        <v>196.4243167311417</v>
       </c>
       <c r="D115">
-        <v>192.4063437402446</v>
+        <v>191.7926134448548</v>
       </c>
       <c r="E115">
-        <v>193.1044769287109</v>
+        <v>192.4599761962891</v>
       </c>
       <c r="F115">
-        <v>37283200</v>
+        <v>47460200</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4792,10 +4792,10 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <v>192.7933197021484</v>
+        <v>192.4460205078125</v>
       </c>
       <c r="J115">
-        <v>190.9452507019043</v>
+        <v>191.2203651428223</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -4803,19 +4803,19 @@
         <v>128</v>
       </c>
       <c r="B116">
-        <v>193.1543552508233</v>
+        <v>193.9042668353994</v>
       </c>
       <c r="C116">
-        <v>195.1191113783899</v>
+        <v>195.8565638941123</v>
       </c>
       <c r="D116">
-        <v>192.8052962504825</v>
+        <v>193.3763527978494</v>
       </c>
       <c r="E116">
-        <v>193.9821472167969</v>
+        <v>195.0597076416016</v>
       </c>
       <c r="F116">
-        <v>47471900</v>
+        <v>48291400</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4824,10 +4824,10 @@
         <v>0</v>
       </c>
       <c r="I116">
-        <v>192.6736389160156</v>
+        <v>193.2209625244141</v>
       </c>
       <c r="J116">
-        <v>191.2663940429688</v>
+        <v>191.5311378479004</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -4835,19 +4835,19 @@
         <v>129</v>
       </c>
       <c r="B117">
-        <v>195.4980991647195</v>
+        <v>195.2887960245621</v>
       </c>
       <c r="C117">
-        <v>196.6749500988868</v>
+        <v>195.7171125239446</v>
       </c>
       <c r="D117">
-        <v>192.0373368549513</v>
+        <v>194.4919397829054</v>
       </c>
       <c r="E117">
-        <v>192.7055511474609</v>
+        <v>195.6772613525391</v>
       </c>
       <c r="F117">
-        <v>47460200</v>
+        <v>38824100</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4856,10 +4856,10 @@
         <v>0</v>
       </c>
       <c r="I117">
-        <v>192.6915893554688</v>
+        <v>193.9580505371094</v>
       </c>
       <c r="J117">
-        <v>191.4643653869629</v>
+        <v>191.6546493530273</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -4867,19 +4867,19 @@
         <v>130</v>
       </c>
       <c r="B118">
-        <v>194.151693829433</v>
+        <v>195.4681029546329</v>
       </c>
       <c r="C118">
-        <v>196.1064820710403</v>
+        <v>195.9561658312053</v>
       </c>
       <c r="D118">
-        <v>193.6231061595511</v>
+        <v>194.5118723903718</v>
       </c>
       <c r="E118">
-        <v>195.3086090087891</v>
+        <v>194.840576171875</v>
       </c>
       <c r="F118">
-        <v>48291400</v>
+        <v>35175100</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4888,10 +4888,10 @@
         <v>0</v>
       </c>
       <c r="I118">
-        <v>193.4675170898437</v>
+        <v>194.3544891357422</v>
       </c>
       <c r="J118">
-        <v>191.7755355834961</v>
+        <v>191.8115295410156</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -4899,19 +4899,19 @@
         <v>131</v>
       </c>
       <c r="B119">
-        <v>195.537995145902</v>
+        <v>194.272809663612</v>
       </c>
       <c r="C119">
-        <v>195.9668582004248</v>
+        <v>194.4122583701051</v>
       </c>
       <c r="D119">
-        <v>194.7401220723569</v>
+        <v>191.0953701943192</v>
       </c>
       <c r="E119">
-        <v>195.9269561767578</v>
+        <v>191.8224945068359</v>
       </c>
       <c r="F119">
-        <v>38824100</v>
+        <v>50389300</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4920,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="I119">
-        <v>194.2055480957031</v>
+        <v>193.9720031738281</v>
       </c>
       <c r="J119">
-        <v>191.8992057800293</v>
+        <v>191.8737846374512</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -4931,19 +4931,19 @@
         <v>132</v>
       </c>
       <c r="B120">
-        <v>195.7175151124968</v>
+        <v>190.8164655019149</v>
       </c>
       <c r="C120">
-        <v>196.2062007444619</v>
+        <v>191.6133065378951</v>
       </c>
       <c r="D120">
-        <v>194.760064423188</v>
+        <v>189.9399221238144</v>
       </c>
       <c r="E120">
-        <v>195.0891876220703</v>
+        <v>190.4180297851562</v>
       </c>
       <c r="F120">
-        <v>35175100</v>
+        <v>61235200</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4952,10 +4952,10 @@
         <v>0</v>
       </c>
       <c r="I120">
-        <v>194.602490234375</v>
+        <v>193.5636138916016</v>
       </c>
       <c r="J120">
-        <v>192.0562858581543</v>
+        <v>191.8419105529785</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -4963,19 +4963,19 @@
         <v>133</v>
       </c>
       <c r="B121">
-        <v>194.5207025104586</v>
+        <v>184.7902683251782</v>
       </c>
       <c r="C121">
-        <v>194.6603291540337</v>
+        <v>186.6429526932051</v>
       </c>
       <c r="D121">
-        <v>191.3392086162719</v>
+        <v>181.2044227100395</v>
       </c>
       <c r="E121">
-        <v>192.0672607421875</v>
+        <v>181.2741546630859</v>
       </c>
       <c r="F121">
-        <v>50389300</v>
+        <v>115799700</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4984,10 +4984,19 @@
         <v>0</v>
       </c>
       <c r="I121">
-        <v>194.2195129394531</v>
+        <v>190.8065032958984</v>
       </c>
       <c r="J121">
-        <v>192.1186195373535</v>
+        <v>191.4091209411621</v>
+      </c>
+      <c r="L121">
+        <v>181.4135965384246</v>
+      </c>
+      <c r="M121">
+        <v>30.93677757276521</v>
+      </c>
+      <c r="N121">
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -4995,19 +5004,19 @@
         <v>134</v>
       </c>
       <c r="B122">
-        <v>191.0599548787207</v>
+        <v>181.4135965384246</v>
       </c>
       <c r="C122">
-        <v>191.8578127154616</v>
+        <v>182.4096630385883</v>
       </c>
       <c r="D122">
-        <v>190.1822929965104</v>
+        <v>176.6523998835435</v>
       </c>
       <c r="E122">
-        <v>190.6610107421875</v>
+        <v>178.1464996337891</v>
       </c>
       <c r="F122">
-        <v>61235200</v>
+        <v>97576100</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -5016,10 +5025,10 @@
         <v>0</v>
       </c>
       <c r="I122">
-        <v>193.8106048583984</v>
+        <v>187.3003509521484</v>
       </c>
       <c r="J122">
-        <v>192.0867050170899</v>
+        <v>190.9230407714844</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5027,19 +5036,19 @@
         <v>135</v>
       </c>
       <c r="B123">
-        <v>185.026062911546</v>
+        <v>178.9831902567152</v>
       </c>
       <c r="C123">
-        <v>186.8811113269233</v>
+        <v>179.5609106455318</v>
       </c>
       <c r="D123">
-        <v>181.4356417146341</v>
+        <v>176.8814893520837</v>
       </c>
       <c r="E123">
-        <v>181.5054626464844</v>
+        <v>179.0927581787109</v>
       </c>
       <c r="F123">
-        <v>115799700</v>
+        <v>67823000</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -5048,19 +5057,10 @@
         <v>0</v>
       </c>
       <c r="I123">
-        <v>191.0499755859375</v>
+        <v>184.1507873535156</v>
       </c>
       <c r="J123">
-        <v>191.6533630371094</v>
-      </c>
-      <c r="L123">
-        <v>181.6450754475743</v>
-      </c>
-      <c r="M123">
-        <v>32.04192228755366</v>
-      </c>
-      <c r="N123">
-        <v>102</v>
+        <v>190.5106689453125</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5068,19 +5068,19 @@
         <v>136</v>
       </c>
       <c r="B124">
-        <v>181.6450754475743</v>
+        <v>180.158556347095</v>
       </c>
       <c r="C124">
-        <v>182.6424129020176</v>
+        <v>180.2183179097223</v>
       </c>
       <c r="D124">
-        <v>176.8778036327882</v>
+        <v>176.3137387641162</v>
       </c>
       <c r="E124">
-        <v>178.3738098144531</v>
+        <v>177.4891052246094</v>
       </c>
       <c r="F124">
-        <v>97576100</v>
+        <v>60378500</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -5089,10 +5089,10 @@
         <v>0</v>
       </c>
       <c r="I124">
-        <v>187.5393463134766</v>
+        <v>181.2841094970703</v>
       </c>
       <c r="J124">
-        <v>191.1666618347168</v>
+        <v>189.9339469909668</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5100,19 +5100,19 @@
         <v>137</v>
       </c>
       <c r="B125">
-        <v>179.2115660771669</v>
+        <v>178.774013458841</v>
       </c>
       <c r="C125">
-        <v>179.7900236154755</v>
+        <v>180.0390221857321</v>
       </c>
       <c r="D125">
-        <v>177.1071834812115</v>
+        <v>176.9014187499696</v>
       </c>
       <c r="E125">
-        <v>179.3212738037109</v>
+        <v>177.2699584960938</v>
       </c>
       <c r="F125">
-        <v>67823000</v>
+        <v>54686900</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -5121,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="I125">
-        <v>184.3857635498047</v>
+        <v>178.6544952392578</v>
       </c>
       <c r="J125">
-        <v>190.7537635803223</v>
+        <v>189.3079200744629</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5132,31 +5132,31 @@
         <v>138</v>
       </c>
       <c r="B126">
-        <v>180.3884334365214</v>
+        <v>176.8610187933376</v>
       </c>
       <c r="C126">
-        <v>180.4482712531683</v>
+        <v>178.1576415994881</v>
       </c>
       <c r="D126">
-        <v>176.5387099778891</v>
+        <v>176.0930076582283</v>
       </c>
       <c r="E126">
-        <v>177.715576171875</v>
+        <v>177.3297882080078</v>
       </c>
       <c r="F126">
-        <v>60378500</v>
+        <v>51988100</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126">
-        <v>181.5154266357422</v>
+        <v>177.8656219482422</v>
       </c>
       <c r="J126">
-        <v>190.1763053894043</v>
+        <v>188.6774131774902</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -5164,19 +5164,19 @@
         <v>139</v>
       </c>
       <c r="B127">
-        <v>179.0021289205259</v>
+        <v>177.5093498425988</v>
       </c>
       <c r="C127">
-        <v>180.2687517972825</v>
+        <v>179.2248990718021</v>
       </c>
       <c r="D127">
-        <v>177.1271447826861</v>
+        <v>176.8510545110755</v>
       </c>
       <c r="E127">
-        <v>177.4961547851562</v>
+        <v>178.9954986572266</v>
       </c>
       <c r="F127">
-        <v>54686900</v>
+        <v>43675600</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -5185,10 +5185,10 @@
         <v>0</v>
       </c>
       <c r="I127">
-        <v>178.8824554443359</v>
+        <v>178.0354217529297</v>
       </c>
       <c r="J127">
-        <v>189.5494789123535</v>
+        <v>187.9658409118652</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -5196,31 +5196,31 @@
         <v>140</v>
       </c>
       <c r="B128">
-        <v>177.0867084456243</v>
+        <v>178.4169833134469</v>
       </c>
       <c r="C128">
-        <v>178.3849858523887</v>
+        <v>179.0154211131435</v>
       </c>
       <c r="D128">
-        <v>176.3177172632032</v>
+        <v>176.5917183467517</v>
       </c>
       <c r="E128">
-        <v>177.5560760498047</v>
+        <v>176.9906768798828</v>
       </c>
       <c r="F128">
-        <v>51988100</v>
+        <v>43622600</v>
       </c>
       <c r="G128">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>178.092578125</v>
+        <v>177.6150054931641</v>
       </c>
       <c r="J128">
-        <v>188.9181678771973</v>
+        <v>187.1669761657715</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -5228,19 +5228,19 @@
         <v>141</v>
       </c>
       <c r="B129">
-        <v>177.7358471104349</v>
+        <v>176.6715088360585</v>
       </c>
       <c r="C129">
-        <v>179.453585335393</v>
+        <v>178.077847523966</v>
       </c>
       <c r="D129">
-        <v>177.0767118113598</v>
+        <v>176.043134703205</v>
       </c>
       <c r="E129">
-        <v>179.2238922119141</v>
+        <v>176.1129608154297</v>
       </c>
       <c r="F129">
-        <v>43675600</v>
+        <v>46964900</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -5249,10 +5249,10 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>178.2625946044922</v>
+        <v>177.3397766113281</v>
       </c>
       <c r="J129">
-        <v>188.205687713623</v>
+        <v>186.2559951782227</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5260,19 +5260,19 @@
         <v>142</v>
       </c>
       <c r="B130">
-        <v>178.6446486595428</v>
+        <v>176.6814934546824</v>
       </c>
       <c r="C130">
-        <v>179.2438500835664</v>
+        <v>177.0505308832748</v>
       </c>
       <c r="D130">
-        <v>176.8170546007812</v>
+        <v>173.0309632791196</v>
       </c>
       <c r="E130">
-        <v>177.2165222167969</v>
+        <v>173.5496215820312</v>
       </c>
       <c r="F130">
-        <v>43622600</v>
+        <v>66062900</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -5281,10 +5281,10 @@
         <v>0</v>
       </c>
       <c r="I130">
-        <v>177.8416442871094</v>
+        <v>176.5957092285156</v>
       </c>
       <c r="J130">
-        <v>187.4058044433594</v>
+        <v>185.3149597167969</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5292,19 +5292,19 @@
         <v>143</v>
       </c>
       <c r="B131">
-        <v>176.8969530245068</v>
+        <v>171.8540266934507</v>
       </c>
       <c r="C131">
-        <v>178.3050862908739</v>
+        <v>174.6467822980689</v>
       </c>
       <c r="D131">
-        <v>176.2677770459152</v>
+        <v>171.5149103922747</v>
       </c>
       <c r="E131">
-        <v>176.3376922607422</v>
+        <v>174.0383605957031</v>
       </c>
       <c r="F131">
-        <v>46964900</v>
+        <v>61114200</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -5313,10 +5313,10 @@
         <v>0</v>
       </c>
       <c r="I131">
-        <v>177.5660675048828</v>
+        <v>175.9374237060547</v>
       </c>
       <c r="J131">
-        <v>186.4936614990234</v>
+        <v>184.4576278686523</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5324,19 +5324,19 @@
         <v>144</v>
       </c>
       <c r="B132">
-        <v>176.9069405557178</v>
+        <v>174.6168459893807</v>
       </c>
       <c r="C132">
-        <v>177.2764488792344</v>
+        <v>175.6740997889724</v>
       </c>
       <c r="D132">
-        <v>173.2517522723406</v>
+        <v>173.2902868120067</v>
       </c>
       <c r="E132">
-        <v>173.7710723876953</v>
+        <v>175.3848419189453</v>
       </c>
       <c r="F132">
-        <v>66062900</v>
+        <v>46311900</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>0</v>
       </c>
       <c r="I132">
-        <v>176.8210510253906</v>
+        <v>175.2152923583984</v>
       </c>
       <c r="J132">
-        <v>185.5514251708984</v>
+        <v>183.6272789001465</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5356,19 +5356,19 @@
         <v>145</v>
       </c>
       <c r="B133">
-        <v>172.073300788604</v>
+        <v>176.6016973456697</v>
       </c>
       <c r="C133">
-        <v>174.8696197601678</v>
+        <v>177.2200876740955</v>
       </c>
       <c r="D133">
-        <v>171.7337517980024</v>
+        <v>175.7937963761344</v>
       </c>
       <c r="E133">
-        <v>174.2604217529297</v>
+        <v>176.7712554931641</v>
       </c>
       <c r="F133">
-        <v>61114200</v>
+        <v>42084200</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -5377,10 +5377,10 @@
         <v>0</v>
       </c>
       <c r="I133">
-        <v>176.1619201660156</v>
+        <v>175.1714080810547</v>
       </c>
       <c r="J133">
-        <v>184.6929977416992</v>
+        <v>182.8229225158692</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5388,19 +5388,19 @@
         <v>146</v>
       </c>
       <c r="B134">
-        <v>174.8396666437127</v>
+        <v>178.0579230541784</v>
       </c>
       <c r="C134">
-        <v>175.8982695570287</v>
+        <v>181.0800789839693</v>
       </c>
       <c r="D134">
-        <v>173.5114147042101</v>
+        <v>177.8684124151333</v>
       </c>
       <c r="E134">
-        <v>175.608642578125</v>
+        <v>180.6511840820312</v>
       </c>
       <c r="F134">
-        <v>46311900</v>
+        <v>52722800</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -5409,10 +5409,10 @@
         <v>0</v>
       </c>
       <c r="I134">
-        <v>175.4388702392578</v>
+        <v>176.079052734375</v>
       </c>
       <c r="J134">
-        <v>183.8615898132324</v>
+        <v>182.1687355041504</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5420,19 +5420,19 @@
         <v>147</v>
       </c>
       <c r="B135">
-        <v>176.8270364139056</v>
+        <v>180.202350958124</v>
       </c>
       <c r="C135">
-        <v>177.4462157919414</v>
+        <v>180.6312458578059</v>
       </c>
       <c r="D135">
-        <v>176.0181045842232</v>
+        <v>175.5544092749656</v>
       </c>
       <c r="E135">
-        <v>176.9968109130859</v>
+        <v>175.9234619140625</v>
       </c>
       <c r="F135">
-        <v>42084200</v>
+        <v>54945800</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -5441,10 +5441,10 @@
         <v>0</v>
       </c>
       <c r="I135">
-        <v>175.3949279785156</v>
+        <v>176.5538208007812</v>
       </c>
       <c r="J135">
-        <v>183.0562065124512</v>
+        <v>181.3419097900391</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5452,19 +5452,19 @@
         <v>148</v>
       </c>
       <c r="B136">
-        <v>178.2851285275736</v>
+        <v>176.9208777897746</v>
       </c>
       <c r="C136">
-        <v>181.311140788815</v>
+        <v>178.6862853969284</v>
       </c>
       <c r="D136">
-        <v>178.0953760691602</v>
+        <v>175.3649180997371</v>
       </c>
       <c r="E136">
-        <v>180.8816986083984</v>
+        <v>178.1476898193359</v>
       </c>
       <c r="F136">
-        <v>52722800</v>
+        <v>51449600</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -5473,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="I136">
-        <v>176.3037292480469</v>
+        <v>177.3756866455078</v>
       </c>
       <c r="J136">
-        <v>182.4011840820312</v>
+        <v>180.4963088989258</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5484,19 +5484,19 @@
         <v>149</v>
       </c>
       <c r="B137">
-        <v>180.4322827134178</v>
+        <v>179.6238550451756</v>
       </c>
       <c r="C137">
-        <v>180.8617248676534</v>
+        <v>180.12256085532</v>
       </c>
       <c r="D137">
-        <v>175.7784104228949</v>
+        <v>178.08784784642</v>
       </c>
       <c r="E137">
-        <v>176.1479339599609</v>
+        <v>179.7236022949219</v>
       </c>
       <c r="F137">
-        <v>54945800</v>
+        <v>43820700</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -5505,10 +5505,10 @@
         <v>0</v>
       </c>
       <c r="I137">
-        <v>176.7791015625</v>
+        <v>178.2434387207031</v>
       </c>
       <c r="J137">
-        <v>181.5733032226562</v>
+        <v>179.6986259460449</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5516,19 +5516,19 @@
         <v>150</v>
       </c>
       <c r="B138">
-        <v>177.1466226014779</v>
+        <v>179.2348450577599</v>
       </c>
       <c r="C138">
-        <v>178.9142828065886</v>
+        <v>184.4213818588009</v>
       </c>
       <c r="D138">
-        <v>175.5886775616522</v>
+        <v>179.0353657998914</v>
       </c>
       <c r="E138">
-        <v>178.375</v>
+        <v>183.6434020996094</v>
       </c>
       <c r="F138">
-        <v>51449600</v>
+        <v>53003900</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -5537,10 +5537,13 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>177.6020172119141</v>
+        <v>179.6178680419922</v>
       </c>
       <c r="J138">
-        <v>180.7266227722168</v>
+        <v>179.1387672424316</v>
+      </c>
+      <c r="K138">
+        <v>184.4612992752611</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5548,19 +5551,19 @@
         <v>151</v>
       </c>
       <c r="B139">
-        <v>179.8530521101568</v>
+        <v>184.4612992752611</v>
       </c>
       <c r="C139">
-        <v>180.3523942606577</v>
+        <v>187.3637706136538</v>
       </c>
       <c r="D139">
-        <v>178.3150849916475</v>
+        <v>184.261820003947</v>
       </c>
       <c r="E139">
-        <v>179.9529266357422</v>
+        <v>187.1642761230469</v>
       </c>
       <c r="F139">
-        <v>43820700</v>
+        <v>60813900</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -5569,10 +5572,10 @@
         <v>0</v>
       </c>
       <c r="I139">
-        <v>178.4708740234375</v>
+        <v>180.9204864501953</v>
       </c>
       <c r="J139">
-        <v>179.927921295166</v>
+        <v>178.9058563232422</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5580,19 +5583,19 @@
         <v>152</v>
       </c>
       <c r="B140">
-        <v>179.46356384927</v>
+        <v>187.3537763816902</v>
       </c>
       <c r="C140">
-        <v>184.6567191090648</v>
+        <v>188.6304619105477</v>
       </c>
       <c r="D140">
-        <v>179.2638300390304</v>
+        <v>186.9947076254933</v>
       </c>
       <c r="E140">
-        <v>183.8777465820312</v>
+        <v>187.3836975097656</v>
       </c>
       <c r="F140">
-        <v>53003900</v>
+        <v>60794500</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -5601,13 +5604,10 @@
         <v>0</v>
       </c>
       <c r="I140">
-        <v>179.8470611572266</v>
+        <v>183.2125335693359</v>
       </c>
       <c r="J140">
-        <v>179.3673492431641</v>
-      </c>
-      <c r="K140">
-        <v>184.696680713955</v>
+        <v>178.7541397094727</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5615,19 +5615,19 @@
         <v>153</v>
       </c>
       <c r="B141">
-        <v>184.696680713955</v>
+        <v>188.999510360815</v>
       </c>
       <c r="C141">
-        <v>187.6028557445698</v>
+        <v>189.4283899999806</v>
       </c>
       <c r="D141">
-        <v>184.4969468975517</v>
+        <v>187.792635750943</v>
       </c>
       <c r="E141">
-        <v>187.4031066894531</v>
+        <v>188.9695892333984</v>
       </c>
       <c r="F141">
-        <v>60813900</v>
+        <v>45732600</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -5636,10 +5636,10 @@
         <v>0</v>
       </c>
       <c r="I141">
-        <v>181.1513427734375</v>
+        <v>185.3769134521484</v>
       </c>
       <c r="J141">
-        <v>179.1341415405273</v>
+        <v>179.1389114379883</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5647,19 +5647,19 @@
         <v>154</v>
       </c>
       <c r="B142">
-        <v>187.5928586827137</v>
+        <v>187.7926465331043</v>
       </c>
       <c r="C142">
-        <v>188.8711733909761</v>
+        <v>189.4882431343282</v>
       </c>
       <c r="D142">
-        <v>187.2333317185953</v>
+        <v>187.1243826169458</v>
       </c>
       <c r="E142">
-        <v>187.6228179931641</v>
+        <v>189.2089691162109</v>
       </c>
       <c r="F142">
-        <v>60794500</v>
+        <v>45280000</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -5668,10 +5668,10 @@
         <v>0</v>
       </c>
       <c r="I142">
-        <v>183.4463195800781</v>
+        <v>187.2739868164062</v>
       </c>
       <c r="J142">
-        <v>178.9822319030762</v>
+        <v>179.6920349121094</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5679,19 +5679,19 @@
         <v>155</v>
       </c>
       <c r="B143">
-        <v>189.2406984464293</v>
+        <v>187.9123180182665</v>
       </c>
       <c r="C143">
-        <v>189.6701253920876</v>
+        <v>188.3611653627427</v>
       </c>
       <c r="D143">
-        <v>188.0322837067646</v>
+        <v>181.000263720265</v>
       </c>
       <c r="E143">
-        <v>189.2107391357422</v>
+        <v>182.4365386962891</v>
       </c>
       <c r="F143">
-        <v>45732600</v>
+        <v>81755800</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -5700,10 +5700,10 @@
         <v>0</v>
       </c>
       <c r="I143">
-        <v>185.6134674072266</v>
+        <v>187.0326141357422</v>
       </c>
       <c r="J143">
-        <v>179.3674957275391</v>
+        <v>179.8592239379883</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5711,19 +5711,19 @@
         <v>156</v>
       </c>
       <c r="B144">
-        <v>188.0322790561467</v>
+        <v>174.7265432785372</v>
       </c>
       <c r="C144">
-        <v>189.7300393208532</v>
+        <v>177.7487141947105</v>
       </c>
       <c r="D144">
-        <v>187.3631624028271</v>
+        <v>173.0907889897325</v>
       </c>
       <c r="E144">
-        <v>189.4504089355469</v>
+        <v>177.1003875732422</v>
       </c>
       <c r="F144">
-        <v>45280000</v>
+        <v>112488800</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -5732,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="I144">
-        <v>187.5129638671875</v>
+        <v>185.0198364257812</v>
       </c>
       <c r="J144">
-        <v>179.9213256835938</v>
+        <v>179.8397880554199</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -5743,19 +5743,19 @@
         <v>157</v>
       </c>
       <c r="B145">
-        <v>188.1521088872591</v>
+        <v>177.8883538719981</v>
       </c>
       <c r="C145">
-        <v>188.6015289961815</v>
+        <v>179.7734610698555</v>
       </c>
       <c r="D145">
-        <v>181.2312342653739</v>
+        <v>177.3297906265692</v>
       </c>
       <c r="E145">
-        <v>182.6693420410156</v>
+        <v>177.7187805175781</v>
       </c>
       <c r="F145">
-        <v>81755800</v>
+        <v>65551300</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -5764,10 +5764,10 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>187.2712829589844</v>
+        <v>183.0868530273438</v>
       </c>
       <c r="J145">
-        <v>180.088729095459</v>
+        <v>179.8622291564942</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -5775,19 +5775,19 @@
         <v>158</v>
       </c>
       <c r="B146">
-        <v>174.9495119390259</v>
+        <v>179.6039055932151</v>
       </c>
       <c r="C146">
-        <v>177.9755394495569</v>
+        <v>179.8333059889256</v>
       </c>
       <c r="D146">
-        <v>173.3116702630629</v>
+        <v>176.8809610965556</v>
       </c>
       <c r="E146">
-        <v>177.3263854980469</v>
+        <v>178.8957366943359</v>
       </c>
       <c r="F146">
-        <v>112488800</v>
+        <v>58953100</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -5796,10 +5796,10 @@
         <v>0</v>
       </c>
       <c r="I146">
-        <v>185.2559387207031</v>
+        <v>181.0720825195312</v>
       </c>
       <c r="J146">
-        <v>180.0692695617676</v>
+        <v>179.9405265808105</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -5807,19 +5807,19 @@
         <v>159</v>
       </c>
       <c r="B147">
-        <v>178.1153463772854</v>
+        <v>179.0254192461468</v>
       </c>
       <c r="C147">
-        <v>180.0028590457442</v>
+        <v>179.6637620816394</v>
       </c>
       <c r="D147">
-        <v>177.5560703832831</v>
+        <v>174.3675087525956</v>
       </c>
       <c r="E147">
-        <v>177.945556640625</v>
+        <v>175.8436737060547</v>
       </c>
       <c r="F147">
-        <v>65551300</v>
+        <v>90370200</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -5828,10 +5828,19 @@
         <v>0</v>
       </c>
       <c r="I147">
-        <v>183.3204864501953</v>
+        <v>178.3990234375</v>
       </c>
       <c r="J147">
-        <v>180.091739654541</v>
+        <v>179.7829353332519</v>
+      </c>
+      <c r="L147">
+        <v>176.053113450352</v>
+      </c>
+      <c r="M147">
+        <v>-8.40818582490914</v>
+      </c>
+      <c r="N147">
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -5839,19 +5848,19 @@
         <v>160</v>
       </c>
       <c r="B148">
-        <v>179.8330807031807</v>
+        <v>176.053113450352</v>
       </c>
       <c r="C148">
-        <v>180.0627738144686</v>
+        <v>176.8410771255788</v>
       </c>
       <c r="D148">
-        <v>177.1066617213624</v>
+        <v>173.5296633569718</v>
       </c>
       <c r="E148">
-        <v>179.1240081787109</v>
+        <v>173.7590789794922</v>
       </c>
       <c r="F148">
-        <v>58953100</v>
+        <v>84267900</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -5860,10 +5869,10 @@
         <v>0</v>
       </c>
       <c r="I148">
-        <v>181.3031402587891</v>
+        <v>176.6635314941406</v>
       </c>
       <c r="J148">
-        <v>180.1701362609863</v>
+        <v>179.6213554382324</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -5871,19 +5880,19 @@
         <v>161</v>
       </c>
       <c r="B149">
-        <v>179.2538441834885</v>
+        <v>173.5496089056313</v>
       </c>
       <c r="C149">
-        <v>179.8930015034427</v>
+        <v>175.644179238761</v>
       </c>
       <c r="D149">
-        <v>174.5899904952943</v>
+        <v>173.1306978828638</v>
       </c>
       <c r="E149">
-        <v>176.0680389404297</v>
+        <v>175.2851104736328</v>
       </c>
       <c r="F149">
-        <v>90370200</v>
+        <v>60895800</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -5892,19 +5901,10 @@
         <v>0</v>
       </c>
       <c r="I149">
-        <v>178.6266662597656</v>
+        <v>176.3004760742188</v>
       </c>
       <c r="J149">
-        <v>180.0123435974121</v>
-      </c>
-      <c r="L149">
-        <v>176.2777507591877</v>
-      </c>
-      <c r="M149">
-        <v>-8.418929954767322</v>
-      </c>
-      <c r="N149">
-        <v>9</v>
+        <v>179.5799629211426</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -5912,19 +5912,19 @@
         <v>162</v>
       </c>
       <c r="B150">
-        <v>176.2777507591877</v>
+        <v>176.023187787392</v>
       </c>
       <c r="C150">
-        <v>177.0667198471334</v>
+        <v>176.0431402799871</v>
       </c>
       <c r="D150">
-        <v>173.7510808361388</v>
+        <v>173.3700846053588</v>
       </c>
       <c r="E150">
-        <v>173.9807891845703</v>
+        <v>174.5569915771484</v>
       </c>
       <c r="F150">
-        <v>84267900</v>
+        <v>109205100</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -5933,10 +5933,10 @@
         <v>0</v>
       </c>
       <c r="I150">
-        <v>176.8889556884766</v>
+        <v>175.6681182861328</v>
       </c>
       <c r="J150">
-        <v>179.8505569458008</v>
+        <v>179.6303314208984</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -5944,19 +5944,19 @@
         <v>163</v>
       </c>
       <c r="B151">
-        <v>173.7710728480823</v>
+        <v>176.0231896602551</v>
       </c>
       <c r="C151">
-        <v>175.8683160296653</v>
+        <v>178.9156923456205</v>
       </c>
       <c r="D151">
-        <v>173.3516272595084</v>
+        <v>175.7139945085575</v>
       </c>
       <c r="E151">
-        <v>175.5087890625</v>
+        <v>177.5093383789062</v>
       </c>
       <c r="F151">
-        <v>60895800</v>
+        <v>67257600</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -5965,10 +5965,10 @@
         <v>0</v>
       </c>
       <c r="I151">
-        <v>176.5254364013672</v>
+        <v>175.3908386230469</v>
       </c>
       <c r="J151">
-        <v>179.8091117858887</v>
+        <v>179.8038803100586</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -5976,19 +5976,19 @@
         <v>164</v>
       </c>
       <c r="B152">
-        <v>176.2477911794132</v>
+        <v>177.060500163931</v>
       </c>
       <c r="C152">
-        <v>176.2677691311401</v>
+        <v>179.1650391140408</v>
       </c>
       <c r="D152">
-        <v>173.5913026708128</v>
+        <v>176.6715102735928</v>
       </c>
       <c r="E152">
-        <v>174.7797241210938</v>
+        <v>178.6064910888672</v>
       </c>
       <c r="F152">
-        <v>109205100</v>
+        <v>51826900</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -5997,10 +5997,10 @@
         <v>0</v>
       </c>
       <c r="I152">
-        <v>175.8922698974609</v>
+        <v>175.9434020996094</v>
       </c>
       <c r="J152">
-        <v>179.8595443725586</v>
+        <v>179.9649627685547</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -6008,19 +6008,19 @@
         <v>165</v>
       </c>
       <c r="B153">
-        <v>176.2477948031091</v>
+        <v>178.7959817770232</v>
       </c>
       <c r="C153">
-        <v>179.1439883145532</v>
+        <v>179.2348452764445</v>
       </c>
       <c r="D153">
-        <v>175.9382051191835</v>
+        <v>174.945972740225</v>
       </c>
       <c r="E153">
-        <v>177.73583984375</v>
+        <v>175.0357513427734</v>
       </c>
       <c r="F153">
-        <v>67257600</v>
+        <v>58436200</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -6029,10 +6029,10 @@
         <v>0</v>
       </c>
       <c r="I153">
-        <v>175.6146362304688</v>
+        <v>176.1987365722656</v>
       </c>
       <c r="J153">
-        <v>180.0333152770996</v>
+        <v>179.8781875610352</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -6040,19 +6040,19 @@
         <v>166</v>
       </c>
       <c r="B154">
-        <v>177.286432723598</v>
+        <v>174.098187609329</v>
       </c>
       <c r="C154">
-        <v>179.3936571053623</v>
+        <v>175.8436578069204</v>
       </c>
       <c r="D154">
-        <v>176.8969464747748</v>
+        <v>173.4099712106205</v>
       </c>
       <c r="E154">
-        <v>178.8343963623047</v>
+        <v>173.4797821044922</v>
       </c>
       <c r="F154">
-        <v>51826900</v>
+        <v>63047900</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -6061,10 +6061,10 @@
         <v>0</v>
       </c>
       <c r="I154">
-        <v>176.1679077148438</v>
+        <v>175.8376708984375</v>
       </c>
       <c r="J154">
-        <v>180.1946029663086</v>
+        <v>179.5196174621582</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -6072,19 +6072,19 @@
         <v>167</v>
       </c>
       <c r="B155">
-        <v>179.0241382546517</v>
+        <v>174.2178856663223</v>
       </c>
       <c r="C155">
-        <v>179.4635617753285</v>
+        <v>176.621651320769</v>
       </c>
       <c r="D155">
-        <v>175.1692163305953</v>
+        <v>173.5994953327094</v>
       </c>
       <c r="E155">
-        <v>175.2591094970703</v>
+        <v>174.3375701904297</v>
       </c>
       <c r="F155">
-        <v>58436200</v>
+        <v>56725400</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -6093,10 +6093,10 @@
         <v>0</v>
       </c>
       <c r="I155">
-        <v>176.4235717773437</v>
+        <v>175.7937866210937</v>
       </c>
       <c r="J155">
-        <v>180.1077178955078</v>
+        <v>179.4403228759766</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -6104,19 +6104,19 @@
         <v>168</v>
       </c>
       <c r="B156">
-        <v>174.3203512574821</v>
+        <v>173.7490983748326</v>
       </c>
       <c r="C156">
-        <v>176.0680488190235</v>
+        <v>176.5119327793448</v>
       </c>
       <c r="D156">
-        <v>173.6312566378803</v>
+        <v>173.6992247507734</v>
       </c>
       <c r="E156">
-        <v>173.7011566162109</v>
+        <v>175.6242370605469</v>
       </c>
       <c r="F156">
-        <v>63047900</v>
+        <v>46172700</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -6125,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="I156">
-        <v>176.0620452880859</v>
+        <v>175.4167663574219</v>
       </c>
       <c r="J156">
-        <v>179.7486907958984</v>
+        <v>179.3141502380371</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -6136,19 +6136,19 @@
         <v>169</v>
       </c>
       <c r="B157">
-        <v>174.4401755841381</v>
+        <v>174.3674901491058</v>
       </c>
       <c r="C157">
-        <v>176.8470082765513</v>
+        <v>174.7464961795814</v>
       </c>
       <c r="D157">
-        <v>173.820996227424</v>
+        <v>171.2156660766922</v>
       </c>
       <c r="E157">
-        <v>174.5600128173828</v>
+        <v>171.514892578125</v>
       </c>
       <c r="F157">
-        <v>56725400</v>
+        <v>64588900</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -6157,10 +6157,10 @@
         <v>0</v>
       </c>
       <c r="I157">
-        <v>176.0181030273438</v>
+        <v>173.9984466552734</v>
       </c>
       <c r="J157">
-        <v>179.6692947387695</v>
+        <v>178.9037147521973</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -6168,19 +6168,19 @@
         <v>170</v>
       </c>
       <c r="B158">
-        <v>173.970796337573</v>
+        <v>172.1731795890136</v>
       </c>
       <c r="C158">
-        <v>176.7371560251779</v>
+        <v>172.5920906202634</v>
       </c>
       <c r="D158">
-        <v>173.9208590764593</v>
+        <v>168.6124282137439</v>
       </c>
       <c r="E158">
-        <v>175.8483276367188</v>
+        <v>169.9888458251953</v>
       </c>
       <c r="F158">
-        <v>46172700</v>
+        <v>66921800</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -6189,10 +6189,10 @@
         <v>0</v>
       </c>
       <c r="I158">
-        <v>175.6406005859375</v>
+        <v>172.9890655517578</v>
       </c>
       <c r="J158">
-        <v>179.5429611206055</v>
+        <v>178.2209869384766</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -6200,19 +6200,19 @@
         <v>171</v>
       </c>
       <c r="B159">
-        <v>174.5899869384735</v>
+        <v>168.9016724898792</v>
       </c>
       <c r="C159">
-        <v>174.9694765890601</v>
+        <v>171.5847120622246</v>
       </c>
       <c r="D159">
-        <v>171.4341410685553</v>
+        <v>167.1861233630107</v>
       </c>
       <c r="E159">
-        <v>171.7337493896484</v>
+        <v>170.2481842041016</v>
       </c>
       <c r="F159">
-        <v>64588900</v>
+        <v>56294400</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -6221,10 +6221,10 @@
         <v>0</v>
       </c>
       <c r="I159">
-        <v>174.2204711914063</v>
+        <v>172.3427459716797</v>
       </c>
       <c r="J159">
-        <v>179.1320022583008</v>
+        <v>177.3751823425293</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -6232,19 +6232,19 @@
         <v>172</v>
       </c>
       <c r="B160">
-        <v>172.3928704586823</v>
+        <v>171.5747466591681</v>
       </c>
       <c r="C160">
-        <v>172.8123160152803</v>
+        <v>172.6220318767139</v>
       </c>
       <c r="D160">
-        <v>168.8275756082431</v>
+        <v>169.8990872672364</v>
       </c>
       <c r="E160">
-        <v>170.2057495117188</v>
+        <v>170.766845703125</v>
       </c>
       <c r="F160">
-        <v>66921800</v>
+        <v>51814200</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -6253,30 +6253,30 @@
         <v>0</v>
       </c>
       <c r="I160">
-        <v>173.2097991943359</v>
+        <v>171.6286010742188</v>
       </c>
       <c r="J160">
-        <v>178.4484024047852</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
+        <v>176.5443397521973</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>169.1171936994851</v>
+        <v>170.7767973285061</v>
       </c>
       <c r="C161">
-        <v>171.8036568728258</v>
+        <v>173.848826558289</v>
       </c>
       <c r="D161">
-        <v>167.3994555047553</v>
+        <v>170.4875394722594</v>
       </c>
       <c r="E161">
-        <v>170.4654235839844</v>
+        <v>173.3002471923828</v>
       </c>
       <c r="F161">
-        <v>56294400</v>
+        <v>52164500</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -6285,30 +6285,30 @@
         <v>0</v>
       </c>
       <c r="I161">
-        <v>172.5626525878906</v>
+        <v>171.1638031005859</v>
       </c>
       <c r="J161">
-        <v>177.6015182495117</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
+        <v>175.7608726501465</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>171.7936730344676</v>
+        <v>171.8140983512768</v>
       </c>
       <c r="C162">
-        <v>172.8422945696302</v>
+        <v>173.1805624461712</v>
       </c>
       <c r="D162">
-        <v>170.1158755304648</v>
+        <v>170.3778385851768</v>
       </c>
       <c r="E162">
-        <v>170.9847412109375</v>
+        <v>171.9537353515625</v>
       </c>
       <c r="F162">
-        <v>51814200</v>
+        <v>49594600</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -6317,30 +6317,30 @@
         <v>0</v>
       </c>
       <c r="I162">
-        <v>171.8475982666016</v>
+        <v>171.2515716552734</v>
       </c>
       <c r="J162">
-        <v>176.7696144104004</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
+        <v>174.8981109619141</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>170.9947228250154</v>
+        <v>170.6471399831299</v>
       </c>
       <c r="C163">
-        <v>174.070672221388</v>
+        <v>173.7590743964464</v>
       </c>
       <c r="D163">
-        <v>170.7050958515179</v>
+        <v>170.527455466219</v>
       </c>
       <c r="E163">
-        <v>173.5213928222656</v>
+        <v>173.2104949951172</v>
       </c>
       <c r="F163">
-        <v>52164500</v>
+        <v>53020300</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -6349,30 +6349,30 @@
         <v>0</v>
       </c>
       <c r="I163">
-        <v>171.3822113037109</v>
+        <v>171.8959014892578</v>
       </c>
       <c r="J163">
-        <v>175.9851470947266</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
+        <v>174.4368087768555</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>172.0333568007432</v>
+        <v>173.3401488321898</v>
       </c>
       <c r="C164">
-        <v>173.4015646919942</v>
+        <v>174.9958556793513</v>
       </c>
       <c r="D164">
-        <v>170.595264169399</v>
+        <v>172.2330213885206</v>
       </c>
       <c r="E164">
-        <v>172.1731719970703</v>
+        <v>174.4572601318359</v>
       </c>
       <c r="F164">
-        <v>49594600</v>
+        <v>48527900</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -6381,30 +6381,30 @@
         <v>0</v>
       </c>
       <c r="I164">
-        <v>171.4700958251953</v>
+        <v>172.7377166748047</v>
       </c>
       <c r="J164">
-        <v>175.1212852478027</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
+        <v>174.3046524047851</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>170.8648925985856</v>
+        <v>173.3501276184689</v>
       </c>
       <c r="C165">
-        <v>173.9807979654013</v>
+        <v>177.5292843801817</v>
       </c>
       <c r="D165">
-        <v>170.7450553594164</v>
+        <v>172.7317221183936</v>
       </c>
       <c r="E165">
-        <v>173.4315185546875</v>
+        <v>177.0305786132812</v>
       </c>
       <c r="F165">
-        <v>53020300</v>
+        <v>57224100</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -6413,30 +6413,30 @@
         <v>0</v>
       </c>
       <c r="I165">
-        <v>172.1152496337891</v>
+        <v>173.9904632568359</v>
       </c>
       <c r="J165">
-        <v>174.6593940734863</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
+        <v>174.2702423095703</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>173.561333852532</v>
+        <v>176.3523377382883</v>
       </c>
       <c r="C166">
-        <v>175.2191534101946</v>
+        <v>178.586545140136</v>
       </c>
       <c r="D166">
-        <v>172.4527936951447</v>
+        <v>175.3449575287822</v>
       </c>
       <c r="E166">
-        <v>174.6798706054688</v>
+        <v>178.5267028808594</v>
       </c>
       <c r="F166">
-        <v>48527900</v>
+        <v>42390800</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -6445,30 +6445,33 @@
         <v>0</v>
       </c>
       <c r="I166">
-        <v>172.9581390380859</v>
+        <v>175.0357543945312</v>
       </c>
       <c r="J166">
-        <v>174.5270683288574</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
+        <v>174.2517906188965</v>
+      </c>
+      <c r="K166">
+        <v>177.6390105088228</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>173.5713374158664</v>
+        <v>177.6390105088228</v>
       </c>
       <c r="C167">
-        <v>177.7558271440631</v>
+        <v>179.2548124166513</v>
       </c>
       <c r="D167">
-        <v>172.9521427767391</v>
+        <v>177.4893896385431</v>
       </c>
       <c r="E167">
-        <v>177.2564849853516</v>
+        <v>177.9282531738281</v>
       </c>
       <c r="F167">
-        <v>57224100</v>
+        <v>43698000</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -6477,30 +6480,30 @@
         <v>0</v>
       </c>
       <c r="I167">
-        <v>174.2124877929687</v>
+        <v>176.2306579589844</v>
       </c>
       <c r="J167">
-        <v>174.4926147460938</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
+        <v>174.3560195922852</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>176.5773617299011</v>
+        <v>177.7387302034045</v>
       </c>
       <c r="C168">
-        <v>178.8144199602329</v>
+        <v>179.3844683465285</v>
       </c>
       <c r="D168">
-        <v>175.5686961123379</v>
+        <v>177.1402924216893</v>
       </c>
       <c r="E168">
-        <v>178.7545013427734</v>
+        <v>179.3345947265625</v>
       </c>
       <c r="F168">
-        <v>42390800</v>
+        <v>47551100</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -6509,33 +6512,30 @@
         <v>0</v>
       </c>
       <c r="I168">
-        <v>175.2591094970703</v>
+        <v>177.4554779052734</v>
       </c>
       <c r="J168">
-        <v>174.4741394042969</v>
-      </c>
-      <c r="K168">
-        <v>177.8656769591528</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
+        <v>174.6347953796387</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>177.8656769591528</v>
+        <v>179.6039057496678</v>
       </c>
       <c r="C169">
-        <v>179.4835406217829</v>
+        <v>181.8680190182936</v>
       </c>
       <c r="D169">
-        <v>177.7158651734234</v>
+        <v>178.5765578477813</v>
       </c>
       <c r="E169">
-        <v>178.1552886962891</v>
+        <v>180.2422485351562</v>
       </c>
       <c r="F169">
-        <v>43698000</v>
+        <v>56743100</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -6544,30 +6544,30 @@
         <v>0</v>
       </c>
       <c r="I169">
-        <v>176.4555328369141</v>
+        <v>178.6124755859375</v>
       </c>
       <c r="J169">
-        <v>174.5785018920898</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
+        <v>174.8826522827148</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>177.9655298943107</v>
+        <v>180.9504095850916</v>
       </c>
       <c r="C170">
-        <v>179.6133680462608</v>
+        <v>181.4590840191646</v>
       </c>
       <c r="D170">
-        <v>177.3663284889116</v>
+        <v>177.6789007738102</v>
       </c>
       <c r="E170">
-        <v>179.5634307861328</v>
+        <v>178.3870697021484</v>
       </c>
       <c r="F170">
-        <v>47551100</v>
+        <v>51427100</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -6576,30 +6576,30 @@
         <v>0</v>
       </c>
       <c r="I170">
-        <v>177.6819152832031</v>
+        <v>178.8837738037109</v>
       </c>
       <c r="J170">
-        <v>174.857633972168</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
+        <v>175.0741561889648</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>179.8330869283729</v>
+        <v>176.2924833730256</v>
       </c>
       <c r="C171">
-        <v>182.1000892886667</v>
+        <v>178.6164540042015</v>
       </c>
       <c r="D171">
-        <v>178.8044280928399</v>
+        <v>176.0530991330649</v>
       </c>
       <c r="E171">
-        <v>180.4722442626953</v>
+        <v>178.2573852539062</v>
       </c>
       <c r="F171">
-        <v>56743100</v>
+        <v>52517000</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -6608,30 +6608,30 @@
         <v>0</v>
       </c>
       <c r="I171">
-        <v>178.8403900146484</v>
+        <v>178.8299102783203</v>
       </c>
       <c r="J171">
-        <v>175.1058067321777</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
+        <v>175.1115585327148</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>181.1812956691862</v>
+        <v>176.1927462456331</v>
       </c>
       <c r="C172">
-        <v>181.6906191531753</v>
+        <v>177.9581689708337</v>
       </c>
       <c r="D172">
-        <v>177.9056125326835</v>
+        <v>174.3475439884926</v>
       </c>
       <c r="E172">
-        <v>178.6146850585938</v>
+        <v>176.6914520263672</v>
       </c>
       <c r="F172">
-        <v>51427100</v>
+        <v>57549400</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -6640,30 +6640,30 @@
         <v>0</v>
       </c>
       <c r="I172">
-        <v>179.1120300292969</v>
+        <v>178.5825500488281</v>
       </c>
       <c r="J172">
-        <v>175.2975547790527</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
+        <v>175.0158065795898</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>176.5174539474347</v>
+        <v>175.1255203969317</v>
       </c>
       <c r="C173">
-        <v>178.8443902467877</v>
+        <v>177.1203434812308</v>
       </c>
       <c r="D173">
-        <v>176.2777642241718</v>
+        <v>174.656735754578</v>
       </c>
       <c r="E173">
-        <v>178.48486328125</v>
+        <v>175.3848419189453</v>
       </c>
       <c r="F173">
-        <v>52517000</v>
+        <v>54764400</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -6672,30 +6672,30 @@
         <v>0</v>
       </c>
       <c r="I173">
-        <v>179.0581024169922</v>
+        <v>177.7925994873047</v>
       </c>
       <c r="J173">
-        <v>175.3350059509277</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
+        <v>175.0332611083984</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>176.4175737485108</v>
+        <v>175.5843294448986</v>
       </c>
       <c r="C174">
-        <v>178.1852492088057</v>
+        <v>177.3796733490986</v>
       </c>
       <c r="D174">
-        <v>174.5700169550763</v>
+        <v>174.7365387257577</v>
       </c>
       <c r="E174">
-        <v>176.9169158935547</v>
+        <v>175.0058441162109</v>
       </c>
       <c r="F174">
-        <v>57549400</v>
+        <v>59302900</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -6704,30 +6704,30 @@
         <v>0</v>
       </c>
       <c r="I174">
-        <v>178.8104278564453</v>
+        <v>176.7453186035156</v>
       </c>
       <c r="J174">
-        <v>175.2391319274902</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
+        <v>175.1095642089844</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>175.3489901476535</v>
+        <v>174.8562130914191</v>
       </c>
       <c r="C175">
-        <v>177.3463587354085</v>
+        <v>174.9659289686177</v>
       </c>
       <c r="D175">
-        <v>174.8796073104341</v>
+        <v>172.1931261295546</v>
       </c>
       <c r="E175">
-        <v>175.608642578125</v>
+        <v>172.4325103759766</v>
       </c>
       <c r="F175">
-        <v>54764400</v>
+        <v>64189300</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -6736,30 +6736,30 @@
         <v>0</v>
       </c>
       <c r="I175">
-        <v>178.0194702148438</v>
+        <v>175.5544067382812</v>
       </c>
       <c r="J175">
-        <v>175.256608581543</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
+        <v>175.0143112182617</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>175.8083799863736</v>
+        <v>170.4676138043291</v>
       </c>
       <c r="C176">
-        <v>177.6060147998771</v>
+        <v>173.559580516591</v>
       </c>
       <c r="D176">
-        <v>174.9595074624368</v>
+        <v>169.4901395151607</v>
       </c>
       <c r="E176">
-        <v>175.2291564941406</v>
+        <v>172.5522003173828</v>
       </c>
       <c r="F176">
-        <v>59302900</v>
+        <v>55980100</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -6768,30 +6768,39 @@
         <v>0</v>
       </c>
       <c r="I176">
-        <v>176.9708526611328</v>
+        <v>174.4133697509766</v>
       </c>
       <c r="J176">
-        <v>175.3330085754395</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14">
+        <v>174.8607093811035</v>
+      </c>
+      <c r="L176">
+        <v>172.6020684613408</v>
+      </c>
+      <c r="M176">
+        <v>-5.036942047482057</v>
+      </c>
+      <c r="N176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B177">
-        <v>175.0793375847753</v>
+        <v>172.6020684613408</v>
       </c>
       <c r="C177">
-        <v>175.1891934644312</v>
+        <v>173.2204587403082</v>
       </c>
       <c r="D177">
-        <v>172.4128524026324</v>
+        <v>171.006203924228</v>
       </c>
       <c r="E177">
-        <v>172.6525421142578</v>
+        <v>172.9910583496094</v>
       </c>
       <c r="F177">
-        <v>64189300</v>
+        <v>43816600</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -6800,30 +6809,30 @@
         <v>0</v>
       </c>
       <c r="I177">
-        <v>175.7784240722656</v>
+        <v>173.673291015625</v>
       </c>
       <c r="J177">
-        <v>175.2376350402832</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14">
+        <v>174.9345176696777</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B178">
-        <v>170.685138104863</v>
+        <v>171.4350995308461</v>
       </c>
       <c r="C178">
-        <v>173.7810503049589</v>
+        <v>172.6120378370566</v>
       </c>
       <c r="D178">
-        <v>169.7064165147775</v>
+        <v>170.2082723847277</v>
       </c>
       <c r="E178">
-        <v>172.7723846435547</v>
+        <v>170.6571197509766</v>
       </c>
       <c r="F178">
-        <v>55980100</v>
+        <v>57157000</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -6832,39 +6841,30 @@
         <v>0</v>
       </c>
       <c r="I178">
-        <v>174.6359283447266</v>
+        <v>172.7277465820312</v>
       </c>
       <c r="J178">
-        <v>175.083837890625</v>
-      </c>
-      <c r="L178">
-        <v>172.8223209839281</v>
-      </c>
-      <c r="M178">
-        <v>-5.043355975224699</v>
-      </c>
-      <c r="N178">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14">
+        <v>174.9679313659668</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B179">
-        <v>172.8223209839281</v>
+        <v>169.9289956375386</v>
       </c>
       <c r="C179">
-        <v>173.4415003728992</v>
+        <v>170.9363910121684</v>
       </c>
       <c r="D179">
-        <v>171.2244200100962</v>
+        <v>165.2411645416643</v>
       </c>
       <c r="E179">
-        <v>173.2118072509766</v>
+        <v>166.4580078125</v>
       </c>
       <c r="F179">
-        <v>43816600</v>
+        <v>70625300</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -6873,30 +6873,30 @@
         <v>0</v>
       </c>
       <c r="I179">
-        <v>173.8949066162109</v>
+        <v>171.0181793212891</v>
       </c>
       <c r="J179">
-        <v>175.1577407836914</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14">
+        <v>174.7784225463867</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B180">
-        <v>171.6538657387105</v>
+        <v>166.4779545474851</v>
       </c>
       <c r="C180">
-        <v>172.8323059213211</v>
+        <v>168.5226511347767</v>
       </c>
       <c r="D180">
-        <v>170.4254730536611</v>
+        <v>166.398159802402</v>
       </c>
       <c r="E180">
-        <v>170.8748931884766</v>
+        <v>167.7845611572266</v>
       </c>
       <c r="F180">
-        <v>57157000</v>
+        <v>58499100</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -6905,30 +6905,30 @@
         <v>0</v>
       </c>
       <c r="I180">
-        <v>172.9481567382813</v>
+        <v>170.0885894775391</v>
       </c>
       <c r="J180">
-        <v>175.1911979675293</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14">
+        <v>174.6293083190918</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B181">
-        <v>170.1458425788756</v>
+        <v>168.5824957424558</v>
       </c>
       <c r="C181">
-        <v>171.1545234940036</v>
+        <v>170.7269243765725</v>
       </c>
       <c r="D181">
-        <v>165.452029326567</v>
+        <v>168.4328748861018</v>
       </c>
       <c r="E181">
-        <v>166.6704254150391</v>
+        <v>169.8491973876953</v>
       </c>
       <c r="F181">
-        <v>70625300</v>
+        <v>51131000</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -6937,30 +6937,30 @@
         <v>0</v>
       </c>
       <c r="I181">
-        <v>171.2364105224609</v>
+        <v>169.5479888916016</v>
       </c>
       <c r="J181">
-        <v>175.001448059082</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14">
+        <v>174.4567558288574</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B182">
-        <v>166.6903985036265</v>
+        <v>168.9116498560739</v>
       </c>
       <c r="C182">
-        <v>168.737704345899</v>
+        <v>170.4576255627833</v>
       </c>
       <c r="D182">
-        <v>166.6105019317798</v>
+        <v>167.4653909521835</v>
       </c>
       <c r="E182">
-        <v>167.9986724853516</v>
+        <v>170.3279724121094</v>
       </c>
       <c r="F182">
-        <v>58499100</v>
+        <v>44846000</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -6969,30 +6969,30 @@
         <v>0</v>
       </c>
       <c r="I182">
-        <v>170.3056365966797</v>
+        <v>169.0153717041016</v>
       </c>
       <c r="J182">
-        <v>174.8521446228027</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14">
+        <v>174.3754676818848</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B183">
-        <v>168.7976152093692</v>
+        <v>170.5573703976512</v>
       </c>
       <c r="C183">
-        <v>170.9447802387597</v>
+        <v>173.7790053548717</v>
       </c>
       <c r="D183">
-        <v>168.6478034295226</v>
+        <v>169.6796433874197</v>
       </c>
       <c r="E183">
-        <v>170.0659332275391</v>
+        <v>173.5196838378906</v>
       </c>
       <c r="F183">
-        <v>51131000</v>
+        <v>56934900</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -7001,30 +7001,30 @@
         <v>0</v>
       </c>
       <c r="I183">
-        <v>169.7643463134766</v>
+        <v>169.5878845214844</v>
       </c>
       <c r="J183">
-        <v>174.6793716430664</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14">
+        <v>174.3909271240234</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B184">
-        <v>169.1271887558827</v>
+        <v>175.065670208653</v>
       </c>
       <c r="C184">
-        <v>170.67513719747</v>
+        <v>177.3198147128483</v>
       </c>
       <c r="D184">
-        <v>167.6790843602619</v>
+        <v>175.0058279539218</v>
       </c>
       <c r="E184">
-        <v>170.5453186035156</v>
+        <v>177.1103668212891</v>
       </c>
       <c r="F184">
-        <v>44846000</v>
+        <v>77334800</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -7033,30 +7033,30 @@
         <v>0</v>
       </c>
       <c r="I184">
-        <v>169.2310485839844</v>
+        <v>171.7183563232422</v>
       </c>
       <c r="J184">
-        <v>174.5979789733887</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14">
+        <v>174.5235824584961</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B185">
-        <v>170.7750106172122</v>
+        <v>173.7889836384473</v>
       </c>
       <c r="C185">
-        <v>174.00075655092</v>
+        <v>176.3623071110634</v>
       </c>
       <c r="D185">
-        <v>169.8961635809227</v>
+        <v>172.9012880203941</v>
       </c>
       <c r="E185">
-        <v>173.7411041259766</v>
+        <v>176.1927337646484</v>
       </c>
       <c r="F185">
-        <v>56934900</v>
+        <v>79763700</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -7065,30 +7065,30 @@
         <v>0</v>
       </c>
       <c r="I185">
-        <v>169.8042907714844</v>
+        <v>173.3999908447266</v>
       </c>
       <c r="J185">
-        <v>174.6134582519531</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14">
+        <v>174.4816902160645</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B186">
-        <v>175.2890741243693</v>
+        <v>175.9234537243682</v>
       </c>
       <c r="C186">
-        <v>177.5460951760238</v>
+        <v>178.9655467706447</v>
       </c>
       <c r="D186">
-        <v>175.2291555040433</v>
+        <v>175.753895587506</v>
       </c>
       <c r="E186">
-        <v>177.3363800048828</v>
+        <v>178.7660675048828</v>
       </c>
       <c r="F186">
-        <v>77334800</v>
+        <v>63841300</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -7097,30 +7097,33 @@
         <v>0</v>
       </c>
       <c r="I186">
-        <v>171.9374816894531</v>
+        <v>175.1833648681641</v>
       </c>
       <c r="J186">
-        <v>174.7462837219238</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14">
+        <v>174.4936584472656</v>
+      </c>
+      <c r="K186">
+        <v>178.7161842783878</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B187">
-        <v>174.0107544873561</v>
+        <v>178.7161842783878</v>
       </c>
       <c r="C187">
-        <v>176.5873617592045</v>
+        <v>181.9677554907887</v>
       </c>
       <c r="D187">
-        <v>173.1219260874277</v>
+        <v>178.5067363873471</v>
       </c>
       <c r="E187">
-        <v>176.4175720214844</v>
+        <v>181.349365234375</v>
       </c>
       <c r="F187">
-        <v>79763700</v>
+        <v>70530000</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -7129,30 +7132,30 @@
         <v>0</v>
       </c>
       <c r="I187">
-        <v>173.6212615966797</v>
+        <v>177.3876434326172</v>
       </c>
       <c r="J187">
-        <v>174.7043380737305</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14">
+        <v>174.664714050293</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B188">
-        <v>176.147945232681</v>
+        <v>181.8779999252986</v>
       </c>
       <c r="C188">
-        <v>179.1939202176185</v>
+        <v>182.9751434848192</v>
       </c>
       <c r="D188">
-        <v>175.9781707269317</v>
+        <v>181.119957416558</v>
       </c>
       <c r="E188">
-        <v>178.9941864013672</v>
+        <v>182.4165954589844</v>
       </c>
       <c r="F188">
-        <v>63841300</v>
+        <v>49340300</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -7161,33 +7164,30 @@
         <v>0</v>
       </c>
       <c r="I188">
-        <v>175.4069122314453</v>
+        <v>179.1670257568359</v>
       </c>
       <c r="J188">
-        <v>174.7163223266602</v>
-      </c>
-      <c r="K188">
-        <v>178.9442389455798</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14">
+        <v>174.8188140869141</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B189">
-        <v>178.9442389455798</v>
+        <v>182.4864150631998</v>
       </c>
       <c r="C189">
-        <v>182.1999593960236</v>
+        <v>183.6434008386096</v>
       </c>
       <c r="D189">
-        <v>178.7345237840102</v>
+        <v>181.3393827045713</v>
       </c>
       <c r="E189">
-        <v>181.5807800292969</v>
+        <v>181.9378356933594</v>
       </c>
       <c r="F189">
-        <v>70530000</v>
+        <v>53763500</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -7196,62 +7196,62 @@
         <v>0</v>
       </c>
       <c r="I189">
-        <v>177.6140045166016</v>
+        <v>180.13251953125</v>
       </c>
       <c r="J189">
-        <v>174.8875968933106</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14">
+        <v>174.9035934448242</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B190">
-        <v>182.1100854772309</v>
+        <v>183.7355491840555</v>
       </c>
       <c r="C190">
-        <v>183.2086290475756</v>
+        <v>186.3322418303649</v>
       </c>
       <c r="D190">
-        <v>181.3510756678047</v>
+        <v>183.2961074833561</v>
       </c>
       <c r="E190">
-        <v>182.6493682861328</v>
+        <v>186.1624450683594</v>
       </c>
       <c r="F190">
-        <v>49340300</v>
+        <v>66133400</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>179.3956573486328</v>
+        <v>182.1264617919922</v>
       </c>
       <c r="J190">
-        <v>175.0418937683106</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14">
+        <v>175.2923622131348</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B191">
-        <v>182.7192775556024</v>
+        <v>185.5832033078345</v>
       </c>
       <c r="C191">
-        <v>183.8777397071645</v>
+        <v>185.7929271554538</v>
       </c>
       <c r="D191">
-        <v>181.5707815219172</v>
+        <v>183.9752544389311</v>
       </c>
       <c r="E191">
-        <v>182.1699981689453</v>
+        <v>184.5644989013672</v>
       </c>
       <c r="F191">
-        <v>53763500</v>
+        <v>43627500</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -7260,42 +7260,42 @@
         <v>0</v>
       </c>
       <c r="I191">
-        <v>180.3623809814453</v>
+        <v>183.2861480712891</v>
       </c>
       <c r="J191">
-        <v>175.126781463623</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14">
+        <v>175.6077178955078</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B192">
-        <v>183.9700012207031</v>
+        <v>187.4607892645803</v>
       </c>
       <c r="C192">
-        <v>186.5700073242188</v>
+        <v>187.87027041189</v>
       </c>
       <c r="D192">
-        <v>183.5299987792969</v>
+        <v>186.0625795412583</v>
       </c>
       <c r="E192">
-        <v>186.3999938964844</v>
+        <v>187.2011260986328</v>
       </c>
       <c r="F192">
-        <v>66133400</v>
+        <v>60108400</v>
       </c>
       <c r="G192">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H192">
         <v>0</v>
       </c>
       <c r="I192">
-        <v>182.3588653564453</v>
+        <v>184.4565002441406</v>
       </c>
       <c r="J192">
-        <v>175.5160469055176</v>
+        <v>176.1332015991211</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -7303,19 +7303,19 @@
         <v>205</v>
       </c>
       <c r="B193">
-        <v>185.8200073242188</v>
+        <v>187.6106012356003</v>
       </c>
       <c r="C193">
-        <v>186.0299987792969</v>
+        <v>189.2584923023907</v>
       </c>
       <c r="D193">
-        <v>184.2100067138672</v>
+        <v>187.5406831320026</v>
       </c>
       <c r="E193">
-        <v>184.8000030517578</v>
+        <v>187.7703857421875</v>
       </c>
       <c r="F193">
-        <v>43627500</v>
+        <v>53790500</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -7324,10 +7324,10 @@
         <v>0</v>
       </c>
       <c r="I193">
-        <v>183.5200286865234</v>
+        <v>185.5272583007813</v>
       </c>
       <c r="J193">
-        <v>175.831803894043</v>
+        <v>176.7524787902832</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -7335,19 +7335,19 @@
         <v>206</v>
       </c>
       <c r="B194">
-        <v>187.6999969482422</v>
+        <v>189.328425480975</v>
       </c>
       <c r="C194">
-        <v>188.1100006103516</v>
+        <v>190.7166535006721</v>
       </c>
       <c r="D194">
-        <v>186.3000030517578</v>
+        <v>188.4095844883891</v>
       </c>
       <c r="E194">
-        <v>187.4400024414062</v>
+        <v>189.4682464599609</v>
       </c>
       <c r="F194">
-        <v>60108400</v>
+        <v>54412900</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -7356,10 +7356,10 @@
         <v>0</v>
       </c>
       <c r="I194">
-        <v>184.6918731689453</v>
+        <v>187.0333404541016</v>
       </c>
       <c r="J194">
-        <v>176.3579582214356</v>
+        <v>177.4755989074707</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -7367,19 +7367,19 @@
         <v>207</v>
       </c>
       <c r="B195">
-        <v>187.8500061035156</v>
+        <v>190.0075413320201</v>
       </c>
       <c r="C195">
-        <v>189.5</v>
+        <v>190.1373805338302</v>
       </c>
       <c r="D195">
-        <v>187.7799987792969</v>
+        <v>188.329689674827</v>
       </c>
       <c r="E195">
-        <v>188.0099945068359</v>
+        <v>189.4482574462891</v>
       </c>
       <c r="F195">
-        <v>53790500</v>
+        <v>50922700</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -7388,10 +7388,10 @@
         <v>0</v>
       </c>
       <c r="I195">
-        <v>185.7639984130859</v>
+        <v>187.6905029296875</v>
       </c>
       <c r="J195">
-        <v>176.9780258178711</v>
+        <v>178.3263862609863</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -7399,19 +7399,19 @@
         <v>208</v>
       </c>
       <c r="B196">
-        <v>189.5700073242188</v>
+        <v>189.6479994473329</v>
       </c>
       <c r="C196">
-        <v>190.9600067138672</v>
+        <v>191.665429382446</v>
       </c>
       <c r="D196">
-        <v>188.6499938964844</v>
+        <v>189.6380176777137</v>
       </c>
       <c r="E196">
-        <v>189.7100067138672</v>
+        <v>191.2060089111328</v>
       </c>
       <c r="F196">
-        <v>54412900</v>
+        <v>46505100</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -7420,10 +7420,10 @@
         <v>0</v>
       </c>
       <c r="I196">
-        <v>187.2720001220703</v>
+        <v>189.0188049316406</v>
       </c>
       <c r="J196">
-        <v>177.7020683288574</v>
+        <v>179.2590766906738</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -7431,19 +7431,19 @@
         <v>209</v>
       </c>
       <c r="B197">
-        <v>190.25</v>
+        <v>191.1660719339604</v>
       </c>
       <c r="C197">
-        <v>190.3800048828125</v>
+        <v>191.2759323602126</v>
       </c>
       <c r="D197">
-        <v>188.5700073242188</v>
+        <v>189.4982020003819</v>
       </c>
       <c r="E197">
-        <v>189.6900024414062</v>
+        <v>190.3970489501953</v>
       </c>
       <c r="F197">
-        <v>50922700</v>
+        <v>38134500</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -7452,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="I197">
-        <v>187.9300018310547</v>
+        <v>189.6579895019531</v>
       </c>
       <c r="J197">
-        <v>178.5539413452148</v>
+        <v>180.1293762207031</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -7463,19 +7463,19 @@
         <v>210</v>
       </c>
       <c r="B198">
-        <v>189.8899993896484</v>
+        <v>191.2459711599096</v>
       </c>
       <c r="C198">
-        <v>191.9100036621094</v>
+        <v>192.6841232268449</v>
       </c>
       <c r="D198">
-        <v>189.8800048828125</v>
+        <v>190.5868086046414</v>
       </c>
       <c r="E198">
-        <v>191.4499969482422</v>
+        <v>191.0661926269531</v>
       </c>
       <c r="F198">
-        <v>46505100</v>
+        <v>39617700</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -7484,10 +7484,10 @@
         <v>0</v>
       </c>
       <c r="I198">
-        <v>189.2600006103516</v>
+        <v>190.3171508789063</v>
       </c>
       <c r="J198">
-        <v>179.4878219604492</v>
+        <v>181.149829864502</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -7495,19 +7495,19 @@
         <v>211</v>
       </c>
       <c r="B199">
-        <v>191.4100036621094</v>
+        <v>190.6267522263334</v>
       </c>
       <c r="C199">
-        <v>191.5200042724609</v>
+        <v>190.6567127754737</v>
       </c>
       <c r="D199">
-        <v>189.7400054931641</v>
+        <v>189.0088216153834</v>
       </c>
       <c r="E199">
-        <v>190.6399993896484</v>
+        <v>189.7279052734375</v>
       </c>
       <c r="F199">
-        <v>38134500</v>
+        <v>24048300</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -7516,10 +7516,10 @@
         <v>0</v>
       </c>
       <c r="I199">
-        <v>189.9</v>
+        <v>190.3690826416016</v>
       </c>
       <c r="J199">
-        <v>180.3592315673828</v>
+        <v>182.3133247375488</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -7527,19 +7527,19 @@
         <v>212</v>
       </c>
       <c r="B200">
-        <v>191.4900054931641</v>
+        <v>189.6779654261848</v>
       </c>
       <c r="C200">
-        <v>192.9299926757812</v>
+        <v>190.4270096313301</v>
       </c>
       <c r="D200">
-        <v>190.8300018310547</v>
+        <v>188.6592610401712</v>
       </c>
       <c r="E200">
-        <v>191.3099975585938</v>
+        <v>189.5481262207031</v>
       </c>
       <c r="F200">
-        <v>39617700</v>
+        <v>40552600</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -7548,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="I200">
-        <v>190.5600006103516</v>
+        <v>190.3890563964844</v>
       </c>
       <c r="J200">
-        <v>181.3809867858887</v>
+        <v>183.4015029907227</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -7559,19 +7559,19 @@
         <v>213</v>
       </c>
       <c r="B201">
-        <v>190.8699951171875</v>
+        <v>189.5381436358115</v>
       </c>
       <c r="C201">
-        <v>190.8999938964844</v>
+        <v>190.8364899670158</v>
       </c>
       <c r="D201">
-        <v>189.25</v>
+        <v>189.1586230302466</v>
       </c>
       <c r="E201">
-        <v>189.9700012207031</v>
+        <v>190.1573486328125</v>
       </c>
       <c r="F201">
-        <v>24048300</v>
+        <v>38415400</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -7580,10 +7580,10 @@
         <v>0</v>
       </c>
       <c r="I201">
-        <v>190.6119995117188</v>
+        <v>190.1793243408203</v>
       </c>
       <c r="J201">
-        <v>182.5459655761719</v>
+        <v>184.4169105529785</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -7591,19 +7591,19 @@
         <v>214</v>
       </c>
       <c r="B202">
-        <v>189.9199981689453</v>
+        <v>190.6567110591483</v>
       </c>
       <c r="C202">
-        <v>190.6699981689453</v>
+        <v>191.8451969621594</v>
       </c>
       <c r="D202">
-        <v>188.8999938964844</v>
+        <v>188.7291779648716</v>
       </c>
       <c r="E202">
-        <v>189.7899932861328</v>
+        <v>189.128662109375</v>
       </c>
       <c r="F202">
-        <v>40552600</v>
+        <v>43014200</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -7612,10 +7612,10 @@
         <v>0</v>
       </c>
       <c r="I202">
-        <v>190.6319976806641</v>
+        <v>189.9256469726562</v>
       </c>
       <c r="J202">
-        <v>183.6355316162109</v>
+        <v>185.3569450378418</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -7623,19 +7623,19 @@
         <v>215</v>
       </c>
       <c r="B203">
-        <v>189.7799987792969</v>
+        <v>189.5980558390635</v>
       </c>
       <c r="C203">
-        <v>191.0800018310547</v>
+        <v>190.0774550781323</v>
       </c>
       <c r="D203">
-        <v>189.3999938964844</v>
+        <v>187.9501647678746</v>
       </c>
       <c r="E203">
-        <v>190.3999938964844</v>
+        <v>189.7079162597656</v>
       </c>
       <c r="F203">
-        <v>38415400</v>
+        <v>48794400</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -7644,10 +7644,10 @@
         <v>0</v>
       </c>
       <c r="I203">
-        <v>190.4219970703125</v>
+        <v>189.6539916992188</v>
       </c>
       <c r="J203">
-        <v>184.6522346496582</v>
+        <v>186.1663566589355</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -7655,19 +7655,19 @@
         <v>216</v>
       </c>
       <c r="B204">
-        <v>190.8999938964844</v>
+        <v>190.0874481470916</v>
       </c>
       <c r="C204">
-        <v>192.0899963378906</v>
+        <v>191.3158763866251</v>
       </c>
       <c r="D204">
-        <v>188.9700012207031</v>
+        <v>188.9888438747651</v>
       </c>
       <c r="E204">
-        <v>189.3699951171875</v>
+        <v>190.9962921142578</v>
       </c>
       <c r="F204">
-        <v>43014200</v>
+        <v>45679300</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="I204">
-        <v>190.1679962158203</v>
+        <v>189.9076690673828</v>
       </c>
       <c r="J204">
-        <v>185.5934684753418</v>
+        <v>186.860652923584</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -7687,19 +7687,19 @@
         <v>217</v>
       </c>
       <c r="B205">
-        <v>189.8399963378906</v>
+        <v>189.7378855027077</v>
       </c>
       <c r="C205">
-        <v>190.3200073242188</v>
+        <v>189.8078036096963</v>
       </c>
       <c r="D205">
-        <v>188.1900024414062</v>
+        <v>187.2111109501034</v>
       </c>
       <c r="E205">
-        <v>189.9499969482422</v>
+        <v>189.1885833740234</v>
       </c>
       <c r="F205">
-        <v>48794400</v>
+        <v>43389500</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -7708,10 +7708,10 @@
         <v>0</v>
       </c>
       <c r="I205">
-        <v>189.89599609375</v>
+        <v>189.8357604980469</v>
       </c>
       <c r="J205">
-        <v>186.4039131164551</v>
+        <v>187.5104454040527</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -7719,19 +7719,19 @@
         <v>218</v>
       </c>
       <c r="B206">
-        <v>190.3300018310547</v>
+        <v>189.9676069826232</v>
       </c>
       <c r="C206">
-        <v>191.5599975585938</v>
+        <v>194.1522545315138</v>
       </c>
       <c r="D206">
-        <v>189.2299957275391</v>
+        <v>189.9376311938118</v>
       </c>
       <c r="E206">
-        <v>191.2400054931641</v>
+        <v>193.1735076904297</v>
       </c>
       <c r="F206">
-        <v>45679300</v>
+        <v>66628400</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -7740,10 +7740,10 @@
         <v>0</v>
       </c>
       <c r="I206">
-        <v>190.1499969482422</v>
+        <v>190.4389923095703</v>
       </c>
       <c r="J206">
-        <v>187.0990943908691</v>
+        <v>188.2308174133301</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -7751,19 +7751,19 @@
         <v>219</v>
       </c>
       <c r="B207">
-        <v>189.9799957275391</v>
+        <v>194.2021958854124</v>
       </c>
       <c r="C207">
-        <v>190.0500030517578</v>
+        <v>194.5117983927041</v>
       </c>
       <c r="D207">
-        <v>187.4499969482422</v>
+        <v>191.8651815664915</v>
       </c>
       <c r="E207">
-        <v>189.4299926757812</v>
+        <v>192.0749206542969</v>
       </c>
       <c r="F207">
-        <v>43389500</v>
+        <v>41089700</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -7772,10 +7772,10 @@
         <v>0</v>
       </c>
       <c r="I207">
-        <v>190.0779968261719</v>
+        <v>191.0282440185547</v>
       </c>
       <c r="J207">
-        <v>187.749715423584</v>
+        <v>188.7670951843262</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -7783,19 +7783,19 @@
         <v>220</v>
       </c>
       <c r="B208">
-        <v>190.2100067138672</v>
+        <v>193.3832466328422</v>
       </c>
       <c r="C208">
-        <v>194.3999938964844</v>
+        <v>194.7514958553385</v>
       </c>
       <c r="D208">
-        <v>190.1799926757812</v>
+        <v>193.343289074019</v>
       </c>
       <c r="E208">
-        <v>193.4199981689453</v>
+        <v>194.0224304199219</v>
       </c>
       <c r="F208">
-        <v>66628400</v>
+        <v>47477700</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -7804,10 +7804,10 @@
         <v>0</v>
       </c>
       <c r="I208">
-        <v>190.6819976806641</v>
+        <v>191.8911468505859</v>
       </c>
       <c r="J208">
-        <v>188.4710060119629</v>
+        <v>189.347386932373</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -7815,19 +7815,19 @@
         <v>221</v>
       </c>
       <c r="B209">
-        <v>194.4499969482422</v>
+        <v>193.9525011952535</v>
       </c>
       <c r="C209">
-        <v>194.7599945068359</v>
+        <v>195.7402284862123</v>
       </c>
       <c r="D209">
-        <v>192.1100006103516</v>
+        <v>193.4231778662606</v>
       </c>
       <c r="E209">
-        <v>192.3200073242188</v>
+        <v>195.4605865478516</v>
       </c>
       <c r="F209">
-        <v>41089700</v>
+        <v>53377300</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -7836,10 +7836,10 @@
         <v>0</v>
       </c>
       <c r="I209">
-        <v>191.2720001220703</v>
+        <v>192.7840057373047</v>
       </c>
       <c r="J209">
-        <v>189.007967376709</v>
+        <v>190.0235244750976</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -7847,19 +7847,19 @@
         <v>222</v>
       </c>
       <c r="B210">
-        <v>193.6300048828125</v>
+        <v>192.863904504317</v>
       </c>
       <c r="C210">
-        <v>195</v>
+        <v>193.2434251153588</v>
       </c>
       <c r="D210">
-        <v>193.5899963378906</v>
+        <v>191.1760557733282</v>
       </c>
       <c r="E210">
-        <v>194.2700042724609</v>
+        <v>192.9338073730469</v>
       </c>
       <c r="F210">
-        <v>47477700</v>
+        <v>60943700</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -7868,10 +7868,10 @@
         <v>0</v>
       </c>
       <c r="I210">
-        <v>192.1360015869141</v>
+        <v>193.5330505371094</v>
       </c>
       <c r="J210">
-        <v>189.5889991760254</v>
+        <v>190.362092590332</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -7879,19 +7879,19 @@
         <v>223</v>
       </c>
       <c r="B211">
-        <v>194.1999969482422</v>
+        <v>192.8339406815026</v>
       </c>
       <c r="C211">
-        <v>195.9900054931641</v>
+        <v>194.4718500559695</v>
       </c>
       <c r="D211">
-        <v>193.6699981689453</v>
+        <v>191.4756732558952</v>
       </c>
       <c r="E211">
-        <v>195.7100067138672</v>
+        <v>194.4618682861328</v>
       </c>
       <c r="F211">
-        <v>53377300</v>
+        <v>52696900</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -7900,10 +7900,10 @@
         <v>0</v>
       </c>
       <c r="I211">
-        <v>193.0300018310547</v>
+        <v>193.79072265625</v>
       </c>
       <c r="J211">
-        <v>190.2659996032715</v>
+        <v>190.8569610595703</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -7911,19 +7911,19 @@
         <v>224</v>
       </c>
       <c r="B212">
-        <v>193.1100006103516</v>
+        <v>194.8413651852308</v>
       </c>
       <c r="C212">
-        <v>193.4900054931641</v>
+        <v>197.7476602124622</v>
       </c>
       <c r="D212">
-        <v>191.4199981689453</v>
+        <v>194.6016808048192</v>
       </c>
       <c r="E212">
-        <v>193.1799926757812</v>
+        <v>197.7077178955078</v>
       </c>
       <c r="F212">
-        <v>60943700</v>
+        <v>70404200</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -7932,10 +7932,10 @@
         <v>0</v>
       </c>
       <c r="I212">
-        <v>193.7800018310547</v>
+        <v>194.9172821044922</v>
       </c>
       <c r="J212">
-        <v>190.6049995422363</v>
+        <v>191.3822906494141</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -7943,19 +7943,19 @@
         <v>225</v>
       </c>
       <c r="B213">
-        <v>193.0800018310547</v>
+        <v>197.7676470402107</v>
       </c>
       <c r="C213">
-        <v>194.7200012207031</v>
+        <v>199.3655988522512</v>
       </c>
       <c r="D213">
-        <v>191.7200012207031</v>
+        <v>195.910016819698</v>
       </c>
       <c r="E213">
-        <v>194.7100067138672</v>
+        <v>197.8575286865234</v>
       </c>
       <c r="F213">
-        <v>52696900</v>
+        <v>66831600</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -7964,10 +7964,10 @@
         <v>0</v>
       </c>
       <c r="I213">
-        <v>194.0380035400391</v>
+        <v>195.6843017578125</v>
       </c>
       <c r="J213">
-        <v>191.1004997253418</v>
+        <v>191.8866477966309</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -7975,19 +7975,19 @@
         <v>226</v>
       </c>
       <c r="B214">
-        <v>195.0899963378906</v>
+        <v>197.2782644882836</v>
       </c>
       <c r="C214">
-        <v>198</v>
+        <v>198.1471508746182</v>
       </c>
       <c r="D214">
-        <v>194.8500061035156</v>
+        <v>196.7489411449598</v>
       </c>
       <c r="E214">
-        <v>197.9600067138672</v>
+        <v>197.3182220458984</v>
       </c>
       <c r="F214">
-        <v>70404200</v>
+        <v>128256700</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -7996,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="I214">
-        <v>195.1660034179687</v>
+        <v>196.0558288574219</v>
       </c>
       <c r="J214">
-        <v>191.6264999389649</v>
+        <v>192.2791465759277</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -8007,19 +8007,19 @@
         <v>227</v>
       </c>
       <c r="B215">
-        <v>198.0200042724609</v>
+        <v>195.8400924069524</v>
       </c>
       <c r="C215">
-        <v>199.6199951171875</v>
+        <v>196.3794127461491</v>
       </c>
       <c r="D215">
-        <v>196.1600036621094</v>
+        <v>194.1422619941168</v>
       </c>
       <c r="E215">
-        <v>198.1100006103516</v>
+        <v>195.6403503417969</v>
       </c>
       <c r="F215">
-        <v>66831600</v>
+        <v>55751900</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -8028,10 +8028,10 @@
         <v>0</v>
       </c>
       <c r="I215">
-        <v>195.9340026855469</v>
+        <v>196.5971374511719</v>
       </c>
       <c r="J215">
-        <v>192.1315002441406</v>
+        <v>192.5887512207031</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -8039,19 +8039,19 @@
         <v>228</v>
       </c>
       <c r="B216">
-        <v>197.5299987792969</v>
+        <v>195.9100211150961</v>
       </c>
       <c r="C216">
-        <v>198.3999938964844</v>
+        <v>196.6990076489343</v>
       </c>
       <c r="D216">
-        <v>197</v>
+        <v>195.6403609309023</v>
       </c>
       <c r="E216">
-        <v>197.5700073242188</v>
+        <v>196.6890258789062</v>
       </c>
       <c r="F216">
-        <v>128256700</v>
+        <v>40714100</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="I216">
-        <v>196.3060028076172</v>
+        <v>197.0425689697266</v>
       </c>
       <c r="J216">
-        <v>192.5245002746582</v>
+        <v>192.8629020690918</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -8071,19 +8071,19 @@
         <v>229</v>
       </c>
       <c r="B217">
-        <v>196.0899963378906</v>
+        <v>196.6490648865698</v>
       </c>
       <c r="C217">
-        <v>196.6300048828125</v>
+        <v>197.4280696367784</v>
       </c>
       <c r="D217">
-        <v>194.3899993896484</v>
+        <v>194.5817108154297</v>
       </c>
       <c r="E217">
-        <v>195.8899993896484</v>
+        <v>194.5817108154297</v>
       </c>
       <c r="F217">
-        <v>55751900</v>
+        <v>52242800</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -8092,10 +8092,10 @@
         <v>0</v>
       </c>
       <c r="I217">
-        <v>196.8480041503906</v>
+        <v>196.4173675537109</v>
       </c>
       <c r="J217">
-        <v>192.8345001220703</v>
+        <v>193.0721351623535</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -8103,19 +8103,19 @@
         <v>230</v>
       </c>
       <c r="B218">
-        <v>196.1600036621094</v>
+        <v>195.8500884718821</v>
       </c>
       <c r="C218">
-        <v>196.9499969482422</v>
+        <v>196.8288352539667</v>
       </c>
       <c r="D218">
-        <v>195.8899993896484</v>
+        <v>193.2533959193476</v>
       </c>
       <c r="E218">
-        <v>196.9400024414062</v>
+        <v>194.431884765625</v>
       </c>
       <c r="F218">
-        <v>40714100</v>
+        <v>46482500</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -8124,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="I218">
-        <v>197.2940032958984</v>
+        <v>195.7322387695312</v>
       </c>
       <c r="J218">
-        <v>193.1090003967285</v>
+        <v>193.2404197692871</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -8135,19 +8135,19 @@
         <v>231</v>
       </c>
       <c r="B219">
-        <v>196.8999938964844</v>
+        <v>194.9312598171643</v>
       </c>
       <c r="C219">
-        <v>197.6799926757812</v>
+        <v>195.1609776828228</v>
       </c>
       <c r="D219">
-        <v>194.8300018310547</v>
+        <v>192.7240847239714</v>
       </c>
       <c r="E219">
-        <v>194.8300018310547</v>
+        <v>193.3532867431641</v>
       </c>
       <c r="F219">
-        <v>52242800</v>
+        <v>37122800</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -8156,10 +8156,10 @@
         <v>0</v>
       </c>
       <c r="I219">
-        <v>196.6680023193359</v>
+        <v>194.9392517089844</v>
       </c>
       <c r="J219">
-        <v>193.3185005187988</v>
+        <v>193.4216888427734</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -8167,19 +8167,19 @@
         <v>232</v>
       </c>
       <c r="B220">
-        <v>196.1000061035156</v>
+        <v>193.3632695092693</v>
       </c>
       <c r="C220">
-        <v>197.0800018310547</v>
+        <v>193.6429114660523</v>
       </c>
       <c r="D220">
-        <v>193.5</v>
+        <v>192.5842647383245</v>
       </c>
       <c r="E220">
-        <v>194.6799926757812</v>
+        <v>192.8039855957031</v>
       </c>
       <c r="F220">
-        <v>46482500</v>
+        <v>28919300</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -8188,10 +8188,10 @@
         <v>0</v>
       </c>
       <c r="I220">
-        <v>195.9820007324219</v>
+        <v>194.3719787597656</v>
       </c>
       <c r="J220">
-        <v>193.4870002746582</v>
+        <v>193.5844818115234</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -8199,19 +8199,19 @@
         <v>233</v>
       </c>
       <c r="B221">
-        <v>195.1799926757812</v>
+        <v>192.2446918123762</v>
       </c>
       <c r="C221">
-        <v>195.4100036621094</v>
+        <v>193.2533991590325</v>
       </c>
       <c r="D221">
-        <v>192.9700012207031</v>
+        <v>190.8464668609015</v>
       </c>
       <c r="E221">
-        <v>193.6000061035156</v>
+        <v>192.9038391113281</v>
       </c>
       <c r="F221">
-        <v>37122800</v>
+        <v>48087700</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -8220,10 +8220,19 @@
         <v>0</v>
       </c>
       <c r="I221">
-        <v>195.1880004882813</v>
+        <v>193.61494140625</v>
       </c>
       <c r="J221">
-        <v>193.6685005187988</v>
+        <v>193.7218063354492</v>
+      </c>
+      <c r="L221">
+        <v>193.8925816105714</v>
+      </c>
+      <c r="M221">
+        <v>15.17639733218363</v>
+      </c>
+      <c r="N221">
+        <v>35</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -8231,19 +8240,19 @@
         <v>234</v>
       </c>
       <c r="B222">
-        <v>193.6100006103516</v>
+        <v>193.8925816105714</v>
       </c>
       <c r="C222">
-        <v>193.8899993896484</v>
+        <v>194.411923174149</v>
       </c>
       <c r="D222">
-        <v>192.8300018310547</v>
+        <v>192.9238165882225</v>
       </c>
       <c r="E222">
-        <v>193.0500030517578</v>
+        <v>193.3332977294922</v>
       </c>
       <c r="F222">
-        <v>28919300</v>
+        <v>34049900</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -8252,10 +8261,10 @@
         <v>0</v>
       </c>
       <c r="I222">
-        <v>194.6200012207031</v>
+        <v>193.3652587890625</v>
       </c>
       <c r="J222">
-        <v>193.8315010070801</v>
+        <v>193.9320381164551</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -8263,19 +8272,19 @@
         <v>235</v>
       </c>
       <c r="B223">
-        <v>192.4900054931641</v>
+        <v>193.6528866387712</v>
       </c>
       <c r="C223">
-        <v>193.5</v>
+        <v>194.1522494359205</v>
       </c>
       <c r="D223">
-        <v>191.0899963378906</v>
+        <v>191.4856539278643</v>
       </c>
       <c r="E223">
-        <v>193.1499938964844</v>
+        <v>192.2846374511719</v>
       </c>
       <c r="F223">
-        <v>48087700</v>
+        <v>42628800</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -8284,19 +8293,10 @@
         <v>0</v>
       </c>
       <c r="I223">
-        <v>193.8619995117188</v>
+        <v>192.9358093261719</v>
       </c>
       <c r="J223">
-        <v>193.9690010070801</v>
-      </c>
-      <c r="L223">
-        <v>194.1399993896484</v>
-      </c>
-      <c r="M223">
-        <v>15.19576044406867</v>
-      </c>
-      <c r="N223">
-        <v>35</v>
+        <v>194.0608741760254</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -8304,19 +8304,19 @@
         <v>236</v>
       </c>
       <c r="B224">
-        <v>194.1399993896484</v>
+        <v>186.9114819707375</v>
       </c>
       <c r="C224">
-        <v>194.6600036621094</v>
+        <v>188.1998464738089</v>
       </c>
       <c r="D224">
-        <v>193.1699981689453</v>
+        <v>183.6556421397931</v>
       </c>
       <c r="E224">
-        <v>193.5800018310547</v>
+        <v>185.4034118652344</v>
       </c>
       <c r="F224">
-        <v>34049900</v>
+        <v>82488700</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -8325,10 +8325,10 @@
         <v>0</v>
       </c>
       <c r="I224">
-        <v>193.6119995117188</v>
+        <v>191.3458343505859</v>
       </c>
       <c r="J224">
-        <v>194.1795013427734</v>
+        <v>193.7812301635742</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -8336,19 +8336,19 @@
         <v>237</v>
       </c>
       <c r="B225">
-        <v>193.8999938964844</v>
+        <v>183.9852372040843</v>
       </c>
       <c r="C225">
-        <v>194.3999938964844</v>
+        <v>185.6431254111685</v>
       </c>
       <c r="D225">
-        <v>191.7299957275391</v>
+        <v>183.1962354205235</v>
       </c>
       <c r="E225">
-        <v>192.5299987792969</v>
+        <v>184.0151977539062</v>
       </c>
       <c r="F225">
-        <v>42628800</v>
+        <v>58414500</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -8357,10 +8357,10 @@
         <v>0</v>
       </c>
       <c r="I225">
-        <v>193.1820007324219</v>
+        <v>189.5880767822266</v>
       </c>
       <c r="J225">
-        <v>194.3085014343262</v>
+        <v>193.5225608825684</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -8368,19 +8368,19 @@
         <v>238</v>
       </c>
       <c r="B226">
-        <v>187.1499938964844</v>
+        <v>181.9178612698145</v>
       </c>
       <c r="C226">
-        <v>188.4400024414062</v>
+        <v>182.8566657686289</v>
       </c>
       <c r="D226">
-        <v>183.8899993896484</v>
+        <v>180.6494907348441</v>
       </c>
       <c r="E226">
-        <v>185.6399993896484</v>
+        <v>181.6781768798828</v>
       </c>
       <c r="F226">
-        <v>82488700</v>
+        <v>71983600</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -8389,10 +8389,10 @@
         <v>0</v>
       </c>
       <c r="I226">
-        <v>191.5899993896484</v>
+        <v>187.3429443359375</v>
       </c>
       <c r="J226">
-        <v>194.0285011291504</v>
+        <v>192.947794342041</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -8400,19 +8400,19 @@
         <v>239</v>
       </c>
       <c r="B227">
-        <v>184.2200012207031</v>
+        <v>181.7580772157817</v>
       </c>
       <c r="C227">
-        <v>185.8800048828125</v>
+        <v>182.5270849545475</v>
       </c>
       <c r="D227">
-        <v>183.4299926757812</v>
+        <v>179.9403893110408</v>
       </c>
       <c r="E227">
-        <v>184.25</v>
+        <v>180.9490966796875</v>
       </c>
       <c r="F227">
-        <v>58414500</v>
+        <v>62303300</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -8421,10 +8421,10 @@
         <v>0</v>
       </c>
       <c r="I227">
-        <v>189.8299987792969</v>
+        <v>184.8661041259766</v>
       </c>
       <c r="J227">
-        <v>193.7695014953613</v>
+        <v>192.3915031433106</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -8432,19 +8432,19 @@
         <v>240</v>
       </c>
       <c r="B228">
-        <v>182.1499938964844</v>
+        <v>181.8579378516286</v>
       </c>
       <c r="C228">
-        <v>183.0899963378906</v>
+        <v>185.3634744030773</v>
       </c>
       <c r="D228">
-        <v>180.8800048828125</v>
+        <v>181.2686934147749</v>
       </c>
       <c r="E228">
-        <v>181.9100036621094</v>
+        <v>185.3235168457031</v>
       </c>
       <c r="F228">
-        <v>71983600</v>
+        <v>59144500</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="I228">
-        <v>187.5820007324219</v>
+        <v>183.4738800048828</v>
       </c>
       <c r="J228">
-        <v>193.1940017700195</v>
+        <v>191.9565574645996</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -8464,19 +8464,19 @@
         <v>241</v>
       </c>
       <c r="B229">
-        <v>181.9900054931641</v>
+        <v>183.6856063111678</v>
       </c>
       <c r="C229">
-        <v>182.7599945068359</v>
+        <v>184.9140345039825</v>
       </c>
       <c r="D229">
-        <v>180.1699981689453</v>
+        <v>182.4971204361262</v>
       </c>
       <c r="E229">
-        <v>181.1799926757812</v>
+        <v>184.904052734375</v>
       </c>
       <c r="F229">
-        <v>62303300</v>
+        <v>42841800</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -8485,10 +8485,10 @@
         <v>0</v>
       </c>
       <c r="I229">
-        <v>185.1019989013672</v>
+        <v>183.3740081787109</v>
       </c>
       <c r="J229">
-        <v>192.6370010375977</v>
+        <v>191.4287307739258</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -8496,19 +8496,19 @@
         <v>242</v>
       </c>
       <c r="B230">
-        <v>182.0899963378906</v>
+        <v>184.1150616539879</v>
       </c>
       <c r="C230">
-        <v>185.6000061035156</v>
+        <v>186.1624368446371</v>
       </c>
       <c r="D230">
-        <v>181.5</v>
+        <v>183.68560174206</v>
       </c>
       <c r="E230">
-        <v>185.5599975585938</v>
+        <v>185.9527130126953</v>
       </c>
       <c r="F230">
-        <v>59144500</v>
+        <v>46792900</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -8517,10 +8517,10 @@
         <v>0</v>
       </c>
       <c r="I230">
-        <v>183.7079986572266</v>
+        <v>183.7615112304688</v>
       </c>
       <c r="J230">
-        <v>192.2015007019043</v>
+        <v>191.0796760559082</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -8528,19 +8528,19 @@
         <v>243</v>
       </c>
       <c r="B231">
-        <v>183.9199981689453</v>
+        <v>186.3022714034112</v>
       </c>
       <c r="C231">
-        <v>185.1499938964844</v>
+        <v>186.8116312253992</v>
       </c>
       <c r="D231">
-        <v>182.7299957275391</v>
+        <v>183.3859944068003</v>
       </c>
       <c r="E231">
-        <v>185.1399993896484</v>
+        <v>185.3534851074219</v>
       </c>
       <c r="F231">
-        <v>42841800</v>
+        <v>49128400</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="I231">
-        <v>183.6079986572266</v>
+        <v>184.4965728759766</v>
       </c>
       <c r="J231">
-        <v>191.6730003356934</v>
+        <v>190.6242568969727</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -8560,19 +8560,19 @@
         <v>244</v>
       </c>
       <c r="B232">
-        <v>184.3500061035156</v>
+        <v>185.8228806652798</v>
       </c>
       <c r="C232">
-        <v>186.3999938964844</v>
+        <v>186.5020219903103</v>
       </c>
       <c r="D232">
-        <v>183.9199981689453</v>
+        <v>184.953994279373</v>
       </c>
       <c r="E232">
-        <v>186.1900024414062</v>
+        <v>185.6830596923828</v>
       </c>
       <c r="F232">
-        <v>46792900</v>
+        <v>40444700</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -8581,10 +8581,10 @@
         <v>0</v>
       </c>
       <c r="I232">
-        <v>183.9959991455078</v>
+        <v>185.4433654785156</v>
       </c>
       <c r="J232">
-        <v>191.3235008239746</v>
+        <v>190.0230239868164</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -8592,19 +8592,19 @@
         <v>245</v>
       </c>
       <c r="B233">
-        <v>186.5399932861328</v>
+        <v>181.9278530316018</v>
       </c>
       <c r="C233">
-        <v>187.0500030517578</v>
+        <v>184.0251675797272</v>
       </c>
       <c r="D233">
-        <v>183.6199951171875</v>
+        <v>180.699409611261</v>
       </c>
       <c r="E233">
-        <v>185.5899963378906</v>
+        <v>183.3959808349609</v>
       </c>
       <c r="F233">
-        <v>49128400</v>
+        <v>65603000</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -8613,10 +8613,10 @@
         <v>0</v>
       </c>
       <c r="I233">
-        <v>184.7319976806641</v>
+        <v>185.0578582763672</v>
       </c>
       <c r="J233">
-        <v>190.8675003051758</v>
+        <v>189.2999465942383</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -8624,19 +8624,19 @@
         <v>246</v>
       </c>
       <c r="B234">
-        <v>186.0599975585938</v>
+        <v>181.0389977857893</v>
       </c>
       <c r="C234">
-        <v>186.7400054931641</v>
+        <v>182.6968707365806</v>
       </c>
       <c r="D234">
-        <v>185.1900024414062</v>
+        <v>180.0702327132011</v>
       </c>
       <c r="E234">
-        <v>185.9199981689453</v>
+        <v>182.4471893310547</v>
       </c>
       <c r="F234">
-        <v>40444700</v>
+        <v>47317400</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -8645,10 +8645,10 @@
         <v>0</v>
       </c>
       <c r="I234">
-        <v>185.6799987792969</v>
+        <v>184.5664855957031</v>
       </c>
       <c r="J234">
-        <v>190.2654998779297</v>
+        <v>188.5563949584961</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -8656,19 +8656,19 @@
         <v>247</v>
       </c>
       <c r="B235">
-        <v>182.1600036621094</v>
+        <v>185.85284631994</v>
       </c>
       <c r="C235">
-        <v>184.2599945068359</v>
+        <v>188.8989624981812</v>
       </c>
       <c r="D235">
-        <v>180.9299926757812</v>
+        <v>185.5931831458096</v>
       </c>
       <c r="E235">
-        <v>183.6300048828125</v>
+        <v>188.3896179199219</v>
       </c>
       <c r="F235">
-        <v>65603000</v>
+        <v>78005800</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -8677,10 +8677,10 @@
         <v>0</v>
       </c>
       <c r="I235">
-        <v>185.2940002441406</v>
+        <v>185.0538665771484</v>
       </c>
       <c r="J235">
-        <v>189.5415000915527</v>
+        <v>188.1938583374023</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -8688,19 +8688,19 @@
         <v>248</v>
       </c>
       <c r="B236">
-        <v>181.2700042724609</v>
+        <v>189.0887183865945</v>
       </c>
       <c r="C236">
-        <v>182.9299926757812</v>
+        <v>191.7053745641516</v>
       </c>
       <c r="D236">
-        <v>180.3000030517578</v>
+        <v>188.5793738202333</v>
       </c>
       <c r="E236">
-        <v>182.6799926757812</v>
+        <v>191.3158721923828</v>
       </c>
       <c r="F236">
-        <v>47317400</v>
+        <v>68741000</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -8709,10 +8709,10 @@
         <v>0</v>
       </c>
       <c r="I236">
-        <v>184.8019989013672</v>
+        <v>186.2463439941406</v>
       </c>
       <c r="J236">
-        <v>188.7969993591309</v>
+        <v>187.9252006530762</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -8720,19 +8720,19 @@
         <v>249</v>
       </c>
       <c r="B237">
-        <v>186.0899963378906</v>
+        <v>192.0549285738183</v>
       </c>
       <c r="C237">
-        <v>189.1399993896484</v>
+        <v>195.0810658067958</v>
       </c>
       <c r="D237">
-        <v>185.8300018310547</v>
+        <v>192.0149710173161</v>
       </c>
       <c r="E237">
-        <v>188.6300048828125</v>
+        <v>193.6428985595703</v>
       </c>
       <c r="F237">
-        <v>78005800</v>
+        <v>60133900</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -8741,10 +8741,10 @@
         <v>0</v>
       </c>
       <c r="I237">
-        <v>185.2899993896484</v>
+        <v>187.8383117675781</v>
       </c>
       <c r="J237">
-        <v>188.4339996337891</v>
+        <v>187.8782600402832</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -8752,19 +8752,19 @@
         <v>250</v>
       </c>
       <c r="B238">
-        <v>189.3300018310547</v>
+        <v>194.7714746380085</v>
       </c>
       <c r="C238">
-        <v>191.9499969482422</v>
+        <v>195.5005400734373</v>
       </c>
       <c r="D238">
-        <v>188.8200073242188</v>
+        <v>193.5829887121662</v>
       </c>
       <c r="E238">
-        <v>191.5599975585938</v>
+        <v>194.9312591552734</v>
       </c>
       <c r="F238">
-        <v>68741000</v>
+        <v>42355600</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -8773,10 +8773,13 @@
         <v>0</v>
       </c>
       <c r="I238">
-        <v>186.4839996337891</v>
+        <v>190.1453674316406</v>
       </c>
       <c r="J238">
-        <v>188.1649993896484</v>
+        <v>187.9032287597656</v>
+      </c>
+      <c r="K238">
+        <v>195.170946656038</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -8784,19 +8787,19 @@
         <v>251</v>
       </c>
       <c r="B239">
-        <v>192.3000030517578</v>
+        <v>195.170946656038</v>
       </c>
       <c r="C239">
-        <v>195.3300018310547</v>
+        <v>196.1297298967359</v>
       </c>
       <c r="D239">
-        <v>192.2599945068359</v>
+        <v>194.0923212250063</v>
       </c>
       <c r="E239">
-        <v>193.8899993896484</v>
+        <v>194.2521209716797</v>
       </c>
       <c r="F239">
-        <v>60133900</v>
+        <v>53631300</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -8805,10 +8808,10 @@
         <v>0</v>
       </c>
       <c r="I239">
-        <v>188.0779998779297</v>
+        <v>192.5063537597656</v>
       </c>
       <c r="J239">
-        <v>188.1179992675781</v>
+        <v>187.9481704711914</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -8816,19 +8819,19 @@
         <v>252</v>
       </c>
       <c r="B240">
-        <v>195.0200042724609</v>
+        <v>194.9712113062782</v>
       </c>
       <c r="C240">
-        <v>195.75</v>
+        <v>196.0198762258377</v>
       </c>
       <c r="D240">
-        <v>193.8300018310547</v>
+        <v>192.8638996974019</v>
       </c>
       <c r="E240">
-        <v>195.1799926757812</v>
+        <v>193.9225463867188</v>
       </c>
       <c r="F240">
-        <v>42355600</v>
+        <v>54822100</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -8837,13 +8840,10 @@
         <v>0</v>
       </c>
       <c r="I240">
-        <v>190.3879974365234</v>
+        <v>193.612939453125</v>
       </c>
       <c r="J240">
-        <v>188.1429992675781</v>
-      </c>
-      <c r="K240">
-        <v>195.4199981689453</v>
+        <v>188.0040985107422</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -8851,19 +8851,19 @@
         <v>253</v>
       </c>
       <c r="B241">
-        <v>195.4199981689453</v>
+        <v>194.02242258765</v>
       </c>
       <c r="C241">
-        <v>196.3800048828125</v>
+        <v>194.5117883684032</v>
       </c>
       <c r="D241">
-        <v>194.3399963378906</v>
+        <v>191.6953901587997</v>
       </c>
       <c r="E241">
-        <v>194.5</v>
+        <v>192.1747741699219</v>
       </c>
       <c r="F241">
-        <v>53631300</v>
+        <v>44594000</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -8872,10 +8872,10 @@
         <v>0</v>
       </c>
       <c r="I241">
-        <v>192.7519989013672</v>
+        <v>193.7847198486328</v>
       </c>
       <c r="J241">
-        <v>188.1879989624023</v>
+        <v>187.9676452636719</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -8883,19 +8883,19 @@
         <v>254</v>
       </c>
       <c r="B242">
-        <v>195.2200012207031</v>
+        <v>191.7652986896417</v>
       </c>
       <c r="C242">
-        <v>196.2700042724609</v>
+        <v>191.9550589936385</v>
       </c>
       <c r="D242">
-        <v>193.1100006103516</v>
+        <v>189.3384027747614</v>
       </c>
       <c r="E242">
-        <v>194.1699981689453</v>
+        <v>191.4856567382812</v>
       </c>
       <c r="F242">
-        <v>54822100</v>
+        <v>47145600</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -8904,10 +8904,10 @@
         <v>0</v>
       </c>
       <c r="I242">
-        <v>193.8599975585938</v>
+        <v>193.353271484375</v>
       </c>
       <c r="J242">
-        <v>188.2439987182617</v>
+        <v>187.8752632141113</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -8915,19 +8915,19 @@
         <v>255</v>
       </c>
       <c r="B243">
-        <v>194.2700042724609</v>
+        <v>190.6966673703197</v>
       </c>
       <c r="C243">
-        <v>194.7599945068359</v>
+        <v>191.555571990795</v>
       </c>
       <c r="D243">
-        <v>191.9400024414062</v>
+        <v>187.2310883397439</v>
       </c>
       <c r="E243">
-        <v>192.4199981689453</v>
+        <v>187.8003540039062</v>
       </c>
       <c r="F243">
-        <v>44594000</v>
+        <v>55859400</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="I243">
-        <v>194.0319976806641</v>
+        <v>191.9270904541016</v>
       </c>
       <c r="J243">
-        <v>188.2074989318848</v>
+        <v>187.6510490417481</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -8947,19 +8947,19 @@
         <v>256</v>
       </c>
       <c r="B244">
-        <v>192.0099945068359</v>
+        <v>186.8016282425468</v>
       </c>
       <c r="C244">
-        <v>192.1999969482422</v>
+        <v>186.8615645791857</v>
       </c>
       <c r="D244">
-        <v>189.5800018310547</v>
+        <v>184.1150691979485</v>
       </c>
       <c r="E244">
-        <v>191.7299957275391</v>
+        <v>184.1649932861328</v>
       </c>
       <c r="F244">
-        <v>47145600</v>
+        <v>55467800</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -8968,10 +8968,10 @@
         <v>0</v>
       </c>
       <c r="I244">
-        <v>193.5999969482422</v>
+        <v>189.9096649169922</v>
       </c>
       <c r="J244">
-        <v>188.114998626709</v>
+        <v>187.589128112793</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -8979,19 +8979,19 @@
         <v>257</v>
       </c>
       <c r="B245">
-        <v>190.9400024414062</v>
+        <v>183.7555342649372</v>
       </c>
       <c r="C245">
-        <v>191.8000030517578</v>
+        <v>186.711753597556</v>
       </c>
       <c r="D245">
-        <v>187.4700012207031</v>
+        <v>183.5857527364521</v>
       </c>
       <c r="E245">
-        <v>188.0399932861328</v>
+        <v>186.6218719482422</v>
       </c>
       <c r="F245">
-        <v>55859400</v>
+        <v>64885400</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -9000,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="I245">
-        <v>192.1719970703125</v>
+        <v>188.4495300292969</v>
       </c>
       <c r="J245">
-        <v>187.8904983520508</v>
+        <v>187.7194618225098</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -9011,19 +9011,19 @@
         <v>258</v>
       </c>
       <c r="B246">
-        <v>187.0399932861328</v>
+        <v>179.6307873390829</v>
       </c>
       <c r="C246">
-        <v>187.1000061035156</v>
+        <v>187.0912688032511</v>
       </c>
       <c r="D246">
-        <v>184.3500061035156</v>
+        <v>179.0215641124459</v>
       </c>
       <c r="E246">
-        <v>184.3999938964844</v>
+        <v>185.6131591796875</v>
       </c>
       <c r="F246">
-        <v>55467800</v>
+        <v>102518000</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -9032,10 +9032,19 @@
         <v>0</v>
       </c>
       <c r="I246">
-        <v>190.1519958496094</v>
+        <v>187.13720703125</v>
       </c>
       <c r="J246">
-        <v>187.8284980773926</v>
+        <v>187.9162109375</v>
+      </c>
+      <c r="L246">
+        <v>187.9102134030252</v>
+      </c>
+      <c r="M246">
+        <v>-7.260733253012802</v>
+      </c>
+      <c r="N246">
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -9043,19 +9052,19 @@
         <v>259</v>
       </c>
       <c r="B247">
-        <v>183.9900054931641</v>
+        <v>187.9102134030252</v>
       </c>
       <c r="C247">
-        <v>186.9499969482422</v>
+        <v>189.0088176462439</v>
       </c>
       <c r="D247">
-        <v>183.8200073242188</v>
+        <v>185.603159731609</v>
       </c>
       <c r="E247">
-        <v>186.8600006103516</v>
+        <v>187.4408111572266</v>
       </c>
       <c r="F247">
-        <v>64885400</v>
+        <v>69668800</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -9064,10 +9073,10 @@
         <v>0</v>
       </c>
       <c r="I247">
-        <v>188.6899963378906</v>
+        <v>186.3282379150391</v>
       </c>
       <c r="J247">
-        <v>187.9589981079102</v>
+        <v>188.2407966613769</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -9075,19 +9084,19 @@
         <v>260</v>
       </c>
       <c r="B248">
-        <v>179.8600006103516</v>
+        <v>186.6218686625627</v>
       </c>
       <c r="C248">
-        <v>187.3300018310547</v>
+        <v>189.0687433666465</v>
       </c>
       <c r="D248">
-        <v>179.25</v>
+        <v>186.5319870148314</v>
       </c>
       <c r="E248">
-        <v>185.8500061035156</v>
+        <v>189.0587615966797</v>
       </c>
       <c r="F248">
-        <v>102518000</v>
+        <v>43490800</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -9096,19 +9105,10 @@
         <v>0</v>
       </c>
       <c r="I248">
-        <v>187.3759979248047</v>
+        <v>186.5799194335937</v>
       </c>
       <c r="J248">
-        <v>188.1559982299805</v>
-      </c>
-      <c r="L248">
-        <v>188.1499938964844</v>
-      </c>
-      <c r="M248">
-        <v>-7.270004272460938</v>
-      </c>
-      <c r="N248">
-        <v>8</v>
+        <v>188.4275588989258</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -9116,19 +9116,19 @@
         <v>261</v>
       </c>
       <c r="B249">
-        <v>188.1499938964844</v>
+        <v>190.3970531334899</v>
       </c>
       <c r="C249">
-        <v>189.25</v>
+        <v>190.8065342984578</v>
       </c>
       <c r="D249">
-        <v>185.8399963378906</v>
+        <v>188.3696413275722</v>
       </c>
       <c r="E249">
-        <v>187.6799926757812</v>
+        <v>189.1686248779297</v>
       </c>
       <c r="F249">
-        <v>69668800</v>
+        <v>53439000</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -9137,10 +9137,10 @@
         <v>0</v>
       </c>
       <c r="I249">
-        <v>186.5659973144531</v>
+        <v>187.5806457519531</v>
       </c>
       <c r="J249">
-        <v>188.4809982299805</v>
+        <v>188.6407875061035</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -9148,19 +9148,19 @@
         <v>262</v>
       </c>
       <c r="B250">
-        <v>186.8600006103516</v>
+        <v>189.148645584561</v>
       </c>
       <c r="C250">
-        <v>189.3099975585938</v>
+        <v>189.2984483326332</v>
       </c>
       <c r="D250">
-        <v>186.7700042724609</v>
+        <v>187.1112520140602</v>
       </c>
       <c r="E250">
-        <v>189.3000030517578</v>
+        <v>188.0800170898438</v>
       </c>
       <c r="F250">
-        <v>43490800</v>
+        <v>40962000</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -9169,10 +9169,10 @@
         <v>0</v>
       </c>
       <c r="I250">
-        <v>186.8179992675781</v>
+        <v>187.8722747802734</v>
       </c>
       <c r="J250">
-        <v>188.6679985046387</v>
+        <v>188.7471527099609</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -9180,31 +9180,31 @@
         <v>263</v>
       </c>
       <c r="B251">
-        <v>190.6399993896484</v>
+        <v>188.6499938964844</v>
       </c>
       <c r="C251">
-        <v>191.0500030517578</v>
+        <v>189.9900054931641</v>
       </c>
       <c r="D251">
-        <v>188.6100006103516</v>
+        <v>188</v>
       </c>
       <c r="E251">
-        <v>189.4100036621094</v>
+        <v>188.8500061035156</v>
       </c>
       <c r="F251">
-        <v>53439000</v>
+        <v>45099900</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H251">
         <v>0</v>
       </c>
       <c r="I251">
-        <v>187.8200012207031</v>
+        <v>188.5196441650391</v>
       </c>
       <c r="J251">
-        <v>188.8814987182617</v>
+        <v>188.9219787597656</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -9212,19 +9212,19 @@
         <v>264</v>
       </c>
       <c r="B252">
-        <v>189.3899993896484</v>
+        <v>188.4199981689453</v>
       </c>
       <c r="C252">
-        <v>189.5399932861328</v>
+        <v>188.6699981689453</v>
       </c>
       <c r="D252">
-        <v>187.3500061035156</v>
+        <v>186.7899932861328</v>
       </c>
       <c r="E252">
-        <v>188.3200073242188</v>
+        <v>187.1499938964844</v>
       </c>
       <c r="F252">
-        <v>40928600</v>
+        <v>41738500</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -9233,10 +9233,10 @@
         <v>0</v>
       </c>
       <c r="I252">
-        <v>188.1120025634766</v>
+        <v>188.4614807128906</v>
       </c>
       <c r="J252">
-        <v>188.9879989624023</v>
+        <v>188.9953254699707</v>
       </c>
     </row>
   </sheetData>

--- a/02-output/stock.xlsx
+++ b/02-output/stock.xlsx
@@ -58,9 +58,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13</t>
-  </si>
-  <si>
     <t>2023-02-14</t>
   </si>
   <si>
@@ -809,6 +806,9 @@
   </si>
   <si>
     <t>2024-02-12</t>
+  </si>
+  <si>
+    <t>2024-02-13</t>
   </si>
 </sst>
 </file>
@@ -1221,19 +1221,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>150.1485604266238</v>
+        <v>151.3123441630185</v>
       </c>
       <c r="C2">
-        <v>153.4409842655517</v>
+        <v>152.9535929218193</v>
       </c>
       <c r="D2">
-        <v>150.1187209193893</v>
+        <v>150.0590393472051</v>
       </c>
       <c r="E2">
-        <v>153.0331726074219</v>
+        <v>152.3866119384766</v>
       </c>
       <c r="F2">
-        <v>62199000</v>
+        <v>61707600</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>151.3123290117981</v>
+        <v>152.2970804238483</v>
       </c>
       <c r="C3">
-        <v>152.9535776062572</v>
+        <v>154.6743903827487</v>
       </c>
       <c r="D3">
-        <v>150.0590243214808</v>
+        <v>152.0683058325445</v>
       </c>
       <c r="E3">
-        <v>152.3865966796875</v>
+        <v>154.5052947998047</v>
       </c>
       <c r="F3">
-        <v>61707600</v>
+        <v>65573800</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1273,19 +1273,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>152.2970954645563</v>
+        <v>152.6949401296009</v>
       </c>
       <c r="C4">
-        <v>154.6744056582375</v>
+        <v>155.499974752395</v>
       </c>
       <c r="D4">
-        <v>152.068320850659</v>
+        <v>152.5358011774766</v>
       </c>
       <c r="E4">
-        <v>154.5053100585938</v>
+        <v>152.8938903808594</v>
       </c>
       <c r="F4">
-        <v>65573800</v>
+        <v>68167900</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1299,19 +1299,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>152.6949401296009</v>
+        <v>151.5411314275361</v>
       </c>
       <c r="C5">
-        <v>155.499974752395</v>
+        <v>152.1876742995286</v>
       </c>
       <c r="D5">
-        <v>152.5358011774766</v>
+        <v>150.0490954049917</v>
       </c>
       <c r="E5">
-        <v>152.8938903808594</v>
+        <v>151.7400665283203</v>
       </c>
       <c r="F5">
-        <v>68167900</v>
+        <v>59144100</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1325,19 +1325,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>151.5411161887517</v>
+        <v>149.4025348069726</v>
       </c>
       <c r="C6">
-        <v>152.1876589957286</v>
+        <v>150.4967006092862</v>
       </c>
       <c r="D6">
-        <v>150.0490803162446</v>
+        <v>147.6220451953259</v>
       </c>
       <c r="E6">
-        <v>151.7400512695312</v>
+        <v>147.6916656494141</v>
       </c>
       <c r="F6">
-        <v>59144100</v>
+        <v>58867200</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>152.9118041992188</v>
+        <v>151.843505859375</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1354,19 +1354,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>149.4025348069726</v>
+        <v>148.0795733863405</v>
       </c>
       <c r="C7">
-        <v>150.4967006092862</v>
+        <v>149.1538409731242</v>
       </c>
       <c r="D7">
-        <v>147.6220451953259</v>
+        <v>146.378661090596</v>
       </c>
       <c r="E7">
-        <v>147.6916656494141</v>
+        <v>148.1193695068359</v>
       </c>
       <c r="F7">
-        <v>58867200</v>
+        <v>51011300</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>151.8435028076172</v>
+        <v>150.9900573730469</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1383,19 +1383,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>148.0795886410299</v>
+        <v>149.2931200011247</v>
       </c>
       <c r="C8">
-        <v>149.1538563384813</v>
+        <v>149.5417926702629</v>
       </c>
       <c r="D8">
-        <v>146.3786761700627</v>
+        <v>146.4582606796148</v>
       </c>
       <c r="E8">
-        <v>148.119384765625</v>
+        <v>148.6067810058594</v>
       </c>
       <c r="F8">
-        <v>51011300</v>
+        <v>48394200</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>150.9900604248047</v>
+        <v>149.8103546142578</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1412,19 +1412,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>149.2931200011247</v>
+        <v>146.3289309495096</v>
       </c>
       <c r="C9">
-        <v>149.5417926702629</v>
+        <v>146.4085080167631</v>
       </c>
       <c r="D9">
-        <v>146.4582606796148</v>
+        <v>144.9463116587486</v>
       </c>
       <c r="E9">
-        <v>148.6067810058594</v>
+        <v>145.9310607910156</v>
       </c>
       <c r="F9">
-        <v>48394200</v>
+        <v>55469600</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>149.8103546142578</v>
+        <v>148.4177886962891</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1441,19 +1441,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>146.3289309495096</v>
+        <v>146.9257670114552</v>
       </c>
       <c r="C10">
-        <v>146.4085080167631</v>
+        <v>148.3780069046065</v>
       </c>
       <c r="D10">
-        <v>144.9463116587486</v>
+        <v>146.6671377208959</v>
       </c>
       <c r="E10">
-        <v>145.9310607910156</v>
+        <v>147.1346435546875</v>
       </c>
       <c r="F10">
-        <v>55469600</v>
+        <v>44998500</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>148.4177886962891</v>
+        <v>147.4967041015625</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1470,19 +1470,19 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>146.9257670114552</v>
+        <v>146.2692606185238</v>
       </c>
       <c r="C11">
-        <v>148.3780069046065</v>
+        <v>148.2884813892963</v>
       </c>
       <c r="D11">
-        <v>146.6671377208959</v>
+        <v>146.0504274650414</v>
       </c>
       <c r="E11">
-        <v>147.1346435546875</v>
+        <v>146.6273498535156</v>
       </c>
       <c r="F11">
-        <v>44998500</v>
+        <v>50547000</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>147.4967071533203</v>
+        <v>147.2838409423828</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1499,19 +1499,19 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>146.2692606185238</v>
+        <v>146.0504474019233</v>
       </c>
       <c r="C12">
-        <v>148.2884813892963</v>
+        <v>146.4483176383263</v>
       </c>
       <c r="D12">
-        <v>146.0504274650414</v>
+        <v>144.2401029174032</v>
       </c>
       <c r="E12">
-        <v>146.6273498535156</v>
+        <v>144.5385131835938</v>
       </c>
       <c r="F12">
-        <v>50547000</v>
+        <v>55479000</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>147.2838439941406</v>
+        <v>146.5676696777344</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1528,19 +1528,19 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>146.0504474019233</v>
+        <v>143.6134545750437</v>
       </c>
       <c r="C13">
-        <v>146.4483176383263</v>
+        <v>145.9310858315015</v>
       </c>
       <c r="D13">
-        <v>144.2401029174032</v>
+        <v>143.1359920895942</v>
       </c>
       <c r="E13">
-        <v>144.5385131835938</v>
+        <v>145.1353302001953</v>
       </c>
       <c r="F13">
-        <v>55479000</v>
+        <v>52238100</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>146.5676696777344</v>
+        <v>145.8733795166016</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1557,19 +1557,19 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>143.6134545750437</v>
+        <v>147.2540035190913</v>
       </c>
       <c r="C14">
-        <v>145.9310858315015</v>
+        <v>150.3077112320495</v>
       </c>
       <c r="D14">
-        <v>143.1359920895942</v>
+        <v>146.5477816265888</v>
       </c>
       <c r="E14">
-        <v>145.1353302001953</v>
+        <v>150.2281341552734</v>
       </c>
       <c r="F14">
-        <v>52238100</v>
+        <v>70732300</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>145.8733795166016</v>
+        <v>146.7327941894531</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1586,19 +1586,19 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>147.2540035190913</v>
+        <v>152.9734790181643</v>
       </c>
       <c r="C15">
-        <v>150.3077112320495</v>
+        <v>155.4701624369798</v>
       </c>
       <c r="D15">
-        <v>146.5477816265888</v>
+        <v>152.6452444372912</v>
       </c>
       <c r="E15">
-        <v>150.2281341552734</v>
+        <v>153.0132751464844</v>
       </c>
       <c r="F15">
-        <v>70732300</v>
+        <v>87558000</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>146.7327941894531</v>
+        <v>147.9085205078125</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1615,19 +1615,19 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>152.9734790181643</v>
+        <v>152.8839616586681</v>
       </c>
       <c r="C16">
-        <v>155.4701624369798</v>
+        <v>153.2122114198132</v>
       </c>
       <c r="D16">
-        <v>152.6452444372912</v>
+        <v>150.3276143834854</v>
       </c>
       <c r="E16">
-        <v>153.0132751464844</v>
+        <v>150.7951202392578</v>
       </c>
       <c r="F16">
-        <v>87558000</v>
+        <v>56182000</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>147.9085205078125</v>
+        <v>148.7420745849609</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1644,19 +1644,19 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>152.8839461885115</v>
+        <v>151.9986858536599</v>
       </c>
       <c r="C17">
-        <v>153.2121959164414</v>
+        <v>152.6551853687572</v>
       </c>
       <c r="D17">
-        <v>150.3275991720027</v>
+        <v>151.0238932019486</v>
       </c>
       <c r="E17">
-        <v>150.7951049804688</v>
+        <v>152.0583648681641</v>
       </c>
       <c r="F17">
-        <v>56182000</v>
+        <v>47204800</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>148.7420715332031</v>
+        <v>150.246044921875</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1673,19 +1673,19 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>151.9986706008595</v>
+        <v>152.744698851292</v>
       </c>
       <c r="C18">
-        <v>152.6551700500782</v>
+        <v>153.7194914708438</v>
       </c>
       <c r="D18">
-        <v>151.023878046967</v>
+        <v>149.4323770556068</v>
       </c>
       <c r="E18">
-        <v>152.058349609375</v>
+        <v>149.7904663085938</v>
       </c>
       <c r="F18">
-        <v>47204800</v>
+        <v>53833600</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>150.2460388183594</v>
+        <v>151.1770721435547</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1702,19 +1702,19 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>152.744698851292</v>
+        <v>149.4124753838311</v>
       </c>
       <c r="C19">
-        <v>153.7194914708438</v>
+        <v>150.1385952413383</v>
       </c>
       <c r="D19">
-        <v>149.4323770556068</v>
+        <v>146.826273862122</v>
       </c>
       <c r="E19">
-        <v>149.7904663085938</v>
+        <v>147.7115478515625</v>
       </c>
       <c r="F19">
-        <v>53833600</v>
+        <v>68572400</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>151.1770660400391</v>
+        <v>150.6737548828125</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1731,19 +1731,19 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>149.4124753838311</v>
+        <v>147.0252311343609</v>
       </c>
       <c r="C20">
-        <v>150.1385952413383</v>
+        <v>152.3269344298145</v>
       </c>
       <c r="D20">
-        <v>146.826273862122</v>
+        <v>146.91581454936</v>
       </c>
       <c r="E20">
-        <v>147.7115478515625</v>
+        <v>149.6711120605469</v>
       </c>
       <c r="F20">
-        <v>68572400</v>
+        <v>84457100</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>150.6737487792969</v>
+        <v>150.005322265625</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1760,19 +1760,19 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>147.0252161453162</v>
+        <v>150.4768038378683</v>
       </c>
       <c r="C21">
-        <v>152.3269189002675</v>
+        <v>152.5855432083099</v>
       </c>
       <c r="D21">
-        <v>146.9157995714702</v>
+        <v>149.3030761287433</v>
       </c>
       <c r="E21">
-        <v>149.6710968017578</v>
+        <v>151.7798461914062</v>
       </c>
       <c r="F21">
-        <v>84457100</v>
+        <v>73695900</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1781,13 +1781,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>150.0053131103516</v>
+        <v>150.2022674560547</v>
       </c>
       <c r="J21">
-        <v>149.5805862426758</v>
+        <v>149.5179222106934</v>
       </c>
       <c r="K21">
-        <v>150.4768189656594</v>
+        <v>150.3872730152664</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1795,19 +1795,19 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>150.4768189656594</v>
+        <v>150.3872730152664</v>
       </c>
       <c r="C22">
-        <v>152.5855585480976</v>
+        <v>152.4363332061019</v>
       </c>
       <c r="D22">
-        <v>149.3030911385368</v>
+        <v>149.124011713798</v>
       </c>
       <c r="E22">
-        <v>151.7798614501953</v>
+        <v>152.1777191162109</v>
       </c>
       <c r="F22">
-        <v>73695900</v>
+        <v>77167900</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>150.2022644042969</v>
+        <v>150.2261383056641</v>
       </c>
       <c r="J22">
-        <v>149.5179206848144</v>
+        <v>149.5074775695801</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1827,19 +1827,19 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>150.3872730152664</v>
+        <v>151.3521264617654</v>
       </c>
       <c r="C23">
-        <v>152.4363332061019</v>
+        <v>155.6292991090587</v>
       </c>
       <c r="D23">
-        <v>149.124011713798</v>
+        <v>150.8348830961505</v>
       </c>
       <c r="E23">
-        <v>152.1777191162109</v>
+        <v>155.0225372314453</v>
       </c>
       <c r="F23">
-        <v>77167900</v>
+        <v>76161100</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1848,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>150.2261383056641</v>
+        <v>151.2725524902344</v>
       </c>
       <c r="J23">
-        <v>149.5074768066406</v>
+        <v>149.5333396911621</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1859,19 +1859,19 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>151.3521264617654</v>
+        <v>155.251315431779</v>
       </c>
       <c r="C24">
-        <v>155.6292991090587</v>
+        <v>155.9078148905834</v>
       </c>
       <c r="D24">
-        <v>150.8348830961505</v>
+        <v>153.460869261301</v>
       </c>
       <c r="E24">
-        <v>155.0225372314453</v>
+        <v>154.1770477294922</v>
       </c>
       <c r="F24">
-        <v>76161100</v>
+        <v>98944600</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>151.2725524902344</v>
+        <v>152.5656524658203</v>
       </c>
       <c r="J24">
-        <v>149.5333381652832</v>
+        <v>149.5974975585937</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1891,19 +1891,19 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>155.251315431779</v>
+        <v>154.2466847042426</v>
       </c>
       <c r="C25">
-        <v>155.9078148905834</v>
+        <v>156.9820839620101</v>
       </c>
       <c r="D25">
-        <v>153.460869261301</v>
+        <v>153.3315559597478</v>
       </c>
       <c r="E25">
-        <v>154.1770477294922</v>
+        <v>156.5643005371094</v>
       </c>
       <c r="F25">
-        <v>98944600</v>
+        <v>73641400</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>152.5656524658203</v>
+        <v>153.9442901611328</v>
       </c>
       <c r="J25">
-        <v>149.5974960327148</v>
+        <v>149.8387092590332</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1923,19 +1923,19 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>154.2466847042426</v>
+        <v>156.48474098938</v>
       </c>
       <c r="C26">
-        <v>156.9820839620101</v>
+        <v>158.5536841934798</v>
       </c>
       <c r="D26">
-        <v>153.3315559597478</v>
+        <v>155.708868315624</v>
       </c>
       <c r="E26">
-        <v>156.5643005371094</v>
+        <v>158.434326171875</v>
       </c>
       <c r="F26">
-        <v>73641400</v>
+        <v>73938300</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1944,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>153.9442932128906</v>
+        <v>155.2751861572266</v>
       </c>
       <c r="J26">
-        <v>149.8387084960937</v>
+        <v>150.3758422851562</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1955,19 +1955,19 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>156.48474098938</v>
+        <v>158.4542160535843</v>
       </c>
       <c r="C27">
-        <v>158.5536841934798</v>
+        <v>161.2791337227277</v>
       </c>
       <c r="D27">
-        <v>155.708868315624</v>
+        <v>156.9721215914886</v>
       </c>
       <c r="E27">
-        <v>158.434326171875</v>
+        <v>156.9920196533203</v>
       </c>
       <c r="F27">
-        <v>73938300</v>
+        <v>75701800</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>155.2751861572266</v>
+        <v>156.2380462646484</v>
       </c>
       <c r="J27">
-        <v>150.3758415222168</v>
+        <v>150.8194747924805</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1987,19 +1987,19 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>158.4542160535843</v>
+        <v>157.9867216798227</v>
       </c>
       <c r="C28">
-        <v>161.2791337227277</v>
+        <v>160.6922815291583</v>
       </c>
       <c r="D28">
-        <v>156.9721215914886</v>
+        <v>156.8428182972823</v>
       </c>
       <c r="E28">
-        <v>156.9920196533203</v>
+        <v>158.086181640625</v>
       </c>
       <c r="F28">
-        <v>75701800</v>
+        <v>67622100</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>156.2380462646484</v>
+        <v>156.8507751464844</v>
       </c>
       <c r="J28">
-        <v>150.8194732666016</v>
+        <v>151.2934448242187</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2019,19 +2019,19 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>157.9867064306337</v>
+        <v>158.0165505839538</v>
       </c>
       <c r="C29">
-        <v>160.6922660188234</v>
+        <v>159.4886884339235</v>
       </c>
       <c r="D29">
-        <v>156.8428031585052</v>
+        <v>157.0119185339363</v>
       </c>
       <c r="E29">
-        <v>158.0861663818359</v>
+        <v>159.399169921875</v>
       </c>
       <c r="F29">
-        <v>67622100</v>
+        <v>59196500</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2040,10 +2040,10 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>156.8507720947266</v>
+        <v>157.8951995849609</v>
       </c>
       <c r="J29">
-        <v>151.2934425354004</v>
+        <v>151.9668502807617</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2051,19 +2051,19 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>158.0165505839538</v>
+        <v>159.0908109476066</v>
       </c>
       <c r="C30">
-        <v>159.4886884339235</v>
+        <v>159.9164059355701</v>
       </c>
       <c r="D30">
-        <v>157.0119185339363</v>
+        <v>157.0317941985098</v>
       </c>
       <c r="E30">
-        <v>159.399169921875</v>
+        <v>157.4396209716797</v>
       </c>
       <c r="F30">
-        <v>59196500</v>
+        <v>52390300</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>157.8951965332031</v>
+        <v>158.070263671875</v>
       </c>
       <c r="J30">
-        <v>151.9668479919434</v>
+        <v>152.4820991516113</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2083,19 +2083,19 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>159.0908263664263</v>
+        <v>157.1312660222166</v>
       </c>
       <c r="C31">
-        <v>159.9164214344051</v>
+        <v>157.6485093534653</v>
       </c>
       <c r="D31">
-        <v>157.0318094177729</v>
+        <v>155.151826381046</v>
       </c>
       <c r="E31">
-        <v>157.4396362304688</v>
+        <v>156.8129577636719</v>
       </c>
       <c r="F31">
-        <v>52390300</v>
+        <v>45992200</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2104,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>158.070263671875</v>
+        <v>157.7459899902344</v>
       </c>
       <c r="J31">
-        <v>152.4820976257324</v>
+        <v>152.9913795471192</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2115,19 +2115,19 @@
         <v>44</v>
       </c>
       <c r="B32">
-        <v>157.1312660222166</v>
+        <v>158.5238364038753</v>
       </c>
       <c r="C32">
-        <v>157.6485093534653</v>
+        <v>160.1949245078889</v>
       </c>
       <c r="D32">
-        <v>155.151826381046</v>
+        <v>158.5039535198301</v>
       </c>
       <c r="E32">
-        <v>156.8129577636719</v>
+        <v>159.9164123535156</v>
       </c>
       <c r="F32">
-        <v>45992200</v>
+        <v>51305700</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2136,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>157.7459899902344</v>
+        <v>158.3308685302734</v>
       </c>
       <c r="J32">
-        <v>152.9913780212402</v>
+        <v>153.7602745056152</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2147,19 +2147,19 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>158.5238515297885</v>
+        <v>160.6723755404659</v>
       </c>
       <c r="C33">
-        <v>160.1949397932528</v>
+        <v>161.6073871569827</v>
       </c>
       <c r="D33">
-        <v>158.5039686438462</v>
+        <v>160.4137614418063</v>
       </c>
       <c r="E33">
-        <v>159.9164276123047</v>
+        <v>161.4979705810547</v>
       </c>
       <c r="F33">
-        <v>51305700</v>
+        <v>49501700</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>158.3308715820312</v>
+        <v>159.0132263183594</v>
       </c>
       <c r="J33">
-        <v>153.7602737426758</v>
+        <v>154.5784065246582</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2179,19 +2179,19 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>160.6723755404659</v>
+        <v>161.5775447028789</v>
       </c>
       <c r="C34">
-        <v>161.6073871569827</v>
+        <v>164.1239502295111</v>
       </c>
       <c r="D34">
-        <v>160.4137614418063</v>
+        <v>161.0503598951515</v>
       </c>
       <c r="E34">
-        <v>161.4979705810547</v>
+        <v>164.0244750976562</v>
       </c>
       <c r="F34">
-        <v>49501700</v>
+        <v>68749800</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2200,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>159.013232421875</v>
+        <v>159.9382873535156</v>
       </c>
       <c r="J34">
-        <v>154.5784057617188</v>
+        <v>155.2682235717774</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2211,19 +2211,19 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>161.5775597340361</v>
+        <v>163.3978440030139</v>
       </c>
       <c r="C35">
-        <v>164.1239654975541</v>
+        <v>165.4071082701306</v>
       </c>
       <c r="D35">
-        <v>161.050374877266</v>
+        <v>163.3481064329263</v>
       </c>
       <c r="E35">
-        <v>164.0244903564453</v>
+        <v>165.2877502441406</v>
       </c>
       <c r="F35">
-        <v>68749800</v>
+        <v>56976200</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2232,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>159.9382965087891</v>
+        <v>161.5079132080078</v>
       </c>
       <c r="J35">
-        <v>155.2682235717774</v>
+        <v>155.8819473266602</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2243,19 +2243,19 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>163.3978440030139</v>
+        <v>165.7154768042323</v>
       </c>
       <c r="C36">
-        <v>165.4071082701306</v>
+        <v>165.9541928586188</v>
       </c>
       <c r="D36">
-        <v>163.3481064329263</v>
+        <v>164.2333821962213</v>
       </c>
       <c r="E36">
-        <v>165.2877502441406</v>
+        <v>164.7506256103516</v>
       </c>
       <c r="F36">
-        <v>56976200</v>
+        <v>46278300</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2264,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>161.5079193115234</v>
+        <v>163.0954467773437</v>
       </c>
       <c r="J36">
-        <v>155.8819473266602</v>
+        <v>156.5797225952148</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2275,19 +2275,19 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>165.7154768042323</v>
+        <v>163.8653412006972</v>
       </c>
       <c r="C37">
-        <v>165.9541928586188</v>
+        <v>164.1736928700945</v>
       </c>
       <c r="D37">
-        <v>164.2333821962213</v>
+        <v>160.9409482959518</v>
       </c>
       <c r="E37">
-        <v>164.7506256103516</v>
+        <v>162.8905334472656</v>
       </c>
       <c r="F37">
-        <v>46278300</v>
+        <v>51511700</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>163.0954528808594</v>
+        <v>163.6902709960937</v>
       </c>
       <c r="J37">
-        <v>156.5797233581543</v>
+        <v>157.1213310241699</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2307,19 +2307,19 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>163.8653412006972</v>
+        <v>161.5676105690256</v>
       </c>
       <c r="C38">
-        <v>164.1736928700945</v>
+        <v>164.0841921196728</v>
       </c>
       <c r="D38">
-        <v>160.9409482959518</v>
+        <v>161.1399008336269</v>
       </c>
       <c r="E38">
-        <v>162.8905334472656</v>
+        <v>163.7857818603516</v>
       </c>
       <c r="F38">
-        <v>51511700</v>
+        <v>45390100</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2328,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>163.6902740478516</v>
+        <v>164.1478332519531</v>
       </c>
       <c r="J38">
-        <v>157.1213325500488</v>
+        <v>157.8210968017578</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2339,19 +2339,19 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>161.5675955168882</v>
+        <v>160.5629616120048</v>
       </c>
       <c r="C39">
-        <v>164.0841768330829</v>
+        <v>161.1697235107422</v>
       </c>
       <c r="D39">
-        <v>161.1398858213363</v>
+        <v>159.2300797943766</v>
       </c>
       <c r="E39">
-        <v>163.7857666015625</v>
+        <v>161.1697235107422</v>
       </c>
       <c r="F39">
-        <v>45390100</v>
+        <v>47716900</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>164.1478332519531</v>
+        <v>163.5768829345703</v>
       </c>
       <c r="J39">
-        <v>157.8210975646973</v>
+        <v>158.4940055847168</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2371,19 +2371,19 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>160.5629616120048</v>
+        <v>161.488032078235</v>
       </c>
       <c r="C40">
-        <v>161.1697235107422</v>
+        <v>161.4979735206733</v>
       </c>
       <c r="D40">
-        <v>159.2300797943766</v>
+        <v>159.6577897586907</v>
       </c>
       <c r="E40">
-        <v>161.1697235107422</v>
+        <v>159.9462585449219</v>
       </c>
       <c r="F40">
-        <v>47716900</v>
+        <v>47644200</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>163.5768798828125</v>
+        <v>162.5085845947266</v>
       </c>
       <c r="J40">
-        <v>158.4940063476562</v>
+        <v>159.0077629089355</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2403,19 +2403,19 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>161.488032078235</v>
+        <v>160.3640488170674</v>
       </c>
       <c r="C41">
-        <v>161.4979735206733</v>
+        <v>161.199585429868</v>
       </c>
       <c r="D41">
-        <v>159.6577897586907</v>
+        <v>158.9316916649654</v>
       </c>
       <c r="E41">
-        <v>159.9462585449219</v>
+        <v>159.25</v>
       </c>
       <c r="F41">
-        <v>47644200</v>
+        <v>50133100</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2424,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>162.5085815429688</v>
+        <v>161.4084594726563</v>
       </c>
       <c r="J41">
-        <v>159.0077644348144</v>
+        <v>159.3812705993652</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2435,19 +2435,19 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>160.3640488170674</v>
+        <v>160.7718425622075</v>
       </c>
       <c r="C42">
-        <v>161.199585429868</v>
+        <v>164.9197004403809</v>
       </c>
       <c r="D42">
-        <v>158.9316916649654</v>
+        <v>160.5629508631487</v>
       </c>
       <c r="E42">
-        <v>159.25</v>
+        <v>164.6809692382812</v>
       </c>
       <c r="F42">
-        <v>50133100</v>
+        <v>68445600</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>161.4084564208984</v>
+        <v>161.7665466308594</v>
       </c>
       <c r="J42">
-        <v>159.3812713623047</v>
+        <v>160.0064331054687</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2467,19 +2467,19 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>160.7718574587899</v>
+        <v>163.7161214757051</v>
       </c>
       <c r="C43">
-        <v>164.9197157212899</v>
+        <v>165.4369471339702</v>
       </c>
       <c r="D43">
-        <v>160.5629657403759</v>
+        <v>162.9502206451438</v>
       </c>
       <c r="E43">
-        <v>164.6809844970703</v>
+        <v>164.3328399658203</v>
       </c>
       <c r="F43">
-        <v>68445600</v>
+        <v>49386500</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>161.7665466308594</v>
+        <v>161.8759582519531</v>
       </c>
       <c r="J43">
-        <v>160.0064346313476</v>
+        <v>160.4719482421875</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2499,19 +2499,19 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>163.71613667723</v>
+        <v>164.2134813381434</v>
       </c>
       <c r="C44">
-        <v>165.4369624952788</v>
+        <v>164.5118915788244</v>
       </c>
       <c r="D44">
-        <v>162.9502357755526</v>
+        <v>163.1591116418091</v>
       </c>
       <c r="E44">
-        <v>164.3328552246094</v>
+        <v>164.3527374267578</v>
       </c>
       <c r="F44">
-        <v>49386500</v>
+        <v>41516200</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>161.8759643554687</v>
+        <v>162.5125610351562</v>
       </c>
       <c r="J44">
-        <v>160.4719505310059</v>
+        <v>160.9807327270508</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2531,19 +2531,19 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>164.2134813381434</v>
+        <v>165.2181356700812</v>
       </c>
       <c r="C45">
-        <v>164.5118915788244</v>
+        <v>166.5211780927788</v>
       </c>
       <c r="D45">
-        <v>163.1591116418091</v>
+        <v>164.7705127011323</v>
       </c>
       <c r="E45">
-        <v>164.3527374267578</v>
+        <v>165.5861663818359</v>
       </c>
       <c r="F45">
-        <v>41516200</v>
+        <v>49923000</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>162.5125671386719</v>
+        <v>163.6405426025391</v>
       </c>
       <c r="J45">
-        <v>160.9807350158691</v>
+        <v>161.4318260192871</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2563,19 +2563,19 @@
         <v>58</v>
       </c>
       <c r="B46">
-        <v>165.2181356700812</v>
+        <v>164.919704613956</v>
       </c>
       <c r="C46">
-        <v>166.5211780927788</v>
+        <v>167.2671750384676</v>
       </c>
       <c r="D46">
-        <v>164.7705127011323</v>
+        <v>164.6610753440263</v>
       </c>
       <c r="E46">
-        <v>165.5861663818359</v>
+        <v>166.739990234375</v>
       </c>
       <c r="F46">
-        <v>49923000</v>
+        <v>47720200</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2584,10 +2584,10 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>163.6405487060547</v>
+        <v>165.1385406494141</v>
       </c>
       <c r="J46">
-        <v>161.4318283081055</v>
+        <v>161.8471092224121</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2595,19 +2595,19 @@
         <v>59</v>
       </c>
       <c r="B47">
-        <v>164.9197197061662</v>
+        <v>165.2081886023341</v>
       </c>
       <c r="C47">
-        <v>167.2671903455007</v>
+        <v>166.9787369828865</v>
       </c>
       <c r="D47">
-        <v>164.6610904125687</v>
+        <v>164.6810037012582</v>
       </c>
       <c r="E47">
-        <v>166.7400054931641</v>
+        <v>165.7652130126953</v>
       </c>
       <c r="F47">
-        <v>47720200</v>
+        <v>52456400</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>165.1385498046875</v>
+        <v>165.3553894042969</v>
       </c>
       <c r="J47">
-        <v>161.8471122741699</v>
+        <v>162.2857688903809</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2627,19 +2627,19 @@
         <v>60</v>
       </c>
       <c r="B48">
-        <v>165.2081429797903</v>
+        <v>164.1736993693865</v>
       </c>
       <c r="C48">
-        <v>166.9786908714025</v>
+        <v>165.5662602468821</v>
       </c>
       <c r="D48">
-        <v>164.6809582242975</v>
+        <v>163.6166750183883</v>
       </c>
       <c r="E48">
-        <v>165.7651672363281</v>
+        <v>164.1438598632812</v>
       </c>
       <c r="F48">
-        <v>52456400</v>
+        <v>58337300</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>165.3553863525391</v>
+        <v>165.3175933837891</v>
       </c>
       <c r="J48">
-        <v>162.2857696533203</v>
+        <v>162.5886528015137</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2659,19 +2659,19 @@
         <v>61</v>
       </c>
       <c r="B49">
-        <v>164.1737146309494</v>
+        <v>164.1239597318595</v>
       </c>
       <c r="C49">
-        <v>165.5662756378972</v>
+        <v>164.7207802019945</v>
       </c>
       <c r="D49">
-        <v>163.6166902281703</v>
+        <v>163.0198524865524</v>
       </c>
       <c r="E49">
-        <v>164.1438751220703</v>
+        <v>164.4522094726562</v>
       </c>
       <c r="F49">
-        <v>58337300</v>
+        <v>41949600</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2680,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>165.3175903320312</v>
+        <v>165.3374877929687</v>
       </c>
       <c r="J49">
-        <v>162.588655090332</v>
+        <v>162.8413047790527</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2691,19 +2691,19 @@
         <v>62</v>
       </c>
       <c r="B50">
-        <v>164.1239597318595</v>
+        <v>164.3129409942332</v>
       </c>
       <c r="C50">
-        <v>164.7207802019945</v>
+        <v>165.4269895981706</v>
       </c>
       <c r="D50">
-        <v>163.0198524865524</v>
+        <v>162.8606860545801</v>
       </c>
       <c r="E50">
-        <v>164.4522094726562</v>
+        <v>162.9004821777344</v>
       </c>
       <c r="F50">
-        <v>41949600</v>
+        <v>48714100</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>165.3374847412109</v>
+        <v>164.8003509521484</v>
       </c>
       <c r="J50">
-        <v>162.8413070678711</v>
+        <v>163.1143478393555</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2723,19 +2723,19 @@
         <v>63</v>
       </c>
       <c r="B51">
-        <v>164.3129563853264</v>
+        <v>162.1942530360821</v>
       </c>
       <c r="C51">
-        <v>165.4270050936161</v>
+        <v>164.4024674671031</v>
       </c>
       <c r="D51">
-        <v>162.8607013096415</v>
+        <v>161.9356389341496</v>
       </c>
       <c r="E51">
-        <v>162.9004974365234</v>
+        <v>162.8905334472656</v>
       </c>
       <c r="F51">
-        <v>48714100</v>
+        <v>45498800</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2744,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>164.8003509521484</v>
+        <v>164.0304595947266</v>
       </c>
       <c r="J51">
-        <v>163.1143501281738</v>
+        <v>163.4182266235352</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2755,19 +2755,19 @@
         <v>64</v>
       </c>
       <c r="B52">
-        <v>162.1942530360821</v>
+        <v>164.3129488152885</v>
       </c>
       <c r="C52">
-        <v>164.4024674671031</v>
+        <v>167.6650514063313</v>
       </c>
       <c r="D52">
-        <v>161.9356389341496</v>
+        <v>164.3129488152885</v>
       </c>
       <c r="E52">
-        <v>162.8905334472656</v>
+        <v>167.5158538818359</v>
       </c>
       <c r="F52">
-        <v>45498800</v>
+        <v>64902300</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>164.0304565429688</v>
+        <v>164.3805877685547</v>
       </c>
       <c r="J52">
-        <v>163.4182289123535</v>
+        <v>163.7981986999512</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2787,19 +2787,19 @@
         <v>65</v>
       </c>
       <c r="B53">
-        <v>164.3129338482477</v>
+        <v>167.5954445642703</v>
       </c>
       <c r="C53">
-        <v>167.665036133952</v>
+        <v>168.9482245480587</v>
       </c>
       <c r="D53">
-        <v>164.3129338482477</v>
+        <v>166.9886826190907</v>
       </c>
       <c r="E53">
-        <v>167.5158386230469</v>
+        <v>168.7791137695312</v>
       </c>
       <c r="F53">
-        <v>64902300</v>
+        <v>55209200</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2808,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>164.3805908203125</v>
+        <v>165.3076385498047</v>
       </c>
       <c r="J53">
-        <v>163.7981994628906</v>
+        <v>164.162255859375</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2819,19 +2819,19 @@
         <v>66</v>
       </c>
       <c r="B54">
-        <v>167.595429412493</v>
+        <v>168.3812387686828</v>
       </c>
       <c r="C54">
-        <v>168.9482092739808</v>
+        <v>169.5450250545095</v>
       </c>
       <c r="D54">
-        <v>166.9886675221689</v>
+        <v>167.7446373342705</v>
       </c>
       <c r="E54">
-        <v>168.7790985107422</v>
+        <v>168.6895904541016</v>
       </c>
       <c r="F54">
-        <v>55209200</v>
+        <v>52472900</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>165.3076354980469</v>
+        <v>166.1551147460937</v>
       </c>
       <c r="J54">
-        <v>164.162255859375</v>
+        <v>164.3955116271973</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2851,19 +2851,19 @@
         <v>67</v>
       </c>
       <c r="B55">
-        <v>168.3812387686828</v>
+        <v>169.1869304161675</v>
       </c>
       <c r="C55">
-        <v>169.5450250545095</v>
+        <v>169.4455597010841</v>
       </c>
       <c r="D55">
-        <v>167.7446373342705</v>
+        <v>166.6504662021187</v>
       </c>
       <c r="E55">
-        <v>168.6895904541016</v>
+        <v>167.6451568603516</v>
       </c>
       <c r="F55">
-        <v>52472900</v>
+        <v>48425700</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2872,10 +2872,10 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>166.1551116943359</v>
+        <v>167.1040496826172</v>
       </c>
       <c r="J55">
-        <v>164.3955108642578</v>
+        <v>164.5133819580078</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2883,19 +2883,19 @@
         <v>68</v>
       </c>
       <c r="B56">
-        <v>169.1869458152863</v>
+        <v>168.6000624384739</v>
       </c>
       <c r="C56">
-        <v>169.4455751237429</v>
+        <v>170.0125213172155</v>
       </c>
       <c r="D56">
-        <v>166.6504813703726</v>
+        <v>166.2724899979184</v>
       </c>
       <c r="E56">
-        <v>167.6451721191406</v>
+        <v>166.5609436035156</v>
       </c>
       <c r="F56">
-        <v>48425700</v>
+        <v>65136000</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2904,10 +2904,10 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>167.1040466308594</v>
+        <v>167.8381317138672</v>
       </c>
       <c r="J56">
-        <v>164.5133819580078</v>
+        <v>164.603897857666</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2915,19 +2915,19 @@
         <v>69</v>
       </c>
       <c r="B57">
-        <v>168.6000778840684</v>
+        <v>164.0145288135272</v>
       </c>
       <c r="C57">
-        <v>170.0125368922065</v>
+        <v>166.1531074853031</v>
       </c>
       <c r="D57">
-        <v>166.272505230282</v>
+        <v>163.4376064569043</v>
       </c>
       <c r="E57">
-        <v>166.5609588623047</v>
+        <v>164.9097442626953</v>
       </c>
       <c r="F57">
-        <v>65136000</v>
+        <v>81235400</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>167.8381317138672</v>
+        <v>167.3169097900391</v>
       </c>
       <c r="J57">
-        <v>164.6038986206055</v>
+        <v>164.7048583984375</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2947,19 +2947,19 @@
         <v>70</v>
       </c>
       <c r="B58">
-        <v>164.0145288135272</v>
+        <v>170.0721925990554</v>
       </c>
       <c r="C58">
-        <v>166.1531074853031</v>
+        <v>173.3745726387331</v>
       </c>
       <c r="D58">
-        <v>163.4376064569043</v>
+        <v>169.8533594553286</v>
       </c>
       <c r="E58">
-        <v>164.9097442626953</v>
+        <v>172.6484527587891</v>
       </c>
       <c r="F58">
-        <v>81235400</v>
+        <v>113316400</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2968,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>167.3169128417969</v>
+        <v>168.0907775878906</v>
       </c>
       <c r="J58">
-        <v>164.704859161377</v>
+        <v>165.1479919433594</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2979,19 +2979,19 @@
         <v>71</v>
       </c>
       <c r="B59">
-        <v>170.0722076301528</v>
+        <v>171.5642381966388</v>
       </c>
       <c r="C59">
-        <v>173.3745879616971</v>
+        <v>172.9269747011503</v>
       </c>
       <c r="D59">
-        <v>169.8533744670854</v>
+        <v>171.1962075148835</v>
       </c>
       <c r="E59">
-        <v>172.6484680175781</v>
+        <v>172.5788269042969</v>
       </c>
       <c r="F59">
-        <v>113316400</v>
+        <v>55962800</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>168.0907867431641</v>
+        <v>168.8686248779297</v>
       </c>
       <c r="J59">
-        <v>165.1479942321777</v>
+        <v>165.7184471130371</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3011,19 +3011,19 @@
         <v>72</v>
       </c>
       <c r="B60">
-        <v>171.564223027556</v>
+        <v>172.1312197838189</v>
       </c>
       <c r="C60">
-        <v>172.9269594115793</v>
+        <v>172.6186084878798</v>
       </c>
       <c r="D60">
-        <v>171.1961923783406</v>
+        <v>170.6889213788365</v>
       </c>
       <c r="E60">
-        <v>172.5788116455078</v>
+        <v>170.8580169677734</v>
       </c>
       <c r="F60">
-        <v>55962800</v>
+        <v>45326900</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3032,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>168.8686309814453</v>
+        <v>169.5111968994141</v>
       </c>
       <c r="J60">
-        <v>165.718448638916</v>
+        <v>166.2640350341797</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3043,19 +3043,19 @@
         <v>73</v>
       </c>
       <c r="B61">
-        <v>172.1312197838189</v>
+        <v>172.1013777641197</v>
       </c>
       <c r="C61">
-        <v>172.6186084878798</v>
+        <v>173.1060098405757</v>
       </c>
       <c r="D61">
-        <v>170.6889213788365</v>
+        <v>170.9873139330258</v>
       </c>
       <c r="E61">
-        <v>170.8580169677734</v>
+        <v>172.6385040283203</v>
       </c>
       <c r="F61">
-        <v>45326900</v>
+        <v>53724500</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3064,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>169.5111999511719</v>
+        <v>170.726708984375</v>
       </c>
       <c r="J61">
-        <v>166.2640365600586</v>
+        <v>166.9334602355957</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3075,19 +3075,19 @@
         <v>74</v>
       </c>
       <c r="B62">
-        <v>172.1013777641197</v>
+        <v>172.9269745251552</v>
       </c>
       <c r="C62">
-        <v>173.1060098405757</v>
+        <v>173.6630358879166</v>
       </c>
       <c r="D62">
-        <v>170.9873139330258</v>
+        <v>171.2558863508441</v>
       </c>
       <c r="E62">
-        <v>172.6385040283203</v>
+        <v>172.8274993896484</v>
       </c>
       <c r="F62">
-        <v>53724500</v>
+        <v>49514700</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>170.726708984375</v>
+        <v>172.3102600097656</v>
       </c>
       <c r="J62">
-        <v>166.9334617614746</v>
+        <v>167.3407867431641</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3107,31 +3107,31 @@
         <v>75</v>
       </c>
       <c r="B63">
-        <v>172.9269745251552</v>
+        <v>172.9370471582789</v>
       </c>
       <c r="C63">
-        <v>173.6630358879166</v>
+        <v>173.3753188153417</v>
       </c>
       <c r="D63">
-        <v>171.2558863508441</v>
+        <v>170.3273579987458</v>
       </c>
       <c r="E63">
-        <v>172.8274993896484</v>
+        <v>171.8911895751953</v>
       </c>
       <c r="F63">
-        <v>49514700</v>
+        <v>45497800</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>172.3102600097656</v>
+        <v>172.1588073730469</v>
       </c>
       <c r="J63">
-        <v>167.3407875061035</v>
+        <v>167.7187042236328</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3139,31 +3139,31 @@
         <v>76</v>
       </c>
       <c r="B64">
-        <v>172.9370625099088</v>
+        <v>172.4788820757664</v>
       </c>
       <c r="C64">
-        <v>173.375334205877</v>
+        <v>172.5286884414697</v>
       </c>
       <c r="D64">
-        <v>170.3273731187135</v>
+        <v>170.7955272268727</v>
       </c>
       <c r="E64">
-        <v>171.8912048339844</v>
+        <v>171.3931732177734</v>
       </c>
       <c r="F64">
-        <v>45497800</v>
+        <v>37266700</v>
       </c>
       <c r="G64">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>172.1588073730469</v>
+        <v>171.9216766357422</v>
       </c>
       <c r="J64">
-        <v>167.7187049865723</v>
+        <v>168.0707260131836</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3171,19 +3171,19 @@
         <v>77</v>
       </c>
       <c r="B65">
-        <v>172.4788820757664</v>
+        <v>171.3134860724021</v>
       </c>
       <c r="C65">
-        <v>172.5286884414697</v>
+        <v>172.4589564897314</v>
       </c>
       <c r="D65">
-        <v>170.7955272268727</v>
+        <v>171.1242310019912</v>
       </c>
       <c r="E65">
         <v>171.3931732177734</v>
       </c>
       <c r="F65">
-        <v>37266700</v>
+        <v>42110300</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>171.9216796875</v>
+        <v>172.0287078857422</v>
       </c>
       <c r="J65">
-        <v>168.0707267761231</v>
+        <v>168.3610763549805</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3203,19 +3203,19 @@
         <v>78</v>
       </c>
       <c r="B66">
-        <v>171.3134860724021</v>
+        <v>171.0345860108936</v>
       </c>
       <c r="C66">
-        <v>172.4589564897314</v>
+        <v>172.2497731623494</v>
       </c>
       <c r="D66">
-        <v>171.1242310019912</v>
+        <v>169.7496517100122</v>
       </c>
       <c r="E66">
-        <v>171.3931732177734</v>
+        <v>172.0107269287109</v>
       </c>
       <c r="F66">
-        <v>42110300</v>
+        <v>57951600</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3224,10 +3224,10 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>172.0287109375</v>
+        <v>171.9031524658203</v>
       </c>
       <c r="J66">
-        <v>168.3610771179199</v>
+        <v>168.6246131896973</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3235,19 +3235,19 @@
         <v>79</v>
       </c>
       <c r="B67">
-        <v>171.0345860108936</v>
+        <v>172.3194956763278</v>
       </c>
       <c r="C67">
-        <v>172.2497731623494</v>
+        <v>174.5506899936356</v>
       </c>
       <c r="D67">
-        <v>169.7496517100122</v>
+        <v>171.9011495916016</v>
       </c>
       <c r="E67">
-        <v>172.0107269287109</v>
+        <v>174.3614349365234</v>
       </c>
       <c r="F67">
-        <v>57951600</v>
+        <v>65496700</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3256,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>171.9031555175781</v>
+        <v>172.2099395751953</v>
       </c>
       <c r="J67">
-        <v>168.6246131896973</v>
+        <v>169.0544242858887</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3267,19 +3267,19 @@
         <v>80</v>
       </c>
       <c r="B68">
-        <v>172.3194956763278</v>
+        <v>175.6961811815786</v>
       </c>
       <c r="C68">
-        <v>174.5506899936356</v>
+        <v>175.6961811815786</v>
       </c>
       <c r="D68">
-        <v>171.9011495916016</v>
+        <v>174.2518876988833</v>
       </c>
       <c r="E68">
-        <v>174.3614349365234</v>
+        <v>174.4710235595703</v>
       </c>
       <c r="F68">
-        <v>65496700</v>
+        <v>55772400</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3288,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>172.2099426269531</v>
+        <v>172.7259063720703</v>
       </c>
       <c r="J68">
-        <v>169.054426574707</v>
+        <v>169.5707824707031</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3299,19 +3299,19 @@
         <v>81</v>
       </c>
       <c r="B69">
-        <v>175.6961811815786</v>
+        <v>173.2956499150089</v>
       </c>
       <c r="C69">
-        <v>175.6961811815786</v>
+        <v>174.0227894220068</v>
       </c>
       <c r="D69">
-        <v>174.2518876988833</v>
+        <v>172.7677358721999</v>
       </c>
       <c r="E69">
-        <v>174.4710235595703</v>
+        <v>173.5147857666016</v>
       </c>
       <c r="F69">
-        <v>55772400</v>
+        <v>43570900</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>172.7259063720703</v>
+        <v>173.1502288818359</v>
       </c>
       <c r="J69">
-        <v>169.570783996582</v>
+        <v>170.0239112854004</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3331,19 +3331,19 @@
         <v>82</v>
       </c>
       <c r="B70">
-        <v>173.2956346754905</v>
+        <v>172.4490094161616</v>
       </c>
       <c r="C70">
-        <v>174.0227741185442</v>
+        <v>172.6980260576341</v>
       </c>
       <c r="D70">
-        <v>172.767720679106</v>
+        <v>170.606280189757</v>
       </c>
       <c r="E70">
-        <v>173.5147705078125</v>
+        <v>170.8851776123047</v>
       </c>
       <c r="F70">
-        <v>43570900</v>
+        <v>50747300</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3352,10 +3352,10 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>173.1502258300781</v>
+        <v>173.0486297607422</v>
       </c>
       <c r="J70">
-        <v>170.0239120483398</v>
+        <v>170.4231460571289</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3363,19 +3363,19 @@
         <v>83</v>
       </c>
       <c r="B71">
-        <v>172.4489940177338</v>
+        <v>170.4170126302911</v>
       </c>
       <c r="C71">
-        <v>172.698010636971</v>
+        <v>171.7417828897605</v>
       </c>
       <c r="D71">
-        <v>170.6062649558715</v>
+        <v>169.849262632672</v>
       </c>
       <c r="E71">
-        <v>170.8851623535156</v>
+        <v>171.1640625</v>
       </c>
       <c r="F71">
-        <v>50747300</v>
+        <v>45143500</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3384,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>173.0486236572266</v>
+        <v>172.879296875</v>
       </c>
       <c r="J71">
-        <v>170.4231452941895</v>
+        <v>170.8368225097656</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3395,19 +3395,19 @@
         <v>84</v>
       </c>
       <c r="B72">
-        <v>170.4170126302911</v>
+        <v>171.7318194329603</v>
       </c>
       <c r="C72">
-        <v>171.7417828897605</v>
+        <v>173.2159487088232</v>
       </c>
       <c r="D72">
-        <v>169.849262632672</v>
+        <v>171.0146503766472</v>
       </c>
       <c r="E72">
-        <v>171.1640625</v>
+        <v>172.3095397949219</v>
       </c>
       <c r="F72">
-        <v>45143500</v>
+        <v>56058300</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3416,10 +3416,10 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>172.8792907714844</v>
+        <v>172.4689178466797</v>
       </c>
       <c r="J72">
-        <v>170.8368217468262</v>
+        <v>171.0765068054199</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3427,19 +3427,19 @@
         <v>85</v>
       </c>
       <c r="B73">
-        <v>171.7318346405896</v>
+        <v>172.6382586657691</v>
       </c>
       <c r="C73">
-        <v>173.2159640478789</v>
+        <v>175.0786186300389</v>
       </c>
       <c r="D73">
-        <v>171.0146655207679</v>
+        <v>172.4290780065372</v>
       </c>
       <c r="E73">
-        <v>172.3095550537109</v>
+        <v>174.7399444580078</v>
       </c>
       <c r="F73">
-        <v>56058300</v>
+        <v>54835000</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3448,10 +3448,10 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>172.4689147949219</v>
+        <v>172.5227020263672</v>
       </c>
       <c r="J73">
-        <v>171.0765075683594</v>
+        <v>171.3745483398438</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3459,19 +3459,19 @@
         <v>86</v>
       </c>
       <c r="B74">
-        <v>172.6382586657691</v>
+        <v>176.2639258931609</v>
       </c>
       <c r="C74">
-        <v>175.0786186300389</v>
+        <v>178.285939573211</v>
       </c>
       <c r="D74">
-        <v>172.4290780065372</v>
+        <v>175.8754605851406</v>
       </c>
       <c r="E74">
-        <v>174.7399444580078</v>
+        <v>176.6025848388672</v>
       </c>
       <c r="F74">
-        <v>54835000</v>
+        <v>55964400</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>172.5226989746094</v>
+        <v>173.1402618408203</v>
       </c>
       <c r="J74">
-        <v>171.3745498657227</v>
+        <v>171.770198059082</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3491,19 +3491,19 @@
         <v>87</v>
       </c>
       <c r="B75">
-        <v>176.2639411226892</v>
+        <v>176.632482557748</v>
       </c>
       <c r="C75">
-        <v>178.285954977445</v>
+        <v>178.6445412378238</v>
       </c>
       <c r="D75">
-        <v>175.8754757811048</v>
+        <v>176.0647173306953</v>
       </c>
       <c r="E75">
-        <v>176.6026000976562</v>
+        <v>176.5527954101562</v>
       </c>
       <c r="F75">
-        <v>55964400</v>
+        <v>99625300</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -3512,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>173.1402648925781</v>
+        <v>174.2737854003906</v>
       </c>
       <c r="J75">
-        <v>171.7702003479004</v>
+        <v>172.2155799865723</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3523,19 +3523,19 @@
         <v>88</v>
       </c>
       <c r="B76">
-        <v>176.6324672920719</v>
+        <v>177.0010087987081</v>
       </c>
       <c r="C76">
-        <v>178.6445257982531</v>
+        <v>179.4114878338828</v>
       </c>
       <c r="D76">
-        <v>176.064702114089</v>
+        <v>176.2340333606353</v>
       </c>
       <c r="E76">
-        <v>176.5527801513672</v>
+        <v>179.3816070556641</v>
       </c>
       <c r="F76">
-        <v>99625300</v>
+        <v>68901800</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -3544,10 +3544,10 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>174.2737884521484</v>
+        <v>175.9172943115234</v>
       </c>
       <c r="J76">
-        <v>172.2155807495117</v>
+        <v>172.8566131591797</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3555,19 +3555,19 @@
         <v>89</v>
       </c>
       <c r="B77">
-        <v>177.0010087987081</v>
+        <v>180.31790735431</v>
       </c>
       <c r="C77">
-        <v>179.4114878338828</v>
+        <v>181.064957188192</v>
       </c>
       <c r="D77">
-        <v>176.2340333606353</v>
+        <v>178.5548654906935</v>
       </c>
       <c r="E77">
-        <v>179.3816070556641</v>
+        <v>180.2382202148438</v>
       </c>
       <c r="F77">
-        <v>68901800</v>
+        <v>61945900</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3576,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>175.9172973632812</v>
+        <v>177.5030303955078</v>
       </c>
       <c r="J77">
-        <v>172.8566131591797</v>
+        <v>173.6230369567871</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3587,19 +3587,19 @@
         <v>90</v>
       </c>
       <c r="B78">
-        <v>180.31790735431</v>
+        <v>181.9116171036048</v>
       </c>
       <c r="C78">
-        <v>181.064957188192</v>
+        <v>184.2224833194857</v>
       </c>
       <c r="D78">
-        <v>178.5548654906935</v>
+        <v>177.3396606355969</v>
       </c>
       <c r="E78">
-        <v>180.2382202148438</v>
+        <v>178.8736114501953</v>
       </c>
       <c r="F78">
-        <v>61945900</v>
+        <v>121946500</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>177.5030303955078</v>
+        <v>178.3297637939453</v>
       </c>
       <c r="J78">
-        <v>173.6230369567871</v>
+        <v>173.9342948913574</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3619,19 +3619,19 @@
         <v>91</v>
       </c>
       <c r="B79">
-        <v>181.9116326215506</v>
+        <v>179.2620862325817</v>
       </c>
       <c r="C79">
-        <v>184.2224990345595</v>
+        <v>179.4114901255837</v>
       </c>
       <c r="D79">
-        <v>177.3396757635325</v>
+        <v>176.732068853447</v>
       </c>
       <c r="E79">
-        <v>178.8736267089844</v>
+        <v>178.5050811767578</v>
       </c>
       <c r="F79">
-        <v>121946500</v>
+        <v>64848400</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -3640,10 +3640,10 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>178.3297668457031</v>
+        <v>178.7102630615234</v>
       </c>
       <c r="J79">
-        <v>173.9342948913574</v>
+        <v>174.2306076049805</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3651,19 +3651,19 @@
         <v>92</v>
       </c>
       <c r="B80">
-        <v>179.2620862325817</v>
+        <v>177.7381007724719</v>
       </c>
       <c r="C80">
-        <v>179.4114901255837</v>
+        <v>180.4972091101917</v>
       </c>
       <c r="D80">
-        <v>176.732068853447</v>
+        <v>176.6225112057842</v>
       </c>
       <c r="E80">
-        <v>178.5050811767578</v>
+        <v>177.1205444335938</v>
       </c>
       <c r="F80">
-        <v>64848400</v>
+        <v>61944600</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>178.7102630615234</v>
+        <v>178.8238128662109</v>
       </c>
       <c r="J80">
-        <v>174.2306083679199</v>
+        <v>174.5437339782715</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3683,19 +3683,19 @@
         <v>93</v>
       </c>
       <c r="B81">
-        <v>177.7381160844629</v>
+        <v>177.2002151589822</v>
       </c>
       <c r="C81">
-        <v>180.4972246598777</v>
+        <v>180.128652950207</v>
       </c>
       <c r="D81">
-        <v>176.6225264216681</v>
+        <v>176.7619586884827</v>
       </c>
       <c r="E81">
-        <v>177.1205596923828</v>
+        <v>179.8597259521484</v>
       </c>
       <c r="F81">
-        <v>61944600</v>
+        <v>50214900</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3704,10 +3704,10 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>178.8238189697266</v>
+        <v>178.9194366455078</v>
       </c>
       <c r="J81">
-        <v>174.5437355041504</v>
+        <v>174.9047950744629</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3715,19 +3715,19 @@
         <v>94</v>
       </c>
       <c r="B82">
-        <v>177.2002301921459</v>
+        <v>180.7860686822557</v>
       </c>
       <c r="C82">
-        <v>180.1286682318111</v>
+        <v>181.513192967306</v>
       </c>
       <c r="D82">
-        <v>176.761973684466</v>
+        <v>179.9194956959797</v>
       </c>
       <c r="E82">
-        <v>179.8597412109375</v>
+        <v>180.2481994628906</v>
       </c>
       <c r="F82">
-        <v>50214900</v>
+        <v>48870700</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3736,10 +3736,10 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>178.9194458007813</v>
+        <v>178.9214324951172</v>
       </c>
       <c r="J82">
-        <v>174.9047973632813</v>
+        <v>175.275830078125</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3747,19 +3747,19 @@
         <v>95</v>
       </c>
       <c r="B83">
-        <v>180.7860533779337</v>
+        <v>180.5569856446477</v>
       </c>
       <c r="C83">
-        <v>181.5131776014298</v>
+        <v>183.1666751112626</v>
       </c>
       <c r="D83">
-        <v>179.9194804650169</v>
+        <v>180.2581626434182</v>
       </c>
       <c r="E83">
-        <v>180.2481842041016</v>
+        <v>183.0670623779297</v>
       </c>
       <c r="F83">
-        <v>48870700</v>
+        <v>54274900</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3768,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>178.9214385986328</v>
+        <v>179.7601226806641</v>
       </c>
       <c r="J83">
-        <v>175.2758316040039</v>
+        <v>175.8346237182617</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3779,19 +3779,19 @@
         <v>96</v>
       </c>
       <c r="B84">
-        <v>180.5569856446477</v>
+        <v>182.0809550496919</v>
       </c>
       <c r="C84">
-        <v>183.1666751112626</v>
+        <v>183.4256356744868</v>
       </c>
       <c r="D84">
-        <v>180.2581626434182</v>
+        <v>181.7223705099929</v>
       </c>
       <c r="E84">
-        <v>183.0670623779297</v>
+        <v>182.5889434814453</v>
       </c>
       <c r="F84">
-        <v>54274900</v>
+        <v>54929100</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>179.7601257324219</v>
+        <v>180.5768951416016</v>
       </c>
       <c r="J84">
-        <v>175.8346244812012</v>
+        <v>176.3944122314453</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3811,19 +3811,19 @@
         <v>97</v>
       </c>
       <c r="B85">
-        <v>182.0809550496919</v>
+        <v>182.6487047911225</v>
       </c>
       <c r="C85">
-        <v>183.4256356744868</v>
+        <v>183.6646968520228</v>
       </c>
       <c r="D85">
-        <v>181.7223705099929</v>
+        <v>181.304024168147</v>
       </c>
       <c r="E85">
-        <v>182.5889434814453</v>
+        <v>183.2264251708984</v>
       </c>
       <c r="F85">
-        <v>54929100</v>
+        <v>57462900</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3832,10 +3832,10 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>180.5768981933594</v>
+        <v>181.7980712890625</v>
       </c>
       <c r="J85">
-        <v>176.3944129943848</v>
+        <v>176.9860748291016</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3843,19 +3843,19 @@
         <v>98</v>
       </c>
       <c r="B86">
-        <v>182.6487200017999</v>
+        <v>183.2364112799105</v>
       </c>
       <c r="C86">
-        <v>183.6647121473104</v>
+        <v>185.7863392446972</v>
       </c>
       <c r="D86">
-        <v>181.3040392668418</v>
+        <v>183.0571113955401</v>
       </c>
       <c r="E86">
-        <v>183.2264404296875</v>
+        <v>185.2783355712891</v>
       </c>
       <c r="F86">
-        <v>57462900</v>
+        <v>65433200</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>181.7980743408203</v>
+        <v>182.8817932128906</v>
       </c>
       <c r="J86">
-        <v>176.9860763549805</v>
+        <v>177.6494552612305</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3875,19 +3875,19 @@
         <v>99</v>
       </c>
       <c r="B87">
-        <v>183.2363961892862</v>
+        <v>185.9954895916911</v>
       </c>
       <c r="C87">
-        <v>185.786323944071</v>
+        <v>186.2544766037543</v>
       </c>
       <c r="D87">
-        <v>183.0570963196822</v>
+        <v>183.5451745617146</v>
       </c>
       <c r="E87">
-        <v>185.2783203125</v>
+        <v>184.1926116943359</v>
       </c>
       <c r="F87">
-        <v>65433200</v>
+        <v>101235600</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3896,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>182.8817901611328</v>
+        <v>183.6706756591797</v>
       </c>
       <c r="J87">
-        <v>177.6494560241699</v>
+        <v>178.1410140991211</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3907,19 +3907,19 @@
         <v>100</v>
       </c>
       <c r="B88">
-        <v>185.9954895916911</v>
+        <v>183.6846263013284</v>
       </c>
       <c r="C88">
-        <v>186.2544766037543</v>
+        <v>185.3679811125286</v>
       </c>
       <c r="D88">
-        <v>183.5451745617146</v>
+        <v>183.6846263013284</v>
       </c>
       <c r="E88">
-        <v>184.1926116943359</v>
+        <v>184.2822570800781</v>
       </c>
       <c r="F88">
-        <v>101235600</v>
+        <v>49799100</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3928,10 +3928,10 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>183.6706756591797</v>
+        <v>183.9137145996094</v>
       </c>
       <c r="J88">
-        <v>178.1410148620606</v>
+        <v>178.6315757751465</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3939,19 +3939,19 @@
         <v>101</v>
       </c>
       <c r="B89">
-        <v>183.6846263013284</v>
+        <v>184.172694184419</v>
       </c>
       <c r="C89">
-        <v>185.3679811125286</v>
+        <v>184.6806978388059</v>
       </c>
       <c r="D89">
-        <v>183.6846263013284</v>
+        <v>181.8717829460778</v>
       </c>
       <c r="E89">
-        <v>184.2822570800781</v>
+        <v>183.2364044189453</v>
       </c>
       <c r="F89">
-        <v>49799100</v>
+        <v>49515700</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>183.9137145996094</v>
+        <v>184.0432067871094</v>
       </c>
       <c r="J89">
-        <v>178.6315765380859</v>
+        <v>179.1176567077637</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3971,19 +3971,19 @@
         <v>102</v>
       </c>
       <c r="B90">
-        <v>184.172694184419</v>
+        <v>183.0172485151804</v>
       </c>
       <c r="C90">
-        <v>184.6806978388059</v>
+        <v>186.3142259161543</v>
       </c>
       <c r="D90">
-        <v>181.8717829460778</v>
+        <v>182.9475165707405</v>
       </c>
       <c r="E90">
-        <v>183.2364044189453</v>
+        <v>186.2644195556641</v>
       </c>
       <c r="F90">
-        <v>49515700</v>
+        <v>51245300</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3992,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>184.0432067871094</v>
+        <v>184.6508056640625</v>
       </c>
       <c r="J90">
-        <v>179.1176582336426</v>
+        <v>179.8866188049316</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4003,19 +4003,19 @@
         <v>103</v>
       </c>
       <c r="B91">
-        <v>183.017263507961</v>
+        <v>184.8201339508181</v>
       </c>
       <c r="C91">
-        <v>186.3142411790235</v>
+        <v>186.8222220558245</v>
       </c>
       <c r="D91">
-        <v>182.9475315578088</v>
+        <v>184.2822495532673</v>
       </c>
       <c r="E91">
-        <v>186.2644348144531</v>
+        <v>185.9456787109375</v>
       </c>
       <c r="F91">
-        <v>51245300</v>
+        <v>53079300</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>184.6508056640625</v>
+        <v>184.7842742919922</v>
       </c>
       <c r="J91">
-        <v>179.8866218566895</v>
+        <v>180.6256996154785</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4035,19 +4035,19 @@
         <v>104</v>
       </c>
       <c r="B92">
-        <v>184.8201491172444</v>
+        <v>186.0951058133168</v>
       </c>
       <c r="C92">
-        <v>186.8222373865431</v>
+        <v>187.3103081578761</v>
       </c>
       <c r="D92">
-        <v>184.2822646755546</v>
+        <v>184.5013933355695</v>
       </c>
       <c r="E92">
-        <v>185.9456939697266</v>
+        <v>184.5412445068359</v>
       </c>
       <c r="F92">
-        <v>53079300</v>
+        <v>48088700</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -4056,10 +4056,10 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>184.7842803955078</v>
+        <v>184.8540008544922</v>
       </c>
       <c r="J92">
-        <v>180.6257034301758</v>
+        <v>181.2372848510742</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4067,19 +4067,19 @@
         <v>105</v>
       </c>
       <c r="B93">
-        <v>186.0950904260467</v>
+        <v>185.1587891232395</v>
       </c>
       <c r="C93">
-        <v>187.3102926701271</v>
+        <v>187.6489552124749</v>
       </c>
       <c r="D93">
-        <v>184.5013780800755</v>
+        <v>184.9396532914854</v>
       </c>
       <c r="E93">
-        <v>184.5412292480469</v>
+        <v>187.3202514648438</v>
       </c>
       <c r="F93">
-        <v>48088700</v>
+        <v>50730800</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -4088,10 +4088,10 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>184.85400390625</v>
+        <v>185.4615997314453</v>
       </c>
       <c r="J93">
-        <v>181.2372871398926</v>
+        <v>181.866300201416</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -4099,19 +4099,19 @@
         <v>106</v>
       </c>
       <c r="B94">
-        <v>185.1587891232395</v>
+        <v>187.1907696442351</v>
       </c>
       <c r="C94">
-        <v>187.6489552124749</v>
+        <v>189.1530218608874</v>
       </c>
       <c r="D94">
-        <v>184.9396532914854</v>
+        <v>186.8620810748633</v>
       </c>
       <c r="E94">
-        <v>187.3202514648438</v>
+        <v>188.5055847167969</v>
       </c>
       <c r="F94">
-        <v>50730800</v>
+        <v>51216800</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>185.4616027832031</v>
+        <v>186.5154357910156</v>
       </c>
       <c r="J94">
-        <v>181.8663024902344</v>
+        <v>182.4614501953125</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -4131,19 +4131,19 @@
         <v>107</v>
       </c>
       <c r="B95">
-        <v>187.1907696442351</v>
+        <v>188.3362498534249</v>
       </c>
       <c r="C95">
-        <v>189.1530218608874</v>
+        <v>189.3223611296634</v>
       </c>
       <c r="D95">
-        <v>186.8620810748633</v>
+        <v>188.196801155663</v>
       </c>
       <c r="E95">
-        <v>188.5055847167969</v>
+        <v>188.84423828125</v>
       </c>
       <c r="F95">
-        <v>51216800</v>
+        <v>46347300</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>186.5154388427734</v>
+        <v>187.0313995361328</v>
       </c>
       <c r="J95">
-        <v>182.4614517211914</v>
+        <v>183.0760223388672</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -4163,19 +4163,19 @@
         <v>108</v>
       </c>
       <c r="B96">
-        <v>188.336265071168</v>
+        <v>190.8762240799411</v>
       </c>
       <c r="C96">
-        <v>189.3223764270853</v>
+        <v>193.7150044235333</v>
       </c>
       <c r="D96">
-        <v>188.1968163621385</v>
+        <v>190.5076691478469</v>
       </c>
       <c r="E96">
-        <v>188.8442535400391</v>
+        <v>193.2070159912109</v>
       </c>
       <c r="F96">
-        <v>46347300</v>
+        <v>85069600</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -4184,10 +4184,10 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>187.0314025878906</v>
+        <v>188.4836669921875</v>
       </c>
       <c r="J96">
-        <v>183.076025390625</v>
+        <v>183.7672927856445</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -4195,19 +4195,19 @@
         <v>109</v>
       </c>
       <c r="B97">
-        <v>190.8762391546527</v>
+        <v>193.0177723376829</v>
       </c>
       <c r="C97">
-        <v>193.7150197224415</v>
+        <v>193.1173850708977</v>
       </c>
       <c r="D97">
-        <v>190.5076841934513</v>
+        <v>191.0057136771445</v>
       </c>
       <c r="E97">
-        <v>193.20703125</v>
+        <v>191.7029724121094</v>
       </c>
       <c r="F97">
-        <v>85069600</v>
+        <v>31458200</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -4216,10 +4216,10 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>188.4836700439453</v>
+        <v>189.9160125732422</v>
       </c>
       <c r="J97">
-        <v>183.7672966003418</v>
+        <v>184.3405303955078</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -4227,19 +4227,19 @@
         <v>110</v>
       </c>
       <c r="B98">
-        <v>193.0177723376829</v>
+        <v>190.8164692716922</v>
       </c>
       <c r="C98">
-        <v>193.1173850708977</v>
+        <v>192.2209115045531</v>
       </c>
       <c r="D98">
-        <v>191.0057136771445</v>
+        <v>189.870193924926</v>
       </c>
       <c r="E98">
-        <v>191.7029724121094</v>
+        <v>190.5774078369141</v>
       </c>
       <c r="F98">
-        <v>31458200</v>
+        <v>46920300</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -4248,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>189.9160186767578</v>
+        <v>190.5674438476562</v>
       </c>
       <c r="J98">
-        <v>184.3405342102051</v>
+        <v>184.9257202148438</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4259,19 +4259,19 @@
         <v>111</v>
       </c>
       <c r="B99">
-        <v>190.8164539937624</v>
+        <v>189.0932592686884</v>
       </c>
       <c r="C99">
-        <v>192.2208961141751</v>
+        <v>191.2646921254706</v>
       </c>
       <c r="D99">
-        <v>189.8701787227608</v>
+        <v>188.455777321506</v>
       </c>
       <c r="E99">
-        <v>190.577392578125</v>
+        <v>191.0555114746094</v>
       </c>
       <c r="F99">
-        <v>46920300</v>
+        <v>45094300</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -4280,10 +4280,10 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>190.5674468994141</v>
+        <v>191.0774291992188</v>
       </c>
       <c r="J99">
-        <v>184.9257225036621</v>
+        <v>185.5532417297363</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4291,19 +4291,19 @@
         <v>112</v>
       </c>
       <c r="B100">
-        <v>189.0932592686884</v>
+        <v>190.6570863644603</v>
       </c>
       <c r="C100">
-        <v>191.2646921254706</v>
+        <v>191.9121246430898</v>
       </c>
       <c r="D100">
-        <v>188.455777321506</v>
+        <v>189.4916904202826</v>
       </c>
       <c r="E100">
-        <v>191.0555114746094</v>
+        <v>189.9299468994141</v>
       </c>
       <c r="F100">
-        <v>45094300</v>
+        <v>46778000</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -4312,10 +4312,10 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>191.0774322509766</v>
+        <v>191.2945709228516</v>
       </c>
       <c r="J100">
-        <v>185.5532440185547</v>
+        <v>186.1937118530273</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4323,19 +4323,19 @@
         <v>113</v>
       </c>
       <c r="B101">
-        <v>190.6570863644603</v>
+        <v>188.5155401723345</v>
       </c>
       <c r="C101">
-        <v>191.9121246430898</v>
+        <v>189.2426796598843</v>
       </c>
       <c r="D101">
-        <v>189.4916904202826</v>
+        <v>186.3042713281469</v>
       </c>
       <c r="E101">
-        <v>189.9299468994141</v>
+        <v>187.8681030273438</v>
       </c>
       <c r="F101">
-        <v>46778000</v>
+        <v>59922200</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -4344,10 +4344,10 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>191.2945709228516</v>
+        <v>190.2267883300781</v>
       </c>
       <c r="J101">
-        <v>186.1937133789062</v>
+        <v>186.5941307067871</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4355,19 +4355,19 @@
         <v>114</v>
       </c>
       <c r="B102">
-        <v>188.5155401723345</v>
+        <v>188.415933031509</v>
       </c>
       <c r="C102">
-        <v>189.2426796598843</v>
+        <v>188.5553817263376</v>
       </c>
       <c r="D102">
-        <v>186.3042713281469</v>
+        <v>185.8660053553475</v>
       </c>
       <c r="E102">
-        <v>187.8681030273438</v>
+        <v>187.3401794433594</v>
       </c>
       <c r="F102">
-        <v>59922200</v>
+        <v>46638100</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>0</v>
       </c>
       <c r="I102">
-        <v>190.2267852783203</v>
+        <v>189.3542297363281</v>
       </c>
       <c r="J102">
-        <v>186.5941314697266</v>
+        <v>186.9487297058105</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4387,19 +4387,19 @@
         <v>115</v>
       </c>
       <c r="B103">
-        <v>188.4159483779178</v>
+        <v>188.9338867752929</v>
       </c>
       <c r="C103">
-        <v>188.5553970841044</v>
+        <v>190.9459453646829</v>
       </c>
       <c r="D103">
-        <v>185.8660204940656</v>
+        <v>187.7286548193661</v>
       </c>
       <c r="E103">
-        <v>187.3401947021484</v>
+        <v>189.0235443115234</v>
       </c>
       <c r="F103">
-        <v>46638100</v>
+        <v>60750200</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -4408,10 +4408,10 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>189.3542297363281</v>
+        <v>189.04345703125</v>
       </c>
       <c r="J103">
-        <v>186.9487319946289</v>
+        <v>187.2465538024902</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4419,19 +4419,19 @@
         <v>116</v>
       </c>
       <c r="B104">
-        <v>188.9338867752929</v>
+        <v>189.7506761107689</v>
       </c>
       <c r="C104">
-        <v>190.9459453646829</v>
+        <v>190.437964456044</v>
       </c>
       <c r="D104">
-        <v>187.7286548193661</v>
+        <v>189.0335069851573</v>
       </c>
       <c r="E104">
-        <v>189.0235443115234</v>
+        <v>189.7905120849609</v>
       </c>
       <c r="F104">
-        <v>60750200</v>
+        <v>41342300</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -4440,10 +4440,10 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>189.0434600830078</v>
+        <v>188.7904571533203</v>
       </c>
       <c r="J104">
-        <v>187.2465560913086</v>
+        <v>187.606632232666</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4451,19 +4451,19 @@
         <v>117</v>
       </c>
       <c r="B105">
-        <v>189.7506608551825</v>
+        <v>189.4817288631743</v>
       </c>
       <c r="C105">
-        <v>190.437949145201</v>
+        <v>190.4279890125226</v>
       </c>
       <c r="D105">
-        <v>189.03349178723</v>
+        <v>188.884098073529</v>
       </c>
       <c r="E105">
-        <v>189.7904968261719</v>
+        <v>189.9399261474609</v>
       </c>
       <c r="F105">
-        <v>41342300</v>
+        <v>41573900</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>188.7904571533203</v>
+        <v>188.7924530029297</v>
       </c>
       <c r="J105">
-        <v>187.6066337585449</v>
+        <v>187.9423072814942</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4483,19 +4483,19 @@
         <v>118</v>
       </c>
       <c r="B106">
-        <v>189.4817288631743</v>
+        <v>191.1451383590583</v>
       </c>
       <c r="C106">
-        <v>190.4279890125226</v>
+        <v>193.5556324507079</v>
       </c>
       <c r="D106">
-        <v>188.884098073529</v>
+        <v>191.0554960296938</v>
       </c>
       <c r="E106">
-        <v>189.9399261474609</v>
+        <v>193.2269287109375</v>
       </c>
       <c r="F106">
-        <v>41573900</v>
+        <v>50520200</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -4504,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>188.7924530029297</v>
+        <v>189.8642181396484</v>
       </c>
       <c r="J106">
-        <v>187.9423080444336</v>
+        <v>188.3397369384766</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -4515,19 +4515,19 @@
         <v>119</v>
       </c>
       <c r="B107">
-        <v>191.1451534534521</v>
+        <v>192.5894616125375</v>
       </c>
       <c r="C107">
-        <v>193.5556477354541</v>
+        <v>193.5656025155189</v>
       </c>
       <c r="D107">
-        <v>191.0555111170087</v>
+        <v>191.6631118749617</v>
       </c>
       <c r="E107">
-        <v>193.2269439697266</v>
+        <v>192.9679565429688</v>
       </c>
       <c r="F107">
-        <v>50520200</v>
+        <v>48353800</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -4536,10 +4536,10 @@
         <v>0</v>
       </c>
       <c r="I107">
-        <v>189.8642211914062</v>
+        <v>190.9897735595703</v>
       </c>
       <c r="J107">
-        <v>188.3397392272949</v>
+        <v>188.7785041809082</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4547,19 +4547,19 @@
         <v>120</v>
       </c>
       <c r="B108">
-        <v>192.5894768413974</v>
+        <v>192.3404475629526</v>
       </c>
       <c r="C108">
-        <v>193.5656178215663</v>
+        <v>197.4502583816485</v>
       </c>
       <c r="D108">
-        <v>191.6631270305712</v>
+        <v>191.8922054781607</v>
       </c>
       <c r="E108">
-        <v>192.9679718017578</v>
+        <v>194.3325805664062</v>
       </c>
       <c r="F108">
-        <v>48353800</v>
+        <v>80507300</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -4568,10 +4568,10 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>190.9897766113281</v>
+        <v>192.0515808105469</v>
       </c>
       <c r="J108">
-        <v>188.778507232666</v>
+        <v>189.2810203552246</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4579,19 +4579,19 @@
         <v>121</v>
       </c>
       <c r="B109">
-        <v>192.3404475629526</v>
+        <v>194.3226126676721</v>
       </c>
       <c r="C109">
-        <v>197.4502583816485</v>
+        <v>195.6971893212992</v>
       </c>
       <c r="D109">
-        <v>191.8922054781607</v>
+        <v>191.7428040428008</v>
       </c>
       <c r="E109">
-        <v>194.3325805664062</v>
+        <v>192.3703308105469</v>
       </c>
       <c r="F109">
-        <v>80507300</v>
+        <v>59581200</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>192.0515838623047</v>
+        <v>192.5675445556641</v>
       </c>
       <c r="J109">
-        <v>189.2810234069824</v>
+        <v>189.7377166748047</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4611,19 +4611,19 @@
         <v>122</v>
       </c>
       <c r="B110">
-        <v>194.3226126676721</v>
+        <v>193.3365201768351</v>
       </c>
       <c r="C110">
-        <v>195.6971893212992</v>
+        <v>194.2030931971273</v>
       </c>
       <c r="D110">
-        <v>191.7428040428008</v>
+        <v>190.4777988913407</v>
       </c>
       <c r="E110">
-        <v>192.3703308105469</v>
+        <v>191.1850128173828</v>
       </c>
       <c r="F110">
-        <v>59581200</v>
+        <v>71917800</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -4632,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>192.5675506591797</v>
+        <v>192.8165618896484</v>
       </c>
       <c r="J110">
-        <v>189.7377197265625</v>
+        <v>189.9837463378906</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -4643,19 +4643,19 @@
         <v>123</v>
       </c>
       <c r="B111">
-        <v>193.3365047463307</v>
+        <v>192.6492135274199</v>
       </c>
       <c r="C111">
-        <v>194.2030776974603</v>
+        <v>194.143313185243</v>
       </c>
       <c r="D111">
-        <v>190.4777836889955</v>
+        <v>191.4937728109991</v>
       </c>
       <c r="E111">
-        <v>191.1849975585938</v>
+        <v>191.9918060302734</v>
       </c>
       <c r="F111">
-        <v>71917800</v>
+        <v>45377800</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -4664,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="I111">
-        <v>192.8165649414063</v>
+        <v>192.5695373535156</v>
       </c>
       <c r="J111">
-        <v>189.9837478637695</v>
+        <v>190.2860527038574</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4675,19 +4675,19 @@
         <v>124</v>
       </c>
       <c r="B112">
-        <v>192.6492288384572</v>
+        <v>192.5695305926833</v>
       </c>
       <c r="C112">
-        <v>194.1433286150258</v>
+        <v>193.6751649715615</v>
       </c>
       <c r="D112">
-        <v>191.4937880302063</v>
+        <v>192.161139696258</v>
       </c>
       <c r="E112">
-        <v>191.9918212890625</v>
+        <v>192.8583831787109</v>
       </c>
       <c r="F112">
-        <v>45377800</v>
+        <v>37283200</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -4696,10 +4696,10 @@
         <v>0</v>
       </c>
       <c r="I112">
-        <v>192.5695404052734</v>
+        <v>192.5476226806641</v>
       </c>
       <c r="J112">
-        <v>190.2860542297363</v>
+        <v>190.7019096374512</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -4707,19 +4707,19 @@
         <v>125</v>
       </c>
       <c r="B113">
-        <v>192.5695305926833</v>
+        <v>192.9082025336185</v>
       </c>
       <c r="C113">
-        <v>193.6751649715615</v>
+        <v>194.8704548084565</v>
       </c>
       <c r="D113">
-        <v>192.161139696258</v>
+        <v>192.5595883682973</v>
       </c>
       <c r="E113">
-        <v>192.8583831787109</v>
+        <v>193.7349395751953</v>
       </c>
       <c r="F113">
-        <v>37283200</v>
+        <v>47471900</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4728,10 +4728,10 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <v>192.5476226806641</v>
+        <v>192.4280944824219</v>
       </c>
       <c r="J113">
-        <v>190.7019119262695</v>
+        <v>191.0226440429688</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -4739,19 +4739,19 @@
         <v>126</v>
       </c>
       <c r="B114">
-        <v>192.9081873399442</v>
+        <v>195.248950040914</v>
       </c>
       <c r="C114">
-        <v>194.8704394602329</v>
+        <v>196.4243011580481</v>
       </c>
       <c r="D114">
-        <v>192.5595732020803</v>
+        <v>191.7925982389762</v>
       </c>
       <c r="E114">
-        <v>193.7349243164062</v>
+        <v>192.4599609375</v>
       </c>
       <c r="F114">
-        <v>47471900</v>
+        <v>47460200</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4760,10 +4760,10 @@
         <v>0</v>
       </c>
       <c r="I114">
-        <v>192.4280914306641</v>
+        <v>192.4460205078125</v>
       </c>
       <c r="J114">
-        <v>191.0226455688477</v>
+        <v>191.2203628540039</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -4771,19 +4771,19 @@
         <v>127</v>
       </c>
       <c r="B115">
-        <v>195.2489655208223</v>
+        <v>193.9042668353994</v>
       </c>
       <c r="C115">
-        <v>196.4243167311417</v>
+        <v>195.8565638941123</v>
       </c>
       <c r="D115">
-        <v>191.7926134448548</v>
+        <v>193.3763527978494</v>
       </c>
       <c r="E115">
-        <v>192.4599761962891</v>
+        <v>195.0597076416016</v>
       </c>
       <c r="F115">
-        <v>47460200</v>
+        <v>48291400</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4792,10 +4792,10 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <v>192.4460205078125</v>
+        <v>193.2209594726563</v>
       </c>
       <c r="J115">
-        <v>191.2203651428223</v>
+        <v>191.5311363220215</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -4803,19 +4803,19 @@
         <v>128</v>
       </c>
       <c r="B116">
-        <v>193.9042668353994</v>
+        <v>195.2887960245621</v>
       </c>
       <c r="C116">
-        <v>195.8565638941123</v>
+        <v>195.7171125239446</v>
       </c>
       <c r="D116">
-        <v>193.3763527978494</v>
+        <v>194.4919397829054</v>
       </c>
       <c r="E116">
-        <v>195.0597076416016</v>
+        <v>195.6772613525391</v>
       </c>
       <c r="F116">
-        <v>48291400</v>
+        <v>38824100</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4824,10 +4824,10 @@
         <v>0</v>
       </c>
       <c r="I116">
-        <v>193.2209625244141</v>
+        <v>193.9580505371094</v>
       </c>
       <c r="J116">
-        <v>191.5311378479004</v>
+        <v>191.6546485900879</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -4835,19 +4835,19 @@
         <v>129</v>
       </c>
       <c r="B117">
-        <v>195.2887960245621</v>
+        <v>195.4680876466995</v>
       </c>
       <c r="C117">
-        <v>195.7171125239446</v>
+        <v>195.9561504850497</v>
       </c>
       <c r="D117">
-        <v>194.4919397829054</v>
+        <v>194.5118571573249</v>
       </c>
       <c r="E117">
-        <v>195.6772613525391</v>
+        <v>194.8405609130859</v>
       </c>
       <c r="F117">
-        <v>38824100</v>
+        <v>35175100</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4856,10 +4856,10 @@
         <v>0</v>
       </c>
       <c r="I117">
-        <v>193.9580505371094</v>
+        <v>194.3544860839844</v>
       </c>
       <c r="J117">
-        <v>191.6546493530273</v>
+        <v>191.8115280151367</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -4867,19 +4867,19 @@
         <v>130</v>
       </c>
       <c r="B118">
-        <v>195.4681029546329</v>
+        <v>194.272809663612</v>
       </c>
       <c r="C118">
-        <v>195.9561658312053</v>
+        <v>194.4122583701051</v>
       </c>
       <c r="D118">
-        <v>194.5118723903718</v>
+        <v>191.0953701943192</v>
       </c>
       <c r="E118">
-        <v>194.840576171875</v>
+        <v>191.8224945068359</v>
       </c>
       <c r="F118">
-        <v>35175100</v>
+        <v>50389300</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4888,10 +4888,10 @@
         <v>0</v>
       </c>
       <c r="I118">
-        <v>194.3544891357422</v>
+        <v>193.9719970703125</v>
       </c>
       <c r="J118">
-        <v>191.8115295410156</v>
+        <v>191.8737823486328</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -4899,19 +4899,19 @@
         <v>131</v>
       </c>
       <c r="B119">
-        <v>194.272809663612</v>
+        <v>190.8164655019149</v>
       </c>
       <c r="C119">
-        <v>194.4122583701051</v>
+        <v>191.6133065378951</v>
       </c>
       <c r="D119">
-        <v>191.0953701943192</v>
+        <v>189.9399221238144</v>
       </c>
       <c r="E119">
-        <v>191.8224945068359</v>
+        <v>190.4180297851562</v>
       </c>
       <c r="F119">
-        <v>50389300</v>
+        <v>61235200</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4920,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="I119">
-        <v>193.9720031738281</v>
+        <v>193.5636108398438</v>
       </c>
       <c r="J119">
-        <v>191.8737846374512</v>
+        <v>191.8419082641602</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -4931,19 +4931,19 @@
         <v>132</v>
       </c>
       <c r="B120">
-        <v>190.8164655019149</v>
+        <v>184.7902683251782</v>
       </c>
       <c r="C120">
-        <v>191.6133065378951</v>
+        <v>186.6429526932051</v>
       </c>
       <c r="D120">
-        <v>189.9399221238144</v>
+        <v>181.2044227100395</v>
       </c>
       <c r="E120">
-        <v>190.4180297851562</v>
+        <v>181.2741546630859</v>
       </c>
       <c r="F120">
-        <v>61235200</v>
+        <v>115799700</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4952,10 +4952,19 @@
         <v>0</v>
       </c>
       <c r="I120">
-        <v>193.5636138916016</v>
+        <v>190.8065002441406</v>
       </c>
       <c r="J120">
-        <v>191.8419105529785</v>
+        <v>191.4091186523438</v>
+      </c>
+      <c r="L120">
+        <v>181.4135809997987</v>
+      </c>
+      <c r="M120">
+        <v>31.02630798453237</v>
+      </c>
+      <c r="N120">
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -4963,19 +4972,19 @@
         <v>133</v>
       </c>
       <c r="B121">
-        <v>184.7902683251782</v>
+        <v>181.4135809997987</v>
       </c>
       <c r="C121">
-        <v>186.6429526932051</v>
+        <v>182.4096474146463</v>
       </c>
       <c r="D121">
-        <v>181.2044227100395</v>
+        <v>176.6523847527286</v>
       </c>
       <c r="E121">
-        <v>181.2741546630859</v>
+        <v>178.146484375</v>
       </c>
       <c r="F121">
-        <v>115799700</v>
+        <v>97576100</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4984,19 +4993,10 @@
         <v>0</v>
       </c>
       <c r="I121">
-        <v>190.8065032958984</v>
+        <v>187.3003448486328</v>
       </c>
       <c r="J121">
-        <v>191.4091209411621</v>
-      </c>
-      <c r="L121">
-        <v>181.4135965384246</v>
-      </c>
-      <c r="M121">
-        <v>30.93677757276521</v>
-      </c>
-      <c r="N121">
-        <v>100</v>
+        <v>190.9230377197266</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5004,19 +5004,19 @@
         <v>134</v>
       </c>
       <c r="B122">
-        <v>181.4135965384246</v>
+        <v>178.9831750072614</v>
       </c>
       <c r="C122">
-        <v>182.4096630385883</v>
+        <v>179.5608953468559</v>
       </c>
       <c r="D122">
-        <v>176.6523998835435</v>
+        <v>176.8814742816959</v>
       </c>
       <c r="E122">
-        <v>178.1464996337891</v>
+        <v>179.0927429199219</v>
       </c>
       <c r="F122">
-        <v>97576100</v>
+        <v>67823000</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -5025,10 +5025,10 @@
         <v>0</v>
       </c>
       <c r="I122">
-        <v>187.3003509521484</v>
+        <v>184.15078125</v>
       </c>
       <c r="J122">
-        <v>190.9230407714844</v>
+        <v>190.5106658935547</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5036,19 +5036,19 @@
         <v>135</v>
       </c>
       <c r="B123">
-        <v>178.9831902567152</v>
+        <v>180.1585408588124</v>
       </c>
       <c r="C123">
-        <v>179.5609106455318</v>
+        <v>180.218302416302</v>
       </c>
       <c r="D123">
-        <v>176.8814893520837</v>
+        <v>176.3137236063737</v>
       </c>
       <c r="E123">
-        <v>179.0927581787109</v>
+        <v>177.4890899658203</v>
       </c>
       <c r="F123">
-        <v>67823000</v>
+        <v>60378500</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -5057,10 +5057,10 @@
         <v>0</v>
       </c>
       <c r="I123">
-        <v>184.1507873535156</v>
+        <v>181.2841003417969</v>
       </c>
       <c r="J123">
-        <v>190.5106689453125</v>
+        <v>189.9339431762695</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5068,19 +5068,19 @@
         <v>136</v>
       </c>
       <c r="B124">
-        <v>180.158556347095</v>
+        <v>178.774013458841</v>
       </c>
       <c r="C124">
-        <v>180.2183179097223</v>
+        <v>180.0390221857321</v>
       </c>
       <c r="D124">
-        <v>176.3137387641162</v>
+        <v>176.9014187499696</v>
       </c>
       <c r="E124">
-        <v>177.4891052246094</v>
+        <v>177.2699584960938</v>
       </c>
       <c r="F124">
-        <v>60378500</v>
+        <v>54686900</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -5089,10 +5089,10 @@
         <v>0</v>
       </c>
       <c r="I124">
-        <v>181.2841094970703</v>
+        <v>178.6544860839844</v>
       </c>
       <c r="J124">
-        <v>189.9339469909668</v>
+        <v>189.3079154968262</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5100,31 +5100,31 @@
         <v>137</v>
       </c>
       <c r="B125">
-        <v>178.774013458841</v>
+        <v>176.8610340117903</v>
       </c>
       <c r="C125">
-        <v>180.0390221857321</v>
+        <v>178.1576569295119</v>
       </c>
       <c r="D125">
-        <v>176.9014187499696</v>
+        <v>176.0930228105955</v>
       </c>
       <c r="E125">
-        <v>177.2699584960938</v>
+        <v>177.3298034667969</v>
       </c>
       <c r="F125">
-        <v>54686900</v>
+        <v>51988100</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>178.6544952392578</v>
+        <v>177.8656158447266</v>
       </c>
       <c r="J125">
-        <v>189.3079200744629</v>
+        <v>188.677409362793</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5132,31 +5132,31 @@
         <v>138</v>
       </c>
       <c r="B126">
-        <v>176.8610187933376</v>
+        <v>177.5093347104991</v>
       </c>
       <c r="C126">
-        <v>178.1576415994881</v>
+        <v>179.2248837934574</v>
       </c>
       <c r="D126">
-        <v>176.0930076582283</v>
+        <v>176.8510394350935</v>
       </c>
       <c r="E126">
-        <v>177.3297882080078</v>
+        <v>178.9954833984375</v>
       </c>
       <c r="F126">
-        <v>51988100</v>
+        <v>43675600</v>
       </c>
       <c r="G126">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126">
-        <v>177.8656219482422</v>
+        <v>178.0354156494141</v>
       </c>
       <c r="J126">
-        <v>188.6774131774902</v>
+        <v>187.965837097168</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -5164,19 +5164,19 @@
         <v>139</v>
       </c>
       <c r="B127">
-        <v>177.5093498425988</v>
+        <v>178.4169833134469</v>
       </c>
       <c r="C127">
-        <v>179.2248990718021</v>
+        <v>179.0154211131435</v>
       </c>
       <c r="D127">
-        <v>176.8510545110755</v>
+        <v>176.5917183467517</v>
       </c>
       <c r="E127">
-        <v>178.9954986572266</v>
+        <v>176.9906768798828</v>
       </c>
       <c r="F127">
-        <v>43675600</v>
+        <v>43622600</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -5185,10 +5185,10 @@
         <v>0</v>
       </c>
       <c r="I127">
-        <v>178.0354217529297</v>
+        <v>177.6150024414063</v>
       </c>
       <c r="J127">
-        <v>187.9658409118652</v>
+        <v>187.1669731140137</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -5196,19 +5196,19 @@
         <v>140</v>
       </c>
       <c r="B128">
-        <v>178.4169833134469</v>
+        <v>176.6715088360585</v>
       </c>
       <c r="C128">
-        <v>179.0154211131435</v>
+        <v>178.077847523966</v>
       </c>
       <c r="D128">
-        <v>176.5917183467517</v>
+        <v>176.043134703205</v>
       </c>
       <c r="E128">
-        <v>176.9906768798828</v>
+        <v>176.1129608154297</v>
       </c>
       <c r="F128">
-        <v>43622600</v>
+        <v>46964900</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -5217,10 +5217,10 @@
         <v>0</v>
       </c>
       <c r="I128">
-        <v>177.6150054931641</v>
+        <v>177.3397766113281</v>
       </c>
       <c r="J128">
-        <v>187.1669761657715</v>
+        <v>186.2559921264648</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -5228,19 +5228,19 @@
         <v>141</v>
       </c>
       <c r="B129">
-        <v>176.6715088360585</v>
+        <v>176.6814934546824</v>
       </c>
       <c r="C129">
-        <v>178.077847523966</v>
+        <v>177.0505308832748</v>
       </c>
       <c r="D129">
-        <v>176.043134703205</v>
+        <v>173.0309632791196</v>
       </c>
       <c r="E129">
-        <v>176.1129608154297</v>
+        <v>173.5496215820312</v>
       </c>
       <c r="F129">
-        <v>46964900</v>
+        <v>66062900</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -5249,10 +5249,10 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>177.3397766113281</v>
+        <v>176.5957092285156</v>
       </c>
       <c r="J129">
-        <v>186.2559951782227</v>
+        <v>185.3149566650391</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5260,19 +5260,19 @@
         <v>142</v>
       </c>
       <c r="B130">
-        <v>176.6814934546824</v>
+        <v>171.8540116261728</v>
       </c>
       <c r="C130">
-        <v>177.0505308832748</v>
+        <v>174.6467669859366</v>
       </c>
       <c r="D130">
-        <v>173.0309632791196</v>
+        <v>171.5148953547288</v>
       </c>
       <c r="E130">
-        <v>173.5496215820312</v>
+        <v>174.0383453369141</v>
       </c>
       <c r="F130">
-        <v>66062900</v>
+        <v>61114200</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -5281,10 +5281,10 @@
         <v>0</v>
       </c>
       <c r="I130">
-        <v>176.5957092285156</v>
+        <v>175.9374176025391</v>
       </c>
       <c r="J130">
-        <v>185.3149597167969</v>
+        <v>184.4576232910156</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5292,19 +5292,19 @@
         <v>143</v>
       </c>
       <c r="B131">
-        <v>171.8540266934507</v>
+        <v>174.6168459893807</v>
       </c>
       <c r="C131">
-        <v>174.6467822980689</v>
+        <v>175.6740997889724</v>
       </c>
       <c r="D131">
-        <v>171.5149103922747</v>
+        <v>173.2902868120067</v>
       </c>
       <c r="E131">
-        <v>174.0383605957031</v>
+        <v>175.3848419189453</v>
       </c>
       <c r="F131">
-        <v>61114200</v>
+        <v>46311900</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -5313,10 +5313,10 @@
         <v>0</v>
       </c>
       <c r="I131">
-        <v>175.9374237060547</v>
+        <v>175.2152893066406</v>
       </c>
       <c r="J131">
-        <v>184.4576278686523</v>
+        <v>183.6272750854492</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5324,19 +5324,19 @@
         <v>144</v>
       </c>
       <c r="B132">
-        <v>174.6168459893807</v>
+        <v>176.6016821015168</v>
       </c>
       <c r="C132">
-        <v>175.6740997889724</v>
+        <v>177.2200723765635</v>
       </c>
       <c r="D132">
-        <v>173.2902868120067</v>
+        <v>175.793781201719</v>
       </c>
       <c r="E132">
-        <v>175.3848419189453</v>
+        <v>176.771240234375</v>
       </c>
       <c r="F132">
-        <v>46311900</v>
+        <v>42084200</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>0</v>
       </c>
       <c r="I132">
-        <v>175.2152923583984</v>
+        <v>175.1714019775391</v>
       </c>
       <c r="J132">
-        <v>183.6272789001465</v>
+        <v>182.8229179382324</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5356,19 +5356,19 @@
         <v>145</v>
       </c>
       <c r="B133">
-        <v>176.6016973456697</v>
+        <v>178.0579230541784</v>
       </c>
       <c r="C133">
-        <v>177.2200876740955</v>
+        <v>181.0800789839693</v>
       </c>
       <c r="D133">
-        <v>175.7937963761344</v>
+        <v>177.8684124151333</v>
       </c>
       <c r="E133">
-        <v>176.7712554931641</v>
+        <v>180.6511840820312</v>
       </c>
       <c r="F133">
-        <v>42084200</v>
+        <v>52722800</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -5377,10 +5377,10 @@
         <v>0</v>
       </c>
       <c r="I133">
-        <v>175.1714080810547</v>
+        <v>176.0790466308594</v>
       </c>
       <c r="J133">
-        <v>182.8229225158692</v>
+        <v>182.1687301635742</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5388,19 +5388,19 @@
         <v>146</v>
       </c>
       <c r="B134">
-        <v>178.0579230541784</v>
+        <v>180.2023353282038</v>
       </c>
       <c r="C134">
-        <v>181.0800789839693</v>
+        <v>180.6312301906854</v>
       </c>
       <c r="D134">
-        <v>177.8684124151333</v>
+        <v>175.5543940481865</v>
       </c>
       <c r="E134">
-        <v>180.6511840820312</v>
+        <v>175.9234466552734</v>
       </c>
       <c r="F134">
-        <v>52722800</v>
+        <v>54945800</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -5409,10 +5409,10 @@
         <v>0</v>
       </c>
       <c r="I134">
-        <v>176.079052734375</v>
+        <v>176.5538116455078</v>
       </c>
       <c r="J134">
-        <v>182.1687355041504</v>
+        <v>181.3419044494629</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5420,19 +5420,19 @@
         <v>147</v>
       </c>
       <c r="B135">
-        <v>180.202350958124</v>
+        <v>176.920862636065</v>
       </c>
       <c r="C135">
-        <v>180.6312458578059</v>
+        <v>178.6862700920072</v>
       </c>
       <c r="D135">
-        <v>175.5544092749656</v>
+        <v>175.3649030792993</v>
       </c>
       <c r="E135">
-        <v>175.9234619140625</v>
+        <v>178.1476745605469</v>
       </c>
       <c r="F135">
-        <v>54945800</v>
+        <v>51449600</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -5441,10 +5441,10 @@
         <v>0</v>
       </c>
       <c r="I135">
-        <v>176.5538208007812</v>
+        <v>177.3756774902344</v>
       </c>
       <c r="J135">
-        <v>181.3419097900391</v>
+        <v>180.4963027954101</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5452,19 +5452,19 @@
         <v>148</v>
       </c>
       <c r="B136">
-        <v>176.9208777897746</v>
+        <v>179.6238397948552</v>
       </c>
       <c r="C136">
-        <v>178.6862853969284</v>
+        <v>180.1225455626588</v>
       </c>
       <c r="D136">
-        <v>175.3649180997371</v>
+        <v>178.0878327265089</v>
       </c>
       <c r="E136">
-        <v>178.1476898193359</v>
+        <v>179.7235870361328</v>
       </c>
       <c r="F136">
-        <v>51449600</v>
+        <v>43820700</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -5473,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="I136">
-        <v>177.3756866455078</v>
+        <v>178.2434265136719</v>
       </c>
       <c r="J136">
-        <v>180.4963088989258</v>
+        <v>179.6986190795898</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5484,19 +5484,19 @@
         <v>149</v>
       </c>
       <c r="B137">
-        <v>179.6238550451756</v>
+        <v>179.2348599502454</v>
       </c>
       <c r="C137">
-        <v>180.12256085532</v>
+        <v>184.4213971822317</v>
       </c>
       <c r="D137">
-        <v>178.08784784642</v>
+        <v>179.0353806758023</v>
       </c>
       <c r="E137">
-        <v>179.7236022949219</v>
+        <v>183.6434173583984</v>
       </c>
       <c r="F137">
-        <v>43820700</v>
+        <v>53003900</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -5505,10 +5505,13 @@
         <v>0</v>
       </c>
       <c r="I137">
-        <v>178.2434387207031</v>
+        <v>179.6178619384766</v>
       </c>
       <c r="J137">
-        <v>179.6986259460449</v>
+        <v>179.1387619018555</v>
+      </c>
+      <c r="K137">
+        <v>184.4612992752611</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5516,19 +5519,19 @@
         <v>150</v>
       </c>
       <c r="B138">
-        <v>179.2348450577599</v>
+        <v>184.4612992752611</v>
       </c>
       <c r="C138">
-        <v>184.4213818588009</v>
+        <v>187.3637706136538</v>
       </c>
       <c r="D138">
-        <v>179.0353657998914</v>
+        <v>184.261820003947</v>
       </c>
       <c r="E138">
-        <v>183.6434020996094</v>
+        <v>187.1642761230469</v>
       </c>
       <c r="F138">
-        <v>53003900</v>
+        <v>60813900</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -5537,13 +5540,10 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>179.6178680419922</v>
+        <v>180.9204803466797</v>
       </c>
       <c r="J138">
-        <v>179.1387672424316</v>
-      </c>
-      <c r="K138">
-        <v>184.4612992752611</v>
+        <v>178.905850982666</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5551,19 +5551,19 @@
         <v>151</v>
       </c>
       <c r="B139">
-        <v>184.4612992752611</v>
+        <v>187.3537916380428</v>
       </c>
       <c r="C139">
-        <v>187.3637706136538</v>
+        <v>188.6304772708617</v>
       </c>
       <c r="D139">
-        <v>184.261820003947</v>
+        <v>186.9947228526067</v>
       </c>
       <c r="E139">
-        <v>187.1642761230469</v>
+        <v>187.3837127685547</v>
       </c>
       <c r="F139">
-        <v>60813900</v>
+        <v>60794500</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -5572,10 +5572,10 @@
         <v>0</v>
       </c>
       <c r="I139">
-        <v>180.9204864501953</v>
+        <v>183.2125335693359</v>
       </c>
       <c r="J139">
-        <v>178.9058563232422</v>
+        <v>178.7541351318359</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5583,19 +5583,19 @@
         <v>152</v>
       </c>
       <c r="B140">
-        <v>187.3537763816902</v>
+        <v>188.9995256220201</v>
       </c>
       <c r="C140">
-        <v>188.6304619105477</v>
+        <v>189.4284052958166</v>
       </c>
       <c r="D140">
-        <v>186.9947076254933</v>
+        <v>187.7926509146963</v>
       </c>
       <c r="E140">
-        <v>187.3836975097656</v>
+        <v>188.9696044921875</v>
       </c>
       <c r="F140">
-        <v>60794500</v>
+        <v>45732600</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="I140">
-        <v>183.2125335693359</v>
+        <v>185.3769195556641</v>
       </c>
       <c r="J140">
-        <v>178.7541397094727</v>
+        <v>179.138907623291</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5615,19 +5615,19 @@
         <v>153</v>
       </c>
       <c r="B141">
-        <v>188.999510360815</v>
+        <v>187.7926465331043</v>
       </c>
       <c r="C141">
-        <v>189.4283899999806</v>
+        <v>189.4882431343282</v>
       </c>
       <c r="D141">
-        <v>187.792635750943</v>
+        <v>187.1243826169458</v>
       </c>
       <c r="E141">
-        <v>188.9695892333984</v>
+        <v>189.2089691162109</v>
       </c>
       <c r="F141">
-        <v>45732600</v>
+        <v>45280000</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -5636,10 +5636,10 @@
         <v>0</v>
       </c>
       <c r="I141">
-        <v>185.3769134521484</v>
+        <v>187.2739959716797</v>
       </c>
       <c r="J141">
-        <v>179.1389114379883</v>
+        <v>179.6920318603516</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5647,19 +5647,19 @@
         <v>154</v>
       </c>
       <c r="B142">
-        <v>187.7926465331043</v>
+        <v>187.9123337350437</v>
       </c>
       <c r="C142">
-        <v>189.4882431343282</v>
+        <v>188.3611811170609</v>
       </c>
       <c r="D142">
-        <v>187.1243826169458</v>
+        <v>181.0002788589256</v>
       </c>
       <c r="E142">
-        <v>189.2089691162109</v>
+        <v>182.4365539550781</v>
       </c>
       <c r="F142">
-        <v>45280000</v>
+        <v>81755800</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -5668,10 +5668,10 @@
         <v>0</v>
       </c>
       <c r="I142">
-        <v>187.2739868164062</v>
+        <v>187.0326232910156</v>
       </c>
       <c r="J142">
-        <v>179.6920349121094</v>
+        <v>179.8592224121094</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5679,19 +5679,19 @@
         <v>155</v>
       </c>
       <c r="B143">
-        <v>187.9123180182665</v>
+        <v>174.7265583327982</v>
       </c>
       <c r="C143">
-        <v>188.3611653627427</v>
+        <v>177.7487295093587</v>
       </c>
       <c r="D143">
-        <v>181.000263720265</v>
+        <v>173.0908039030586</v>
       </c>
       <c r="E143">
-        <v>182.4365386962891</v>
+        <v>177.1004028320312</v>
       </c>
       <c r="F143">
-        <v>81755800</v>
+        <v>112488800</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -5700,10 +5700,10 @@
         <v>0</v>
       </c>
       <c r="I143">
-        <v>187.0326141357422</v>
+        <v>185.0198486328125</v>
       </c>
       <c r="J143">
-        <v>179.8592239379883</v>
+        <v>179.8397880554199</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5711,19 +5711,19 @@
         <v>156</v>
       </c>
       <c r="B144">
-        <v>174.7265432785372</v>
+        <v>177.8883538719981</v>
       </c>
       <c r="C144">
-        <v>177.7487141947105</v>
+        <v>179.7734610698555</v>
       </c>
       <c r="D144">
-        <v>173.0907889897325</v>
+        <v>177.3297906265692</v>
       </c>
       <c r="E144">
-        <v>177.1003875732422</v>
+        <v>177.7187805175781</v>
       </c>
       <c r="F144">
-        <v>112488800</v>
+        <v>65551300</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -5732,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="I144">
-        <v>185.0198364257812</v>
+        <v>183.0868621826172</v>
       </c>
       <c r="J144">
-        <v>179.8397880554199</v>
+        <v>179.8622291564942</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -5743,19 +5743,19 @@
         <v>157</v>
       </c>
       <c r="B145">
-        <v>177.8883538719981</v>
+        <v>179.6039055932151</v>
       </c>
       <c r="C145">
-        <v>179.7734610698555</v>
+        <v>179.8333059889256</v>
       </c>
       <c r="D145">
-        <v>177.3297906265692</v>
+        <v>176.8809610965556</v>
       </c>
       <c r="E145">
-        <v>177.7187805175781</v>
+        <v>178.8957366943359</v>
       </c>
       <c r="F145">
-        <v>65551300</v>
+        <v>58953100</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -5764,10 +5764,10 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>183.0868530273438</v>
+        <v>181.0720886230469</v>
       </c>
       <c r="J145">
-        <v>179.8622291564942</v>
+        <v>179.9405258178711</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -5775,19 +5775,19 @@
         <v>158</v>
       </c>
       <c r="B146">
-        <v>179.6039055932151</v>
+        <v>179.0254037112626</v>
       </c>
       <c r="C146">
-        <v>179.8333059889256</v>
+        <v>179.6637464913632</v>
       </c>
       <c r="D146">
-        <v>176.8809610965556</v>
+        <v>174.3674936219004</v>
       </c>
       <c r="E146">
-        <v>178.8957366943359</v>
+        <v>175.8436584472656</v>
       </c>
       <c r="F146">
-        <v>58953100</v>
+        <v>90370200</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -5796,10 +5796,19 @@
         <v>0</v>
       </c>
       <c r="I146">
-        <v>181.0720825195312</v>
+        <v>178.3990264892578</v>
       </c>
       <c r="J146">
-        <v>179.9405265808105</v>
+        <v>179.7829345703125</v>
+      </c>
+      <c r="L146">
+        <v>176.0530979901105</v>
+      </c>
+      <c r="M146">
+        <v>-8.408201285150625</v>
+      </c>
+      <c r="N146">
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -5807,19 +5816,19 @@
         <v>159</v>
       </c>
       <c r="B147">
-        <v>179.0254192461468</v>
+        <v>176.0530979901105</v>
       </c>
       <c r="C147">
-        <v>179.6637620816394</v>
+        <v>176.8410615961417</v>
       </c>
       <c r="D147">
-        <v>174.3675087525956</v>
+        <v>173.5296481183291</v>
       </c>
       <c r="E147">
-        <v>175.8436737060547</v>
+        <v>173.7590637207031</v>
       </c>
       <c r="F147">
-        <v>90370200</v>
+        <v>84267900</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -5828,19 +5837,10 @@
         <v>0</v>
       </c>
       <c r="I147">
-        <v>178.3990234375</v>
+        <v>176.6635284423828</v>
       </c>
       <c r="J147">
-        <v>179.7829353332519</v>
-      </c>
-      <c r="L147">
-        <v>176.053113450352</v>
-      </c>
-      <c r="M147">
-        <v>-8.40818582490914</v>
-      </c>
-      <c r="N147">
-        <v>9</v>
+        <v>179.6213539123535</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -5848,19 +5848,19 @@
         <v>160</v>
       </c>
       <c r="B148">
-        <v>176.053113450352</v>
+        <v>173.5496240133427</v>
       </c>
       <c r="C148">
-        <v>176.8410771255788</v>
+        <v>175.6441945288074</v>
       </c>
       <c r="D148">
-        <v>173.5296633569718</v>
+        <v>173.1307129541085</v>
       </c>
       <c r="E148">
-        <v>173.7590789794922</v>
+        <v>175.2851257324219</v>
       </c>
       <c r="F148">
-        <v>84267900</v>
+        <v>60895800</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -5869,10 +5869,10 @@
         <v>0</v>
       </c>
       <c r="I148">
-        <v>176.6635314941406</v>
+        <v>176.3004730224609</v>
       </c>
       <c r="J148">
-        <v>179.6213554382324</v>
+        <v>179.5799621582031</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -5880,19 +5880,19 @@
         <v>161</v>
       </c>
       <c r="B149">
-        <v>173.5496089056313</v>
+        <v>176.0231724004364</v>
       </c>
       <c r="C149">
-        <v>175.644179238761</v>
+        <v>176.0431248912873</v>
       </c>
       <c r="D149">
-        <v>173.1306978828638</v>
+        <v>173.3700694503225</v>
       </c>
       <c r="E149">
-        <v>175.2851104736328</v>
+        <v>174.5569763183594</v>
       </c>
       <c r="F149">
-        <v>60895800</v>
+        <v>109205100</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -5901,10 +5901,10 @@
         <v>0</v>
       </c>
       <c r="I149">
-        <v>176.3004760742188</v>
+        <v>175.6681121826172</v>
       </c>
       <c r="J149">
-        <v>179.5799629211426</v>
+        <v>179.6303298950195</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -5912,19 +5912,19 @@
         <v>162</v>
       </c>
       <c r="B150">
-        <v>176.023187787392</v>
+        <v>176.0231896602551</v>
       </c>
       <c r="C150">
-        <v>176.0431402799871</v>
+        <v>178.9156923456205</v>
       </c>
       <c r="D150">
-        <v>173.3700846053588</v>
+        <v>175.7139945085575</v>
       </c>
       <c r="E150">
-        <v>174.5569915771484</v>
+        <v>177.5093383789062</v>
       </c>
       <c r="F150">
-        <v>109205100</v>
+        <v>67257600</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -5933,10 +5933,10 @@
         <v>0</v>
       </c>
       <c r="I150">
-        <v>175.6681182861328</v>
+        <v>175.3908325195312</v>
       </c>
       <c r="J150">
-        <v>179.6303314208984</v>
+        <v>179.8038795471192</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -5944,19 +5944,19 @@
         <v>163</v>
       </c>
       <c r="B151">
-        <v>176.0231896602551</v>
+        <v>177.060500163931</v>
       </c>
       <c r="C151">
-        <v>178.9156923456205</v>
+        <v>179.1650391140408</v>
       </c>
       <c r="D151">
-        <v>175.7139945085575</v>
+        <v>176.6715102735928</v>
       </c>
       <c r="E151">
-        <v>177.5093383789062</v>
+        <v>178.6064910888672</v>
       </c>
       <c r="F151">
-        <v>67257600</v>
+        <v>51826900</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -5965,10 +5965,10 @@
         <v>0</v>
       </c>
       <c r="I151">
-        <v>175.3908386230469</v>
+        <v>175.9433990478516</v>
       </c>
       <c r="J151">
-        <v>179.8038803100586</v>
+        <v>179.9649620056152</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -5976,19 +5976,19 @@
         <v>164</v>
       </c>
       <c r="B152">
-        <v>177.060500163931</v>
+        <v>178.7959817770232</v>
       </c>
       <c r="C152">
-        <v>179.1650391140408</v>
+        <v>179.2348452764445</v>
       </c>
       <c r="D152">
-        <v>176.6715102735928</v>
+        <v>174.945972740225</v>
       </c>
       <c r="E152">
-        <v>178.6064910888672</v>
+        <v>175.0357513427734</v>
       </c>
       <c r="F152">
-        <v>51826900</v>
+        <v>58436200</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -5997,10 +5997,10 @@
         <v>0</v>
       </c>
       <c r="I152">
-        <v>175.9434020996094</v>
+        <v>176.1987365722656</v>
       </c>
       <c r="J152">
-        <v>179.9649627685547</v>
+        <v>179.8781875610352</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -6008,19 +6008,19 @@
         <v>165</v>
       </c>
       <c r="B153">
-        <v>178.7959817770232</v>
+        <v>174.0982029225113</v>
       </c>
       <c r="C153">
-        <v>179.2348452764445</v>
+        <v>175.8436732736293</v>
       </c>
       <c r="D153">
-        <v>174.945972740225</v>
+        <v>173.4099864632692</v>
       </c>
       <c r="E153">
-        <v>175.0357513427734</v>
+        <v>173.4797973632812</v>
       </c>
       <c r="F153">
-        <v>58436200</v>
+        <v>63047900</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -6029,10 +6029,10 @@
         <v>0</v>
       </c>
       <c r="I153">
-        <v>176.1987365722656</v>
+        <v>175.8376708984375</v>
       </c>
       <c r="J153">
-        <v>179.8781875610352</v>
+        <v>179.5196182250976</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -6040,19 +6040,19 @@
         <v>166</v>
       </c>
       <c r="B154">
-        <v>174.098187609329</v>
+        <v>174.2178704180085</v>
       </c>
       <c r="C154">
-        <v>175.8436578069204</v>
+        <v>176.6216358620672</v>
       </c>
       <c r="D154">
-        <v>173.4099712106205</v>
+        <v>173.5994801385199</v>
       </c>
       <c r="E154">
-        <v>173.4797821044922</v>
+        <v>174.3375549316406</v>
       </c>
       <c r="F154">
-        <v>63047900</v>
+        <v>56725400</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -6061,10 +6061,10 @@
         <v>0</v>
       </c>
       <c r="I154">
-        <v>175.8376708984375</v>
+        <v>175.7937866210937</v>
       </c>
       <c r="J154">
-        <v>179.5196174621582</v>
+        <v>179.440323638916</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -6072,19 +6072,19 @@
         <v>167</v>
       </c>
       <c r="B155">
-        <v>174.2178856663223</v>
+        <v>173.7490832789615</v>
       </c>
       <c r="C155">
-        <v>176.621651320769</v>
+        <v>176.51191744343</v>
       </c>
       <c r="D155">
-        <v>173.5994953327094</v>
+        <v>173.6992096592355</v>
       </c>
       <c r="E155">
-        <v>174.3375701904297</v>
+        <v>175.6242218017578</v>
       </c>
       <c r="F155">
-        <v>56725400</v>
+        <v>46172700</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -6093,10 +6093,10 @@
         <v>0</v>
       </c>
       <c r="I155">
-        <v>175.7937866210937</v>
+        <v>175.4167633056641</v>
       </c>
       <c r="J155">
-        <v>179.4403228759766</v>
+        <v>179.3141510009766</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -6104,19 +6104,19 @@
         <v>168</v>
       </c>
       <c r="B156">
-        <v>173.7490983748326</v>
+        <v>174.3674901491058</v>
       </c>
       <c r="C156">
-        <v>176.5119327793448</v>
+        <v>174.7464961795814</v>
       </c>
       <c r="D156">
-        <v>173.6992247507734</v>
+        <v>171.2156660766922</v>
       </c>
       <c r="E156">
-        <v>175.6242370605469</v>
+        <v>171.514892578125</v>
       </c>
       <c r="F156">
-        <v>46172700</v>
+        <v>64588900</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -6125,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="I156">
-        <v>175.4167663574219</v>
+        <v>173.9984436035156</v>
       </c>
       <c r="J156">
-        <v>179.3141502380371</v>
+        <v>178.9037162780762</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -6136,19 +6136,19 @@
         <v>169</v>
       </c>
       <c r="B157">
-        <v>174.3674901491058</v>
+        <v>172.1731641341511</v>
       </c>
       <c r="C157">
-        <v>174.7464961795814</v>
+        <v>172.592075127798</v>
       </c>
       <c r="D157">
-        <v>171.2156660766922</v>
+        <v>168.6124130785068</v>
       </c>
       <c r="E157">
-        <v>171.514892578125</v>
+        <v>169.9888305664062</v>
       </c>
       <c r="F157">
-        <v>64588900</v>
+        <v>66921800</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -6157,10 +6157,10 @@
         <v>0</v>
       </c>
       <c r="I157">
-        <v>173.9984466552734</v>
+        <v>172.9890594482422</v>
       </c>
       <c r="J157">
-        <v>178.9037147521973</v>
+        <v>178.2209869384766</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -6168,19 +6168,19 @@
         <v>170</v>
       </c>
       <c r="B158">
-        <v>172.1731795890136</v>
+        <v>168.9016724898792</v>
       </c>
       <c r="C158">
-        <v>172.5920906202634</v>
+        <v>171.5847120622246</v>
       </c>
       <c r="D158">
-        <v>168.6124282137439</v>
+        <v>167.1861233630107</v>
       </c>
       <c r="E158">
-        <v>169.9888458251953</v>
+        <v>170.2481842041016</v>
       </c>
       <c r="F158">
-        <v>66921800</v>
+        <v>56294400</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -6189,10 +6189,10 @@
         <v>0</v>
       </c>
       <c r="I158">
-        <v>172.9890655517578</v>
+        <v>172.3427368164062</v>
       </c>
       <c r="J158">
-        <v>178.2209869384766</v>
+        <v>177.3751823425293</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -6200,19 +6200,19 @@
         <v>171</v>
       </c>
       <c r="B159">
-        <v>168.9016724898792</v>
+        <v>171.5747313281895</v>
       </c>
       <c r="C159">
-        <v>171.5847120622246</v>
+        <v>172.6220164521555</v>
       </c>
       <c r="D159">
-        <v>167.1861233630107</v>
+        <v>169.8990720859854</v>
       </c>
       <c r="E159">
-        <v>170.2481842041016</v>
+        <v>170.7668304443359</v>
       </c>
       <c r="F159">
-        <v>56294400</v>
+        <v>51814200</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -6221,10 +6221,10 @@
         <v>0</v>
       </c>
       <c r="I159">
-        <v>172.3427459716797</v>
+        <v>171.6285919189453</v>
       </c>
       <c r="J159">
-        <v>177.3751823425293</v>
+        <v>176.5443382263184</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -6232,19 +6232,19 @@
         <v>172</v>
       </c>
       <c r="B160">
-        <v>171.5747466591681</v>
+        <v>170.7768123651097</v>
       </c>
       <c r="C160">
-        <v>172.6220318767139</v>
+        <v>173.8488418653795</v>
       </c>
       <c r="D160">
-        <v>169.8990872672364</v>
+        <v>170.4875544833944</v>
       </c>
       <c r="E160">
-        <v>170.766845703125</v>
+        <v>173.3002624511719</v>
       </c>
       <c r="F160">
-        <v>51814200</v>
+        <v>52164500</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -6253,10 +6253,10 @@
         <v>0</v>
       </c>
       <c r="I160">
-        <v>171.6286010742188</v>
+        <v>171.1638000488281</v>
       </c>
       <c r="J160">
-        <v>176.5443397521973</v>
+        <v>175.7608711242676</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -6264,19 +6264,19 @@
         <v>173</v>
       </c>
       <c r="B161">
-        <v>170.7767973285061</v>
+        <v>171.8141135976747</v>
       </c>
       <c r="C161">
-        <v>173.848826558289</v>
+        <v>173.1805778138261</v>
       </c>
       <c r="D161">
-        <v>170.4875394722594</v>
+        <v>170.3778537041243</v>
       </c>
       <c r="E161">
-        <v>173.3002471923828</v>
+        <v>171.9537506103516</v>
       </c>
       <c r="F161">
-        <v>52164500</v>
+        <v>49594600</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -6285,10 +6285,10 @@
         <v>0</v>
       </c>
       <c r="I161">
-        <v>171.1638031005859</v>
+        <v>171.2515716552734</v>
       </c>
       <c r="J161">
-        <v>175.7608726501465</v>
+        <v>174.8981101989746</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -6296,19 +6296,19 @@
         <v>174</v>
       </c>
       <c r="B162">
-        <v>171.8140983512768</v>
+        <v>170.6471399831299</v>
       </c>
       <c r="C162">
-        <v>173.1805624461712</v>
+        <v>173.7590743964464</v>
       </c>
       <c r="D162">
-        <v>170.3778385851768</v>
+        <v>170.527455466219</v>
       </c>
       <c r="E162">
-        <v>171.9537353515625</v>
+        <v>173.2104949951172</v>
       </c>
       <c r="F162">
-        <v>49594600</v>
+        <v>53020300</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -6317,10 +6317,10 @@
         <v>0</v>
       </c>
       <c r="I162">
-        <v>171.2515716552734</v>
+        <v>171.8959045410156</v>
       </c>
       <c r="J162">
-        <v>174.8981109619141</v>
+        <v>174.4368072509766</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -6328,19 +6328,19 @@
         <v>175</v>
       </c>
       <c r="B163">
-        <v>170.6471399831299</v>
+        <v>173.3401488321898</v>
       </c>
       <c r="C163">
-        <v>173.7590743964464</v>
+        <v>174.9958556793513</v>
       </c>
       <c r="D163">
-        <v>170.527455466219</v>
+        <v>172.2330213885206</v>
       </c>
       <c r="E163">
-        <v>173.2104949951172</v>
+        <v>174.4572601318359</v>
       </c>
       <c r="F163">
-        <v>53020300</v>
+        <v>48527900</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -6349,10 +6349,10 @@
         <v>0</v>
       </c>
       <c r="I163">
-        <v>171.8959014892578</v>
+        <v>172.7377197265625</v>
       </c>
       <c r="J163">
-        <v>174.4368087768555</v>
+        <v>174.3046501159668</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -6360,19 +6360,19 @@
         <v>176</v>
       </c>
       <c r="B164">
-        <v>173.3401488321898</v>
+        <v>173.350142560029</v>
       </c>
       <c r="C164">
-        <v>174.9958556793513</v>
+        <v>177.5292996819557</v>
       </c>
       <c r="D164">
-        <v>172.2330213885206</v>
+        <v>172.7317370066515</v>
       </c>
       <c r="E164">
-        <v>174.4572601318359</v>
+        <v>177.0305938720703</v>
       </c>
       <c r="F164">
-        <v>48527900</v>
+        <v>57224100</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="I164">
-        <v>172.7377166748047</v>
+        <v>173.9904724121094</v>
       </c>
       <c r="J164">
-        <v>174.3046524047851</v>
+        <v>174.2702407836914</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -6392,19 +6392,19 @@
         <v>177</v>
       </c>
       <c r="B165">
-        <v>173.3501276184689</v>
+        <v>176.3523377382883</v>
       </c>
       <c r="C165">
-        <v>177.5292843801817</v>
+        <v>178.586545140136</v>
       </c>
       <c r="D165">
-        <v>172.7317221183936</v>
+        <v>175.3449575287822</v>
       </c>
       <c r="E165">
-        <v>177.0305786132812</v>
+        <v>178.5267028808594</v>
       </c>
       <c r="F165">
-        <v>57224100</v>
+        <v>42390800</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -6413,10 +6413,13 @@
         <v>0</v>
       </c>
       <c r="I165">
-        <v>173.9904632568359</v>
+        <v>175.0357604980469</v>
       </c>
       <c r="J165">
-        <v>174.2702423095703</v>
+        <v>174.2517890930176</v>
+      </c>
+      <c r="K165">
+        <v>177.6390105088228</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -6424,19 +6427,19 @@
         <v>178</v>
       </c>
       <c r="B166">
-        <v>176.3523377382883</v>
+        <v>177.6390105088228</v>
       </c>
       <c r="C166">
-        <v>178.586545140136</v>
+        <v>179.2548124166513</v>
       </c>
       <c r="D166">
-        <v>175.3449575287822</v>
+        <v>177.4893896385431</v>
       </c>
       <c r="E166">
-        <v>178.5267028808594</v>
+        <v>177.9282531738281</v>
       </c>
       <c r="F166">
-        <v>42390800</v>
+        <v>43698000</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -6445,13 +6448,10 @@
         <v>0</v>
       </c>
       <c r="I166">
-        <v>175.0357543945312</v>
+        <v>176.2306610107422</v>
       </c>
       <c r="J166">
-        <v>174.2517906188965</v>
-      </c>
-      <c r="K166">
-        <v>177.6390105088228</v>
+        <v>174.3560188293457</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -6459,19 +6459,19 @@
         <v>179</v>
       </c>
       <c r="B167">
-        <v>177.6390105088228</v>
+        <v>177.7387302034045</v>
       </c>
       <c r="C167">
-        <v>179.2548124166513</v>
+        <v>179.3844683465285</v>
       </c>
       <c r="D167">
-        <v>177.4893896385431</v>
+        <v>177.1402924216893</v>
       </c>
       <c r="E167">
-        <v>177.9282531738281</v>
+        <v>179.3345947265625</v>
       </c>
       <c r="F167">
-        <v>43698000</v>
+        <v>47551100</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -6480,10 +6480,10 @@
         <v>0</v>
       </c>
       <c r="I167">
-        <v>176.2306579589844</v>
+        <v>177.4554809570313</v>
       </c>
       <c r="J167">
-        <v>174.3560195922852</v>
+        <v>174.6347953796387</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -6491,19 +6491,19 @@
         <v>180</v>
       </c>
       <c r="B168">
-        <v>177.7387302034045</v>
+        <v>179.6039057496678</v>
       </c>
       <c r="C168">
-        <v>179.3844683465285</v>
+        <v>181.8680190182936</v>
       </c>
       <c r="D168">
-        <v>177.1402924216893</v>
+        <v>178.5765578477813</v>
       </c>
       <c r="E168">
-        <v>179.3345947265625</v>
+        <v>180.2422485351562</v>
       </c>
       <c r="F168">
-        <v>47551100</v>
+        <v>56743100</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -6512,10 +6512,10 @@
         <v>0</v>
       </c>
       <c r="I168">
-        <v>177.4554779052734</v>
+        <v>178.6124786376953</v>
       </c>
       <c r="J168">
-        <v>174.6347953796387</v>
+        <v>174.8826515197754</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -6523,19 +6523,19 @@
         <v>181</v>
       </c>
       <c r="B169">
-        <v>179.6039057496678</v>
+        <v>180.9503941070408</v>
       </c>
       <c r="C169">
-        <v>181.8680190182936</v>
+        <v>181.459068497603</v>
       </c>
       <c r="D169">
-        <v>178.5765578477813</v>
+        <v>177.6788855755961</v>
       </c>
       <c r="E169">
-        <v>180.2422485351562</v>
+        <v>178.3870544433594</v>
       </c>
       <c r="F169">
-        <v>56743100</v>
+        <v>51427100</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -6544,10 +6544,10 @@
         <v>0</v>
       </c>
       <c r="I169">
-        <v>178.6124755859375</v>
+        <v>178.8837707519531</v>
       </c>
       <c r="J169">
-        <v>174.8826522827148</v>
+        <v>175.0741554260254</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -6555,19 +6555,19 @@
         <v>182</v>
       </c>
       <c r="B170">
-        <v>180.9504095850916</v>
+        <v>176.2924984636196</v>
       </c>
       <c r="C170">
-        <v>181.4590840191646</v>
+        <v>178.6164692937267</v>
       </c>
       <c r="D170">
-        <v>177.6789007738102</v>
+        <v>176.0531142031676</v>
       </c>
       <c r="E170">
-        <v>178.3870697021484</v>
+        <v>178.2574005126953</v>
       </c>
       <c r="F170">
-        <v>51427100</v>
+        <v>52517000</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -6576,10 +6576,10 @@
         <v>0</v>
       </c>
       <c r="I170">
-        <v>178.8837738037109</v>
+        <v>178.8299102783203</v>
       </c>
       <c r="J170">
-        <v>175.0741561889648</v>
+        <v>175.1115585327148</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -6587,19 +6587,19 @@
         <v>183</v>
       </c>
       <c r="B171">
-        <v>176.2924833730256</v>
+        <v>176.1927462456331</v>
       </c>
       <c r="C171">
-        <v>178.6164540042015</v>
+        <v>177.9581689708337</v>
       </c>
       <c r="D171">
-        <v>176.0530991330649</v>
+        <v>174.3475439884926</v>
       </c>
       <c r="E171">
-        <v>178.2573852539062</v>
+        <v>176.6914520263672</v>
       </c>
       <c r="F171">
-        <v>52517000</v>
+        <v>57549400</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -6608,10 +6608,10 @@
         <v>0</v>
       </c>
       <c r="I171">
-        <v>178.8299102783203</v>
+        <v>178.5825500488281</v>
       </c>
       <c r="J171">
-        <v>175.1115585327148</v>
+        <v>175.0158065795898</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -6619,19 +6619,19 @@
         <v>184</v>
       </c>
       <c r="B172">
-        <v>176.1927462456331</v>
+        <v>175.1255203969317</v>
       </c>
       <c r="C172">
-        <v>177.9581689708337</v>
+        <v>177.1203434812308</v>
       </c>
       <c r="D172">
-        <v>174.3475439884926</v>
+        <v>174.656735754578</v>
       </c>
       <c r="E172">
-        <v>176.6914520263672</v>
+        <v>175.3848419189453</v>
       </c>
       <c r="F172">
-        <v>57549400</v>
+        <v>54764400</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -6640,10 +6640,10 @@
         <v>0</v>
       </c>
       <c r="I172">
-        <v>178.5825500488281</v>
+        <v>177.7925994873047</v>
       </c>
       <c r="J172">
-        <v>175.0158065795898</v>
+        <v>175.0332611083984</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -6651,19 +6651,19 @@
         <v>185</v>
       </c>
       <c r="B173">
-        <v>175.1255203969317</v>
+        <v>175.5843294448986</v>
       </c>
       <c r="C173">
-        <v>177.1203434812308</v>
+        <v>177.3796733490986</v>
       </c>
       <c r="D173">
-        <v>174.656735754578</v>
+        <v>174.7365387257577</v>
       </c>
       <c r="E173">
-        <v>175.3848419189453</v>
+        <v>175.0058441162109</v>
       </c>
       <c r="F173">
-        <v>54764400</v>
+        <v>59302900</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -6672,10 +6672,10 @@
         <v>0</v>
       </c>
       <c r="I173">
-        <v>177.7925994873047</v>
+        <v>176.7453186035156</v>
       </c>
       <c r="J173">
-        <v>175.0332611083984</v>
+        <v>175.1095634460449</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -6683,19 +6683,19 @@
         <v>186</v>
       </c>
       <c r="B174">
-        <v>175.5843294448986</v>
+        <v>174.8562130914191</v>
       </c>
       <c r="C174">
-        <v>177.3796733490986</v>
+        <v>174.9659289686177</v>
       </c>
       <c r="D174">
-        <v>174.7365387257577</v>
+        <v>172.1931261295546</v>
       </c>
       <c r="E174">
-        <v>175.0058441162109</v>
+        <v>172.4325103759766</v>
       </c>
       <c r="F174">
-        <v>59302900</v>
+        <v>64189300</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -6704,10 +6704,10 @@
         <v>0</v>
       </c>
       <c r="I174">
-        <v>176.7453186035156</v>
+        <v>175.5544097900391</v>
       </c>
       <c r="J174">
-        <v>175.1095642089844</v>
+        <v>175.0143112182617</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -6715,19 +6715,19 @@
         <v>187</v>
       </c>
       <c r="B175">
-        <v>174.8562130914191</v>
+        <v>170.4676138043291</v>
       </c>
       <c r="C175">
-        <v>174.9659289686177</v>
+        <v>173.559580516591</v>
       </c>
       <c r="D175">
-        <v>172.1931261295546</v>
+        <v>169.4901395151607</v>
       </c>
       <c r="E175">
-        <v>172.4325103759766</v>
+        <v>172.5522003173828</v>
       </c>
       <c r="F175">
-        <v>64189300</v>
+        <v>55980100</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -6736,10 +6736,19 @@
         <v>0</v>
       </c>
       <c r="I175">
-        <v>175.5544067382812</v>
+        <v>174.4133697509766</v>
       </c>
       <c r="J175">
-        <v>175.0143112182617</v>
+        <v>174.860710144043</v>
+      </c>
+      <c r="L175">
+        <v>172.6020684613408</v>
+      </c>
+      <c r="M175">
+        <v>-5.036942047482057</v>
+      </c>
+      <c r="N175">
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -6747,19 +6756,19 @@
         <v>188</v>
       </c>
       <c r="B176">
-        <v>170.4676138043291</v>
+        <v>172.6020684613408</v>
       </c>
       <c r="C176">
-        <v>173.559580516591</v>
+        <v>173.2204587403082</v>
       </c>
       <c r="D176">
-        <v>169.4901395151607</v>
+        <v>171.006203924228</v>
       </c>
       <c r="E176">
-        <v>172.5522003173828</v>
+        <v>172.9910583496094</v>
       </c>
       <c r="F176">
-        <v>55980100</v>
+        <v>43816600</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -6768,19 +6777,10 @@
         <v>0</v>
       </c>
       <c r="I176">
-        <v>174.4133697509766</v>
+        <v>173.673291015625</v>
       </c>
       <c r="J176">
-        <v>174.8607093811035</v>
-      </c>
-      <c r="L176">
-        <v>172.6020684613408</v>
-      </c>
-      <c r="M176">
-        <v>-5.036942047482057</v>
-      </c>
-      <c r="N176">
-        <v>10</v>
+        <v>174.9345184326172</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6788,19 +6788,19 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>172.6020684613408</v>
+        <v>171.4351148591958</v>
       </c>
       <c r="C177">
-        <v>173.2204587403082</v>
+        <v>172.6120532706387</v>
       </c>
       <c r="D177">
-        <v>171.006203924228</v>
+        <v>170.2082876033844</v>
       </c>
       <c r="E177">
-        <v>172.9910583496094</v>
+        <v>170.6571350097656</v>
       </c>
       <c r="F177">
-        <v>43816600</v>
+        <v>57157000</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -6809,10 +6809,10 @@
         <v>0</v>
       </c>
       <c r="I177">
-        <v>173.673291015625</v>
+        <v>172.7277496337891</v>
       </c>
       <c r="J177">
-        <v>174.9345176696777</v>
+        <v>174.9679336547852</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6820,19 +6820,19 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>171.4350995308461</v>
+        <v>169.9290112145044</v>
       </c>
       <c r="C178">
-        <v>172.6120378370566</v>
+        <v>170.9364066814796</v>
       </c>
       <c r="D178">
-        <v>170.2082723847277</v>
+        <v>165.2411796889084</v>
       </c>
       <c r="E178">
-        <v>170.6571197509766</v>
+        <v>166.4580230712891</v>
       </c>
       <c r="F178">
-        <v>57157000</v>
+        <v>70625300</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -6841,10 +6841,10 @@
         <v>0</v>
       </c>
       <c r="I178">
-        <v>172.7277465820312</v>
+        <v>171.0181854248047</v>
       </c>
       <c r="J178">
-        <v>174.9679313659668</v>
+        <v>174.7784255981445</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6852,19 +6852,19 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>169.9289956375386</v>
+        <v>166.4779696874477</v>
       </c>
       <c r="C179">
-        <v>170.9363910121684</v>
+        <v>168.5226664606897</v>
       </c>
       <c r="D179">
-        <v>165.2411645416643</v>
+        <v>166.3981749351079</v>
       </c>
       <c r="E179">
-        <v>166.4580078125</v>
+        <v>167.7845764160156</v>
       </c>
       <c r="F179">
-        <v>70625300</v>
+        <v>58499100</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -6873,10 +6873,10 @@
         <v>0</v>
       </c>
       <c r="I179">
-        <v>171.0181793212891</v>
+        <v>170.0885986328125</v>
       </c>
       <c r="J179">
-        <v>174.7784225463867</v>
+        <v>174.6293128967285</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6884,19 +6884,19 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>166.4779545474851</v>
+        <v>168.5824957424558</v>
       </c>
       <c r="C180">
-        <v>168.5226511347767</v>
+        <v>170.7269243765725</v>
       </c>
       <c r="D180">
-        <v>166.398159802402</v>
+        <v>168.4328748861018</v>
       </c>
       <c r="E180">
-        <v>167.7845611572266</v>
+        <v>169.8491973876953</v>
       </c>
       <c r="F180">
-        <v>58499100</v>
+        <v>51131000</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -6905,10 +6905,10 @@
         <v>0</v>
       </c>
       <c r="I180">
-        <v>170.0885894775391</v>
+        <v>169.547998046875</v>
       </c>
       <c r="J180">
-        <v>174.6293083190918</v>
+        <v>174.4567596435547</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6916,19 +6916,19 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>168.5824957424558</v>
+        <v>168.9116498560739</v>
       </c>
       <c r="C181">
-        <v>170.7269243765725</v>
+        <v>170.4576255627833</v>
       </c>
       <c r="D181">
-        <v>168.4328748861018</v>
+        <v>167.4653909521835</v>
       </c>
       <c r="E181">
-        <v>169.8491973876953</v>
+        <v>170.3279724121094</v>
       </c>
       <c r="F181">
-        <v>51131000</v>
+        <v>44846000</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -6937,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="I181">
-        <v>169.5479888916016</v>
+        <v>169.015380859375</v>
       </c>
       <c r="J181">
-        <v>174.4567558288574</v>
+        <v>174.3754707336426</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6948,19 +6948,19 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>168.9116498560739</v>
+        <v>170.5573703976512</v>
       </c>
       <c r="C182">
-        <v>170.4576255627833</v>
+        <v>173.7790053548717</v>
       </c>
       <c r="D182">
-        <v>167.4653909521835</v>
+        <v>169.6796433874197</v>
       </c>
       <c r="E182">
-        <v>170.3279724121094</v>
+        <v>173.5196838378906</v>
       </c>
       <c r="F182">
-        <v>44846000</v>
+        <v>56934900</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -6969,10 +6969,10 @@
         <v>0</v>
       </c>
       <c r="I182">
-        <v>169.0153717041016</v>
+        <v>169.587890625</v>
       </c>
       <c r="J182">
-        <v>174.3754676818848</v>
+        <v>174.3909301757812</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6980,19 +6980,19 @@
         <v>195</v>
       </c>
       <c r="B183">
-        <v>170.5573703976512</v>
+        <v>175.065685291283</v>
       </c>
       <c r="C183">
-        <v>173.7790053548717</v>
+        <v>177.3198299896822</v>
       </c>
       <c r="D183">
-        <v>169.6796433874197</v>
+        <v>175.0058430313961</v>
       </c>
       <c r="E183">
-        <v>173.5196838378906</v>
+        <v>177.1103820800781</v>
       </c>
       <c r="F183">
-        <v>56934900</v>
+        <v>77334800</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -7001,10 +7001,10 @@
         <v>0</v>
       </c>
       <c r="I183">
-        <v>169.5878845214844</v>
+        <v>171.7183624267578</v>
       </c>
       <c r="J183">
-        <v>174.3909271240234</v>
+        <v>174.5235862731934</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -7012,19 +7012,19 @@
         <v>196</v>
       </c>
       <c r="B184">
-        <v>175.065670208653</v>
+        <v>173.7889986890648</v>
       </c>
       <c r="C184">
-        <v>177.3198147128483</v>
+        <v>176.362322384538</v>
       </c>
       <c r="D184">
-        <v>175.0058279539218</v>
+        <v>172.9013029941347</v>
       </c>
       <c r="E184">
-        <v>177.1103668212891</v>
+        <v>176.1927490234375</v>
       </c>
       <c r="F184">
-        <v>77334800</v>
+        <v>79763700</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -7033,10 +7033,10 @@
         <v>0</v>
       </c>
       <c r="I184">
-        <v>171.7183563232422</v>
+        <v>173.3999969482422</v>
       </c>
       <c r="J184">
-        <v>174.5235824584961</v>
+        <v>174.4816940307617</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -7044,19 +7044,19 @@
         <v>197</v>
       </c>
       <c r="B185">
-        <v>173.7889836384473</v>
+        <v>175.9234537243682</v>
       </c>
       <c r="C185">
-        <v>176.3623071110634</v>
+        <v>178.9655467706447</v>
       </c>
       <c r="D185">
-        <v>172.9012880203941</v>
+        <v>175.753895587506</v>
       </c>
       <c r="E185">
-        <v>176.1927337646484</v>
+        <v>178.7660675048828</v>
       </c>
       <c r="F185">
-        <v>79763700</v>
+        <v>63841300</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -7065,10 +7065,13 @@
         <v>0</v>
       </c>
       <c r="I185">
-        <v>173.3999908447266</v>
+        <v>175.1833709716797</v>
       </c>
       <c r="J185">
-        <v>174.4816902160645</v>
+        <v>174.4936622619629</v>
+      </c>
+      <c r="K185">
+        <v>178.7161842783878</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -7076,19 +7079,19 @@
         <v>198</v>
       </c>
       <c r="B186">
-        <v>175.9234537243682</v>
+        <v>178.7161842783878</v>
       </c>
       <c r="C186">
-        <v>178.9655467706447</v>
+        <v>181.9677554907887</v>
       </c>
       <c r="D186">
-        <v>175.753895587506</v>
+        <v>178.5067363873471</v>
       </c>
       <c r="E186">
-        <v>178.7660675048828</v>
+        <v>181.349365234375</v>
       </c>
       <c r="F186">
-        <v>63841300</v>
+        <v>70530000</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -7097,13 +7100,10 @@
         <v>0</v>
       </c>
       <c r="I186">
-        <v>175.1833648681641</v>
+        <v>177.3876495361328</v>
       </c>
       <c r="J186">
-        <v>174.4936584472656</v>
-      </c>
-      <c r="K186">
-        <v>178.7161842783878</v>
+        <v>174.6647178649902</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -7111,19 +7111,19 @@
         <v>199</v>
       </c>
       <c r="B187">
-        <v>178.7161842783878</v>
+        <v>181.8779999252986</v>
       </c>
       <c r="C187">
-        <v>181.9677554907887</v>
+        <v>182.9751434848192</v>
       </c>
       <c r="D187">
-        <v>178.5067363873471</v>
+        <v>181.119957416558</v>
       </c>
       <c r="E187">
-        <v>181.349365234375</v>
+        <v>182.4165954589844</v>
       </c>
       <c r="F187">
-        <v>70530000</v>
+        <v>49340300</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -7132,10 +7132,10 @@
         <v>0</v>
       </c>
       <c r="I187">
-        <v>177.3876434326172</v>
+        <v>179.1670318603516</v>
       </c>
       <c r="J187">
-        <v>174.664714050293</v>
+        <v>174.8188179016113</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -7143,19 +7143,19 @@
         <v>200</v>
       </c>
       <c r="B188">
-        <v>181.8779999252986</v>
+        <v>182.4864150631998</v>
       </c>
       <c r="C188">
-        <v>182.9751434848192</v>
+        <v>183.6434008386096</v>
       </c>
       <c r="D188">
-        <v>181.119957416558</v>
+        <v>181.3393827045713</v>
       </c>
       <c r="E188">
-        <v>182.4165954589844</v>
+        <v>181.9378356933594</v>
       </c>
       <c r="F188">
-        <v>49340300</v>
+        <v>53763500</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -7164,10 +7164,10 @@
         <v>0</v>
       </c>
       <c r="I188">
-        <v>179.1670257568359</v>
+        <v>180.1325225830078</v>
       </c>
       <c r="J188">
-        <v>174.8188140869141</v>
+        <v>174.9035972595215</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7175,31 +7175,31 @@
         <v>201</v>
       </c>
       <c r="B189">
-        <v>182.4864150631998</v>
+        <v>183.7355491840555</v>
       </c>
       <c r="C189">
-        <v>183.6434008386096</v>
+        <v>186.3322418303649</v>
       </c>
       <c r="D189">
-        <v>181.3393827045713</v>
+        <v>183.2961074833561</v>
       </c>
       <c r="E189">
-        <v>181.9378356933594</v>
+        <v>186.1624450683594</v>
       </c>
       <c r="F189">
-        <v>53763500</v>
+        <v>66133400</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H189">
         <v>0</v>
       </c>
       <c r="I189">
-        <v>180.13251953125</v>
+        <v>182.1264617919922</v>
       </c>
       <c r="J189">
-        <v>174.9035934448242</v>
+        <v>175.2923667907715</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7207,31 +7207,31 @@
         <v>202</v>
       </c>
       <c r="B190">
-        <v>183.7355491840555</v>
+        <v>185.5832033078345</v>
       </c>
       <c r="C190">
-        <v>186.3322418303649</v>
+        <v>185.7929271554538</v>
       </c>
       <c r="D190">
-        <v>183.2961074833561</v>
+        <v>183.9752544389311</v>
       </c>
       <c r="E190">
-        <v>186.1624450683594</v>
+        <v>184.5644989013672</v>
       </c>
       <c r="F190">
-        <v>66133400</v>
+        <v>43627500</v>
       </c>
       <c r="G190">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>182.1264617919922</v>
+        <v>183.2861480712891</v>
       </c>
       <c r="J190">
-        <v>175.2923622131348</v>
+        <v>175.6077217102051</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7239,19 +7239,19 @@
         <v>203</v>
       </c>
       <c r="B191">
-        <v>185.5832033078345</v>
+        <v>187.4607892645803</v>
       </c>
       <c r="C191">
-        <v>185.7929271554538</v>
+        <v>187.87027041189</v>
       </c>
       <c r="D191">
-        <v>183.9752544389311</v>
+        <v>186.0625795412583</v>
       </c>
       <c r="E191">
-        <v>184.5644989013672</v>
+        <v>187.2011260986328</v>
       </c>
       <c r="F191">
-        <v>43627500</v>
+        <v>60108400</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="I191">
-        <v>183.2861480712891</v>
+        <v>184.4565002441406</v>
       </c>
       <c r="J191">
-        <v>175.6077178955078</v>
+        <v>176.1332054138184</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7271,19 +7271,19 @@
         <v>204</v>
       </c>
       <c r="B192">
-        <v>187.4607892645803</v>
+        <v>187.6106012356003</v>
       </c>
       <c r="C192">
-        <v>187.87027041189</v>
+        <v>189.2584923023907</v>
       </c>
       <c r="D192">
-        <v>186.0625795412583</v>
+        <v>187.5406831320026</v>
       </c>
       <c r="E192">
-        <v>187.2011260986328</v>
+        <v>187.7703857421875</v>
       </c>
       <c r="F192">
-        <v>60108400</v>
+        <v>53790500</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -7292,10 +7292,10 @@
         <v>0</v>
       </c>
       <c r="I192">
-        <v>184.4565002441406</v>
+        <v>185.5272583007813</v>
       </c>
       <c r="J192">
-        <v>176.1332015991211</v>
+        <v>176.7524826049805</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -7303,19 +7303,19 @@
         <v>205</v>
       </c>
       <c r="B193">
-        <v>187.6106012356003</v>
+        <v>189.328425480975</v>
       </c>
       <c r="C193">
-        <v>189.2584923023907</v>
+        <v>190.7166535006721</v>
       </c>
       <c r="D193">
-        <v>187.5406831320026</v>
+        <v>188.4095844883891</v>
       </c>
       <c r="E193">
-        <v>187.7703857421875</v>
+        <v>189.4682464599609</v>
       </c>
       <c r="F193">
-        <v>53790500</v>
+        <v>54412900</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -7324,10 +7324,10 @@
         <v>0</v>
       </c>
       <c r="I193">
-        <v>185.5272583007813</v>
+        <v>187.0333404541016</v>
       </c>
       <c r="J193">
-        <v>176.7524787902832</v>
+        <v>177.475602722168</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -7335,19 +7335,19 @@
         <v>206</v>
       </c>
       <c r="B194">
-        <v>189.328425480975</v>
+        <v>190.0075413320201</v>
       </c>
       <c r="C194">
-        <v>190.7166535006721</v>
+        <v>190.1373805338302</v>
       </c>
       <c r="D194">
-        <v>188.4095844883891</v>
+        <v>188.329689674827</v>
       </c>
       <c r="E194">
-        <v>189.4682464599609</v>
+        <v>189.4482574462891</v>
       </c>
       <c r="F194">
-        <v>54412900</v>
+        <v>50922700</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -7356,10 +7356,10 @@
         <v>0</v>
       </c>
       <c r="I194">
-        <v>187.0333404541016</v>
+        <v>187.6905029296875</v>
       </c>
       <c r="J194">
-        <v>177.4755989074707</v>
+        <v>178.3263900756836</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -7367,19 +7367,19 @@
         <v>207</v>
       </c>
       <c r="B195">
-        <v>190.0075413320201</v>
+        <v>189.6479994473329</v>
       </c>
       <c r="C195">
-        <v>190.1373805338302</v>
+        <v>191.665429382446</v>
       </c>
       <c r="D195">
-        <v>188.329689674827</v>
+        <v>189.6380176777137</v>
       </c>
       <c r="E195">
-        <v>189.4482574462891</v>
+        <v>191.2060089111328</v>
       </c>
       <c r="F195">
-        <v>50922700</v>
+        <v>46505100</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -7388,10 +7388,10 @@
         <v>0</v>
       </c>
       <c r="I195">
-        <v>187.6905029296875</v>
+        <v>189.0188049316406</v>
       </c>
       <c r="J195">
-        <v>178.3263862609863</v>
+        <v>179.2590805053711</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -7399,19 +7399,19 @@
         <v>208</v>
       </c>
       <c r="B196">
-        <v>189.6479994473329</v>
+        <v>191.1660719339604</v>
       </c>
       <c r="C196">
-        <v>191.665429382446</v>
+        <v>191.2759323602126</v>
       </c>
       <c r="D196">
-        <v>189.6380176777137</v>
+        <v>189.4982020003819</v>
       </c>
       <c r="E196">
-        <v>191.2060089111328</v>
+        <v>190.3970489501953</v>
       </c>
       <c r="F196">
-        <v>46505100</v>
+        <v>38134500</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -7420,10 +7420,10 @@
         <v>0</v>
       </c>
       <c r="I196">
-        <v>189.0188049316406</v>
+        <v>189.6579895019531</v>
       </c>
       <c r="J196">
-        <v>179.2590766906738</v>
+        <v>180.1293800354004</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -7431,19 +7431,19 @@
         <v>209</v>
       </c>
       <c r="B197">
-        <v>191.1660719339604</v>
+        <v>191.2459711599096</v>
       </c>
       <c r="C197">
-        <v>191.2759323602126</v>
+        <v>192.6841232268449</v>
       </c>
       <c r="D197">
-        <v>189.4982020003819</v>
+        <v>190.5868086046414</v>
       </c>
       <c r="E197">
-        <v>190.3970489501953</v>
+        <v>191.0661926269531</v>
       </c>
       <c r="F197">
-        <v>38134500</v>
+        <v>39617700</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -7452,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="I197">
-        <v>189.6579895019531</v>
+        <v>190.3171508789063</v>
       </c>
       <c r="J197">
-        <v>180.1293762207031</v>
+        <v>181.1498329162598</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -7463,19 +7463,19 @@
         <v>210</v>
       </c>
       <c r="B198">
-        <v>191.2459711599096</v>
+        <v>190.6267522263334</v>
       </c>
       <c r="C198">
-        <v>192.6841232268449</v>
+        <v>190.6567127754737</v>
       </c>
       <c r="D198">
-        <v>190.5868086046414</v>
+        <v>189.0088216153834</v>
       </c>
       <c r="E198">
-        <v>191.0661926269531</v>
+        <v>189.7279052734375</v>
       </c>
       <c r="F198">
-        <v>39617700</v>
+        <v>24048300</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -7484,10 +7484,10 @@
         <v>0</v>
       </c>
       <c r="I198">
-        <v>190.3171508789063</v>
+        <v>190.3690826416016</v>
       </c>
       <c r="J198">
-        <v>181.149829864502</v>
+        <v>182.3133270263672</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -7495,19 +7495,19 @@
         <v>211</v>
       </c>
       <c r="B199">
-        <v>190.6267522263334</v>
+        <v>189.6779654261848</v>
       </c>
       <c r="C199">
-        <v>190.6567127754737</v>
+        <v>190.4270096313301</v>
       </c>
       <c r="D199">
-        <v>189.0088216153834</v>
+        <v>188.6592610401712</v>
       </c>
       <c r="E199">
-        <v>189.7279052734375</v>
+        <v>189.5481262207031</v>
       </c>
       <c r="F199">
-        <v>24048300</v>
+        <v>40552600</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -7516,10 +7516,10 @@
         <v>0</v>
       </c>
       <c r="I199">
-        <v>190.3690826416016</v>
+        <v>190.3890563964844</v>
       </c>
       <c r="J199">
-        <v>182.3133247375488</v>
+        <v>183.4015045166016</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -7527,19 +7527,19 @@
         <v>212</v>
       </c>
       <c r="B200">
-        <v>189.6779654261848</v>
+        <v>189.5381436358115</v>
       </c>
       <c r="C200">
-        <v>190.4270096313301</v>
+        <v>190.8364899670158</v>
       </c>
       <c r="D200">
-        <v>188.6592610401712</v>
+        <v>189.1586230302466</v>
       </c>
       <c r="E200">
-        <v>189.5481262207031</v>
+        <v>190.1573486328125</v>
       </c>
       <c r="F200">
-        <v>40552600</v>
+        <v>38415400</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -7548,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="I200">
-        <v>190.3890563964844</v>
+        <v>190.1793243408203</v>
       </c>
       <c r="J200">
-        <v>183.4015029907227</v>
+        <v>184.4169120788574</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -7559,19 +7559,19 @@
         <v>213</v>
       </c>
       <c r="B201">
-        <v>189.5381436358115</v>
+        <v>190.6567110591483</v>
       </c>
       <c r="C201">
-        <v>190.8364899670158</v>
+        <v>191.8451969621594</v>
       </c>
       <c r="D201">
-        <v>189.1586230302466</v>
+        <v>188.7291779648716</v>
       </c>
       <c r="E201">
-        <v>190.1573486328125</v>
+        <v>189.128662109375</v>
       </c>
       <c r="F201">
-        <v>38415400</v>
+        <v>43014200</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -7580,10 +7580,10 @@
         <v>0</v>
       </c>
       <c r="I201">
-        <v>190.1793243408203</v>
+        <v>189.9256469726562</v>
       </c>
       <c r="J201">
-        <v>184.4169105529785</v>
+        <v>185.3569465637207</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -7591,19 +7591,19 @@
         <v>214</v>
       </c>
       <c r="B202">
-        <v>190.6567110591483</v>
+        <v>189.5980558390635</v>
       </c>
       <c r="C202">
-        <v>191.8451969621594</v>
+        <v>190.0774550781323</v>
       </c>
       <c r="D202">
-        <v>188.7291779648716</v>
+        <v>187.9501647678746</v>
       </c>
       <c r="E202">
-        <v>189.128662109375</v>
+        <v>189.7079162597656</v>
       </c>
       <c r="F202">
-        <v>43014200</v>
+        <v>48794400</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -7612,10 +7612,10 @@
         <v>0</v>
       </c>
       <c r="I202">
-        <v>189.9256469726562</v>
+        <v>189.6539916992188</v>
       </c>
       <c r="J202">
-        <v>185.3569450378418</v>
+        <v>186.1663581848144</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -7623,19 +7623,19 @@
         <v>215</v>
       </c>
       <c r="B203">
-        <v>189.5980558390635</v>
+        <v>190.0874481470916</v>
       </c>
       <c r="C203">
-        <v>190.0774550781323</v>
+        <v>191.3158763866251</v>
       </c>
       <c r="D203">
-        <v>187.9501647678746</v>
+        <v>188.9888438747651</v>
       </c>
       <c r="E203">
-        <v>189.7079162597656</v>
+        <v>190.9962921142578</v>
       </c>
       <c r="F203">
-        <v>48794400</v>
+        <v>45679300</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -7644,10 +7644,10 @@
         <v>0</v>
       </c>
       <c r="I203">
-        <v>189.6539916992188</v>
+        <v>189.9076690673828</v>
       </c>
       <c r="J203">
-        <v>186.1663566589355</v>
+        <v>186.8606536865234</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -7655,19 +7655,19 @@
         <v>216</v>
       </c>
       <c r="B204">
-        <v>190.0874481470916</v>
+        <v>189.7378855027077</v>
       </c>
       <c r="C204">
-        <v>191.3158763866251</v>
+        <v>189.8078036096963</v>
       </c>
       <c r="D204">
-        <v>188.9888438747651</v>
+        <v>187.2111109501034</v>
       </c>
       <c r="E204">
-        <v>190.9962921142578</v>
+        <v>189.1885833740234</v>
       </c>
       <c r="F204">
-        <v>45679300</v>
+        <v>43389500</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="I204">
-        <v>189.9076690673828</v>
+        <v>189.8357604980469</v>
       </c>
       <c r="J204">
-        <v>186.860652923584</v>
+        <v>187.5104454040527</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -7687,19 +7687,19 @@
         <v>217</v>
       </c>
       <c r="B205">
-        <v>189.7378855027077</v>
+        <v>189.9676069826232</v>
       </c>
       <c r="C205">
-        <v>189.8078036096963</v>
+        <v>194.1522545315138</v>
       </c>
       <c r="D205">
-        <v>187.2111109501034</v>
+        <v>189.9376311938118</v>
       </c>
       <c r="E205">
-        <v>189.1885833740234</v>
+        <v>193.1735076904297</v>
       </c>
       <c r="F205">
-        <v>43389500</v>
+        <v>66628400</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -7708,10 +7708,10 @@
         <v>0</v>
       </c>
       <c r="I205">
-        <v>189.8357604980469</v>
+        <v>190.4389923095703</v>
       </c>
       <c r="J205">
-        <v>187.5104454040527</v>
+        <v>188.2308174133301</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -7719,19 +7719,19 @@
         <v>218</v>
       </c>
       <c r="B206">
-        <v>189.9676069826232</v>
+        <v>194.2021958854124</v>
       </c>
       <c r="C206">
-        <v>194.1522545315138</v>
+        <v>194.5117983927041</v>
       </c>
       <c r="D206">
-        <v>189.9376311938118</v>
+        <v>191.8651815664915</v>
       </c>
       <c r="E206">
-        <v>193.1735076904297</v>
+        <v>192.0749206542969</v>
       </c>
       <c r="F206">
-        <v>66628400</v>
+        <v>41089700</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -7740,10 +7740,10 @@
         <v>0</v>
       </c>
       <c r="I206">
-        <v>190.4389923095703</v>
+        <v>191.0282440185547</v>
       </c>
       <c r="J206">
-        <v>188.2308174133301</v>
+        <v>188.7670951843262</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -7751,19 +7751,19 @@
         <v>219</v>
       </c>
       <c r="B207">
-        <v>194.2021958854124</v>
+        <v>193.3832466328422</v>
       </c>
       <c r="C207">
-        <v>194.5117983927041</v>
+        <v>194.7514958553385</v>
       </c>
       <c r="D207">
-        <v>191.8651815664915</v>
+        <v>193.343289074019</v>
       </c>
       <c r="E207">
-        <v>192.0749206542969</v>
+        <v>194.0224304199219</v>
       </c>
       <c r="F207">
-        <v>41089700</v>
+        <v>47477700</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -7772,10 +7772,10 @@
         <v>0</v>
       </c>
       <c r="I207">
-        <v>191.0282440185547</v>
+        <v>191.8911468505859</v>
       </c>
       <c r="J207">
-        <v>188.7670951843262</v>
+        <v>189.347386932373</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -7783,19 +7783,19 @@
         <v>220</v>
       </c>
       <c r="B208">
-        <v>193.3832466328422</v>
+        <v>193.9525011952535</v>
       </c>
       <c r="C208">
-        <v>194.7514958553385</v>
+        <v>195.7402284862123</v>
       </c>
       <c r="D208">
-        <v>193.343289074019</v>
+        <v>193.4231778662606</v>
       </c>
       <c r="E208">
-        <v>194.0224304199219</v>
+        <v>195.4605865478516</v>
       </c>
       <c r="F208">
-        <v>47477700</v>
+        <v>53377300</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -7804,10 +7804,10 @@
         <v>0</v>
       </c>
       <c r="I208">
-        <v>191.8911468505859</v>
+        <v>192.7840057373047</v>
       </c>
       <c r="J208">
-        <v>189.347386932373</v>
+        <v>190.0235244750976</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -7815,19 +7815,19 @@
         <v>221</v>
       </c>
       <c r="B209">
-        <v>193.9525011952535</v>
+        <v>192.863904504317</v>
       </c>
       <c r="C209">
-        <v>195.7402284862123</v>
+        <v>193.2434251153588</v>
       </c>
       <c r="D209">
-        <v>193.4231778662606</v>
+        <v>191.1760557733282</v>
       </c>
       <c r="E209">
-        <v>195.4605865478516</v>
+        <v>192.9338073730469</v>
       </c>
       <c r="F209">
-        <v>53377300</v>
+        <v>60943700</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -7836,10 +7836,10 @@
         <v>0</v>
       </c>
       <c r="I209">
-        <v>192.7840057373047</v>
+        <v>193.5330505371094</v>
       </c>
       <c r="J209">
-        <v>190.0235244750976</v>
+        <v>190.362092590332</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -7847,19 +7847,19 @@
         <v>222</v>
       </c>
       <c r="B210">
-        <v>192.863904504317</v>
+        <v>192.8339406815026</v>
       </c>
       <c r="C210">
-        <v>193.2434251153588</v>
+        <v>194.4718500559695</v>
       </c>
       <c r="D210">
-        <v>191.1760557733282</v>
+        <v>191.4756732558952</v>
       </c>
       <c r="E210">
-        <v>192.9338073730469</v>
+        <v>194.4618682861328</v>
       </c>
       <c r="F210">
-        <v>60943700</v>
+        <v>52696900</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -7868,10 +7868,10 @@
         <v>0</v>
       </c>
       <c r="I210">
-        <v>193.5330505371094</v>
+        <v>193.79072265625</v>
       </c>
       <c r="J210">
-        <v>190.362092590332</v>
+        <v>190.8569610595703</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -7879,19 +7879,19 @@
         <v>223</v>
       </c>
       <c r="B211">
-        <v>192.8339406815026</v>
+        <v>194.8413651852308</v>
       </c>
       <c r="C211">
-        <v>194.4718500559695</v>
+        <v>197.7476602124622</v>
       </c>
       <c r="D211">
-        <v>191.4756732558952</v>
+        <v>194.6016808048192</v>
       </c>
       <c r="E211">
-        <v>194.4618682861328</v>
+        <v>197.7077178955078</v>
       </c>
       <c r="F211">
-        <v>52696900</v>
+        <v>70404200</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -7900,10 +7900,10 @@
         <v>0</v>
       </c>
       <c r="I211">
-        <v>193.79072265625</v>
+        <v>194.9172821044922</v>
       </c>
       <c r="J211">
-        <v>190.8569610595703</v>
+        <v>191.3822906494141</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -7911,19 +7911,19 @@
         <v>224</v>
       </c>
       <c r="B212">
-        <v>194.8413651852308</v>
+        <v>197.7676470402107</v>
       </c>
       <c r="C212">
-        <v>197.7476602124622</v>
+        <v>199.3655988522512</v>
       </c>
       <c r="D212">
-        <v>194.6016808048192</v>
+        <v>195.910016819698</v>
       </c>
       <c r="E212">
-        <v>197.7077178955078</v>
+        <v>197.8575286865234</v>
       </c>
       <c r="F212">
-        <v>70404200</v>
+        <v>66831600</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -7932,10 +7932,10 @@
         <v>0</v>
       </c>
       <c r="I212">
-        <v>194.9172821044922</v>
+        <v>195.6843017578125</v>
       </c>
       <c r="J212">
-        <v>191.3822906494141</v>
+        <v>191.8866477966309</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -7943,19 +7943,19 @@
         <v>225</v>
       </c>
       <c r="B213">
-        <v>197.7676470402107</v>
+        <v>197.2782644882836</v>
       </c>
       <c r="C213">
-        <v>199.3655988522512</v>
+        <v>198.1471508746182</v>
       </c>
       <c r="D213">
-        <v>195.910016819698</v>
+        <v>196.7489411449598</v>
       </c>
       <c r="E213">
-        <v>197.8575286865234</v>
+        <v>197.3182220458984</v>
       </c>
       <c r="F213">
-        <v>66831600</v>
+        <v>128256700</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -7964,10 +7964,10 @@
         <v>0</v>
       </c>
       <c r="I213">
-        <v>195.6843017578125</v>
+        <v>196.0558288574219</v>
       </c>
       <c r="J213">
-        <v>191.8866477966309</v>
+        <v>192.2791465759277</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -7975,19 +7975,19 @@
         <v>226</v>
       </c>
       <c r="B214">
-        <v>197.2782644882836</v>
+        <v>195.8400924069524</v>
       </c>
       <c r="C214">
-        <v>198.1471508746182</v>
+        <v>196.3794127461491</v>
       </c>
       <c r="D214">
-        <v>196.7489411449598</v>
+        <v>194.1422619941168</v>
       </c>
       <c r="E214">
-        <v>197.3182220458984</v>
+        <v>195.6403503417969</v>
       </c>
       <c r="F214">
-        <v>128256700</v>
+        <v>55751900</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -7996,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="I214">
-        <v>196.0558288574219</v>
+        <v>196.5971374511719</v>
       </c>
       <c r="J214">
-        <v>192.2791465759277</v>
+        <v>192.5887512207031</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -8007,19 +8007,19 @@
         <v>227</v>
       </c>
       <c r="B215">
-        <v>195.8400924069524</v>
+        <v>195.9100211150961</v>
       </c>
       <c r="C215">
-        <v>196.3794127461491</v>
+        <v>196.6990076489343</v>
       </c>
       <c r="D215">
-        <v>194.1422619941168</v>
+        <v>195.6403609309023</v>
       </c>
       <c r="E215">
-        <v>195.6403503417969</v>
+        <v>196.6890258789062</v>
       </c>
       <c r="F215">
-        <v>55751900</v>
+        <v>40714100</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -8028,10 +8028,10 @@
         <v>0</v>
       </c>
       <c r="I215">
-        <v>196.5971374511719</v>
+        <v>197.0425689697266</v>
       </c>
       <c r="J215">
-        <v>192.5887512207031</v>
+        <v>192.8629020690918</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -8039,19 +8039,19 @@
         <v>228</v>
       </c>
       <c r="B216">
-        <v>195.9100211150961</v>
+        <v>196.6490648865698</v>
       </c>
       <c r="C216">
-        <v>196.6990076489343</v>
+        <v>197.4280696367784</v>
       </c>
       <c r="D216">
-        <v>195.6403609309023</v>
+        <v>194.5817108154297</v>
       </c>
       <c r="E216">
-        <v>196.6890258789062</v>
+        <v>194.5817108154297</v>
       </c>
       <c r="F216">
-        <v>40714100</v>
+        <v>52242800</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="I216">
-        <v>197.0425689697266</v>
+        <v>196.4173675537109</v>
       </c>
       <c r="J216">
-        <v>192.8629020690918</v>
+        <v>193.0721351623535</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -8071,19 +8071,19 @@
         <v>229</v>
       </c>
       <c r="B217">
-        <v>196.6490648865698</v>
+        <v>195.8500884718821</v>
       </c>
       <c r="C217">
-        <v>197.4280696367784</v>
+        <v>196.8288352539667</v>
       </c>
       <c r="D217">
-        <v>194.5817108154297</v>
+        <v>193.2533959193476</v>
       </c>
       <c r="E217">
-        <v>194.5817108154297</v>
+        <v>194.431884765625</v>
       </c>
       <c r="F217">
-        <v>52242800</v>
+        <v>46482500</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -8092,10 +8092,10 @@
         <v>0</v>
       </c>
       <c r="I217">
-        <v>196.4173675537109</v>
+        <v>195.7322387695312</v>
       </c>
       <c r="J217">
-        <v>193.0721351623535</v>
+        <v>193.2404197692871</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -8103,19 +8103,19 @@
         <v>230</v>
       </c>
       <c r="B218">
-        <v>195.8500884718821</v>
+        <v>194.9312598171643</v>
       </c>
       <c r="C218">
-        <v>196.8288352539667</v>
+        <v>195.1609776828228</v>
       </c>
       <c r="D218">
-        <v>193.2533959193476</v>
+        <v>192.7240847239714</v>
       </c>
       <c r="E218">
-        <v>194.431884765625</v>
+        <v>193.3532867431641</v>
       </c>
       <c r="F218">
-        <v>46482500</v>
+        <v>37122800</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -8124,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="I218">
-        <v>195.7322387695312</v>
+        <v>194.9392517089844</v>
       </c>
       <c r="J218">
-        <v>193.2404197692871</v>
+        <v>193.4216888427734</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -8135,19 +8135,19 @@
         <v>231</v>
       </c>
       <c r="B219">
-        <v>194.9312598171643</v>
+        <v>193.3632695092693</v>
       </c>
       <c r="C219">
-        <v>195.1609776828228</v>
+        <v>193.6429114660523</v>
       </c>
       <c r="D219">
-        <v>192.7240847239714</v>
+        <v>192.5842647383245</v>
       </c>
       <c r="E219">
-        <v>193.3532867431641</v>
+        <v>192.8039855957031</v>
       </c>
       <c r="F219">
-        <v>37122800</v>
+        <v>28919300</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -8156,10 +8156,10 @@
         <v>0</v>
       </c>
       <c r="I219">
-        <v>194.9392517089844</v>
+        <v>194.3719787597656</v>
       </c>
       <c r="J219">
-        <v>193.4216888427734</v>
+        <v>193.5844818115234</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -8167,19 +8167,19 @@
         <v>232</v>
       </c>
       <c r="B220">
-        <v>193.3632695092693</v>
+        <v>192.2446918123762</v>
       </c>
       <c r="C220">
-        <v>193.6429114660523</v>
+        <v>193.2533991590325</v>
       </c>
       <c r="D220">
-        <v>192.5842647383245</v>
+        <v>190.8464668609015</v>
       </c>
       <c r="E220">
-        <v>192.8039855957031</v>
+        <v>192.9038391113281</v>
       </c>
       <c r="F220">
-        <v>28919300</v>
+        <v>48087700</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -8188,10 +8188,19 @@
         <v>0</v>
       </c>
       <c r="I220">
-        <v>194.3719787597656</v>
+        <v>193.61494140625</v>
       </c>
       <c r="J220">
-        <v>193.5844818115234</v>
+        <v>193.7218063354492</v>
+      </c>
+      <c r="L220">
+        <v>193.8925816105714</v>
+      </c>
+      <c r="M220">
+        <v>15.17639733218363</v>
+      </c>
+      <c r="N220">
+        <v>35</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -8199,19 +8208,19 @@
         <v>233</v>
       </c>
       <c r="B221">
-        <v>192.2446918123762</v>
+        <v>193.8925816105714</v>
       </c>
       <c r="C221">
-        <v>193.2533991590325</v>
+        <v>194.411923174149</v>
       </c>
       <c r="D221">
-        <v>190.8464668609015</v>
+        <v>192.9238165882225</v>
       </c>
       <c r="E221">
-        <v>192.9038391113281</v>
+        <v>193.3332977294922</v>
       </c>
       <c r="F221">
-        <v>48087700</v>
+        <v>34049900</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -8220,19 +8229,10 @@
         <v>0</v>
       </c>
       <c r="I221">
-        <v>193.61494140625</v>
+        <v>193.3652587890625</v>
       </c>
       <c r="J221">
-        <v>193.7218063354492</v>
-      </c>
-      <c r="L221">
-        <v>193.8925816105714</v>
-      </c>
-      <c r="M221">
-        <v>15.17639733218363</v>
-      </c>
-      <c r="N221">
-        <v>35</v>
+        <v>193.9320381164551</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -8240,19 +8240,19 @@
         <v>234</v>
       </c>
       <c r="B222">
-        <v>193.8925816105714</v>
+        <v>193.6528866387712</v>
       </c>
       <c r="C222">
-        <v>194.411923174149</v>
+        <v>194.1522494359205</v>
       </c>
       <c r="D222">
-        <v>192.9238165882225</v>
+        <v>191.4856539278643</v>
       </c>
       <c r="E222">
-        <v>193.3332977294922</v>
+        <v>192.2846374511719</v>
       </c>
       <c r="F222">
-        <v>34049900</v>
+        <v>42628800</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -8261,10 +8261,10 @@
         <v>0</v>
       </c>
       <c r="I222">
-        <v>193.3652587890625</v>
+        <v>192.9358093261719</v>
       </c>
       <c r="J222">
-        <v>193.9320381164551</v>
+        <v>194.0608741760254</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -8272,19 +8272,19 @@
         <v>235</v>
       </c>
       <c r="B223">
-        <v>193.6528866387712</v>
+        <v>186.9114819707375</v>
       </c>
       <c r="C223">
-        <v>194.1522494359205</v>
+        <v>188.1998464738089</v>
       </c>
       <c r="D223">
-        <v>191.4856539278643</v>
+        <v>183.6556421397931</v>
       </c>
       <c r="E223">
-        <v>192.2846374511719</v>
+        <v>185.4034118652344</v>
       </c>
       <c r="F223">
-        <v>42628800</v>
+        <v>82488700</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -8293,10 +8293,10 @@
         <v>0</v>
       </c>
       <c r="I223">
-        <v>192.9358093261719</v>
+        <v>191.3458343505859</v>
       </c>
       <c r="J223">
-        <v>194.0608741760254</v>
+        <v>193.7812301635742</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -8304,19 +8304,19 @@
         <v>236</v>
       </c>
       <c r="B224">
-        <v>186.9114819707375</v>
+        <v>183.9852372040843</v>
       </c>
       <c r="C224">
-        <v>188.1998464738089</v>
+        <v>185.6431254111685</v>
       </c>
       <c r="D224">
-        <v>183.6556421397931</v>
+        <v>183.1962354205235</v>
       </c>
       <c r="E224">
-        <v>185.4034118652344</v>
+        <v>184.0151977539062</v>
       </c>
       <c r="F224">
-        <v>82488700</v>
+        <v>58414500</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -8325,10 +8325,10 @@
         <v>0</v>
       </c>
       <c r="I224">
-        <v>191.3458343505859</v>
+        <v>189.5880767822266</v>
       </c>
       <c r="J224">
-        <v>193.7812301635742</v>
+        <v>193.5225608825684</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -8336,19 +8336,19 @@
         <v>237</v>
       </c>
       <c r="B225">
-        <v>183.9852372040843</v>
+        <v>181.9178612698145</v>
       </c>
       <c r="C225">
-        <v>185.6431254111685</v>
+        <v>182.8566657686289</v>
       </c>
       <c r="D225">
-        <v>183.1962354205235</v>
+        <v>180.6494907348441</v>
       </c>
       <c r="E225">
-        <v>184.0151977539062</v>
+        <v>181.6781768798828</v>
       </c>
       <c r="F225">
-        <v>58414500</v>
+        <v>71983600</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -8357,10 +8357,10 @@
         <v>0</v>
       </c>
       <c r="I225">
-        <v>189.5880767822266</v>
+        <v>187.3429443359375</v>
       </c>
       <c r="J225">
-        <v>193.5225608825684</v>
+        <v>192.947794342041</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -8368,19 +8368,19 @@
         <v>238</v>
       </c>
       <c r="B226">
-        <v>181.9178612698145</v>
+        <v>181.7580772157817</v>
       </c>
       <c r="C226">
-        <v>182.8566657686289</v>
+        <v>182.5270849545475</v>
       </c>
       <c r="D226">
-        <v>180.6494907348441</v>
+        <v>179.9403893110408</v>
       </c>
       <c r="E226">
-        <v>181.6781768798828</v>
+        <v>180.9490966796875</v>
       </c>
       <c r="F226">
-        <v>71983600</v>
+        <v>62303300</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -8389,10 +8389,10 @@
         <v>0</v>
       </c>
       <c r="I226">
-        <v>187.3429443359375</v>
+        <v>184.8661041259766</v>
       </c>
       <c r="J226">
-        <v>192.947794342041</v>
+        <v>192.3915031433106</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -8400,19 +8400,19 @@
         <v>239</v>
       </c>
       <c r="B227">
-        <v>181.7580772157817</v>
+        <v>181.8579378516286</v>
       </c>
       <c r="C227">
-        <v>182.5270849545475</v>
+        <v>185.3634744030773</v>
       </c>
       <c r="D227">
-        <v>179.9403893110408</v>
+        <v>181.2686934147749</v>
       </c>
       <c r="E227">
-        <v>180.9490966796875</v>
+        <v>185.3235168457031</v>
       </c>
       <c r="F227">
-        <v>62303300</v>
+        <v>59144500</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -8421,10 +8421,10 @@
         <v>0</v>
       </c>
       <c r="I227">
-        <v>184.8661041259766</v>
+        <v>183.4738800048828</v>
       </c>
       <c r="J227">
-        <v>192.3915031433106</v>
+        <v>191.9565574645996</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -8432,19 +8432,19 @@
         <v>240</v>
       </c>
       <c r="B228">
-        <v>181.8579378516286</v>
+        <v>183.6856063111678</v>
       </c>
       <c r="C228">
-        <v>185.3634744030773</v>
+        <v>184.9140345039825</v>
       </c>
       <c r="D228">
-        <v>181.2686934147749</v>
+        <v>182.4971204361262</v>
       </c>
       <c r="E228">
-        <v>185.3235168457031</v>
+        <v>184.904052734375</v>
       </c>
       <c r="F228">
-        <v>59144500</v>
+        <v>42841800</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="I228">
-        <v>183.4738800048828</v>
+        <v>183.3740081787109</v>
       </c>
       <c r="J228">
-        <v>191.9565574645996</v>
+        <v>191.4287307739258</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -8464,19 +8464,19 @@
         <v>241</v>
       </c>
       <c r="B229">
-        <v>183.6856063111678</v>
+        <v>184.1150616539879</v>
       </c>
       <c r="C229">
-        <v>184.9140345039825</v>
+        <v>186.1624368446371</v>
       </c>
       <c r="D229">
-        <v>182.4971204361262</v>
+        <v>183.68560174206</v>
       </c>
       <c r="E229">
-        <v>184.904052734375</v>
+        <v>185.9527130126953</v>
       </c>
       <c r="F229">
-        <v>42841800</v>
+        <v>46792900</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -8485,10 +8485,10 @@
         <v>0</v>
       </c>
       <c r="I229">
-        <v>183.3740081787109</v>
+        <v>183.7615112304688</v>
       </c>
       <c r="J229">
-        <v>191.4287307739258</v>
+        <v>191.0796760559082</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -8496,19 +8496,19 @@
         <v>242</v>
       </c>
       <c r="B230">
-        <v>184.1150616539879</v>
+        <v>186.3022714034112</v>
       </c>
       <c r="C230">
-        <v>186.1624368446371</v>
+        <v>186.8116312253992</v>
       </c>
       <c r="D230">
-        <v>183.68560174206</v>
+        <v>183.3859944068003</v>
       </c>
       <c r="E230">
-        <v>185.9527130126953</v>
+        <v>185.3534851074219</v>
       </c>
       <c r="F230">
-        <v>46792900</v>
+        <v>49128400</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -8517,10 +8517,10 @@
         <v>0</v>
       </c>
       <c r="I230">
-        <v>183.7615112304688</v>
+        <v>184.4965728759766</v>
       </c>
       <c r="J230">
-        <v>191.0796760559082</v>
+        <v>190.6242568969727</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -8528,19 +8528,19 @@
         <v>243</v>
       </c>
       <c r="B231">
-        <v>186.3022714034112</v>
+        <v>185.8228806652798</v>
       </c>
       <c r="C231">
-        <v>186.8116312253992</v>
+        <v>186.5020219903103</v>
       </c>
       <c r="D231">
-        <v>183.3859944068003</v>
+        <v>184.953994279373</v>
       </c>
       <c r="E231">
-        <v>185.3534851074219</v>
+        <v>185.6830596923828</v>
       </c>
       <c r="F231">
-        <v>49128400</v>
+        <v>40444700</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="I231">
-        <v>184.4965728759766</v>
+        <v>185.4433654785156</v>
       </c>
       <c r="J231">
-        <v>190.6242568969727</v>
+        <v>190.0230239868164</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -8560,19 +8560,19 @@
         <v>244</v>
       </c>
       <c r="B232">
-        <v>185.8228806652798</v>
+        <v>181.9278530316018</v>
       </c>
       <c r="C232">
-        <v>186.5020219903103</v>
+        <v>184.0251675797272</v>
       </c>
       <c r="D232">
-        <v>184.953994279373</v>
+        <v>180.699409611261</v>
       </c>
       <c r="E232">
-        <v>185.6830596923828</v>
+        <v>183.3959808349609</v>
       </c>
       <c r="F232">
-        <v>40444700</v>
+        <v>65603000</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -8581,10 +8581,10 @@
         <v>0</v>
       </c>
       <c r="I232">
-        <v>185.4433654785156</v>
+        <v>185.0578582763672</v>
       </c>
       <c r="J232">
-        <v>190.0230239868164</v>
+        <v>189.2999465942383</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -8592,19 +8592,19 @@
         <v>245</v>
       </c>
       <c r="B233">
-        <v>181.9278530316018</v>
+        <v>181.0389977857893</v>
       </c>
       <c r="C233">
-        <v>184.0251675797272</v>
+        <v>182.6968707365806</v>
       </c>
       <c r="D233">
-        <v>180.699409611261</v>
+        <v>180.0702327132011</v>
       </c>
       <c r="E233">
-        <v>183.3959808349609</v>
+        <v>182.4471893310547</v>
       </c>
       <c r="F233">
-        <v>65603000</v>
+        <v>47317400</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -8613,10 +8613,10 @@
         <v>0</v>
       </c>
       <c r="I233">
-        <v>185.0578582763672</v>
+        <v>184.5664855957031</v>
       </c>
       <c r="J233">
-        <v>189.2999465942383</v>
+        <v>188.5563949584961</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -8624,19 +8624,19 @@
         <v>246</v>
       </c>
       <c r="B234">
-        <v>181.0389977857893</v>
+        <v>185.85284631994</v>
       </c>
       <c r="C234">
-        <v>182.6968707365806</v>
+        <v>188.8989624981812</v>
       </c>
       <c r="D234">
-        <v>180.0702327132011</v>
+        <v>185.5931831458096</v>
       </c>
       <c r="E234">
-        <v>182.4471893310547</v>
+        <v>188.3896179199219</v>
       </c>
       <c r="F234">
-        <v>47317400</v>
+        <v>78005800</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -8645,10 +8645,10 @@
         <v>0</v>
       </c>
       <c r="I234">
-        <v>184.5664855957031</v>
+        <v>185.0538665771484</v>
       </c>
       <c r="J234">
-        <v>188.5563949584961</v>
+        <v>188.1938583374023</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -8656,19 +8656,19 @@
         <v>247</v>
       </c>
       <c r="B235">
-        <v>185.85284631994</v>
+        <v>189.0887183865945</v>
       </c>
       <c r="C235">
-        <v>188.8989624981812</v>
+        <v>191.7053745641516</v>
       </c>
       <c r="D235">
-        <v>185.5931831458096</v>
+        <v>188.5793738202333</v>
       </c>
       <c r="E235">
-        <v>188.3896179199219</v>
+        <v>191.3158721923828</v>
       </c>
       <c r="F235">
-        <v>78005800</v>
+        <v>68741000</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -8677,10 +8677,10 @@
         <v>0</v>
       </c>
       <c r="I235">
-        <v>185.0538665771484</v>
+        <v>186.2463439941406</v>
       </c>
       <c r="J235">
-        <v>188.1938583374023</v>
+        <v>187.9252006530762</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -8688,19 +8688,19 @@
         <v>248</v>
       </c>
       <c r="B236">
-        <v>189.0887183865945</v>
+        <v>192.0549285738183</v>
       </c>
       <c r="C236">
-        <v>191.7053745641516</v>
+        <v>195.0810658067958</v>
       </c>
       <c r="D236">
-        <v>188.5793738202333</v>
+        <v>192.0149710173161</v>
       </c>
       <c r="E236">
-        <v>191.3158721923828</v>
+        <v>193.6428985595703</v>
       </c>
       <c r="F236">
-        <v>68741000</v>
+        <v>60133900</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -8709,10 +8709,10 @@
         <v>0</v>
       </c>
       <c r="I236">
-        <v>186.2463439941406</v>
+        <v>187.8383117675781</v>
       </c>
       <c r="J236">
-        <v>187.9252006530762</v>
+        <v>187.8782600402832</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -8720,19 +8720,19 @@
         <v>249</v>
       </c>
       <c r="B237">
-        <v>192.0549285738183</v>
+        <v>194.7714746380085</v>
       </c>
       <c r="C237">
-        <v>195.0810658067958</v>
+        <v>195.5005400734373</v>
       </c>
       <c r="D237">
-        <v>192.0149710173161</v>
+        <v>193.5829887121662</v>
       </c>
       <c r="E237">
-        <v>193.6428985595703</v>
+        <v>194.9312591552734</v>
       </c>
       <c r="F237">
-        <v>60133900</v>
+        <v>42355600</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -8741,10 +8741,13 @@
         <v>0</v>
       </c>
       <c r="I237">
-        <v>187.8383117675781</v>
+        <v>190.1453674316406</v>
       </c>
       <c r="J237">
-        <v>187.8782600402832</v>
+        <v>187.9032287597656</v>
+      </c>
+      <c r="K237">
+        <v>195.170946656038</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -8752,19 +8755,19 @@
         <v>250</v>
       </c>
       <c r="B238">
-        <v>194.7714746380085</v>
+        <v>195.170946656038</v>
       </c>
       <c r="C238">
-        <v>195.5005400734373</v>
+        <v>196.1297298967359</v>
       </c>
       <c r="D238">
-        <v>193.5829887121662</v>
+        <v>194.0923212250063</v>
       </c>
       <c r="E238">
-        <v>194.9312591552734</v>
+        <v>194.2521209716797</v>
       </c>
       <c r="F238">
-        <v>42355600</v>
+        <v>53631300</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -8773,13 +8776,10 @@
         <v>0</v>
       </c>
       <c r="I238">
-        <v>190.1453674316406</v>
+        <v>192.5063537597656</v>
       </c>
       <c r="J238">
-        <v>187.9032287597656</v>
-      </c>
-      <c r="K238">
-        <v>195.170946656038</v>
+        <v>187.9481704711914</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -8787,19 +8787,19 @@
         <v>251</v>
       </c>
       <c r="B239">
-        <v>195.170946656038</v>
+        <v>194.9712113062782</v>
       </c>
       <c r="C239">
-        <v>196.1297298967359</v>
+        <v>196.0198762258377</v>
       </c>
       <c r="D239">
-        <v>194.0923212250063</v>
+        <v>192.8638996974019</v>
       </c>
       <c r="E239">
-        <v>194.2521209716797</v>
+        <v>193.9225463867188</v>
       </c>
       <c r="F239">
-        <v>53631300</v>
+        <v>54822100</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -8808,10 +8808,10 @@
         <v>0</v>
       </c>
       <c r="I239">
-        <v>192.5063537597656</v>
+        <v>193.612939453125</v>
       </c>
       <c r="J239">
-        <v>187.9481704711914</v>
+        <v>188.0040985107422</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -8819,19 +8819,19 @@
         <v>252</v>
       </c>
       <c r="B240">
-        <v>194.9712113062782</v>
+        <v>194.02242258765</v>
       </c>
       <c r="C240">
-        <v>196.0198762258377</v>
+        <v>194.5117883684032</v>
       </c>
       <c r="D240">
-        <v>192.8638996974019</v>
+        <v>191.6953901587997</v>
       </c>
       <c r="E240">
-        <v>193.9225463867188</v>
+        <v>192.1747741699219</v>
       </c>
       <c r="F240">
-        <v>54822100</v>
+        <v>44594000</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -8840,10 +8840,10 @@
         <v>0</v>
       </c>
       <c r="I240">
-        <v>193.612939453125</v>
+        <v>193.7847198486328</v>
       </c>
       <c r="J240">
-        <v>188.0040985107422</v>
+        <v>187.9676452636719</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -8851,19 +8851,19 @@
         <v>253</v>
       </c>
       <c r="B241">
-        <v>194.02242258765</v>
+        <v>191.7652986896417</v>
       </c>
       <c r="C241">
-        <v>194.5117883684032</v>
+        <v>191.9550589936385</v>
       </c>
       <c r="D241">
-        <v>191.6953901587997</v>
+        <v>189.3384027747614</v>
       </c>
       <c r="E241">
-        <v>192.1747741699219</v>
+        <v>191.4856567382812</v>
       </c>
       <c r="F241">
-        <v>44594000</v>
+        <v>47145600</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -8872,10 +8872,10 @@
         <v>0</v>
       </c>
       <c r="I241">
-        <v>193.7847198486328</v>
+        <v>193.353271484375</v>
       </c>
       <c r="J241">
-        <v>187.9676452636719</v>
+        <v>187.8752632141113</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -8883,19 +8883,19 @@
         <v>254</v>
       </c>
       <c r="B242">
-        <v>191.7652986896417</v>
+        <v>190.6966673703197</v>
       </c>
       <c r="C242">
-        <v>191.9550589936385</v>
+        <v>191.555571990795</v>
       </c>
       <c r="D242">
-        <v>189.3384027747614</v>
+        <v>187.2310883397439</v>
       </c>
       <c r="E242">
-        <v>191.4856567382812</v>
+        <v>187.8003540039062</v>
       </c>
       <c r="F242">
-        <v>47145600</v>
+        <v>55859400</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -8904,10 +8904,10 @@
         <v>0</v>
       </c>
       <c r="I242">
-        <v>193.353271484375</v>
+        <v>191.9270904541016</v>
       </c>
       <c r="J242">
-        <v>187.8752632141113</v>
+        <v>187.6510490417481</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -8915,19 +8915,19 @@
         <v>255</v>
       </c>
       <c r="B243">
-        <v>190.6966673703197</v>
+        <v>186.8016282425468</v>
       </c>
       <c r="C243">
-        <v>191.555571990795</v>
+        <v>186.8615645791857</v>
       </c>
       <c r="D243">
-        <v>187.2310883397439</v>
+        <v>184.1150691979485</v>
       </c>
       <c r="E243">
-        <v>187.8003540039062</v>
+        <v>184.1649932861328</v>
       </c>
       <c r="F243">
-        <v>55859400</v>
+        <v>55467800</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="I243">
-        <v>191.9270904541016</v>
+        <v>189.9096649169922</v>
       </c>
       <c r="J243">
-        <v>187.6510490417481</v>
+        <v>187.589128112793</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -8947,19 +8947,19 @@
         <v>256</v>
       </c>
       <c r="B244">
-        <v>186.8016282425468</v>
+        <v>183.7555342649372</v>
       </c>
       <c r="C244">
-        <v>186.8615645791857</v>
+        <v>186.711753597556</v>
       </c>
       <c r="D244">
-        <v>184.1150691979485</v>
+        <v>183.5857527364521</v>
       </c>
       <c r="E244">
-        <v>184.1649932861328</v>
+        <v>186.6218719482422</v>
       </c>
       <c r="F244">
-        <v>55467800</v>
+        <v>64885400</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -8968,10 +8968,10 @@
         <v>0</v>
       </c>
       <c r="I244">
-        <v>189.9096649169922</v>
+        <v>188.4495300292969</v>
       </c>
       <c r="J244">
-        <v>187.589128112793</v>
+        <v>187.7194618225098</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -8979,19 +8979,19 @@
         <v>257</v>
       </c>
       <c r="B245">
-        <v>183.7555342649372</v>
+        <v>179.6307873390829</v>
       </c>
       <c r="C245">
-        <v>186.711753597556</v>
+        <v>187.0912688032511</v>
       </c>
       <c r="D245">
-        <v>183.5857527364521</v>
+        <v>179.0215641124459</v>
       </c>
       <c r="E245">
-        <v>186.6218719482422</v>
+        <v>185.6131591796875</v>
       </c>
       <c r="F245">
-        <v>64885400</v>
+        <v>102518000</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -9000,10 +9000,19 @@
         <v>0</v>
       </c>
       <c r="I245">
-        <v>188.4495300292969</v>
+        <v>187.13720703125</v>
       </c>
       <c r="J245">
-        <v>187.7194618225098</v>
+        <v>187.9162109375</v>
+      </c>
+      <c r="L245">
+        <v>187.9102134030252</v>
+      </c>
+      <c r="M245">
+        <v>-7.260733253012802</v>
+      </c>
+      <c r="N245">
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -9011,19 +9020,19 @@
         <v>258</v>
       </c>
       <c r="B246">
-        <v>179.6307873390829</v>
+        <v>187.9102134030252</v>
       </c>
       <c r="C246">
-        <v>187.0912688032511</v>
+        <v>189.0088176462439</v>
       </c>
       <c r="D246">
-        <v>179.0215641124459</v>
+        <v>185.603159731609</v>
       </c>
       <c r="E246">
-        <v>185.6131591796875</v>
+        <v>187.4408111572266</v>
       </c>
       <c r="F246">
-        <v>102518000</v>
+        <v>69668800</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -9032,19 +9041,10 @@
         <v>0</v>
       </c>
       <c r="I246">
-        <v>187.13720703125</v>
+        <v>186.3282379150391</v>
       </c>
       <c r="J246">
-        <v>187.9162109375</v>
-      </c>
-      <c r="L246">
-        <v>187.9102134030252</v>
-      </c>
-      <c r="M246">
-        <v>-7.260733253012802</v>
-      </c>
-      <c r="N246">
-        <v>8</v>
+        <v>188.2407966613769</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -9052,19 +9052,19 @@
         <v>259</v>
       </c>
       <c r="B247">
-        <v>187.9102134030252</v>
+        <v>186.6218686625627</v>
       </c>
       <c r="C247">
-        <v>189.0088176462439</v>
+        <v>189.0687433666465</v>
       </c>
       <c r="D247">
-        <v>185.603159731609</v>
+        <v>186.5319870148314</v>
       </c>
       <c r="E247">
-        <v>187.4408111572266</v>
+        <v>189.0587615966797</v>
       </c>
       <c r="F247">
-        <v>69668800</v>
+        <v>43490800</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -9073,10 +9073,10 @@
         <v>0</v>
       </c>
       <c r="I247">
-        <v>186.3282379150391</v>
+        <v>186.5799194335937</v>
       </c>
       <c r="J247">
-        <v>188.2407966613769</v>
+        <v>188.4275588989258</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -9084,19 +9084,19 @@
         <v>260</v>
       </c>
       <c r="B248">
-        <v>186.6218686625627</v>
+        <v>190.3970531334899</v>
       </c>
       <c r="C248">
-        <v>189.0687433666465</v>
+        <v>190.8065342984578</v>
       </c>
       <c r="D248">
-        <v>186.5319870148314</v>
+        <v>188.3696413275722</v>
       </c>
       <c r="E248">
-        <v>189.0587615966797</v>
+        <v>189.1686248779297</v>
       </c>
       <c r="F248">
-        <v>43490800</v>
+        <v>53439000</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -9105,10 +9105,10 @@
         <v>0</v>
       </c>
       <c r="I248">
-        <v>186.5799194335937</v>
+        <v>187.5806457519531</v>
       </c>
       <c r="J248">
-        <v>188.4275588989258</v>
+        <v>188.6407875061035</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -9116,19 +9116,19 @@
         <v>261</v>
       </c>
       <c r="B249">
-        <v>190.3970531334899</v>
+        <v>189.148645584561</v>
       </c>
       <c r="C249">
-        <v>190.8065342984578</v>
+        <v>189.2984483326332</v>
       </c>
       <c r="D249">
-        <v>188.3696413275722</v>
+        <v>187.1112520140602</v>
       </c>
       <c r="E249">
-        <v>189.1686248779297</v>
+        <v>188.0800170898438</v>
       </c>
       <c r="F249">
-        <v>53439000</v>
+        <v>40962000</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -9137,10 +9137,10 @@
         <v>0</v>
       </c>
       <c r="I249">
-        <v>187.5806457519531</v>
+        <v>187.8722747802734</v>
       </c>
       <c r="J249">
-        <v>188.6407875061035</v>
+        <v>188.7471527099609</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -9148,31 +9148,31 @@
         <v>262</v>
       </c>
       <c r="B250">
-        <v>189.148645584561</v>
+        <v>188.6499938964844</v>
       </c>
       <c r="C250">
-        <v>189.2984483326332</v>
+        <v>189.9900054931641</v>
       </c>
       <c r="D250">
-        <v>187.1112520140602</v>
+        <v>188</v>
       </c>
       <c r="E250">
-        <v>188.0800170898438</v>
+        <v>188.8500061035156</v>
       </c>
       <c r="F250">
-        <v>40962000</v>
+        <v>45099900</v>
       </c>
       <c r="G250">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H250">
         <v>0</v>
       </c>
       <c r="I250">
-        <v>187.8722747802734</v>
+        <v>188.5196441650391</v>
       </c>
       <c r="J250">
-        <v>188.7471527099609</v>
+        <v>188.9219787597656</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -9180,31 +9180,31 @@
         <v>263</v>
       </c>
       <c r="B251">
-        <v>188.6499938964844</v>
+        <v>188.4199981689453</v>
       </c>
       <c r="C251">
-        <v>189.9900054931641</v>
+        <v>188.6699981689453</v>
       </c>
       <c r="D251">
-        <v>188</v>
+        <v>186.7899932861328</v>
       </c>
       <c r="E251">
-        <v>188.8500061035156</v>
+        <v>187.1499938964844</v>
       </c>
       <c r="F251">
-        <v>45099900</v>
+        <v>41781900</v>
       </c>
       <c r="G251">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H251">
         <v>0</v>
       </c>
       <c r="I251">
-        <v>188.5196441650391</v>
+        <v>188.4614807128906</v>
       </c>
       <c r="J251">
-        <v>188.9219787597656</v>
+        <v>188.9953254699707</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -9212,19 +9212,19 @@
         <v>264</v>
       </c>
       <c r="B252">
-        <v>188.4199981689453</v>
+        <v>185.7700042724609</v>
       </c>
       <c r="C252">
-        <v>188.6699981689453</v>
+        <v>186.2100067138672</v>
       </c>
       <c r="D252">
-        <v>186.7899932861328</v>
+        <v>183.5099945068359</v>
       </c>
       <c r="E252">
-        <v>187.1499938964844</v>
+        <v>185.0399932861328</v>
       </c>
       <c r="F252">
-        <v>41738500</v>
+        <v>56502200</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -9233,10 +9233,10 @@
         <v>0</v>
       </c>
       <c r="I252">
-        <v>188.4614807128906</v>
+        <v>187.6577270507813</v>
       </c>
       <c r="J252">
-        <v>188.9953254699707</v>
+        <v>189.0775260925293</v>
       </c>
     </row>
   </sheetData>
